--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96087800-7803-4B32-B97A-0F9EC8343F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9454C2-14C4-4E89-B09E-2A578029A169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
   <si>
     <t>slurm_num</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>IC2</t>
+  </si>
+  <si>
+    <t>Reduced equations</t>
+  </si>
+  <si>
+    <t>infinity</t>
   </si>
 </sst>
 </file>
@@ -246,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -261,9 +267,6 @@
     <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -952,40 +955,40 @@
       <c r="A19" s="1">
         <v>14760377</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19">
         <v>37000</v>
       </c>
-      <c r="C19" s="15">
-        <v>1</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="15">
-        <v>1</v>
-      </c>
-      <c r="F19" s="15">
-        <v>128</v>
-      </c>
-      <c r="G19" s="15">
-        <v>128</v>
-      </c>
-      <c r="H19" s="15">
-        <v>10</v>
-      </c>
-      <c r="I19" s="15">
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>128</v>
+      </c>
+      <c r="G19" s="8">
+        <v>128</v>
+      </c>
+      <c r="H19" s="8">
+        <v>10</v>
+      </c>
+      <c r="I19" s="8">
         <v>14739403</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="8">
         <v>14739403</v>
       </c>
-      <c r="K19" s="16">
-        <v>1E-3</v>
-      </c>
-      <c r="L19" s="15">
+      <c r="K19" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="L19" s="8">
         <v>20</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="8">
         <v>0.01</v>
       </c>
       <c r="N19" s="6" t="s">
@@ -1769,102 +1772,99 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
-      <c r="A42" t="s">
+    <row r="41" spans="1:14" s="6" customFormat="1">
+      <c r="A41" s="6">
+        <v>14878460</v>
+      </c>
+      <c r="B41" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6">
+        <v>256</v>
+      </c>
+      <c r="G41" s="6">
+        <v>256</v>
+      </c>
+      <c r="H41" s="6">
+        <v>10</v>
+      </c>
+      <c r="I41" s="6">
+        <v>10</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="M41" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="6" customFormat="1">
+      <c r="A42" s="6">
+        <v>14878462</v>
+      </c>
+      <c r="B42" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6">
+        <v>256</v>
+      </c>
+      <c r="G42" s="6">
+        <v>256</v>
+      </c>
+      <c r="H42" s="6">
+        <v>10</v>
+      </c>
+      <c r="I42" s="6">
+        <v>10</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0</v>
+      </c>
+      <c r="K42" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="M42" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="18.5">
-      <c r="A43" s="3">
-        <v>14680810</v>
-      </c>
-      <c r="B43" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>256</v>
-      </c>
-      <c r="G43">
-        <v>256</v>
-      </c>
-      <c r="H43">
-        <v>10</v>
-      </c>
-      <c r="I43" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" t="s">
-        <v>16</v>
-      </c>
-      <c r="K43" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="18.5">
-      <c r="A44" s="3">
-        <v>14672941</v>
-      </c>
-      <c r="B44" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>256</v>
-      </c>
-      <c r="G44">
-        <v>256</v>
-      </c>
-      <c r="H44">
-        <v>10</v>
-      </c>
-      <c r="I44">
-        <v>20</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N44" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="18.5">
       <c r="A45" s="3">
-        <v>14672942</v>
+        <v>14680810</v>
       </c>
       <c r="B45" s="2">
         <v>100000000</v>
@@ -1887,11 +1887,11 @@
       <c r="H45">
         <v>10</v>
       </c>
-      <c r="I45">
-        <v>30</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>16</v>
       </c>
       <c r="K45" s="2">
         <v>9.9999999999999995E-7</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="46" spans="1:14" ht="18.5">
       <c r="A46" s="3">
-        <v>14672943</v>
+        <v>14672941</v>
       </c>
       <c r="B46" s="2">
         <v>100000000</v>
@@ -1932,7 +1932,7 @@
         <v>10</v>
       </c>
       <c r="I46">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="47" spans="1:14" ht="18.5">
       <c r="A47" s="3">
-        <v>14672940</v>
+        <v>14672942</v>
       </c>
       <c r="B47" s="2">
         <v>100000000</v>
@@ -1976,10 +1976,10 @@
         <v>10</v>
       </c>
       <c r="I47">
-        <v>20</v>
-      </c>
-      <c r="J47" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
       </c>
       <c r="K47" s="2">
         <v>9.9999999999999995E-7</v>
@@ -1994,9 +1994,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="17.5">
-      <c r="A48" s="4">
-        <v>14671572</v>
+    <row r="48" spans="1:14" ht="18.5">
+      <c r="A48" s="3">
+        <v>14672943</v>
       </c>
       <c r="B48" s="2">
         <v>100000000</v>
@@ -2020,10 +2020,10 @@
         <v>10</v>
       </c>
       <c r="I48">
-        <v>20</v>
-      </c>
-      <c r="J48" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
       </c>
       <c r="K48" s="2">
         <v>9.9999999999999995E-7</v>
@@ -2034,13 +2034,13 @@
       <c r="M48" s="2">
         <v>1E-3</v>
       </c>
-      <c r="N48" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="17.5">
-      <c r="A49" s="4">
-        <v>14680814</v>
+      <c r="N48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="18.5">
+      <c r="A49" s="3">
+        <v>14672940</v>
       </c>
       <c r="B49" s="2">
         <v>100000000</v>
@@ -2064,7 +2064,7 @@
         <v>10</v>
       </c>
       <c r="I49">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J49" t="s">
         <v>14</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="50" spans="1:14" ht="17.5">
       <c r="A50" s="4">
-        <v>14671573</v>
+        <v>14671572</v>
       </c>
       <c r="B50" s="2">
         <v>100000000</v>
@@ -2108,7 +2108,7 @@
         <v>10</v>
       </c>
       <c r="I50">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J50" t="s">
         <v>14</v>
@@ -2123,94 +2123,195 @@
         <v>1E-3</v>
       </c>
       <c r="N50" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="17.5">
+      <c r="A51" s="4">
+        <v>14680814</v>
+      </c>
+      <c r="B51" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>256</v>
+      </c>
+      <c r="G51">
+        <v>256</v>
+      </c>
+      <c r="H51">
+        <v>10</v>
+      </c>
+      <c r="I51">
+        <v>30</v>
+      </c>
+      <c r="J51" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="17.5">
+      <c r="A52" s="4">
+        <v>14671573</v>
+      </c>
+      <c r="B52" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>256</v>
+      </c>
+      <c r="G52">
+        <v>256</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="I52">
+        <v>40</v>
+      </c>
+      <c r="J52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N52" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
-      <c r="A52" t="s">
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="6" customFormat="1" ht="18">
-      <c r="A53" s="13">
+    <row r="55" spans="1:14" s="6" customFormat="1" ht="18">
+      <c r="A55" s="13">
         <v>14762932</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B55" s="12">
         <v>100000000</v>
       </c>
-      <c r="C53" s="6">
-        <v>1</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="6">
-        <v>1</v>
-      </c>
-      <c r="F53" s="6">
+      <c r="C55" s="6">
+        <v>1</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1</v>
+      </c>
+      <c r="F55" s="6">
         <v>384</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G55" s="6">
         <v>384</v>
       </c>
-      <c r="H53" s="6">
-        <v>10</v>
-      </c>
-      <c r="I53" s="6">
-        <v>10</v>
-      </c>
-      <c r="J53" s="6">
+      <c r="H55" s="6">
+        <v>10</v>
+      </c>
+      <c r="I55" s="6">
+        <v>10</v>
+      </c>
+      <c r="J55" s="6">
         <v>0</v>
       </c>
-      <c r="K53" s="12">
+      <c r="K55" s="12">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L53" s="6">
-        <v>1</v>
-      </c>
-      <c r="M53" s="12">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" s="6" customFormat="1" ht="18">
-      <c r="A54" s="13">
+      <c r="L55" s="6">
+        <v>1</v>
+      </c>
+      <c r="M55" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="6" customFormat="1" ht="18">
+      <c r="A56" s="13">
         <v>14762935</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B56" s="12">
         <v>100000000</v>
       </c>
-      <c r="C54" s="6">
-        <v>1</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="6">
-        <v>1</v>
-      </c>
-      <c r="F54" s="6">
+      <c r="C56" s="6">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1</v>
+      </c>
+      <c r="F56" s="6">
         <v>512</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G56" s="6">
         <v>512</v>
       </c>
-      <c r="H54" s="6">
-        <v>10</v>
-      </c>
-      <c r="I54" s="6">
-        <v>10</v>
-      </c>
-      <c r="J54" s="6">
+      <c r="H56" s="6">
+        <v>10</v>
+      </c>
+      <c r="I56" s="6">
+        <v>10</v>
+      </c>
+      <c r="J56" s="6">
         <v>0</v>
       </c>
-      <c r="K54" s="12">
+      <c r="K56" s="12">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L54" s="6">
-        <v>1</v>
-      </c>
-      <c r="M54" s="12">
+      <c r="L56" s="6">
+        <v>1</v>
+      </c>
+      <c r="M56" s="12">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59">
+        <v>14</v>
+      </c>
+      <c r="B59" s="2">
+        <v>100000000</v>
       </c>
     </row>
   </sheetData>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9454C2-14C4-4E89-B09E-2A578029A169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59619E5A-E889-4E28-946D-50BC098FCAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="41" spans="1:14" s="6" customFormat="1">
       <c r="A41" s="6">
-        <v>14878460</v>
+        <v>14878470</v>
       </c>
       <c r="B41" s="12">
         <v>100000000</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="12">
-        <v>9.9999999999999995E-7</v>
+        <v>1E-8</v>
       </c>
       <c r="L41" s="6">
         <v>0.1</v>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59619E5A-E889-4E28-946D-50BC098FCAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D498A522-D4ED-4D37-82F2-985088D2B04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="49">
   <si>
     <t>slurm_num</t>
   </si>
@@ -174,6 +174,15 @@
   </si>
   <si>
     <t>infinity</t>
+  </si>
+  <si>
+    <t>nx_trunc_num=1, nz_trunc_num=2</t>
+  </si>
+  <si>
+    <t>nx_trunc_num=1, nz_trunc_num=2, with A_noise=0.01</t>
+  </si>
+  <si>
+    <t>nx_trunc_num=1, nz_trunc_num=1000</t>
   </si>
 </sst>
 </file>
@@ -547,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2314,6 +2323,417 @@
         <v>100000000</v>
       </c>
     </row>
+    <row r="61" spans="1:14">
+      <c r="A61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="1">
+        <v>14965608</v>
+      </c>
+      <c r="B62">
+        <v>30000</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>128</v>
+      </c>
+      <c r="G62">
+        <v>128</v>
+      </c>
+      <c r="H62">
+        <v>10</v>
+      </c>
+      <c r="I62">
+        <v>10</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L62">
+        <v>10</v>
+      </c>
+      <c r="M62">
+        <v>0.01</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="1">
+        <v>14965609</v>
+      </c>
+      <c r="B63">
+        <v>40000</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>128</v>
+      </c>
+      <c r="G63">
+        <v>128</v>
+      </c>
+      <c r="H63">
+        <v>10</v>
+      </c>
+      <c r="I63">
+        <v>10</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L63">
+        <v>10</v>
+      </c>
+      <c r="M63">
+        <v>0.01</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="1">
+        <v>14965611</v>
+      </c>
+      <c r="B64">
+        <v>60000</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>128</v>
+      </c>
+      <c r="G64">
+        <v>128</v>
+      </c>
+      <c r="H64">
+        <v>10</v>
+      </c>
+      <c r="I64">
+        <v>10</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L64">
+        <v>10</v>
+      </c>
+      <c r="M64">
+        <v>0.01</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="1">
+        <v>14965912</v>
+      </c>
+      <c r="B67">
+        <v>30000</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>128</v>
+      </c>
+      <c r="G67">
+        <v>128</v>
+      </c>
+      <c r="H67">
+        <v>10</v>
+      </c>
+      <c r="I67">
+        <v>10</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L67">
+        <v>10</v>
+      </c>
+      <c r="M67">
+        <v>0.01</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="1">
+        <v>14965914</v>
+      </c>
+      <c r="B68">
+        <v>40000</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>128</v>
+      </c>
+      <c r="G68">
+        <v>128</v>
+      </c>
+      <c r="H68">
+        <v>10</v>
+      </c>
+      <c r="I68">
+        <v>10</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L68">
+        <v>10</v>
+      </c>
+      <c r="M68">
+        <v>0.01</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="1">
+        <v>14965915</v>
+      </c>
+      <c r="B69">
+        <v>60000</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>128</v>
+      </c>
+      <c r="G69">
+        <v>128</v>
+      </c>
+      <c r="H69">
+        <v>10</v>
+      </c>
+      <c r="I69">
+        <v>10</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L69">
+        <v>10</v>
+      </c>
+      <c r="M69">
+        <v>0.01</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="1">
+        <v>14965918</v>
+      </c>
+      <c r="B72">
+        <v>30000</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>128</v>
+      </c>
+      <c r="G72">
+        <v>128</v>
+      </c>
+      <c r="H72">
+        <v>10</v>
+      </c>
+      <c r="I72">
+        <v>10</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L72">
+        <v>10</v>
+      </c>
+      <c r="M72">
+        <v>0.01</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="1">
+        <v>14965919</v>
+      </c>
+      <c r="B73">
+        <v>40000</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>128</v>
+      </c>
+      <c r="G73">
+        <v>128</v>
+      </c>
+      <c r="H73">
+        <v>10</v>
+      </c>
+      <c r="I73">
+        <v>10</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L73">
+        <v>10</v>
+      </c>
+      <c r="M73">
+        <v>0.01</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="1">
+        <v>14965920</v>
+      </c>
+      <c r="B74">
+        <v>60000</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>128</v>
+      </c>
+      <c r="G74">
+        <v>128</v>
+      </c>
+      <c r="H74">
+        <v>10</v>
+      </c>
+      <c r="I74">
+        <v>10</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L74">
+        <v>10</v>
+      </c>
+      <c r="M74">
+        <v>0.01</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D498A522-D4ED-4D37-82F2-985088D2B04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565945CB-AB25-424C-BEA4-6E39FC610630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
   <si>
     <t>slurm_num</t>
   </si>
@@ -183,6 +183,33 @@
   </si>
   <si>
     <t>nx_trunc_num=1, nz_trunc_num=1000</t>
+  </si>
+  <si>
+    <t>Test viscous scaling</t>
+  </si>
+  <si>
+    <t>Normal thermal diffusivity scaling</t>
+  </si>
+  <si>
+    <t>Viscous scaling</t>
+  </si>
+  <si>
+    <t>flag.Re=1/flag.Pr, flag.Pe_T=1</t>
+  </si>
+  <si>
+    <t>flag.Re=1, flag.Pe_T=flag.Pr</t>
+  </si>
+  <si>
+    <t>0.001*flag.Pr</t>
+  </si>
+  <si>
+    <t>10*flag.Pr</t>
+  </si>
+  <si>
+    <t>0.01*flag.Pr</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -235,7 +262,7 @@
       <name val="Unset"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +272,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -276,6 +309,7 @@
     <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2734,6 +2768,281 @@
         <v>23</v>
       </c>
     </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="14">
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79">
+        <v>15127911</v>
+      </c>
+      <c r="B79">
+        <v>60000</v>
+      </c>
+      <c r="C79" t="s">
+        <v>57</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>128</v>
+      </c>
+      <c r="G79">
+        <v>128</v>
+      </c>
+      <c r="H79">
+        <v>10</v>
+      </c>
+      <c r="I79">
+        <v>10</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L79">
+        <v>10</v>
+      </c>
+      <c r="M79">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80">
+        <v>15127861</v>
+      </c>
+      <c r="B80">
+        <v>60000</v>
+      </c>
+      <c r="C80">
+        <v>0.01</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>128</v>
+      </c>
+      <c r="G80">
+        <v>128</v>
+      </c>
+      <c r="H80">
+        <v>10</v>
+      </c>
+      <c r="I80">
+        <v>10</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L80">
+        <v>10</v>
+      </c>
+      <c r="M80">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81">
+        <v>15127917</v>
+      </c>
+      <c r="B81" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>256</v>
+      </c>
+      <c r="G81">
+        <v>256</v>
+      </c>
+      <c r="H81">
+        <v>10</v>
+      </c>
+      <c r="I81">
+        <v>10</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L81">
+        <v>0.1</v>
+      </c>
+      <c r="M81" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="K82" s="2"/>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84">
+        <v>15127953</v>
+      </c>
+      <c r="B84">
+        <v>60000</v>
+      </c>
+      <c r="C84">
+        <v>0.01</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>128</v>
+      </c>
+      <c r="G84">
+        <v>128</v>
+      </c>
+      <c r="H84">
+        <v>10</v>
+      </c>
+      <c r="I84">
+        <v>10</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L84" t="s">
+        <v>55</v>
+      </c>
+      <c r="M84" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85">
+        <v>15130729</v>
+      </c>
+      <c r="B85">
+        <v>60000</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>128</v>
+      </c>
+      <c r="G85">
+        <v>128</v>
+      </c>
+      <c r="H85">
+        <v>10</v>
+      </c>
+      <c r="I85">
+        <v>10</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L85">
+        <v>10</v>
+      </c>
+      <c r="M85">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86">
+        <v>15127956</v>
+      </c>
+      <c r="B86" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>256</v>
+      </c>
+      <c r="G86">
+        <v>256</v>
+      </c>
+      <c r="H86">
+        <v>10</v>
+      </c>
+      <c r="I86">
+        <v>10</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1E-10</v>
+      </c>
+      <c r="L86">
+        <v>0.1</v>
+      </c>
+      <c r="M86" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565945CB-AB25-424C-BEA4-6E39FC610630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6372ECAC-3D1D-48CB-9C7B-47C0777FDE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81">
-        <v>15127917</v>
+        <v>15131602</v>
       </c>
       <c r="B81" s="2">
         <v>100000000</v>
@@ -2903,7 +2903,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="L81">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M81" s="2">
         <v>1E-3</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86">
-        <v>15127956</v>
+        <v>15132168</v>
       </c>
       <c r="B86" s="2">
         <v>100000000</v>
@@ -3037,7 +3037,7 @@
         <v>1E-10</v>
       </c>
       <c r="L86">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M86" s="2">
         <v>1E-3</v>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6372ECAC-3D1D-48CB-9C7B-47C0777FDE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1526CC-3CAF-4225-AFC2-E201BFAA500E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="62">
   <si>
     <t>slurm_num</t>
   </si>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>inf</t>
+  </si>
+  <si>
+    <t>test truncation model</t>
+  </si>
+  <si>
+    <t>nx_trunc_num=1, nz_trunc_num=0</t>
+  </si>
+  <si>
+    <t>nx_trunc_num=0, nz_trunc_num=2</t>
+  </si>
+  <si>
+    <t>viscous scaling</t>
   </si>
 </sst>
 </file>
@@ -294,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -309,7 +321,10 @@
     <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2769,7 +2784,7 @@
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="14">
+      <c r="A76" s="15">
         <v>44983</v>
       </c>
     </row>
@@ -2868,44 +2883,44 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
-      <c r="A81">
+    <row r="81" spans="1:13" s="8" customFormat="1">
+      <c r="A81" s="8">
         <v>15131602</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="9">
         <v>100000000</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D81" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>256</v>
-      </c>
-      <c r="G81">
-        <v>256</v>
-      </c>
-      <c r="H81">
-        <v>10</v>
-      </c>
-      <c r="I81">
-        <v>10</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-      <c r="M81" s="2">
+      <c r="D81" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="8">
+        <v>1</v>
+      </c>
+      <c r="F81" s="8">
+        <v>256</v>
+      </c>
+      <c r="G81" s="8">
+        <v>256</v>
+      </c>
+      <c r="H81" s="8">
+        <v>10</v>
+      </c>
+      <c r="I81" s="8">
+        <v>10</v>
+      </c>
+      <c r="J81" s="8">
+        <v>0</v>
+      </c>
+      <c r="K81" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="L81" s="8">
+        <v>1</v>
+      </c>
+      <c r="M81" s="9">
         <v>1E-3</v>
       </c>
     </row>
@@ -3034,13 +3049,508 @@
         <v>0</v>
       </c>
       <c r="K86" s="2">
-        <v>1E-10</v>
+        <v>1E-8</v>
       </c>
       <c r="L86">
         <v>1</v>
       </c>
       <c r="M86" s="2">
         <v>1E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87">
+        <v>15140639</v>
+      </c>
+      <c r="B87" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>256</v>
+      </c>
+      <c r="G87">
+        <v>256</v>
+      </c>
+      <c r="H87">
+        <v>10</v>
+      </c>
+      <c r="I87">
+        <v>10</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2">
+        <v>1E-8</v>
+      </c>
+      <c r="L87" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M87" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" s="16" customFormat="1">
+      <c r="A88" s="16">
+        <v>15144596</v>
+      </c>
+      <c r="B88" s="17">
+        <v>100000000</v>
+      </c>
+      <c r="C88" s="16">
+        <v>0</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="16">
+        <v>1</v>
+      </c>
+      <c r="F88" s="16">
+        <v>256</v>
+      </c>
+      <c r="G88" s="16">
+        <v>256</v>
+      </c>
+      <c r="H88" s="16">
+        <v>10</v>
+      </c>
+      <c r="I88" s="16">
+        <v>10</v>
+      </c>
+      <c r="J88" s="16">
+        <v>0</v>
+      </c>
+      <c r="K88" s="17">
+        <v>1E-8</v>
+      </c>
+      <c r="L88" s="17">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="M88" s="17">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" s="8" customFormat="1">
+      <c r="A89" s="8">
+        <v>15142489</v>
+      </c>
+      <c r="B89" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="C89" s="8">
+        <v>0</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="8">
+        <v>1</v>
+      </c>
+      <c r="F89" s="8">
+        <v>256</v>
+      </c>
+      <c r="G89" s="8">
+        <v>256</v>
+      </c>
+      <c r="H89" s="8">
+        <v>10</v>
+      </c>
+      <c r="I89" s="8">
+        <v>10</v>
+      </c>
+      <c r="J89" s="8">
+        <v>0</v>
+      </c>
+      <c r="K89" s="9">
+        <v>1E-8</v>
+      </c>
+      <c r="L89" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="M89" s="9">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="B90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="14">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94">
+        <v>15136552</v>
+      </c>
+      <c r="B94">
+        <v>40000</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>128</v>
+      </c>
+      <c r="G94">
+        <v>128</v>
+      </c>
+      <c r="H94">
+        <v>10</v>
+      </c>
+      <c r="I94">
+        <v>10</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L94">
+        <v>10</v>
+      </c>
+      <c r="M94">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95">
+        <v>15136553</v>
+      </c>
+      <c r="B95">
+        <v>60000</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>128</v>
+      </c>
+      <c r="G95">
+        <v>128</v>
+      </c>
+      <c r="H95">
+        <v>10</v>
+      </c>
+      <c r="I95">
+        <v>10</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L95">
+        <v>10</v>
+      </c>
+      <c r="M95">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="8" customFormat="1">
+      <c r="A96" s="8">
+        <v>15142501</v>
+      </c>
+      <c r="B96" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="C96" s="8">
+        <v>1</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="8">
+        <v>1</v>
+      </c>
+      <c r="F96" s="8">
+        <v>256</v>
+      </c>
+      <c r="G96" s="8">
+        <v>16</v>
+      </c>
+      <c r="H96" s="8">
+        <v>10</v>
+      </c>
+      <c r="I96" s="8">
+        <v>10</v>
+      </c>
+      <c r="J96" s="8">
+        <v>0</v>
+      </c>
+      <c r="K96" s="9">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L96" s="8">
+        <v>1</v>
+      </c>
+      <c r="M96" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" s="16" customFormat="1">
+      <c r="A97" s="16">
+        <v>15144616</v>
+      </c>
+      <c r="B97" s="17">
+        <v>100000000</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="16">
+        <v>1</v>
+      </c>
+      <c r="F97" s="16">
+        <v>256</v>
+      </c>
+      <c r="G97" s="16">
+        <v>16</v>
+      </c>
+      <c r="H97" s="16">
+        <v>10</v>
+      </c>
+      <c r="I97" s="16">
+        <v>10</v>
+      </c>
+      <c r="J97" s="16">
+        <v>0</v>
+      </c>
+      <c r="K97" s="17">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L97" s="16">
+        <v>1</v>
+      </c>
+      <c r="M97" s="16">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="8" customFormat="1">
+      <c r="B98" s="9"/>
+      <c r="K98" s="9"/>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="16">
+        <v>15144604</v>
+      </c>
+      <c r="B100" s="17">
+        <v>100000000</v>
+      </c>
+      <c r="C100" s="16">
+        <v>0</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="16">
+        <v>1</v>
+      </c>
+      <c r="F100" s="16">
+        <v>256</v>
+      </c>
+      <c r="G100" s="16">
+        <v>256</v>
+      </c>
+      <c r="H100" s="16">
+        <v>10</v>
+      </c>
+      <c r="I100" s="16">
+        <v>10</v>
+      </c>
+      <c r="J100" s="16">
+        <v>0</v>
+      </c>
+      <c r="K100" s="17">
+        <v>1E-8</v>
+      </c>
+      <c r="L100" s="17">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="M100" s="17">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="B101" s="2"/>
+      <c r="K101" s="2"/>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="B102">
+        <v>40000</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>32</v>
+      </c>
+      <c r="G102">
+        <v>32</v>
+      </c>
+      <c r="H102">
+        <v>10</v>
+      </c>
+      <c r="I102">
+        <v>10</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L102">
+        <v>1000</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103">
+        <v>15135104</v>
+      </c>
+      <c r="B103">
+        <v>60000</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>32</v>
+      </c>
+      <c r="G103">
+        <v>32</v>
+      </c>
+      <c r="H103">
+        <v>10</v>
+      </c>
+      <c r="I103">
+        <v>10</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L103">
+        <v>1000</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="K104" s="2"/>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="K105" s="2"/>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107">
+        <v>15135106</v>
+      </c>
+      <c r="B107">
+        <v>60000</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>32</v>
+      </c>
+      <c r="G107">
+        <v>32</v>
+      </c>
+      <c r="H107">
+        <v>10</v>
+      </c>
+      <c r="I107">
+        <v>10</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L107">
+        <v>1000</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1526CC-3CAF-4225-AFC2-E201BFAA500E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA8E2CE-AF16-47A1-9DED-C97337FF6075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="62">
   <si>
     <t>slurm_num</t>
   </si>
@@ -605,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1473,500 +1473,258 @@
     </row>
     <row r="30" spans="1:16" s="6" customFormat="1">
       <c r="A30" s="5"/>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="1"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="1:16" s="6" customFormat="1">
+      <c r="A31" s="5"/>
+      <c r="B31">
+        <v>42000</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>128</v>
+      </c>
+      <c r="G31">
+        <v>128</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="M31">
+        <v>0.01</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="6" customFormat="1">
+      <c r="A32" s="5"/>
+      <c r="B32">
+        <v>44000</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32" s="2"/>
+      <c r="L32"/>
+      <c r="M32"/>
+    </row>
+    <row r="33" spans="1:14" s="6" customFormat="1">
+      <c r="A33" s="5"/>
+      <c r="B33">
+        <v>46000</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33" s="2"/>
+      <c r="L33"/>
+      <c r="M33"/>
+    </row>
+    <row r="34" spans="1:14" s="6" customFormat="1">
+      <c r="A34" s="5"/>
+      <c r="B34">
+        <v>48000</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34" s="2"/>
+      <c r="L34"/>
+      <c r="M34"/>
+    </row>
+    <row r="35" spans="1:14" s="6" customFormat="1">
+      <c r="A35" s="5"/>
+      <c r="B35">
+        <v>50000</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35" s="2"/>
+      <c r="L35"/>
+      <c r="M35"/>
+    </row>
+    <row r="36" spans="1:14" s="6" customFormat="1">
+      <c r="A36" s="5"/>
+      <c r="B36">
+        <v>52000</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36" s="2"/>
+      <c r="L36"/>
+      <c r="M36"/>
+    </row>
+    <row r="37" spans="1:14" s="6" customFormat="1">
+      <c r="A37" s="5"/>
+      <c r="B37">
+        <v>54000</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37" s="2"/>
+      <c r="L37"/>
+      <c r="M37"/>
+    </row>
+    <row r="38" spans="1:14" s="6" customFormat="1">
+      <c r="A38" s="5"/>
+      <c r="B38">
+        <v>56000</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38" s="2"/>
+      <c r="L38"/>
+      <c r="M38"/>
+    </row>
+    <row r="39" spans="1:14" s="6" customFormat="1">
+      <c r="A39" s="5"/>
+      <c r="B39">
+        <v>58000</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39" s="2"/>
+      <c r="L39"/>
+      <c r="M39"/>
+    </row>
+    <row r="40" spans="1:14" s="6" customFormat="1">
+      <c r="A40" s="5"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40" s="2"/>
+      <c r="L40"/>
+      <c r="M40"/>
+    </row>
+    <row r="41" spans="1:14" s="6" customFormat="1">
+      <c r="A41" s="5"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41" s="2"/>
+      <c r="L41"/>
+      <c r="M41"/>
+    </row>
+    <row r="42" spans="1:14" s="6" customFormat="1">
+      <c r="A42" s="5"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42" s="2"/>
+      <c r="L42"/>
+      <c r="M42"/>
+    </row>
+    <row r="43" spans="1:14" s="6" customFormat="1">
+      <c r="A43" s="5"/>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="1"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="18.5">
-      <c r="A33" s="3">
-        <v>14673046</v>
-      </c>
-      <c r="B33" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>256</v>
-      </c>
-      <c r="G33">
-        <v>256</v>
-      </c>
-      <c r="H33">
-        <v>10</v>
-      </c>
-      <c r="I33">
-        <v>10</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="18.5">
-      <c r="A34" s="3">
-        <v>14673047</v>
-      </c>
-      <c r="B34" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C34">
-        <v>0.01</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>256</v>
-      </c>
-      <c r="G34">
-        <v>256</v>
-      </c>
-      <c r="H34">
-        <v>10</v>
-      </c>
-      <c r="I34">
-        <v>10</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="18.5">
-      <c r="A35" s="3">
-        <v>14768718</v>
-      </c>
-      <c r="B35" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C35">
-        <v>0.02</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>256</v>
-      </c>
-      <c r="G35">
-        <v>256</v>
-      </c>
-      <c r="H35">
-        <v>10</v>
-      </c>
-      <c r="I35">
-        <v>10</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="18.5">
-      <c r="A36" s="3">
-        <v>14680791</v>
-      </c>
-      <c r="B36" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C36">
-        <v>0.03</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>256</v>
-      </c>
-      <c r="G36">
-        <v>256</v>
-      </c>
-      <c r="H36">
-        <v>10</v>
-      </c>
-      <c r="I36">
-        <v>10</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="18.5">
-      <c r="A37" s="3">
-        <v>14741869</v>
-      </c>
-      <c r="B37" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C37">
-        <v>0.03</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>256</v>
-      </c>
-      <c r="G37">
-        <v>256</v>
-      </c>
-      <c r="H37">
-        <v>10</v>
-      </c>
-      <c r="I37">
-        <v>14680791</v>
-      </c>
-      <c r="J37">
-        <v>14680791</v>
-      </c>
-      <c r="K37" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L37">
-        <v>3</v>
-      </c>
-      <c r="M37" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="18.5">
-      <c r="A38" s="3">
-        <v>14673849</v>
-      </c>
-      <c r="B38" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C38">
-        <v>0.1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>256</v>
-      </c>
-      <c r="G38">
-        <v>256</v>
-      </c>
-      <c r="H38">
-        <v>10</v>
-      </c>
-      <c r="I38">
-        <v>10</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="18.5">
-      <c r="A39" s="3">
-        <v>14673048</v>
-      </c>
-      <c r="B39" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C39">
-        <v>70</v>
-      </c>
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>256</v>
-      </c>
-      <c r="G39">
-        <v>256</v>
-      </c>
-      <c r="H39">
-        <v>10</v>
-      </c>
-      <c r="I39">
-        <v>10</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="18.5">
-      <c r="A40" s="3">
-        <v>14673049</v>
-      </c>
-      <c r="B40" s="2">
-        <v>800000000</v>
-      </c>
-      <c r="C40">
-        <v>700</v>
-      </c>
-      <c r="D40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>256</v>
-      </c>
-      <c r="G40">
-        <v>256</v>
-      </c>
-      <c r="H40">
-        <v>20</v>
-      </c>
-      <c r="I40">
-        <v>20</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="6" customFormat="1">
-      <c r="A41" s="6">
-        <v>14878470</v>
-      </c>
-      <c r="B41" s="12">
-        <v>100000000</v>
-      </c>
-      <c r="C41" s="6">
-        <v>0</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1</v>
-      </c>
-      <c r="F41" s="6">
-        <v>256</v>
-      </c>
-      <c r="G41" s="6">
-        <v>256</v>
-      </c>
-      <c r="H41" s="6">
-        <v>10</v>
-      </c>
-      <c r="I41" s="6">
-        <v>10</v>
-      </c>
-      <c r="J41" s="6">
-        <v>0</v>
-      </c>
-      <c r="K41" s="12">
-        <v>1E-8</v>
-      </c>
-      <c r="L41" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="M41" s="12">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" s="6" customFormat="1">
-      <c r="A42" s="6">
-        <v>14878462</v>
-      </c>
-      <c r="B42" s="12">
-        <v>100000000</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="6">
-        <v>1</v>
-      </c>
-      <c r="F42" s="6">
-        <v>256</v>
-      </c>
-      <c r="G42" s="6">
-        <v>256</v>
-      </c>
-      <c r="H42" s="6">
-        <v>10</v>
-      </c>
-      <c r="I42" s="6">
-        <v>10</v>
-      </c>
-      <c r="J42" s="6">
-        <v>0</v>
-      </c>
-      <c r="K42" s="12">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L42" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="M42" s="12">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="18.5">
-      <c r="A45" s="3">
-        <v>14680810</v>
-      </c>
-      <c r="B45" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>256</v>
-      </c>
-      <c r="G45">
-        <v>256</v>
-      </c>
-      <c r="H45">
-        <v>10</v>
-      </c>
-      <c r="I45" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N45" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="18.5">
       <c r="A46" s="3">
-        <v>14672941</v>
+        <v>14673046</v>
       </c>
       <c r="B46" s="2">
         <v>100000000</v>
@@ -1990,7 +1748,7 @@
         <v>10</v>
       </c>
       <c r="I46">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2005,18 +1763,18 @@
         <v>1E-3</v>
       </c>
       <c r="N46" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="18.5">
       <c r="A47" s="3">
-        <v>14672942</v>
+        <v>14673047</v>
       </c>
       <c r="B47" s="2">
         <v>100000000</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
@@ -2034,7 +1792,7 @@
         <v>10</v>
       </c>
       <c r="I47">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2049,18 +1807,18 @@
         <v>1E-3</v>
       </c>
       <c r="N47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="18.5">
       <c r="A48" s="3">
-        <v>14672943</v>
+        <v>14768718</v>
       </c>
       <c r="B48" s="2">
         <v>100000000</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -2078,7 +1836,7 @@
         <v>10</v>
       </c>
       <c r="I48">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2092,19 +1850,16 @@
       <c r="M48" s="2">
         <v>1E-3</v>
       </c>
-      <c r="N48" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="49" spans="1:14" ht="18.5">
       <c r="A49" s="3">
-        <v>14672940</v>
+        <v>14680791</v>
       </c>
       <c r="B49" s="2">
         <v>100000000</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
@@ -2122,10 +1877,10 @@
         <v>10</v>
       </c>
       <c r="I49">
-        <v>20</v>
-      </c>
-      <c r="J49" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
       </c>
       <c r="K49" s="2">
         <v>9.9999999999999995E-7</v>
@@ -2136,19 +1891,19 @@
       <c r="M49" s="2">
         <v>1E-3</v>
       </c>
-      <c r="N49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="17.5">
-      <c r="A50" s="4">
-        <v>14671572</v>
+      <c r="N49" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="18.5">
+      <c r="A50" s="3">
+        <v>14741869</v>
       </c>
       <c r="B50" s="2">
         <v>100000000</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -2166,33 +1921,33 @@
         <v>10</v>
       </c>
       <c r="I50">
-        <v>20</v>
-      </c>
-      <c r="J50" t="s">
-        <v>14</v>
+        <v>14680791</v>
+      </c>
+      <c r="J50">
+        <v>14680791</v>
       </c>
       <c r="K50" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M50" s="2">
         <v>1E-3</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="17.5">
-      <c r="A51" s="4">
-        <v>14680814</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="18.5">
+      <c r="A51" s="3">
+        <v>14673849</v>
       </c>
       <c r="B51" s="2">
         <v>100000000</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D51" t="s">
         <v>13</v>
@@ -2210,10 +1965,10 @@
         <v>10</v>
       </c>
       <c r="I51">
-        <v>30</v>
-      </c>
-      <c r="J51" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
       </c>
       <c r="K51" s="2">
         <v>9.9999999999999995E-7</v>
@@ -2224,19 +1979,16 @@
       <c r="M51" s="2">
         <v>1E-3</v>
       </c>
-      <c r="N51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="17.5">
-      <c r="A52" s="4">
-        <v>14671573</v>
+    </row>
+    <row r="52" spans="1:14" ht="18.5">
+      <c r="A52" s="3">
+        <v>14673048</v>
       </c>
       <c r="B52" s="2">
         <v>100000000</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -2254,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="I52">
-        <v>40</v>
-      </c>
-      <c r="J52" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
       </c>
       <c r="K52" s="2">
         <v>9.9999999999999995E-7</v>
@@ -2269,23 +2021,103 @@
         <v>1E-3</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" s="6" customFormat="1" ht="18">
-      <c r="A55" s="13">
-        <v>14762932</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="18.5">
+      <c r="A53" s="3">
+        <v>14673049</v>
+      </c>
+      <c r="B53" s="2">
+        <v>800000000</v>
+      </c>
+      <c r="C53">
+        <v>700</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>256</v>
+      </c>
+      <c r="G53">
+        <v>256</v>
+      </c>
+      <c r="H53">
+        <v>20</v>
+      </c>
+      <c r="I53">
+        <v>20</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="6" customFormat="1">
+      <c r="A54" s="6">
+        <v>14878470</v>
+      </c>
+      <c r="B54" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+      <c r="F54" s="6">
+        <v>256</v>
+      </c>
+      <c r="G54" s="6">
+        <v>256</v>
+      </c>
+      <c r="H54" s="6">
+        <v>10</v>
+      </c>
+      <c r="I54" s="6">
+        <v>10</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0</v>
+      </c>
+      <c r="K54" s="12">
+        <v>1E-8</v>
+      </c>
+      <c r="L54" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="M54" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="6" customFormat="1">
+      <c r="A55" s="6">
+        <v>14878462</v>
       </c>
       <c r="B55" s="12">
         <v>100000000</v>
       </c>
-      <c r="C55" s="6">
-        <v>1</v>
+      <c r="C55" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>13</v>
@@ -2294,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="6">
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="G55" s="6">
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="H55" s="6">
         <v>10</v>
@@ -2312,77 +2144,202 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="L55" s="6">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M55" s="12">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="6" customFormat="1" ht="18">
-      <c r="A56" s="13">
-        <v>14762935</v>
-      </c>
-      <c r="B56" s="12">
+    <row r="56" spans="1:14">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="18.5">
+      <c r="A58" s="3">
+        <v>14680810</v>
+      </c>
+      <c r="B58" s="2">
         <v>100000000</v>
       </c>
-      <c r="C56" s="6">
-        <v>1</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="6">
-        <v>1</v>
-      </c>
-      <c r="F56" s="6">
-        <v>512</v>
-      </c>
-      <c r="G56" s="6">
-        <v>512</v>
-      </c>
-      <c r="H56" s="6">
-        <v>10</v>
-      </c>
-      <c r="I56" s="6">
-        <v>10</v>
-      </c>
-      <c r="J56" s="6">
-        <v>0</v>
-      </c>
-      <c r="K56" s="12">
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>256</v>
+      </c>
+      <c r="G58">
+        <v>256</v>
+      </c>
+      <c r="H58">
+        <v>10</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L56" s="6">
-        <v>1</v>
-      </c>
-      <c r="M56" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59">
-        <v>14</v>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="18.5">
+      <c r="A59" s="3">
+        <v>14672941</v>
       </c>
       <c r="B59" s="2">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="1">
-        <v>14965608</v>
-      </c>
-      <c r="B62">
-        <v>30000</v>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>256</v>
+      </c>
+      <c r="G59">
+        <v>256</v>
+      </c>
+      <c r="H59">
+        <v>10</v>
+      </c>
+      <c r="I59">
+        <v>20</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="18.5">
+      <c r="A60" s="3">
+        <v>14672942</v>
+      </c>
+      <c r="B60" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>256</v>
+      </c>
+      <c r="G60">
+        <v>256</v>
+      </c>
+      <c r="H60">
+        <v>10</v>
+      </c>
+      <c r="I60">
+        <v>30</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="18.5">
+      <c r="A61" s="3">
+        <v>14672943</v>
+      </c>
+      <c r="B61" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>256</v>
+      </c>
+      <c r="G61">
+        <v>256</v>
+      </c>
+      <c r="H61">
+        <v>10</v>
+      </c>
+      <c r="I61">
+        <v>40</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="18.5">
+      <c r="A62" s="3">
+        <v>14672940</v>
+      </c>
+      <c r="B62" s="2">
+        <v>100000000</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2394,463 +2351,416 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="G62">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H62">
         <v>10</v>
       </c>
       <c r="I62">
-        <v>10</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="J62" t="s">
+        <v>14</v>
       </c>
       <c r="K62" s="2">
-        <v>1E-3</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="L62">
-        <v>10</v>
-      </c>
-      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="M62" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="17.5">
+      <c r="A63" s="4">
+        <v>14671572</v>
+      </c>
+      <c r="B63" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>256</v>
+      </c>
+      <c r="G63">
+        <v>256</v>
+      </c>
+      <c r="H63">
+        <v>10</v>
+      </c>
+      <c r="I63">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="17.5">
+      <c r="A64" s="4">
+        <v>14680814</v>
+      </c>
+      <c r="B64" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>256</v>
+      </c>
+      <c r="G64">
+        <v>256</v>
+      </c>
+      <c r="H64">
+        <v>10</v>
+      </c>
+      <c r="I64">
+        <v>30</v>
+      </c>
+      <c r="J64" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="17.5">
+      <c r="A65" s="4">
+        <v>14671573</v>
+      </c>
+      <c r="B65" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>256</v>
+      </c>
+      <c r="G65">
+        <v>256</v>
+      </c>
+      <c r="H65">
+        <v>10</v>
+      </c>
+      <c r="I65">
+        <v>40</v>
+      </c>
+      <c r="J65" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="6" customFormat="1" ht="18">
+      <c r="A68" s="13">
+        <v>14762932</v>
+      </c>
+      <c r="B68" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="C68" s="6">
+        <v>1</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
+      <c r="F68" s="6">
+        <v>384</v>
+      </c>
+      <c r="G68" s="6">
+        <v>384</v>
+      </c>
+      <c r="H68" s="6">
+        <v>10</v>
+      </c>
+      <c r="I68" s="6">
+        <v>10</v>
+      </c>
+      <c r="J68" s="6">
+        <v>0</v>
+      </c>
+      <c r="K68" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L68" s="6">
+        <v>1</v>
+      </c>
+      <c r="M68" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="6" customFormat="1" ht="18">
+      <c r="A69" s="13">
+        <v>14762935</v>
+      </c>
+      <c r="B69" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="C69" s="6">
+        <v>1</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="6">
+        <v>1</v>
+      </c>
+      <c r="F69" s="6">
+        <v>512</v>
+      </c>
+      <c r="G69" s="6">
+        <v>512</v>
+      </c>
+      <c r="H69" s="6">
+        <v>10</v>
+      </c>
+      <c r="I69" s="6">
+        <v>10</v>
+      </c>
+      <c r="J69" s="6">
+        <v>0</v>
+      </c>
+      <c r="K69" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L69" s="6">
+        <v>1</v>
+      </c>
+      <c r="M69" s="12">
         <v>0.01</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="1">
-        <v>14965609</v>
-      </c>
-      <c r="B63">
-        <v>40000</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>128</v>
-      </c>
-      <c r="G63">
-        <v>128</v>
-      </c>
-      <c r="H63">
-        <v>10</v>
-      </c>
-      <c r="I63">
-        <v>10</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L63">
-        <v>10</v>
-      </c>
-      <c r="M63">
-        <v>0.01</v>
-      </c>
-      <c r="N63" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="1">
-        <v>14965611</v>
-      </c>
-      <c r="B64">
-        <v>60000</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>128</v>
-      </c>
-      <c r="G64">
-        <v>128</v>
-      </c>
-      <c r="H64">
-        <v>10</v>
-      </c>
-      <c r="I64">
-        <v>10</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L64">
-        <v>10</v>
-      </c>
-      <c r="M64">
-        <v>0.01</v>
-      </c>
-      <c r="N64" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="1">
-        <v>14965912</v>
-      </c>
-      <c r="B67">
-        <v>30000</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>128</v>
-      </c>
-      <c r="G67">
-        <v>128</v>
-      </c>
-      <c r="H67">
-        <v>10</v>
-      </c>
-      <c r="I67">
-        <v>10</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L67">
-        <v>10</v>
-      </c>
-      <c r="M67">
-        <v>0.01</v>
-      </c>
-      <c r="N67" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="1">
-        <v>14965914</v>
-      </c>
-      <c r="B68">
-        <v>40000</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>128</v>
-      </c>
-      <c r="G68">
-        <v>128</v>
-      </c>
-      <c r="H68">
-        <v>10</v>
-      </c>
-      <c r="I68">
-        <v>10</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L68">
-        <v>10</v>
-      </c>
-      <c r="M68">
-        <v>0.01</v>
-      </c>
-      <c r="N68" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="1">
-        <v>14965915</v>
-      </c>
-      <c r="B69">
-        <v>60000</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>128</v>
-      </c>
-      <c r="G69">
-        <v>128</v>
-      </c>
-      <c r="H69">
-        <v>10</v>
-      </c>
-      <c r="I69">
-        <v>10</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L69">
-        <v>10</v>
-      </c>
-      <c r="M69">
-        <v>0.01</v>
-      </c>
-      <c r="N69" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="1">
-        <v>14965918</v>
-      </c>
-      <c r="B72">
+      <c r="A72">
+        <v>14</v>
+      </c>
+      <c r="B72" s="2">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="1">
+        <v>14965608</v>
+      </c>
+      <c r="B75">
         <v>30000</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>128</v>
-      </c>
-      <c r="G72">
-        <v>128</v>
-      </c>
-      <c r="H72">
-        <v>10</v>
-      </c>
-      <c r="I72">
-        <v>10</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L72">
-        <v>10</v>
-      </c>
-      <c r="M72">
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>128</v>
+      </c>
+      <c r="G75">
+        <v>128</v>
+      </c>
+      <c r="H75">
+        <v>10</v>
+      </c>
+      <c r="I75">
+        <v>10</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L75">
+        <v>10</v>
+      </c>
+      <c r="M75">
         <v>0.01</v>
       </c>
-      <c r="N72" s="6" t="s">
+      <c r="N75" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="1">
-        <v>14965919</v>
-      </c>
-      <c r="B73">
+    <row r="76" spans="1:14">
+      <c r="A76" s="1">
+        <v>14965609</v>
+      </c>
+      <c r="B76">
         <v>40000</v>
       </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>128</v>
-      </c>
-      <c r="G73">
-        <v>128</v>
-      </c>
-      <c r="H73">
-        <v>10</v>
-      </c>
-      <c r="I73">
-        <v>10</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L73">
-        <v>10</v>
-      </c>
-      <c r="M73">
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>128</v>
+      </c>
+      <c r="G76">
+        <v>128</v>
+      </c>
+      <c r="H76">
+        <v>10</v>
+      </c>
+      <c r="I76">
+        <v>10</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L76">
+        <v>10</v>
+      </c>
+      <c r="M76">
         <v>0.01</v>
       </c>
-      <c r="N73" s="6" t="s">
+      <c r="N76" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="1">
-        <v>14965920</v>
-      </c>
-      <c r="B74">
+    <row r="77" spans="1:14">
+      <c r="A77" s="1">
+        <v>14965611</v>
+      </c>
+      <c r="B77">
         <v>60000</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>128</v>
-      </c>
-      <c r="G74">
-        <v>128</v>
-      </c>
-      <c r="H74">
-        <v>10</v>
-      </c>
-      <c r="I74">
-        <v>10</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L74">
-        <v>10</v>
-      </c>
-      <c r="M74">
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>128</v>
+      </c>
+      <c r="G77">
+        <v>128</v>
+      </c>
+      <c r="H77">
+        <v>10</v>
+      </c>
+      <c r="I77">
+        <v>10</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L77">
+        <v>10</v>
+      </c>
+      <c r="M77">
         <v>0.01</v>
       </c>
-      <c r="N74" s="6" t="s">
+      <c r="N77" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="15">
-        <v>44983</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" t="s">
-        <v>50</v>
-      </c>
-      <c r="B78" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="79" spans="1:14">
-      <c r="A79">
-        <v>15127911</v>
-      </c>
-      <c r="B79">
-        <v>60000</v>
-      </c>
-      <c r="C79" t="s">
-        <v>57</v>
-      </c>
-      <c r="D79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>128</v>
-      </c>
-      <c r="G79">
-        <v>128</v>
-      </c>
-      <c r="H79">
-        <v>10</v>
-      </c>
-      <c r="I79">
-        <v>10</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L79">
-        <v>10</v>
-      </c>
-      <c r="M79">
-        <v>0.01</v>
+      <c r="A79" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80">
-        <v>15127861</v>
+      <c r="A80" s="1">
+        <v>14965912</v>
       </c>
       <c r="B80">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="C80">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
@@ -2882,109 +2792,112 @@
       <c r="M80">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" s="8" customFormat="1">
-      <c r="A81" s="8">
-        <v>15131602</v>
-      </c>
-      <c r="B81" s="9">
-        <v>100000000</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="8">
-        <v>1</v>
-      </c>
-      <c r="F81" s="8">
-        <v>256</v>
-      </c>
-      <c r="G81" s="8">
-        <v>256</v>
-      </c>
-      <c r="H81" s="8">
-        <v>10</v>
-      </c>
-      <c r="I81" s="8">
-        <v>10</v>
-      </c>
-      <c r="J81" s="8">
-        <v>0</v>
-      </c>
-      <c r="K81" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="L81" s="8">
-        <v>1</v>
-      </c>
-      <c r="M81" s="9">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" t="s">
-        <v>51</v>
-      </c>
-      <c r="B83" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84">
-        <v>15127953</v>
-      </c>
-      <c r="B84">
+      <c r="N80" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="1">
+        <v>14965914</v>
+      </c>
+      <c r="B81">
+        <v>40000</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>128</v>
+      </c>
+      <c r="G81">
+        <v>128</v>
+      </c>
+      <c r="H81">
+        <v>10</v>
+      </c>
+      <c r="I81">
+        <v>10</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L81">
+        <v>10</v>
+      </c>
+      <c r="M81">
+        <v>0.01</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="1">
+        <v>14965915</v>
+      </c>
+      <c r="B82">
         <v>60000</v>
       </c>
-      <c r="C84">
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>128</v>
+      </c>
+      <c r="G82">
+        <v>128</v>
+      </c>
+      <c r="H82">
+        <v>10</v>
+      </c>
+      <c r="I82">
+        <v>10</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L82">
+        <v>10</v>
+      </c>
+      <c r="M82">
         <v>0.01</v>
       </c>
-      <c r="D84" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84">
-        <v>128</v>
-      </c>
-      <c r="G84">
-        <v>128</v>
-      </c>
-      <c r="H84">
-        <v>10</v>
-      </c>
-      <c r="I84">
-        <v>10</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L84" t="s">
-        <v>55</v>
-      </c>
-      <c r="M84" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85">
-        <v>15130729</v>
+      <c r="N82" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="1">
+        <v>14965918</v>
       </c>
       <c r="B85">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="s">
         <v>13</v>
@@ -3016,540 +2929,865 @@
       <c r="M85">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86">
+      <c r="N85" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="1">
+        <v>14965919</v>
+      </c>
+      <c r="B86">
+        <v>40000</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>128</v>
+      </c>
+      <c r="G86">
+        <v>128</v>
+      </c>
+      <c r="H86">
+        <v>10</v>
+      </c>
+      <c r="I86">
+        <v>10</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L86">
+        <v>10</v>
+      </c>
+      <c r="M86">
+        <v>0.01</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="1">
+        <v>14965920</v>
+      </c>
+      <c r="B87">
+        <v>60000</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>128</v>
+      </c>
+      <c r="G87">
+        <v>128</v>
+      </c>
+      <c r="H87">
+        <v>10</v>
+      </c>
+      <c r="I87">
+        <v>10</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L87">
+        <v>10</v>
+      </c>
+      <c r="M87">
+        <v>0.01</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="15">
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" t="s">
+        <v>50</v>
+      </c>
+      <c r="B91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92">
+        <v>15127911</v>
+      </c>
+      <c r="B92">
+        <v>60000</v>
+      </c>
+      <c r="C92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>128</v>
+      </c>
+      <c r="G92">
+        <v>128</v>
+      </c>
+      <c r="H92">
+        <v>10</v>
+      </c>
+      <c r="I92">
+        <v>10</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L92">
+        <v>10</v>
+      </c>
+      <c r="M92">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93">
+        <v>15127861</v>
+      </c>
+      <c r="B93">
+        <v>60000</v>
+      </c>
+      <c r="C93">
+        <v>0.01</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>128</v>
+      </c>
+      <c r="G93">
+        <v>128</v>
+      </c>
+      <c r="H93">
+        <v>10</v>
+      </c>
+      <c r="I93">
+        <v>10</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L93">
+        <v>10</v>
+      </c>
+      <c r="M93">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="8" customFormat="1">
+      <c r="A94" s="8">
+        <v>15131602</v>
+      </c>
+      <c r="B94" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="8">
+        <v>1</v>
+      </c>
+      <c r="F94" s="8">
+        <v>256</v>
+      </c>
+      <c r="G94" s="8">
+        <v>256</v>
+      </c>
+      <c r="H94" s="8">
+        <v>10</v>
+      </c>
+      <c r="I94" s="8">
+        <v>10</v>
+      </c>
+      <c r="J94" s="8">
+        <v>0</v>
+      </c>
+      <c r="K94" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="L94" s="8">
+        <v>1</v>
+      </c>
+      <c r="M94" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97">
+        <v>15127953</v>
+      </c>
+      <c r="B97">
+        <v>60000</v>
+      </c>
+      <c r="C97">
+        <v>0.01</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>128</v>
+      </c>
+      <c r="G97">
+        <v>128</v>
+      </c>
+      <c r="H97">
+        <v>10</v>
+      </c>
+      <c r="I97">
+        <v>10</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L97" t="s">
+        <v>55</v>
+      </c>
+      <c r="M97" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98">
+        <v>15130729</v>
+      </c>
+      <c r="B98">
+        <v>60000</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>128</v>
+      </c>
+      <c r="G98">
+        <v>128</v>
+      </c>
+      <c r="H98">
+        <v>10</v>
+      </c>
+      <c r="I98">
+        <v>10</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L98">
+        <v>10</v>
+      </c>
+      <c r="M98">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99">
         <v>15132168</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B99" s="2">
         <v>100000000</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>256</v>
-      </c>
-      <c r="G86">
-        <v>256</v>
-      </c>
-      <c r="H86">
-        <v>10</v>
-      </c>
-      <c r="I86">
-        <v>10</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86" s="2">
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>256</v>
+      </c>
+      <c r="G99">
+        <v>256</v>
+      </c>
+      <c r="H99">
+        <v>10</v>
+      </c>
+      <c r="I99">
+        <v>10</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99" s="2">
         <v>1E-8</v>
       </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-      <c r="M86" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87">
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100">
         <v>15140639</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B100" s="2">
         <v>100000000</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>256</v>
-      </c>
-      <c r="G87">
-        <v>256</v>
-      </c>
-      <c r="H87">
-        <v>10</v>
-      </c>
-      <c r="I87">
-        <v>10</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87" s="2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>256</v>
+      </c>
+      <c r="G100">
+        <v>256</v>
+      </c>
+      <c r="H100">
+        <v>10</v>
+      </c>
+      <c r="I100">
+        <v>10</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100" s="2">
         <v>1E-8</v>
       </c>
-      <c r="L87" s="2">
+      <c r="L100" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M87" s="2">
+      <c r="M100" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="16" customFormat="1">
-      <c r="A88" s="16">
+    <row r="101" spans="1:13" s="16" customFormat="1">
+      <c r="A101" s="16">
         <v>15144596</v>
       </c>
-      <c r="B88" s="17">
+      <c r="B101" s="17">
         <v>100000000</v>
       </c>
-      <c r="C88" s="16">
-        <v>0</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" s="16">
-        <v>1</v>
-      </c>
-      <c r="F88" s="16">
-        <v>256</v>
-      </c>
-      <c r="G88" s="16">
-        <v>256</v>
-      </c>
-      <c r="H88" s="16">
-        <v>10</v>
-      </c>
-      <c r="I88" s="16">
-        <v>10</v>
-      </c>
-      <c r="J88" s="16">
-        <v>0</v>
-      </c>
-      <c r="K88" s="17">
+      <c r="C101" s="16">
+        <v>0</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="16">
+        <v>1</v>
+      </c>
+      <c r="F101" s="16">
+        <v>256</v>
+      </c>
+      <c r="G101" s="16">
+        <v>256</v>
+      </c>
+      <c r="H101" s="16">
+        <v>10</v>
+      </c>
+      <c r="I101" s="16">
+        <v>10</v>
+      </c>
+      <c r="J101" s="16">
+        <v>0</v>
+      </c>
+      <c r="K101" s="17">
         <v>1E-8</v>
       </c>
-      <c r="L88" s="17">
+      <c r="L101" s="17">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="M88" s="17">
+      <c r="M101" s="17">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="8" customFormat="1">
-      <c r="A89" s="8">
+    <row r="102" spans="1:13" s="8" customFormat="1">
+      <c r="A102" s="8">
         <v>15142489</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B102" s="9">
         <v>100000000</v>
       </c>
-      <c r="C89" s="8">
-        <v>0</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" s="8">
-        <v>1</v>
-      </c>
-      <c r="F89" s="8">
-        <v>256</v>
-      </c>
-      <c r="G89" s="8">
-        <v>256</v>
-      </c>
-      <c r="H89" s="8">
-        <v>10</v>
-      </c>
-      <c r="I89" s="8">
-        <v>10</v>
-      </c>
-      <c r="J89" s="8">
-        <v>0</v>
-      </c>
-      <c r="K89" s="9">
+      <c r="C102" s="8">
+        <v>0</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="8">
+        <v>1</v>
+      </c>
+      <c r="F102" s="8">
+        <v>256</v>
+      </c>
+      <c r="G102" s="8">
+        <v>256</v>
+      </c>
+      <c r="H102" s="8">
+        <v>10</v>
+      </c>
+      <c r="I102" s="8">
+        <v>10</v>
+      </c>
+      <c r="J102" s="8">
+        <v>0</v>
+      </c>
+      <c r="K102" s="9">
         <v>1E-8</v>
       </c>
-      <c r="L89" s="9">
+      <c r="L102" s="9">
         <v>1E-4</v>
       </c>
-      <c r="M89" s="9">
+      <c r="M102" s="9">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
-      <c r="B90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="14">
+    <row r="103" spans="1:13">
+      <c r="B103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="14">
         <v>44984</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
-      <c r="A92" t="s">
+    <row r="105" spans="1:13">
+      <c r="A105" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94">
-        <v>15136552</v>
-      </c>
-      <c r="B94">
-        <v>40000</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94" t="s">
-        <v>13</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94">
-        <v>128</v>
-      </c>
-      <c r="G94">
-        <v>128</v>
-      </c>
-      <c r="H94">
-        <v>10</v>
-      </c>
-      <c r="I94">
-        <v>10</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L94">
-        <v>10</v>
-      </c>
-      <c r="M94">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95">
-        <v>15136553</v>
-      </c>
-      <c r="B95">
-        <v>60000</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95" t="s">
-        <v>13</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95">
-        <v>128</v>
-      </c>
-      <c r="G95">
-        <v>128</v>
-      </c>
-      <c r="H95">
-        <v>10</v>
-      </c>
-      <c r="I95">
-        <v>10</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L95">
-        <v>10</v>
-      </c>
-      <c r="M95">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" s="8" customFormat="1">
-      <c r="A96" s="8">
-        <v>15142501</v>
-      </c>
-      <c r="B96" s="9">
-        <v>100000000</v>
-      </c>
-      <c r="C96" s="8">
-        <v>1</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" s="8">
-        <v>1</v>
-      </c>
-      <c r="F96" s="8">
-        <v>256</v>
-      </c>
-      <c r="G96" s="8">
-        <v>16</v>
-      </c>
-      <c r="H96" s="8">
-        <v>10</v>
-      </c>
-      <c r="I96" s="8">
-        <v>10</v>
-      </c>
-      <c r="J96" s="8">
-        <v>0</v>
-      </c>
-      <c r="K96" s="9">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L96" s="8">
-        <v>1</v>
-      </c>
-      <c r="M96" s="8">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" s="16" customFormat="1">
-      <c r="A97" s="16">
-        <v>15144616</v>
-      </c>
-      <c r="B97" s="17">
-        <v>100000000</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" s="16">
-        <v>1</v>
-      </c>
-      <c r="F97" s="16">
-        <v>256</v>
-      </c>
-      <c r="G97" s="16">
-        <v>16</v>
-      </c>
-      <c r="H97" s="16">
-        <v>10</v>
-      </c>
-      <c r="I97" s="16">
-        <v>10</v>
-      </c>
-      <c r="J97" s="16">
-        <v>0</v>
-      </c>
-      <c r="K97" s="17">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L97" s="16">
-        <v>1</v>
-      </c>
-      <c r="M97" s="16">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" s="8" customFormat="1">
-      <c r="B98" s="9"/>
-      <c r="K98" s="9"/>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" t="s">
-        <v>61</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="K99" s="2"/>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="16">
-        <v>15144604</v>
-      </c>
-      <c r="B100" s="17">
-        <v>100000000</v>
-      </c>
-      <c r="C100" s="16">
-        <v>0</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E100" s="16">
-        <v>1</v>
-      </c>
-      <c r="F100" s="16">
-        <v>256</v>
-      </c>
-      <c r="G100" s="16">
-        <v>256</v>
-      </c>
-      <c r="H100" s="16">
-        <v>10</v>
-      </c>
-      <c r="I100" s="16">
-        <v>10</v>
-      </c>
-      <c r="J100" s="16">
-        <v>0</v>
-      </c>
-      <c r="K100" s="17">
-        <v>1E-8</v>
-      </c>
-      <c r="L100" s="17">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="M100" s="17">
-        <v>9.9999999999999995E-8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="B101" s="2"/>
-      <c r="K101" s="2"/>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="B102">
-        <v>40000</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102" t="s">
-        <v>13</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-      <c r="F102">
-        <v>32</v>
-      </c>
-      <c r="G102">
-        <v>32</v>
-      </c>
-      <c r="H102">
-        <v>10</v>
-      </c>
-      <c r="I102">
-        <v>10</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L102">
-        <v>1000</v>
-      </c>
-      <c r="M102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
-      <c r="A103">
-        <v>15135104</v>
-      </c>
-      <c r="B103">
-        <v>60000</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-      <c r="F103">
-        <v>32</v>
-      </c>
-      <c r="G103">
-        <v>32</v>
-      </c>
-      <c r="H103">
-        <v>10</v>
-      </c>
-      <c r="I103">
-        <v>10</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L103">
-        <v>1000</v>
-      </c>
-      <c r="M103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="K104" s="2"/>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="K105" s="2"/>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107">
+        <v>15136552</v>
+      </c>
+      <c r="B107">
+        <v>40000</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>128</v>
+      </c>
+      <c r="G107">
+        <v>128</v>
+      </c>
+      <c r="H107">
+        <v>10</v>
+      </c>
+      <c r="I107">
+        <v>10</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L107">
+        <v>10</v>
+      </c>
+      <c r="M107">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108">
+        <v>15136553</v>
+      </c>
+      <c r="B108">
+        <v>60000</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>128</v>
+      </c>
+      <c r="G108">
+        <v>128</v>
+      </c>
+      <c r="H108">
+        <v>10</v>
+      </c>
+      <c r="I108">
+        <v>10</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L108">
+        <v>10</v>
+      </c>
+      <c r="M108">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" s="8" customFormat="1">
+      <c r="A109" s="8">
+        <v>15142501</v>
+      </c>
+      <c r="B109" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="C109" s="8">
+        <v>1</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="8">
+        <v>1</v>
+      </c>
+      <c r="F109" s="8">
+        <v>256</v>
+      </c>
+      <c r="G109" s="8">
+        <v>16</v>
+      </c>
+      <c r="H109" s="8">
+        <v>10</v>
+      </c>
+      <c r="I109" s="8">
+        <v>10</v>
+      </c>
+      <c r="J109" s="8">
+        <v>0</v>
+      </c>
+      <c r="K109" s="9">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L109" s="8">
+        <v>1</v>
+      </c>
+      <c r="M109" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" s="16" customFormat="1">
+      <c r="A110" s="16">
+        <v>15144692</v>
+      </c>
+      <c r="B110" s="17">
+        <v>100000000</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="16">
+        <v>1</v>
+      </c>
+      <c r="F110" s="16">
+        <v>256</v>
+      </c>
+      <c r="G110" s="16">
+        <v>16</v>
+      </c>
+      <c r="H110" s="16">
+        <v>10</v>
+      </c>
+      <c r="I110" s="16">
+        <v>10</v>
+      </c>
+      <c r="J110" s="16">
+        <v>0</v>
+      </c>
+      <c r="K110" s="17">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L110" s="16">
+        <v>1</v>
+      </c>
+      <c r="M110" s="16">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" s="8" customFormat="1">
+      <c r="B111" s="9"/>
+      <c r="K111" s="9"/>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" t="s">
+        <v>61</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="K112" s="2"/>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="16">
+        <v>15144604</v>
+      </c>
+      <c r="B113" s="17">
+        <v>100000000</v>
+      </c>
+      <c r="C113" s="16">
+        <v>0</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="16">
+        <v>1</v>
+      </c>
+      <c r="F113" s="16">
+        <v>256</v>
+      </c>
+      <c r="G113" s="16">
+        <v>256</v>
+      </c>
+      <c r="H113" s="16">
+        <v>10</v>
+      </c>
+      <c r="I113" s="16">
+        <v>10</v>
+      </c>
+      <c r="J113" s="16">
+        <v>0</v>
+      </c>
+      <c r="K113" s="17">
+        <v>1E-8</v>
+      </c>
+      <c r="L113" s="17">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="M113" s="17">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="B114" s="2"/>
+      <c r="K114" s="2"/>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="B115">
+        <v>40000</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>32</v>
+      </c>
+      <c r="G115">
+        <v>32</v>
+      </c>
+      <c r="H115">
+        <v>10</v>
+      </c>
+      <c r="I115">
+        <v>10</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L115">
+        <v>1000</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116">
+        <v>15135104</v>
+      </c>
+      <c r="B116">
+        <v>60000</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>32</v>
+      </c>
+      <c r="G116">
+        <v>32</v>
+      </c>
+      <c r="H116">
+        <v>10</v>
+      </c>
+      <c r="I116">
+        <v>10</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L116">
+        <v>1000</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="K117" s="2"/>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="K118" s="2"/>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120">
         <v>15135106</v>
       </c>
-      <c r="B107">
+      <c r="B120">
         <v>60000</v>
       </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107">
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
         <v>32</v>
       </c>
-      <c r="G107">
+      <c r="G120">
         <v>32</v>
       </c>
-      <c r="H107">
-        <v>10</v>
-      </c>
-      <c r="I107">
-        <v>10</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L107">
+      <c r="H120">
+        <v>10</v>
+      </c>
+      <c r="I120">
+        <v>10</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L120">
         <v>1000</v>
       </c>
-      <c r="M107">
+      <c r="M120">
         <v>1</v>
       </c>
     </row>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA8E2CE-AF16-47A1-9DED-C97337FF6075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447492A3-C795-4AB1-B17D-E982A9C78819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="65">
   <si>
     <t>slurm_num</t>
   </si>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>viscous scaling</t>
+  </si>
+  <si>
+    <t>on alpine</t>
+  </si>
+  <si>
+    <t>Steady elevator mode, needs to run longer</t>
+  </si>
+  <si>
+    <t>modulated traveling waves</t>
   </si>
 </sst>
 </file>
@@ -605,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P120"/>
+  <dimension ref="A1:P124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1487,423 +1496,602 @@
       <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:16" s="6" customFormat="1">
-      <c r="A31" s="5"/>
-      <c r="B31">
+      <c r="A31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="1:16" s="6" customFormat="1">
+      <c r="A32" s="5">
+        <v>907837</v>
+      </c>
+      <c r="B32">
         <v>42000</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>128</v>
-      </c>
-      <c r="G31">
-        <v>128</v>
-      </c>
-      <c r="H31">
-        <v>10</v>
-      </c>
-      <c r="I31">
-        <v>10</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L31">
-        <v>10</v>
-      </c>
-      <c r="M31">
-        <v>0.01</v>
-      </c>
-      <c r="N31" s="6" t="s">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>128</v>
+      </c>
+      <c r="G32">
+        <v>128</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L32">
+        <v>10</v>
+      </c>
+      <c r="M32">
+        <v>0.01</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="6" customFormat="1">
+      <c r="A33" s="5">
+        <v>907867</v>
+      </c>
+      <c r="B33">
+        <v>44000</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>128</v>
+      </c>
+      <c r="G33">
+        <v>128</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L33">
+        <v>10</v>
+      </c>
+      <c r="M33">
+        <v>0.01</v>
+      </c>
+      <c r="N33" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="6" customFormat="1">
-      <c r="A32" s="5"/>
-      <c r="B32">
-        <v>44000</v>
-      </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32" s="2"/>
-      <c r="L32"/>
-      <c r="M32"/>
-    </row>
-    <row r="33" spans="1:14" s="6" customFormat="1">
-      <c r="A33" s="5"/>
-      <c r="B33">
+    <row r="34" spans="1:14" s="6" customFormat="1">
+      <c r="A34" s="5">
+        <v>907878</v>
+      </c>
+      <c r="B34">
         <v>46000</v>
       </c>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33" s="2"/>
-      <c r="L33"/>
-      <c r="M33"/>
-    </row>
-    <row r="34" spans="1:14" s="6" customFormat="1">
-      <c r="A34" s="5"/>
-      <c r="B34">
-        <v>48000</v>
-      </c>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34" s="2"/>
-      <c r="L34"/>
-      <c r="M34"/>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>128</v>
+      </c>
+      <c r="G34">
+        <v>128</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L34">
+        <v>10</v>
+      </c>
+      <c r="M34">
+        <v>0.01</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="35" spans="1:14" s="6" customFormat="1">
       <c r="A35" s="5"/>
       <c r="B35">
-        <v>50000</v>
-      </c>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35" s="2"/>
-      <c r="L35"/>
-      <c r="M35"/>
+        <v>46500</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>128</v>
+      </c>
+      <c r="G35">
+        <v>128</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="36" spans="1:14" s="6" customFormat="1">
       <c r="A36" s="5"/>
       <c r="B36">
-        <v>52000</v>
-      </c>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36" s="2"/>
-      <c r="L36"/>
-      <c r="M36"/>
+        <v>47000</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>128</v>
+      </c>
+      <c r="G36">
+        <v>128</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L36">
+        <v>10</v>
+      </c>
+      <c r="M36">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="37" spans="1:14" s="6" customFormat="1">
       <c r="A37" s="5"/>
       <c r="B37">
+        <v>47500</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>128</v>
+      </c>
+      <c r="G37">
+        <v>128</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L37">
+        <v>10</v>
+      </c>
+      <c r="M37">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="6" customFormat="1">
+      <c r="A38" s="5">
+        <v>907903</v>
+      </c>
+      <c r="B38">
+        <v>48000</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>128</v>
+      </c>
+      <c r="G38">
+        <v>128</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L38">
+        <v>10</v>
+      </c>
+      <c r="M38">
+        <v>0.01</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="6" customFormat="1">
+      <c r="A39" s="5">
+        <v>907919</v>
+      </c>
+      <c r="B39">
+        <v>50000</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>128</v>
+      </c>
+      <c r="G39">
+        <v>128</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L39">
+        <v>10</v>
+      </c>
+      <c r="M39">
+        <v>0.01</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="6" customFormat="1">
+      <c r="A40" s="5">
+        <v>907934</v>
+      </c>
+      <c r="B40">
+        <v>52000</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>128</v>
+      </c>
+      <c r="G40">
+        <v>128</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L40">
+        <v>10</v>
+      </c>
+      <c r="M40">
+        <v>0.01</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="6" customFormat="1">
+      <c r="A41" s="5">
+        <v>907946</v>
+      </c>
+      <c r="B41">
         <v>54000</v>
       </c>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37" s="2"/>
-      <c r="L37"/>
-      <c r="M37"/>
-    </row>
-    <row r="38" spans="1:14" s="6" customFormat="1">
-      <c r="A38" s="5"/>
-      <c r="B38">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>128</v>
+      </c>
+      <c r="G41">
+        <v>128</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L41">
+        <v>10</v>
+      </c>
+      <c r="M41">
+        <v>0.01</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="6" customFormat="1">
+      <c r="A42" s="5">
+        <v>907961</v>
+      </c>
+      <c r="B42">
         <v>56000</v>
       </c>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38" s="2"/>
-      <c r="L38"/>
-      <c r="M38"/>
-    </row>
-    <row r="39" spans="1:14" s="6" customFormat="1">
-      <c r="A39" s="5"/>
-      <c r="B39">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>128</v>
+      </c>
+      <c r="G42">
+        <v>128</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <v>0.01</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="6" customFormat="1">
+      <c r="A43" s="5">
+        <v>907979</v>
+      </c>
+      <c r="B43">
         <v>58000</v>
       </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39" s="2"/>
-      <c r="L39"/>
-      <c r="M39"/>
-    </row>
-    <row r="40" spans="1:14" s="6" customFormat="1">
-      <c r="A40" s="5"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40" s="2"/>
-      <c r="L40"/>
-      <c r="M40"/>
-    </row>
-    <row r="41" spans="1:14" s="6" customFormat="1">
-      <c r="A41" s="5"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41" s="2"/>
-      <c r="L41"/>
-      <c r="M41"/>
-    </row>
-    <row r="42" spans="1:14" s="6" customFormat="1">
-      <c r="A42" s="5"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42" s="2"/>
-      <c r="L42"/>
-      <c r="M42"/>
-    </row>
-    <row r="43" spans="1:14" s="6" customFormat="1">
-      <c r="A43" s="5"/>
-      <c r="K43" s="12"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="1"/>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>128</v>
+      </c>
+      <c r="G43">
+        <v>128</v>
+      </c>
+      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L43">
+        <v>10</v>
+      </c>
+      <c r="M43">
+        <v>0.01</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="6" customFormat="1">
+      <c r="A44" s="5"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
       <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" t="s">
+      <c r="L44"/>
+      <c r="M44"/>
+    </row>
+    <row r="45" spans="1:14" s="6" customFormat="1">
+      <c r="A45" s="5"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45" s="2"/>
+      <c r="L45"/>
+      <c r="M45"/>
+    </row>
+    <row r="46" spans="1:14" s="6" customFormat="1">
+      <c r="A46" s="5"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46" s="2"/>
+      <c r="L46"/>
+      <c r="M46"/>
+    </row>
+    <row r="47" spans="1:14" s="6" customFormat="1">
+      <c r="A47" s="5"/>
+      <c r="K47" s="12"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="1"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="18.5">
-      <c r="A46" s="3">
-        <v>14673046</v>
-      </c>
-      <c r="B46" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>256</v>
-      </c>
-      <c r="G46">
-        <v>256</v>
-      </c>
-      <c r="H46">
-        <v>10</v>
-      </c>
-      <c r="I46">
-        <v>10</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N46" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="18.5">
-      <c r="A47" s="3">
-        <v>14673047</v>
-      </c>
-      <c r="B47" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C47">
-        <v>0.01</v>
-      </c>
-      <c r="D47" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>256</v>
-      </c>
-      <c r="G47">
-        <v>256</v>
-      </c>
-      <c r="H47">
-        <v>10</v>
-      </c>
-      <c r="I47">
-        <v>10</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="18.5">
-      <c r="A48" s="3">
-        <v>14768718</v>
-      </c>
-      <c r="B48" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C48">
-        <v>0.02</v>
-      </c>
-      <c r="D48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>256</v>
-      </c>
-      <c r="G48">
-        <v>256</v>
-      </c>
-      <c r="H48">
-        <v>10</v>
-      </c>
-      <c r="I48">
-        <v>10</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="18.5">
-      <c r="A49" s="3">
-        <v>14680791</v>
-      </c>
-      <c r="B49" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C49">
-        <v>0.03</v>
-      </c>
-      <c r="D49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>256</v>
-      </c>
-      <c r="G49">
-        <v>256</v>
-      </c>
-      <c r="H49">
-        <v>10</v>
-      </c>
-      <c r="I49">
-        <v>10</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N49" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="18.5">
       <c r="A50" s="3">
-        <v>14741869</v>
+        <v>14673046</v>
       </c>
       <c r="B50" s="2">
         <v>100000000</v>
       </c>
       <c r="C50">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -1921,33 +2109,33 @@
         <v>10</v>
       </c>
       <c r="I50">
-        <v>14680791</v>
+        <v>10</v>
       </c>
       <c r="J50">
-        <v>14680791</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="L50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M50" s="2">
         <v>1E-3</v>
       </c>
-      <c r="N50" s="6" t="s">
-        <v>33</v>
+      <c r="N50" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="18.5">
       <c r="A51" s="3">
-        <v>14673849</v>
+        <v>14673047</v>
       </c>
       <c r="B51" s="2">
         <v>100000000</v>
       </c>
       <c r="C51">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D51" t="s">
         <v>13</v>
@@ -1979,16 +2167,19 @@
       <c r="M51" s="2">
         <v>1E-3</v>
       </c>
+      <c r="N51" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="52" spans="1:14" ht="18.5">
       <c r="A52" s="3">
-        <v>14673048</v>
+        <v>14768718</v>
       </c>
       <c r="B52" s="2">
         <v>100000000</v>
       </c>
       <c r="C52">
-        <v>70</v>
+        <v>0.02</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -2020,22 +2211,19 @@
       <c r="M52" s="2">
         <v>1E-3</v>
       </c>
-      <c r="N52" s="6" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="53" spans="1:14" ht="18.5">
       <c r="A53" s="3">
-        <v>14673049</v>
+        <v>14680791</v>
       </c>
       <c r="B53" s="2">
-        <v>800000000</v>
+        <v>100000000</v>
       </c>
       <c r="C53">
-        <v>700</v>
+        <v>0.03</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2047,10 +2235,10 @@
         <v>256</v>
       </c>
       <c r="H53">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I53">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2065,278 +2253,275 @@
         <v>1E-3</v>
       </c>
       <c r="N53" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="18.5">
+      <c r="A54" s="3">
+        <v>14741869</v>
+      </c>
+      <c r="B54" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C54">
+        <v>0.03</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>256</v>
+      </c>
+      <c r="G54">
+        <v>256</v>
+      </c>
+      <c r="H54">
+        <v>10</v>
+      </c>
+      <c r="I54">
+        <v>14680791</v>
+      </c>
+      <c r="J54">
+        <v>14680791</v>
+      </c>
+      <c r="K54" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="18.5">
+      <c r="A55" s="3">
+        <v>14673849</v>
+      </c>
+      <c r="B55" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C55">
+        <v>0.1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>256</v>
+      </c>
+      <c r="G55">
+        <v>256</v>
+      </c>
+      <c r="H55">
+        <v>10</v>
+      </c>
+      <c r="I55">
+        <v>10</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="18.5">
+      <c r="A56" s="3">
+        <v>14673048</v>
+      </c>
+      <c r="B56" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C56">
+        <v>70</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>256</v>
+      </c>
+      <c r="G56">
+        <v>256</v>
+      </c>
+      <c r="H56">
+        <v>10</v>
+      </c>
+      <c r="I56">
+        <v>10</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="18.5">
+      <c r="A57" s="3">
+        <v>14673049</v>
+      </c>
+      <c r="B57" s="2">
+        <v>800000000</v>
+      </c>
+      <c r="C57">
+        <v>700</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>256</v>
+      </c>
+      <c r="G57">
+        <v>256</v>
+      </c>
+      <c r="H57">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" s="6" customFormat="1">
-      <c r="A54" s="6">
+      <c r="I57">
+        <v>20</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="6" customFormat="1">
+      <c r="A58" s="6">
         <v>14878470</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B58" s="12">
         <v>100000000</v>
       </c>
-      <c r="C54" s="6">
-        <v>0</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="6">
-        <v>1</v>
-      </c>
-      <c r="F54" s="6">
-        <v>256</v>
-      </c>
-      <c r="G54" s="6">
-        <v>256</v>
-      </c>
-      <c r="H54" s="6">
-        <v>10</v>
-      </c>
-      <c r="I54" s="6">
-        <v>10</v>
-      </c>
-      <c r="J54" s="6">
-        <v>0</v>
-      </c>
-      <c r="K54" s="12">
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1</v>
+      </c>
+      <c r="F58" s="6">
+        <v>256</v>
+      </c>
+      <c r="G58" s="6">
+        <v>256</v>
+      </c>
+      <c r="H58" s="6">
+        <v>10</v>
+      </c>
+      <c r="I58" s="6">
+        <v>10</v>
+      </c>
+      <c r="J58" s="6">
+        <v>0</v>
+      </c>
+      <c r="K58" s="12">
         <v>1E-8</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L58" s="6">
         <v>0.1</v>
       </c>
-      <c r="M54" s="12">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" s="6" customFormat="1">
-      <c r="A55" s="6">
+      <c r="M58" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="6" customFormat="1">
+      <c r="A59" s="6">
         <v>14878462</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B59" s="12">
         <v>100000000</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="6">
-        <v>1</v>
-      </c>
-      <c r="F55" s="6">
-        <v>256</v>
-      </c>
-      <c r="G55" s="6">
-        <v>256</v>
-      </c>
-      <c r="H55" s="6">
-        <v>10</v>
-      </c>
-      <c r="I55" s="6">
-        <v>10</v>
-      </c>
-      <c r="J55" s="6">
-        <v>0</v>
-      </c>
-      <c r="K55" s="12">
+      <c r="D59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1</v>
+      </c>
+      <c r="F59" s="6">
+        <v>256</v>
+      </c>
+      <c r="G59" s="6">
+        <v>256</v>
+      </c>
+      <c r="H59" s="6">
+        <v>10</v>
+      </c>
+      <c r="I59" s="6">
+        <v>10</v>
+      </c>
+      <c r="J59" s="6">
+        <v>0</v>
+      </c>
+      <c r="K59" s="12">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L59" s="6">
         <v>0.1</v>
       </c>
-      <c r="M55" s="12">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" t="s">
+      <c r="M59" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="18.5">
-      <c r="A58" s="3">
-        <v>14680810</v>
-      </c>
-      <c r="B58" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>256</v>
-      </c>
-      <c r="G58">
-        <v>256</v>
-      </c>
-      <c r="H58">
-        <v>10</v>
-      </c>
-      <c r="I58" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" t="s">
-        <v>16</v>
-      </c>
-      <c r="K58" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N58" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="18.5">
-      <c r="A59" s="3">
-        <v>14672941</v>
-      </c>
-      <c r="B59" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>256</v>
-      </c>
-      <c r="G59">
-        <v>256</v>
-      </c>
-      <c r="H59">
-        <v>10</v>
-      </c>
-      <c r="I59">
-        <v>20</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N59" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="18.5">
-      <c r="A60" s="3">
-        <v>14672942</v>
-      </c>
-      <c r="B60" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>256</v>
-      </c>
-      <c r="G60">
-        <v>256</v>
-      </c>
-      <c r="H60">
-        <v>10</v>
-      </c>
-      <c r="I60">
-        <v>30</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="18.5">
-      <c r="A61" s="3">
-        <v>14672943</v>
-      </c>
-      <c r="B61" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>256</v>
-      </c>
-      <c r="G61">
-        <v>256</v>
-      </c>
-      <c r="H61">
-        <v>10</v>
-      </c>
-      <c r="I61">
-        <v>40</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N61" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="18.5">
       <c r="A62" s="3">
-        <v>14672940</v>
+        <v>14680810</v>
       </c>
       <c r="B62" s="2">
         <v>100000000</v>
@@ -2359,11 +2544,11 @@
       <c r="H62">
         <v>10</v>
       </c>
-      <c r="I62">
-        <v>20</v>
+      <c r="I62" t="s">
+        <v>16</v>
       </c>
       <c r="J62" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K62" s="2">
         <v>9.9999999999999995E-7</v>
@@ -2378,9 +2563,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="17.5">
-      <c r="A63" s="4">
-        <v>14671572</v>
+    <row r="63" spans="1:14" ht="18.5">
+      <c r="A63" s="3">
+        <v>14672941</v>
       </c>
       <c r="B63" s="2">
         <v>100000000</v>
@@ -2406,8 +2591,8 @@
       <c r="I63">
         <v>20</v>
       </c>
-      <c r="J63" t="s">
-        <v>14</v>
+      <c r="J63">
+        <v>0</v>
       </c>
       <c r="K63" s="2">
         <v>9.9999999999999995E-7</v>
@@ -2418,13 +2603,13 @@
       <c r="M63" s="2">
         <v>1E-3</v>
       </c>
-      <c r="N63" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="17.5">
-      <c r="A64" s="4">
-        <v>14680814</v>
+      <c r="N63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="18.5">
+      <c r="A64" s="3">
+        <v>14672942</v>
       </c>
       <c r="B64" s="2">
         <v>100000000</v>
@@ -2450,8 +2635,8 @@
       <c r="I64">
         <v>30</v>
       </c>
-      <c r="J64" t="s">
-        <v>14</v>
+      <c r="J64">
+        <v>0</v>
       </c>
       <c r="K64" s="2">
         <v>9.9999999999999995E-7</v>
@@ -2466,9 +2651,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="17.5">
-      <c r="A65" s="4">
-        <v>14671573</v>
+    <row r="65" spans="1:14" ht="18.5">
+      <c r="A65" s="3">
+        <v>14672943</v>
       </c>
       <c r="B65" s="2">
         <v>100000000</v>
@@ -2494,8 +2679,8 @@
       <c r="I65">
         <v>40</v>
       </c>
-      <c r="J65" t="s">
-        <v>14</v>
+      <c r="J65">
+        <v>0</v>
       </c>
       <c r="K65" s="2">
         <v>9.9999999999999995E-7</v>
@@ -2506,258 +2691,341 @@
       <c r="M65" s="2">
         <v>1E-3</v>
       </c>
-      <c r="N65" s="6" t="s">
+      <c r="N65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="18.5">
+      <c r="A66" s="3">
+        <v>14672940</v>
+      </c>
+      <c r="B66" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>256</v>
+      </c>
+      <c r="G66">
+        <v>256</v>
+      </c>
+      <c r="H66">
+        <v>10</v>
+      </c>
+      <c r="I66">
+        <v>20</v>
+      </c>
+      <c r="J66" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="17.5">
+      <c r="A67" s="4">
+        <v>14671572</v>
+      </c>
+      <c r="B67" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>256</v>
+      </c>
+      <c r="G67">
+        <v>256</v>
+      </c>
+      <c r="H67">
+        <v>10</v>
+      </c>
+      <c r="I67">
+        <v>20</v>
+      </c>
+      <c r="J67" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="17.5">
+      <c r="A68" s="4">
+        <v>14680814</v>
+      </c>
+      <c r="B68" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>256</v>
+      </c>
+      <c r="G68">
+        <v>256</v>
+      </c>
+      <c r="H68">
+        <v>10</v>
+      </c>
+      <c r="I68">
+        <v>30</v>
+      </c>
+      <c r="J68" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="17.5">
+      <c r="A69" s="4">
+        <v>14671573</v>
+      </c>
+      <c r="B69" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>256</v>
+      </c>
+      <c r="G69">
+        <v>256</v>
+      </c>
+      <c r="H69">
+        <v>10</v>
+      </c>
+      <c r="I69">
+        <v>40</v>
+      </c>
+      <c r="J69" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N69" s="6" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" s="6" customFormat="1" ht="18">
-      <c r="A68" s="13">
-        <v>14762932</v>
-      </c>
-      <c r="B68" s="12">
-        <v>100000000</v>
-      </c>
-      <c r="C68" s="6">
-        <v>1</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="6">
-        <v>1</v>
-      </c>
-      <c r="F68" s="6">
-        <v>384</v>
-      </c>
-      <c r="G68" s="6">
-        <v>384</v>
-      </c>
-      <c r="H68" s="6">
-        <v>10</v>
-      </c>
-      <c r="I68" s="6">
-        <v>10</v>
-      </c>
-      <c r="J68" s="6">
-        <v>0</v>
-      </c>
-      <c r="K68" s="12">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L68" s="6">
-        <v>1</v>
-      </c>
-      <c r="M68" s="12">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" s="6" customFormat="1" ht="18">
-      <c r="A69" s="13">
-        <v>14762935</v>
-      </c>
-      <c r="B69" s="12">
-        <v>100000000</v>
-      </c>
-      <c r="C69" s="6">
-        <v>1</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="6">
-        <v>1</v>
-      </c>
-      <c r="F69" s="6">
-        <v>512</v>
-      </c>
-      <c r="G69" s="6">
-        <v>512</v>
-      </c>
-      <c r="H69" s="6">
-        <v>10</v>
-      </c>
-      <c r="I69" s="6">
-        <v>10</v>
-      </c>
-      <c r="J69" s="6">
-        <v>0</v>
-      </c>
-      <c r="K69" s="12">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L69" s="6">
-        <v>1</v>
-      </c>
-      <c r="M69" s="12">
-        <v>0.01</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="6" customFormat="1" ht="18">
+      <c r="A72" s="13">
+        <v>14762932</v>
+      </c>
+      <c r="B72" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="C72" s="6">
+        <v>1</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1</v>
+      </c>
+      <c r="F72" s="6">
+        <v>384</v>
+      </c>
+      <c r="G72" s="6">
+        <v>384</v>
+      </c>
+      <c r="H72" s="6">
+        <v>10</v>
+      </c>
+      <c r="I72" s="6">
+        <v>10</v>
+      </c>
+      <c r="J72" s="6">
+        <v>0</v>
+      </c>
+      <c r="K72" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L72" s="6">
+        <v>1</v>
+      </c>
+      <c r="M72" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="6" customFormat="1" ht="18">
+      <c r="A73" s="13">
+        <v>14762935</v>
+      </c>
+      <c r="B73" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="C73" s="6">
+        <v>1</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1</v>
+      </c>
+      <c r="F73" s="6">
+        <v>512</v>
+      </c>
+      <c r="G73" s="6">
+        <v>512</v>
+      </c>
+      <c r="H73" s="6">
+        <v>10</v>
+      </c>
+      <c r="I73" s="6">
+        <v>10</v>
+      </c>
+      <c r="J73" s="6">
+        <v>0</v>
+      </c>
+      <c r="K73" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L73" s="6">
+        <v>1</v>
+      </c>
+      <c r="M73" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
-      <c r="A72">
+    <row r="76" spans="1:14">
+      <c r="A76">
         <v>14</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B76" s="2">
         <v>100000000</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
-      <c r="A74" t="s">
+    <row r="78" spans="1:14">
+      <c r="A78" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="1">
+    <row r="79" spans="1:14">
+      <c r="A79" s="1">
         <v>14965608</v>
       </c>
-      <c r="B75">
+      <c r="B79">
         <v>30000</v>
       </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>128</v>
-      </c>
-      <c r="G75">
-        <v>128</v>
-      </c>
-      <c r="H75">
-        <v>10</v>
-      </c>
-      <c r="I75">
-        <v>10</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L75">
-        <v>10</v>
-      </c>
-      <c r="M75">
-        <v>0.01</v>
-      </c>
-      <c r="N75" s="6" t="s">
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>128</v>
+      </c>
+      <c r="G79">
+        <v>128</v>
+      </c>
+      <c r="H79">
+        <v>10</v>
+      </c>
+      <c r="I79">
+        <v>10</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L79">
+        <v>10</v>
+      </c>
+      <c r="M79">
+        <v>0.01</v>
+      </c>
+      <c r="N79" s="6" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="1">
-        <v>14965609</v>
-      </c>
-      <c r="B76">
-        <v>40000</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76">
-        <v>128</v>
-      </c>
-      <c r="G76">
-        <v>128</v>
-      </c>
-      <c r="H76">
-        <v>10</v>
-      </c>
-      <c r="I76">
-        <v>10</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L76">
-        <v>10</v>
-      </c>
-      <c r="M76">
-        <v>0.01</v>
-      </c>
-      <c r="N76" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="1">
-        <v>14965611</v>
-      </c>
-      <c r="B77">
-        <v>60000</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>128</v>
-      </c>
-      <c r="G77">
-        <v>128</v>
-      </c>
-      <c r="H77">
-        <v>10</v>
-      </c>
-      <c r="I77">
-        <v>10</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L77">
-        <v>10</v>
-      </c>
-      <c r="M77">
-        <v>0.01</v>
-      </c>
-      <c r="N77" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
-        <v>14965912</v>
+        <v>14965609</v>
       </c>
       <c r="B80">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -2793,15 +3061,15 @@
         <v>0.01</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1">
-        <v>14965914</v>
+        <v>14965611</v>
       </c>
       <c r="B81">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -2837,64 +3105,64 @@
         <v>0.01</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="1">
-        <v>14965915</v>
-      </c>
-      <c r="B82">
-        <v>60000</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <v>128</v>
-      </c>
-      <c r="G82">
-        <v>128</v>
-      </c>
-      <c r="H82">
-        <v>10</v>
-      </c>
-      <c r="I82">
-        <v>10</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L82">
-        <v>10</v>
-      </c>
-      <c r="M82">
-        <v>0.01</v>
-      </c>
-      <c r="N82" s="6" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="83" spans="1:14">
+      <c r="A83" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="84" spans="1:14">
-      <c r="A84" t="s">
-        <v>48</v>
+      <c r="A84" s="1">
+        <v>14965912</v>
+      </c>
+      <c r="B84">
+        <v>30000</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>128</v>
+      </c>
+      <c r="G84">
+        <v>128</v>
+      </c>
+      <c r="H84">
+        <v>10</v>
+      </c>
+      <c r="I84">
+        <v>10</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L84">
+        <v>10</v>
+      </c>
+      <c r="M84">
+        <v>0.01</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
-        <v>14965918</v>
+        <v>14965914</v>
       </c>
       <c r="B85">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -2930,252 +3198,252 @@
         <v>0.01</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
+        <v>14965915</v>
+      </c>
+      <c r="B86">
+        <v>60000</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>128</v>
+      </c>
+      <c r="G86">
+        <v>128</v>
+      </c>
+      <c r="H86">
+        <v>10</v>
+      </c>
+      <c r="I86">
+        <v>10</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L86">
+        <v>10</v>
+      </c>
+      <c r="M86">
+        <v>0.01</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="1">
+        <v>14965918</v>
+      </c>
+      <c r="B89">
+        <v>30000</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>128</v>
+      </c>
+      <c r="G89">
+        <v>128</v>
+      </c>
+      <c r="H89">
+        <v>10</v>
+      </c>
+      <c r="I89">
+        <v>10</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L89">
+        <v>10</v>
+      </c>
+      <c r="M89">
+        <v>0.01</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="1">
         <v>14965919</v>
       </c>
-      <c r="B86">
+      <c r="B90">
         <v>40000</v>
       </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>128</v>
-      </c>
-      <c r="G86">
-        <v>128</v>
-      </c>
-      <c r="H86">
-        <v>10</v>
-      </c>
-      <c r="I86">
-        <v>10</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L86">
-        <v>10</v>
-      </c>
-      <c r="M86">
-        <v>0.01</v>
-      </c>
-      <c r="N86" s="6" t="s">
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>128</v>
+      </c>
+      <c r="G90">
+        <v>128</v>
+      </c>
+      <c r="H90">
+        <v>10</v>
+      </c>
+      <c r="I90">
+        <v>10</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L90">
+        <v>10</v>
+      </c>
+      <c r="M90">
+        <v>0.01</v>
+      </c>
+      <c r="N90" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
-      <c r="A87" s="1">
+    <row r="91" spans="1:14">
+      <c r="A91" s="1">
         <v>14965920</v>
       </c>
-      <c r="B87">
+      <c r="B91">
         <v>60000</v>
       </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>128</v>
-      </c>
-      <c r="G87">
-        <v>128</v>
-      </c>
-      <c r="H87">
-        <v>10</v>
-      </c>
-      <c r="I87">
-        <v>10</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L87">
-        <v>10</v>
-      </c>
-      <c r="M87">
-        <v>0.01</v>
-      </c>
-      <c r="N87" s="6" t="s">
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>128</v>
+      </c>
+      <c r="G91">
+        <v>128</v>
+      </c>
+      <c r="H91">
+        <v>10</v>
+      </c>
+      <c r="I91">
+        <v>10</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L91">
+        <v>10</v>
+      </c>
+      <c r="M91">
+        <v>0.01</v>
+      </c>
+      <c r="N91" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
-      <c r="A89" s="15">
+    <row r="93" spans="1:14">
+      <c r="A93" s="15">
         <v>44983</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
-      <c r="A90" t="s">
+    <row r="94" spans="1:14">
+      <c r="A94" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
-      <c r="A91" t="s">
+    <row r="95" spans="1:14">
+      <c r="A95" t="s">
         <v>50</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B95" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
-      <c r="A92">
+    <row r="96" spans="1:14">
+      <c r="A96">
         <v>15127911</v>
       </c>
-      <c r="B92">
+      <c r="B96">
         <v>60000</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C96" t="s">
         <v>57</v>
       </c>
-      <c r="D92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>128</v>
-      </c>
-      <c r="G92">
-        <v>128</v>
-      </c>
-      <c r="H92">
-        <v>10</v>
-      </c>
-      <c r="I92">
-        <v>10</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L92">
-        <v>10</v>
-      </c>
-      <c r="M92">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93">
-        <v>15127861</v>
-      </c>
-      <c r="B93">
-        <v>60000</v>
-      </c>
-      <c r="C93">
-        <v>0.01</v>
-      </c>
-      <c r="D93" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>128</v>
-      </c>
-      <c r="G93">
-        <v>128</v>
-      </c>
-      <c r="H93">
-        <v>10</v>
-      </c>
-      <c r="I93">
-        <v>10</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L93">
-        <v>10</v>
-      </c>
-      <c r="M93">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" s="8" customFormat="1">
-      <c r="A94" s="8">
-        <v>15131602</v>
-      </c>
-      <c r="B94" s="9">
-        <v>100000000</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E94" s="8">
-        <v>1</v>
-      </c>
-      <c r="F94" s="8">
-        <v>256</v>
-      </c>
-      <c r="G94" s="8">
-        <v>256</v>
-      </c>
-      <c r="H94" s="8">
-        <v>10</v>
-      </c>
-      <c r="I94" s="8">
-        <v>10</v>
-      </c>
-      <c r="J94" s="8">
-        <v>0</v>
-      </c>
-      <c r="K94" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="L94" s="8">
-        <v>1</v>
-      </c>
-      <c r="M94" s="9">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" t="s">
-        <v>51</v>
-      </c>
-      <c r="B96" t="s">
-        <v>53</v>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>128</v>
+      </c>
+      <c r="G96">
+        <v>128</v>
+      </c>
+      <c r="H96">
+        <v>10</v>
+      </c>
+      <c r="I96">
+        <v>10</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L96">
+        <v>10</v>
+      </c>
+      <c r="M96">
+        <v>0.01</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97">
-        <v>15127953</v>
+        <v>15127861</v>
       </c>
       <c r="B97">
         <v>60000</v>
@@ -3204,555 +3472,596 @@
       <c r="J97">
         <v>0</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="K97" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L97">
+        <v>10</v>
+      </c>
+      <c r="M97">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="8" customFormat="1">
+      <c r="A98" s="8">
+        <v>15131602</v>
+      </c>
+      <c r="B98" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="8">
+        <v>1</v>
+      </c>
+      <c r="F98" s="8">
+        <v>256</v>
+      </c>
+      <c r="G98" s="8">
+        <v>256</v>
+      </c>
+      <c r="H98" s="8">
+        <v>10</v>
+      </c>
+      <c r="I98" s="8">
+        <v>10</v>
+      </c>
+      <c r="J98" s="8">
+        <v>0</v>
+      </c>
+      <c r="K98" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="L98" s="8">
+        <v>1</v>
+      </c>
+      <c r="M98" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101">
+        <v>15127953</v>
+      </c>
+      <c r="B101">
+        <v>60000</v>
+      </c>
+      <c r="C101">
+        <v>0.01</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>128</v>
+      </c>
+      <c r="G101">
+        <v>128</v>
+      </c>
+      <c r="H101">
+        <v>10</v>
+      </c>
+      <c r="I101">
+        <v>10</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L97" t="s">
+      <c r="L101" t="s">
         <v>55</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M101" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
-      <c r="A98">
+    <row r="102" spans="1:13">
+      <c r="A102">
         <v>15130729</v>
       </c>
-      <c r="B98">
+      <c r="B102">
         <v>60000</v>
       </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98" t="s">
-        <v>13</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98">
-        <v>128</v>
-      </c>
-      <c r="G98">
-        <v>128</v>
-      </c>
-      <c r="H98">
-        <v>10</v>
-      </c>
-      <c r="I98">
-        <v>10</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L98">
-        <v>10</v>
-      </c>
-      <c r="M98">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>128</v>
+      </c>
+      <c r="G102">
+        <v>128</v>
+      </c>
+      <c r="H102">
+        <v>10</v>
+      </c>
+      <c r="I102">
+        <v>10</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L102">
+        <v>10</v>
+      </c>
+      <c r="M102">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103">
         <v>15132168</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B103" s="2">
         <v>100000000</v>
       </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99" t="s">
-        <v>13</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99">
-        <v>256</v>
-      </c>
-      <c r="G99">
-        <v>256</v>
-      </c>
-      <c r="H99">
-        <v>10</v>
-      </c>
-      <c r="I99">
-        <v>10</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99" s="2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>256</v>
+      </c>
+      <c r="G103">
+        <v>256</v>
+      </c>
+      <c r="H103">
+        <v>10</v>
+      </c>
+      <c r="I103">
+        <v>10</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103" s="2">
         <v>1E-8</v>
       </c>
-      <c r="L99">
-        <v>1</v>
-      </c>
-      <c r="M99" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100">
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104">
         <v>15140639</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B104" s="2">
         <v>100000000</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100" t="s">
-        <v>13</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100">
-        <v>256</v>
-      </c>
-      <c r="G100">
-        <v>256</v>
-      </c>
-      <c r="H100">
-        <v>10</v>
-      </c>
-      <c r="I100">
-        <v>10</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100" s="2">
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>256</v>
+      </c>
+      <c r="G104">
+        <v>256</v>
+      </c>
+      <c r="H104">
+        <v>10</v>
+      </c>
+      <c r="I104">
+        <v>10</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104" s="2">
         <v>1E-8</v>
       </c>
-      <c r="L100" s="2">
+      <c r="L104" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M100" s="2">
+      <c r="M104" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="101" spans="1:13" s="16" customFormat="1">
-      <c r="A101" s="16">
+    <row r="105" spans="1:13" s="16" customFormat="1">
+      <c r="A105" s="16">
         <v>15144596</v>
       </c>
-      <c r="B101" s="17">
+      <c r="B105" s="17">
         <v>100000000</v>
       </c>
-      <c r="C101" s="16">
-        <v>0</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" s="16">
-        <v>1</v>
-      </c>
-      <c r="F101" s="16">
-        <v>256</v>
-      </c>
-      <c r="G101" s="16">
-        <v>256</v>
-      </c>
-      <c r="H101" s="16">
-        <v>10</v>
-      </c>
-      <c r="I101" s="16">
-        <v>10</v>
-      </c>
-      <c r="J101" s="16">
-        <v>0</v>
-      </c>
-      <c r="K101" s="17">
+      <c r="C105" s="16">
+        <v>0</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="16">
+        <v>1</v>
+      </c>
+      <c r="F105" s="16">
+        <v>256</v>
+      </c>
+      <c r="G105" s="16">
+        <v>256</v>
+      </c>
+      <c r="H105" s="16">
+        <v>10</v>
+      </c>
+      <c r="I105" s="16">
+        <v>10</v>
+      </c>
+      <c r="J105" s="16">
+        <v>0</v>
+      </c>
+      <c r="K105" s="17">
         <v>1E-8</v>
       </c>
-      <c r="L101" s="17">
+      <c r="L105" s="17">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="M101" s="17">
+      <c r="M105" s="17">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="8" customFormat="1">
-      <c r="A102" s="8">
+    <row r="106" spans="1:13" s="8" customFormat="1">
+      <c r="A106" s="8">
         <v>15142489</v>
       </c>
-      <c r="B102" s="9">
+      <c r="B106" s="9">
         <v>100000000</v>
       </c>
-      <c r="C102" s="8">
-        <v>0</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E102" s="8">
-        <v>1</v>
-      </c>
-      <c r="F102" s="8">
-        <v>256</v>
-      </c>
-      <c r="G102" s="8">
-        <v>256</v>
-      </c>
-      <c r="H102" s="8">
-        <v>10</v>
-      </c>
-      <c r="I102" s="8">
-        <v>10</v>
-      </c>
-      <c r="J102" s="8">
-        <v>0</v>
-      </c>
-      <c r="K102" s="9">
+      <c r="C106" s="8">
+        <v>0</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="8">
+        <v>1</v>
+      </c>
+      <c r="F106" s="8">
+        <v>256</v>
+      </c>
+      <c r="G106" s="8">
+        <v>256</v>
+      </c>
+      <c r="H106" s="8">
+        <v>10</v>
+      </c>
+      <c r="I106" s="8">
+        <v>10</v>
+      </c>
+      <c r="J106" s="8">
+        <v>0</v>
+      </c>
+      <c r="K106" s="9">
         <v>1E-8</v>
       </c>
-      <c r="L102" s="9">
+      <c r="L106" s="9">
         <v>1E-4</v>
       </c>
-      <c r="M102" s="9">
+      <c r="M106" s="9">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
-      <c r="B103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="14">
+    <row r="107" spans="1:13">
+      <c r="B107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="14">
         <v>44984</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
-      <c r="A105" t="s">
+    <row r="109" spans="1:13">
+      <c r="A109" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
-      <c r="A106" t="s">
+    <row r="110" spans="1:13">
+      <c r="A110" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
-      <c r="A107">
+    <row r="111" spans="1:13">
+      <c r="A111">
         <v>15136552</v>
       </c>
-      <c r="B107">
+      <c r="B111">
         <v>40000</v>
       </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107">
-        <v>128</v>
-      </c>
-      <c r="G107">
-        <v>128</v>
-      </c>
-      <c r="H107">
-        <v>10</v>
-      </c>
-      <c r="I107">
-        <v>10</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L107">
-        <v>10</v>
-      </c>
-      <c r="M107">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108">
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>128</v>
+      </c>
+      <c r="G111">
+        <v>128</v>
+      </c>
+      <c r="H111">
+        <v>10</v>
+      </c>
+      <c r="I111">
+        <v>10</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L111">
+        <v>10</v>
+      </c>
+      <c r="M111">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112">
         <v>15136553</v>
       </c>
-      <c r="B108">
+      <c r="B112">
         <v>60000</v>
       </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108" t="s">
-        <v>13</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108">
-        <v>128</v>
-      </c>
-      <c r="G108">
-        <v>128</v>
-      </c>
-      <c r="H108">
-        <v>10</v>
-      </c>
-      <c r="I108">
-        <v>10</v>
-      </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-      <c r="K108" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L108">
-        <v>10</v>
-      </c>
-      <c r="M108">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" s="8" customFormat="1">
-      <c r="A109" s="8">
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>128</v>
+      </c>
+      <c r="G112">
+        <v>128</v>
+      </c>
+      <c r="H112">
+        <v>10</v>
+      </c>
+      <c r="I112">
+        <v>10</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L112">
+        <v>10</v>
+      </c>
+      <c r="M112">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" s="8" customFormat="1">
+      <c r="A113" s="8">
         <v>15142501</v>
       </c>
-      <c r="B109" s="9">
+      <c r="B113" s="9">
         <v>100000000</v>
       </c>
-      <c r="C109" s="8">
-        <v>1</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E109" s="8">
-        <v>1</v>
-      </c>
-      <c r="F109" s="8">
-        <v>256</v>
-      </c>
-      <c r="G109" s="8">
+      <c r="C113" s="8">
+        <v>1</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="8">
+        <v>1</v>
+      </c>
+      <c r="F113" s="8">
+        <v>256</v>
+      </c>
+      <c r="G113" s="8">
         <v>16</v>
       </c>
-      <c r="H109" s="8">
-        <v>10</v>
-      </c>
-      <c r="I109" s="8">
-        <v>10</v>
-      </c>
-      <c r="J109" s="8">
-        <v>0</v>
-      </c>
-      <c r="K109" s="9">
+      <c r="H113" s="8">
+        <v>10</v>
+      </c>
+      <c r="I113" s="8">
+        <v>10</v>
+      </c>
+      <c r="J113" s="8">
+        <v>0</v>
+      </c>
+      <c r="K113" s="9">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L109" s="8">
-        <v>1</v>
-      </c>
-      <c r="M109" s="8">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" s="16" customFormat="1">
-      <c r="A110" s="16">
+      <c r="L113" s="8">
+        <v>1</v>
+      </c>
+      <c r="M113" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" s="16" customFormat="1">
+      <c r="A114" s="16">
         <v>15144692</v>
       </c>
-      <c r="B110" s="17">
+      <c r="B114" s="17">
         <v>100000000</v>
       </c>
-      <c r="C110" s="16" t="s">
+      <c r="C114" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D110" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E110" s="16">
-        <v>1</v>
-      </c>
-      <c r="F110" s="16">
-        <v>256</v>
-      </c>
-      <c r="G110" s="16">
+      <c r="D114" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" s="16">
+        <v>1</v>
+      </c>
+      <c r="F114" s="16">
+        <v>256</v>
+      </c>
+      <c r="G114" s="16">
         <v>16</v>
       </c>
-      <c r="H110" s="16">
-        <v>10</v>
-      </c>
-      <c r="I110" s="16">
-        <v>10</v>
-      </c>
-      <c r="J110" s="16">
-        <v>0</v>
-      </c>
-      <c r="K110" s="17">
+      <c r="H114" s="16">
+        <v>10</v>
+      </c>
+      <c r="I114" s="16">
+        <v>10</v>
+      </c>
+      <c r="J114" s="16">
+        <v>0</v>
+      </c>
+      <c r="K114" s="17">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L110" s="16">
-        <v>1</v>
-      </c>
-      <c r="M110" s="16">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" s="8" customFormat="1">
-      <c r="B111" s="9"/>
-      <c r="K111" s="9"/>
-    </row>
-    <row r="112" spans="1:13">
-      <c r="A112" t="s">
+      <c r="L114" s="16">
+        <v>1</v>
+      </c>
+      <c r="M114" s="16">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" s="8" customFormat="1">
+      <c r="B115" s="9"/>
+      <c r="K115" s="9"/>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" t="s">
         <v>61</v>
       </c>
-      <c r="B112" s="2"/>
-      <c r="K112" s="2"/>
-    </row>
-    <row r="113" spans="1:13">
-      <c r="A113" s="16">
+      <c r="B116" s="2"/>
+      <c r="K116" s="2"/>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="16">
         <v>15144604</v>
       </c>
-      <c r="B113" s="17">
+      <c r="B117" s="17">
         <v>100000000</v>
       </c>
-      <c r="C113" s="16">
-        <v>0</v>
-      </c>
-      <c r="D113" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" s="16">
-        <v>1</v>
-      </c>
-      <c r="F113" s="16">
-        <v>256</v>
-      </c>
-      <c r="G113" s="16">
-        <v>256</v>
-      </c>
-      <c r="H113" s="16">
-        <v>10</v>
-      </c>
-      <c r="I113" s="16">
-        <v>10</v>
-      </c>
-      <c r="J113" s="16">
-        <v>0</v>
-      </c>
-      <c r="K113" s="17">
+      <c r="C117" s="16">
+        <v>0</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="16">
+        <v>1</v>
+      </c>
+      <c r="F117" s="16">
+        <v>256</v>
+      </c>
+      <c r="G117" s="16">
+        <v>256</v>
+      </c>
+      <c r="H117" s="16">
+        <v>10</v>
+      </c>
+      <c r="I117" s="16">
+        <v>10</v>
+      </c>
+      <c r="J117" s="16">
+        <v>0</v>
+      </c>
+      <c r="K117" s="17">
         <v>1E-8</v>
       </c>
-      <c r="L113" s="17">
+      <c r="L117" s="17">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="M113" s="17">
+      <c r="M117" s="17">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
-      <c r="B114" s="2"/>
-      <c r="K114" s="2"/>
-    </row>
-    <row r="115" spans="1:13">
-      <c r="B115">
+    <row r="118" spans="1:13">
+      <c r="B118" s="2"/>
+      <c r="K118" s="2"/>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="B119">
         <v>40000</v>
       </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115" t="s">
-        <v>13</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115">
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
         <v>32</v>
       </c>
-      <c r="G115">
+      <c r="G119">
         <v>32</v>
       </c>
-      <c r="H115">
-        <v>10</v>
-      </c>
-      <c r="I115">
-        <v>10</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L115">
+      <c r="H119">
+        <v>10</v>
+      </c>
+      <c r="I119">
+        <v>10</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L119">
         <v>1000</v>
       </c>
-      <c r="M115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
-      <c r="A116">
-        <v>15135104</v>
-      </c>
-      <c r="B116">
-        <v>60000</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116" t="s">
-        <v>13</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-      <c r="F116">
-        <v>32</v>
-      </c>
-      <c r="G116">
-        <v>32</v>
-      </c>
-      <c r="H116">
-        <v>10</v>
-      </c>
-      <c r="I116">
-        <v>10</v>
-      </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-      <c r="K116" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L116">
-        <v>1000</v>
-      </c>
-      <c r="M116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
-      <c r="K117" s="2"/>
-    </row>
-    <row r="118" spans="1:13">
-      <c r="K118" s="2"/>
-    </row>
-    <row r="119" spans="1:13">
-      <c r="A119" t="s">
-        <v>60</v>
+      <c r="M119">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120">
-        <v>15135106</v>
+        <v>15135104</v>
       </c>
       <c r="B120">
         <v>60000</v>
@@ -3788,6 +4097,58 @@
         <v>1000</v>
       </c>
       <c r="M120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="K121" s="2"/>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="K122" s="2"/>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124">
+        <v>15135106</v>
+      </c>
+      <c r="B124">
+        <v>60000</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>32</v>
+      </c>
+      <c r="G124">
+        <v>32</v>
+      </c>
+      <c r="H124">
+        <v>10</v>
+      </c>
+      <c r="I124">
+        <v>10</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L124">
+        <v>1000</v>
+      </c>
+      <c r="M124">
         <v>1</v>
       </c>
     </row>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447492A3-C795-4AB1-B17D-E982A9C78819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47573CA-3209-4CD1-A132-60D763C18482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="69">
   <si>
     <t>slurm_num</t>
   </si>
@@ -224,13 +224,25 @@
     <t>viscous scaling</t>
   </si>
   <si>
-    <t>on alpine</t>
-  </si>
-  <si>
     <t>Steady elevator mode, needs to run longer</t>
   </si>
   <si>
     <t>modulated traveling waves</t>
+  </si>
+  <si>
+    <t>Find global bifurcation point</t>
+  </si>
+  <si>
+    <t>Find vertical traveling waves by controlling mass flux</t>
+  </si>
+  <si>
+    <t>A_w_mean=1</t>
+  </si>
+  <si>
+    <t>A_w_mean=10</t>
+  </si>
+  <si>
+    <t>Truncated to nx=1</t>
   </si>
 </sst>
 </file>
@@ -614,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P124"/>
+  <dimension ref="A1:P158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:M37"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1495,552 +1507,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:16" s="6" customFormat="1">
-      <c r="A31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-    </row>
-    <row r="32" spans="1:16" s="6" customFormat="1">
-      <c r="A32" s="5">
-        <v>907837</v>
-      </c>
-      <c r="B32">
-        <v>42000</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>128</v>
-      </c>
-      <c r="G32">
-        <v>128</v>
-      </c>
-      <c r="H32">
-        <v>10</v>
-      </c>
-      <c r="I32">
-        <v>10</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L32">
-        <v>10</v>
-      </c>
-      <c r="M32">
-        <v>0.01</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="6" customFormat="1">
-      <c r="A33" s="5">
-        <v>907867</v>
-      </c>
-      <c r="B33">
-        <v>44000</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>128</v>
-      </c>
-      <c r="G33">
-        <v>128</v>
-      </c>
-      <c r="H33">
-        <v>10</v>
-      </c>
-      <c r="I33">
-        <v>10</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L33">
-        <v>10</v>
-      </c>
-      <c r="M33">
-        <v>0.01</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="6" customFormat="1">
-      <c r="A34" s="5">
-        <v>907878</v>
-      </c>
-      <c r="B34">
-        <v>46000</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>128</v>
-      </c>
-      <c r="G34">
-        <v>128</v>
-      </c>
-      <c r="H34">
-        <v>10</v>
-      </c>
-      <c r="I34">
-        <v>10</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L34">
-        <v>10</v>
-      </c>
-      <c r="M34">
-        <v>0.01</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="6" customFormat="1">
-      <c r="A35" s="5"/>
-      <c r="B35">
-        <v>46500</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>128</v>
-      </c>
-      <c r="G35">
-        <v>128</v>
-      </c>
-      <c r="H35">
-        <v>10</v>
-      </c>
-      <c r="I35">
-        <v>10</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L35">
-        <v>10</v>
-      </c>
-      <c r="M35">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="6" customFormat="1">
-      <c r="A36" s="5"/>
-      <c r="B36">
-        <v>47000</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>128</v>
-      </c>
-      <c r="G36">
-        <v>128</v>
-      </c>
-      <c r="H36">
-        <v>10</v>
-      </c>
-      <c r="I36">
-        <v>10</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L36">
-        <v>10</v>
-      </c>
-      <c r="M36">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="6" customFormat="1">
-      <c r="A37" s="5"/>
-      <c r="B37">
-        <v>47500</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>128</v>
-      </c>
-      <c r="G37">
-        <v>128</v>
-      </c>
-      <c r="H37">
-        <v>10</v>
-      </c>
-      <c r="I37">
-        <v>10</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L37">
-        <v>10</v>
-      </c>
-      <c r="M37">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="6" customFormat="1">
-      <c r="A38" s="5">
-        <v>907903</v>
-      </c>
-      <c r="B38">
-        <v>48000</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>128</v>
-      </c>
-      <c r="G38">
-        <v>128</v>
-      </c>
-      <c r="H38">
-        <v>10</v>
-      </c>
-      <c r="I38">
-        <v>10</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L38">
-        <v>10</v>
-      </c>
-      <c r="M38">
-        <v>0.01</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="6" customFormat="1">
-      <c r="A39" s="5">
-        <v>907919</v>
-      </c>
-      <c r="B39">
-        <v>50000</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>128</v>
-      </c>
-      <c r="G39">
-        <v>128</v>
-      </c>
-      <c r="H39">
-        <v>10</v>
-      </c>
-      <c r="I39">
-        <v>10</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L39">
-        <v>10</v>
-      </c>
-      <c r="M39">
-        <v>0.01</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" s="6" customFormat="1">
-      <c r="A40" s="5">
-        <v>907934</v>
-      </c>
-      <c r="B40">
-        <v>52000</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>128</v>
-      </c>
-      <c r="G40">
-        <v>128</v>
-      </c>
-      <c r="H40">
-        <v>10</v>
-      </c>
-      <c r="I40">
-        <v>10</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L40">
-        <v>10</v>
-      </c>
-      <c r="M40">
-        <v>0.01</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="6" customFormat="1">
-      <c r="A41" s="5">
-        <v>907946</v>
-      </c>
-      <c r="B41">
-        <v>54000</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>128</v>
-      </c>
-      <c r="G41">
-        <v>128</v>
-      </c>
-      <c r="H41">
-        <v>10</v>
-      </c>
-      <c r="I41">
-        <v>10</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L41">
-        <v>10</v>
-      </c>
-      <c r="M41">
-        <v>0.01</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" s="6" customFormat="1">
-      <c r="A42" s="5">
-        <v>907961</v>
-      </c>
-      <c r="B42">
-        <v>56000</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>128</v>
-      </c>
-      <c r="G42">
-        <v>128</v>
-      </c>
-      <c r="H42">
-        <v>10</v>
-      </c>
-      <c r="I42">
-        <v>10</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L42">
-        <v>10</v>
-      </c>
-      <c r="M42">
-        <v>0.01</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="6" customFormat="1">
-      <c r="A43" s="5">
-        <v>907979</v>
-      </c>
-      <c r="B43">
-        <v>58000</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>128</v>
-      </c>
-      <c r="G43">
-        <v>128</v>
-      </c>
-      <c r="H43">
-        <v>10</v>
-      </c>
-      <c r="I43">
-        <v>10</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L43">
-        <v>10</v>
-      </c>
-      <c r="M43">
-        <v>0.01</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" s="6" customFormat="1">
-      <c r="A44" s="5"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44" s="2"/>
-      <c r="L44"/>
-      <c r="M44"/>
-    </row>
-    <row r="45" spans="1:14" s="6" customFormat="1">
+    <row r="45" spans="1:13" s="6" customFormat="1">
       <c r="A45" s="5"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -2055,7 +1522,7 @@
       <c r="L45"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="1:14" s="6" customFormat="1">
+    <row r="46" spans="1:13" s="6" customFormat="1">
       <c r="A46" s="5"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -2070,11 +1537,11 @@
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="1:14" s="6" customFormat="1">
+    <row r="47" spans="1:13" s="6" customFormat="1">
       <c r="A47" s="5"/>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:13">
       <c r="A48" s="1"/>
       <c r="K48" s="2"/>
     </row>
@@ -3883,7 +3350,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:13" s="8" customFormat="1">
+    <row r="113" spans="1:14" s="8" customFormat="1">
       <c r="A113" s="8">
         <v>15142501</v>
       </c>
@@ -3924,7 +3391,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="16" customFormat="1">
+    <row r="114" spans="1:14" s="16" customFormat="1">
       <c r="A114" s="16">
         <v>15144692</v>
       </c>
@@ -3965,18 +3432,18 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:13" s="8" customFormat="1">
+    <row r="115" spans="1:14" s="8" customFormat="1">
       <c r="B115" s="9"/>
       <c r="K115" s="9"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:14">
       <c r="A116" t="s">
         <v>61</v>
       </c>
       <c r="B116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:14">
       <c r="A117" s="16">
         <v>15144604</v>
       </c>
@@ -4017,11 +3484,11 @@
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:14">
       <c r="B118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:14">
       <c r="B119">
         <v>40000</v>
       </c>
@@ -4059,7 +3526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:14">
       <c r="A120">
         <v>15135104</v>
       </c>
@@ -4100,18 +3567,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:14">
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:14">
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:14">
       <c r="A123" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:14">
       <c r="A124">
         <v>15135106</v>
       </c>
@@ -4150,6 +3617,1224 @@
       </c>
       <c r="M124">
         <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" s="6" customFormat="1">
+      <c r="A127" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+    </row>
+    <row r="128" spans="1:14" s="6" customFormat="1">
+      <c r="A128" s="1">
+        <v>907837</v>
+      </c>
+      <c r="B128">
+        <v>42000</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>128</v>
+      </c>
+      <c r="G128">
+        <v>128</v>
+      </c>
+      <c r="H128">
+        <v>10</v>
+      </c>
+      <c r="I128">
+        <v>10</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L128">
+        <v>10</v>
+      </c>
+      <c r="M128">
+        <v>0.01</v>
+      </c>
+      <c r="N128" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" s="6" customFormat="1">
+      <c r="A129" s="1">
+        <v>907867</v>
+      </c>
+      <c r="B129">
+        <v>44000</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>128</v>
+      </c>
+      <c r="G129">
+        <v>128</v>
+      </c>
+      <c r="H129">
+        <v>10</v>
+      </c>
+      <c r="I129">
+        <v>10</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L129">
+        <v>10</v>
+      </c>
+      <c r="M129">
+        <v>0.01</v>
+      </c>
+      <c r="N129" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" s="6" customFormat="1">
+      <c r="A130" s="1">
+        <v>907878</v>
+      </c>
+      <c r="B130">
+        <v>46000</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>128</v>
+      </c>
+      <c r="G130">
+        <v>128</v>
+      </c>
+      <c r="H130">
+        <v>10</v>
+      </c>
+      <c r="I130">
+        <v>10</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L130">
+        <v>10</v>
+      </c>
+      <c r="M130">
+        <v>0.01</v>
+      </c>
+      <c r="N130" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" s="6" customFormat="1">
+      <c r="A131" s="1">
+        <v>15154914</v>
+      </c>
+      <c r="B131">
+        <v>46500</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>128</v>
+      </c>
+      <c r="G131">
+        <v>128</v>
+      </c>
+      <c r="H131">
+        <v>10</v>
+      </c>
+      <c r="I131">
+        <v>10</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L131">
+        <v>10</v>
+      </c>
+      <c r="M131">
+        <v>0.01</v>
+      </c>
+      <c r="N131" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" s="6" customFormat="1">
+      <c r="A132" s="5">
+        <v>15156185</v>
+      </c>
+      <c r="B132">
+        <v>46600</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>128</v>
+      </c>
+      <c r="G132">
+        <v>128</v>
+      </c>
+      <c r="H132">
+        <v>10</v>
+      </c>
+      <c r="I132">
+        <v>10</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L132">
+        <v>10</v>
+      </c>
+      <c r="M132">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" s="6" customFormat="1">
+      <c r="A133" s="5">
+        <v>15156187</v>
+      </c>
+      <c r="B133">
+        <v>46700</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>128</v>
+      </c>
+      <c r="G133">
+        <v>128</v>
+      </c>
+      <c r="H133">
+        <v>10</v>
+      </c>
+      <c r="I133">
+        <v>10</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L133">
+        <v>10</v>
+      </c>
+      <c r="M133">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" s="6" customFormat="1">
+      <c r="A134" s="5">
+        <v>15156193</v>
+      </c>
+      <c r="B134">
+        <v>46800</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>128</v>
+      </c>
+      <c r="G134">
+        <v>128</v>
+      </c>
+      <c r="H134">
+        <v>10</v>
+      </c>
+      <c r="I134">
+        <v>10</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L134">
+        <v>10</v>
+      </c>
+      <c r="M134">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" s="6" customFormat="1">
+      <c r="A135" s="5">
+        <v>15156198</v>
+      </c>
+      <c r="B135">
+        <v>46900</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>128</v>
+      </c>
+      <c r="G135">
+        <v>128</v>
+      </c>
+      <c r="H135">
+        <v>10</v>
+      </c>
+      <c r="I135">
+        <v>10</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L135">
+        <v>10</v>
+      </c>
+      <c r="M135">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" s="6" customFormat="1">
+      <c r="A136" s="1">
+        <v>15154920</v>
+      </c>
+      <c r="B136">
+        <v>47000</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>128</v>
+      </c>
+      <c r="G136">
+        <v>128</v>
+      </c>
+      <c r="H136">
+        <v>10</v>
+      </c>
+      <c r="I136">
+        <v>10</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L136">
+        <v>10</v>
+      </c>
+      <c r="M136">
+        <v>0.01</v>
+      </c>
+      <c r="N136" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" s="6" customFormat="1">
+      <c r="A137" s="1">
+        <v>15154925</v>
+      </c>
+      <c r="B137">
+        <v>47500</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>128</v>
+      </c>
+      <c r="G137">
+        <v>128</v>
+      </c>
+      <c r="H137">
+        <v>10</v>
+      </c>
+      <c r="I137">
+        <v>10</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L137">
+        <v>10</v>
+      </c>
+      <c r="M137">
+        <v>0.01</v>
+      </c>
+      <c r="N137" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" s="6" customFormat="1">
+      <c r="A138" s="1">
+        <v>907903</v>
+      </c>
+      <c r="B138">
+        <v>48000</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>128</v>
+      </c>
+      <c r="G138">
+        <v>128</v>
+      </c>
+      <c r="H138">
+        <v>10</v>
+      </c>
+      <c r="I138">
+        <v>10</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L138">
+        <v>10</v>
+      </c>
+      <c r="M138">
+        <v>0.01</v>
+      </c>
+      <c r="N138" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" s="6" customFormat="1">
+      <c r="A139" s="1">
+        <v>907919</v>
+      </c>
+      <c r="B139">
+        <v>50000</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>128</v>
+      </c>
+      <c r="G139">
+        <v>128</v>
+      </c>
+      <c r="H139">
+        <v>10</v>
+      </c>
+      <c r="I139">
+        <v>10</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L139">
+        <v>10</v>
+      </c>
+      <c r="M139">
+        <v>0.01</v>
+      </c>
+      <c r="N139" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" s="6" customFormat="1">
+      <c r="A140" s="1">
+        <v>907934</v>
+      </c>
+      <c r="B140">
+        <v>52000</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>128</v>
+      </c>
+      <c r="G140">
+        <v>128</v>
+      </c>
+      <c r="H140">
+        <v>10</v>
+      </c>
+      <c r="I140">
+        <v>10</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L140">
+        <v>10</v>
+      </c>
+      <c r="M140">
+        <v>0.01</v>
+      </c>
+      <c r="N140" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" s="6" customFormat="1">
+      <c r="A141" s="1">
+        <v>907946</v>
+      </c>
+      <c r="B141">
+        <v>54000</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>128</v>
+      </c>
+      <c r="G141">
+        <v>128</v>
+      </c>
+      <c r="H141">
+        <v>10</v>
+      </c>
+      <c r="I141">
+        <v>10</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L141">
+        <v>10</v>
+      </c>
+      <c r="M141">
+        <v>0.01</v>
+      </c>
+      <c r="N141" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" s="6" customFormat="1">
+      <c r="A142" s="1">
+        <v>907961</v>
+      </c>
+      <c r="B142">
+        <v>56000</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>128</v>
+      </c>
+      <c r="G142">
+        <v>128</v>
+      </c>
+      <c r="H142">
+        <v>10</v>
+      </c>
+      <c r="I142">
+        <v>10</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L142">
+        <v>10</v>
+      </c>
+      <c r="M142">
+        <v>0.01</v>
+      </c>
+      <c r="N142" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" s="6" customFormat="1">
+      <c r="A143" s="1">
+        <v>907979</v>
+      </c>
+      <c r="B143">
+        <v>58000</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>128</v>
+      </c>
+      <c r="G143">
+        <v>128</v>
+      </c>
+      <c r="H143">
+        <v>10</v>
+      </c>
+      <c r="I143">
+        <v>10</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L143">
+        <v>10</v>
+      </c>
+      <c r="M143">
+        <v>0.01</v>
+      </c>
+      <c r="N143" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" s="6" customFormat="1">
+      <c r="A144" s="5"/>
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144" s="2"/>
+      <c r="L144"/>
+      <c r="M144"/>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147">
+        <v>15155139</v>
+      </c>
+      <c r="B147">
+        <v>30000</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>128</v>
+      </c>
+      <c r="G147">
+        <v>128</v>
+      </c>
+      <c r="H147">
+        <v>10</v>
+      </c>
+      <c r="I147">
+        <v>10</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L147">
+        <v>10</v>
+      </c>
+      <c r="M147">
+        <v>0.01</v>
+      </c>
+      <c r="N147" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148">
+        <v>15155141</v>
+      </c>
+      <c r="B148">
+        <v>40000</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>128</v>
+      </c>
+      <c r="G148">
+        <v>128</v>
+      </c>
+      <c r="H148">
+        <v>10</v>
+      </c>
+      <c r="I148">
+        <v>10</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L148">
+        <v>10</v>
+      </c>
+      <c r="M148">
+        <v>0.01</v>
+      </c>
+      <c r="N148" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149">
+        <v>15155148</v>
+      </c>
+      <c r="B149">
+        <v>60000</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>128</v>
+      </c>
+      <c r="G149">
+        <v>128</v>
+      </c>
+      <c r="H149">
+        <v>10</v>
+      </c>
+      <c r="I149">
+        <v>10</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L149">
+        <v>10</v>
+      </c>
+      <c r="M149">
+        <v>0.01</v>
+      </c>
+      <c r="N149" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150">
+        <v>15155309</v>
+      </c>
+      <c r="B150" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>256</v>
+      </c>
+      <c r="G150">
+        <v>256</v>
+      </c>
+      <c r="H150">
+        <v>10</v>
+      </c>
+      <c r="I150">
+        <v>10</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N150" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151">
+        <v>15155150</v>
+      </c>
+      <c r="B151">
+        <v>30000</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>128</v>
+      </c>
+      <c r="G151">
+        <v>128</v>
+      </c>
+      <c r="H151">
+        <v>10</v>
+      </c>
+      <c r="I151">
+        <v>10</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L151">
+        <v>10</v>
+      </c>
+      <c r="M151">
+        <v>0.01</v>
+      </c>
+      <c r="N151" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152">
+        <v>15155156</v>
+      </c>
+      <c r="B152">
+        <v>40000</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>128</v>
+      </c>
+      <c r="G152">
+        <v>128</v>
+      </c>
+      <c r="H152">
+        <v>10</v>
+      </c>
+      <c r="I152">
+        <v>10</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L152">
+        <v>10</v>
+      </c>
+      <c r="M152">
+        <v>0.01</v>
+      </c>
+      <c r="N152" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153">
+        <v>15155162</v>
+      </c>
+      <c r="B153">
+        <v>60000</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>128</v>
+      </c>
+      <c r="G153">
+        <v>128</v>
+      </c>
+      <c r="H153">
+        <v>10</v>
+      </c>
+      <c r="I153">
+        <v>10</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L153">
+        <v>10</v>
+      </c>
+      <c r="M153">
+        <v>0.01</v>
+      </c>
+      <c r="N153" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154">
+        <v>15155314</v>
+      </c>
+      <c r="B154" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>13</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>256</v>
+      </c>
+      <c r="G154">
+        <v>256</v>
+      </c>
+      <c r="H154">
+        <v>10</v>
+      </c>
+      <c r="I154">
+        <v>10</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N154" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156">
+        <v>15155190</v>
+      </c>
+      <c r="B156">
+        <v>30000</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>128</v>
+      </c>
+      <c r="G156">
+        <v>128</v>
+      </c>
+      <c r="H156">
+        <v>10</v>
+      </c>
+      <c r="I156">
+        <v>10</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L156">
+        <v>10</v>
+      </c>
+      <c r="M156">
+        <v>0.01</v>
+      </c>
+      <c r="N156" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157">
+        <v>15155200</v>
+      </c>
+      <c r="B157">
+        <v>40000</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>128</v>
+      </c>
+      <c r="G157">
+        <v>128</v>
+      </c>
+      <c r="H157">
+        <v>10</v>
+      </c>
+      <c r="I157">
+        <v>10</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L157">
+        <v>10</v>
+      </c>
+      <c r="M157">
+        <v>0.01</v>
+      </c>
+      <c r="N157" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158">
+        <v>15155216</v>
+      </c>
+      <c r="B158">
+        <v>60000</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>128</v>
+      </c>
+      <c r="G158">
+        <v>128</v>
+      </c>
+      <c r="H158">
+        <v>10</v>
+      </c>
+      <c r="I158">
+        <v>10</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L158">
+        <v>10</v>
+      </c>
+      <c r="M158">
+        <v>0.01</v>
+      </c>
+      <c r="N158" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47573CA-3209-4CD1-A132-60D763C18482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63501035-FCC9-4870-B0E6-673E52E1A809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="69">
   <si>
     <t>slurm_num</t>
   </si>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="H128" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N134" sqref="N134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3852,6 +3852,9 @@
       <c r="M132">
         <v>0.01</v>
       </c>
+      <c r="N132" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="133" spans="1:14" s="6" customFormat="1">
       <c r="A133" s="5">
@@ -3893,6 +3896,9 @@
       <c r="M133">
         <v>0.01</v>
       </c>
+      <c r="N133" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="134" spans="1:14" s="6" customFormat="1">
       <c r="A134" s="5">
@@ -3933,6 +3939,9 @@
       </c>
       <c r="M134">
         <v>0.01</v>
+      </c>
+      <c r="N134" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:14" s="6" customFormat="1">
@@ -4740,7 +4749,7 @@
         <v>1E-3</v>
       </c>
       <c r="L156">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M156">
         <v>0.01</v>
@@ -4784,7 +4793,7 @@
         <v>1E-3</v>
       </c>
       <c r="L157">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M157">
         <v>0.01</v>
@@ -4828,7 +4837,7 @@
         <v>1E-3</v>
       </c>
       <c r="L158">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M158">
         <v>0.01</v>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63501035-FCC9-4870-B0E6-673E52E1A809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DDE272-956C-459E-9ECC-48AE3784B2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="69">
   <si>
     <t>slurm_num</t>
   </si>
@@ -626,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P158"/>
+  <dimension ref="A1:P162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H128" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N134" sqref="N134"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3813,7 +3813,7 @@
       </c>
     </row>
     <row r="132" spans="1:14" s="6" customFormat="1">
-      <c r="A132" s="5">
+      <c r="A132" s="1">
         <v>15156185</v>
       </c>
       <c r="B132">
@@ -3857,7 +3857,7 @@
       </c>
     </row>
     <row r="133" spans="1:14" s="6" customFormat="1">
-      <c r="A133" s="5">
+      <c r="A133" s="1">
         <v>15156187</v>
       </c>
       <c r="B133">
@@ -3901,7 +3901,7 @@
       </c>
     </row>
     <row r="134" spans="1:14" s="6" customFormat="1">
-      <c r="A134" s="5">
+      <c r="A134" s="1">
         <v>15156193</v>
       </c>
       <c r="B134">
@@ -3946,10 +3946,10 @@
     </row>
     <row r="135" spans="1:14" s="6" customFormat="1">
       <c r="A135" s="5">
-        <v>15156198</v>
+        <v>15156832</v>
       </c>
       <c r="B135">
-        <v>46900</v>
+        <v>46820</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -3986,11 +3986,11 @@
       </c>
     </row>
     <row r="136" spans="1:14" s="6" customFormat="1">
-      <c r="A136" s="1">
-        <v>15154920</v>
+      <c r="A136" s="5">
+        <v>15156833</v>
       </c>
       <c r="B136">
-        <v>47000</v>
+        <v>46840</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -4025,16 +4025,13 @@
       <c r="M136">
         <v>0.01</v>
       </c>
-      <c r="N136" s="6" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="137" spans="1:14" s="6" customFormat="1">
-      <c r="A137" s="1">
-        <v>15154925</v>
+      <c r="A137" s="5">
+        <v>15156834</v>
       </c>
       <c r="B137">
-        <v>47500</v>
+        <v>46860</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -4069,16 +4066,13 @@
       <c r="M137">
         <v>0.01</v>
       </c>
-      <c r="N137" s="6" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="138" spans="1:14" s="6" customFormat="1">
-      <c r="A138" s="1">
-        <v>907903</v>
+      <c r="A138" s="5">
+        <v>15156835</v>
       </c>
       <c r="B138">
-        <v>48000</v>
+        <v>46880</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -4112,17 +4106,14 @@
       </c>
       <c r="M138">
         <v>0.01</v>
-      </c>
-      <c r="N138" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="139" spans="1:14" s="6" customFormat="1">
       <c r="A139" s="1">
-        <v>907919</v>
+        <v>15156198</v>
       </c>
       <c r="B139">
-        <v>50000</v>
+        <v>46900</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -4163,10 +4154,10 @@
     </row>
     <row r="140" spans="1:14" s="6" customFormat="1">
       <c r="A140" s="1">
-        <v>907934</v>
+        <v>15154920</v>
       </c>
       <c r="B140">
-        <v>52000</v>
+        <v>47000</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -4207,10 +4198,10 @@
     </row>
     <row r="141" spans="1:14" s="6" customFormat="1">
       <c r="A141" s="1">
-        <v>907946</v>
+        <v>15154925</v>
       </c>
       <c r="B141">
-        <v>54000</v>
+        <v>47500</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -4251,10 +4242,10 @@
     </row>
     <row r="142" spans="1:14" s="6" customFormat="1">
       <c r="A142" s="1">
-        <v>907961</v>
+        <v>907903</v>
       </c>
       <c r="B142">
-        <v>56000</v>
+        <v>48000</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -4295,10 +4286,10 @@
     </row>
     <row r="143" spans="1:14" s="6" customFormat="1">
       <c r="A143" s="1">
-        <v>907979</v>
+        <v>907919</v>
       </c>
       <c r="B143">
-        <v>58000</v>
+        <v>50000</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -4338,204 +4329,204 @@
       </c>
     </row>
     <row r="144" spans="1:14" s="6" customFormat="1">
-      <c r="A144" s="5"/>
-      <c r="B144"/>
-      <c r="C144"/>
-      <c r="D144"/>
-      <c r="E144"/>
-      <c r="F144"/>
-      <c r="G144"/>
-      <c r="H144"/>
-      <c r="I144"/>
-      <c r="J144"/>
-      <c r="K144" s="2"/>
-      <c r="L144"/>
-      <c r="M144"/>
-    </row>
-    <row r="146" spans="1:14">
-      <c r="A146" s="6" t="s">
+      <c r="A144" s="1">
+        <v>907934</v>
+      </c>
+      <c r="B144">
+        <v>52000</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>128</v>
+      </c>
+      <c r="G144">
+        <v>128</v>
+      </c>
+      <c r="H144">
+        <v>10</v>
+      </c>
+      <c r="I144">
+        <v>10</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L144">
+        <v>10</v>
+      </c>
+      <c r="M144">
+        <v>0.01</v>
+      </c>
+      <c r="N144" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" s="6" customFormat="1">
+      <c r="A145" s="1">
+        <v>907946</v>
+      </c>
+      <c r="B145">
+        <v>54000</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>128</v>
+      </c>
+      <c r="G145">
+        <v>128</v>
+      </c>
+      <c r="H145">
+        <v>10</v>
+      </c>
+      <c r="I145">
+        <v>10</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L145">
+        <v>10</v>
+      </c>
+      <c r="M145">
+        <v>0.01</v>
+      </c>
+      <c r="N145" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" s="6" customFormat="1">
+      <c r="A146" s="1">
+        <v>907961</v>
+      </c>
+      <c r="B146">
+        <v>56000</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>128</v>
+      </c>
+      <c r="G146">
+        <v>128</v>
+      </c>
+      <c r="H146">
+        <v>10</v>
+      </c>
+      <c r="I146">
+        <v>10</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L146">
+        <v>10</v>
+      </c>
+      <c r="M146">
+        <v>0.01</v>
+      </c>
+      <c r="N146" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" s="6" customFormat="1">
+      <c r="A147" s="1">
+        <v>907979</v>
+      </c>
+      <c r="B147">
+        <v>58000</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>128</v>
+      </c>
+      <c r="G147">
+        <v>128</v>
+      </c>
+      <c r="H147">
+        <v>10</v>
+      </c>
+      <c r="I147">
+        <v>10</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L147">
+        <v>10</v>
+      </c>
+      <c r="M147">
+        <v>0.01</v>
+      </c>
+      <c r="N147" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" s="6" customFormat="1">
+      <c r="A148" s="5"/>
+      <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148" s="2"/>
+      <c r="L148"/>
+      <c r="M148"/>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" s="6" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
-      <c r="A147">
-        <v>15155139</v>
-      </c>
-      <c r="B147">
-        <v>30000</v>
-      </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-      <c r="D147" t="s">
-        <v>13</v>
-      </c>
-      <c r="E147">
-        <v>1</v>
-      </c>
-      <c r="F147">
-        <v>128</v>
-      </c>
-      <c r="G147">
-        <v>128</v>
-      </c>
-      <c r="H147">
-        <v>10</v>
-      </c>
-      <c r="I147">
-        <v>10</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-      <c r="K147" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L147">
-        <v>10</v>
-      </c>
-      <c r="M147">
-        <v>0.01</v>
-      </c>
-      <c r="N147" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
-      <c r="A148">
-        <v>15155141</v>
-      </c>
-      <c r="B148">
-        <v>40000</v>
-      </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-      <c r="D148" t="s">
-        <v>13</v>
-      </c>
-      <c r="E148">
-        <v>1</v>
-      </c>
-      <c r="F148">
-        <v>128</v>
-      </c>
-      <c r="G148">
-        <v>128</v>
-      </c>
-      <c r="H148">
-        <v>10</v>
-      </c>
-      <c r="I148">
-        <v>10</v>
-      </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-      <c r="K148" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L148">
-        <v>10</v>
-      </c>
-      <c r="M148">
-        <v>0.01</v>
-      </c>
-      <c r="N148" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
-      <c r="A149">
-        <v>15155148</v>
-      </c>
-      <c r="B149">
-        <v>60000</v>
-      </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-      <c r="D149" t="s">
-        <v>13</v>
-      </c>
-      <c r="E149">
-        <v>1</v>
-      </c>
-      <c r="F149">
-        <v>128</v>
-      </c>
-      <c r="G149">
-        <v>128</v>
-      </c>
-      <c r="H149">
-        <v>10</v>
-      </c>
-      <c r="I149">
-        <v>10</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L149">
-        <v>10</v>
-      </c>
-      <c r="M149">
-        <v>0.01</v>
-      </c>
-      <c r="N149" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
-      <c r="A150">
-        <v>15155309</v>
-      </c>
-      <c r="B150" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-      <c r="D150" t="s">
-        <v>13</v>
-      </c>
-      <c r="E150">
-        <v>1</v>
-      </c>
-      <c r="F150">
-        <v>256</v>
-      </c>
-      <c r="G150">
-        <v>256</v>
-      </c>
-      <c r="H150">
-        <v>10</v>
-      </c>
-      <c r="I150">
-        <v>10</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L150">
-        <v>1</v>
-      </c>
-      <c r="M150" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N150" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151">
-        <v>15155150</v>
+        <v>15155139</v>
       </c>
       <c r="B151">
         <v>30000</v>
@@ -4574,12 +4565,12 @@
         <v>0.01</v>
       </c>
       <c r="N151" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152">
-        <v>15155156</v>
+        <v>15155141</v>
       </c>
       <c r="B152">
         <v>40000</v>
@@ -4618,12 +4609,12 @@
         <v>0.01</v>
       </c>
       <c r="N152" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153">
-        <v>15155162</v>
+        <v>15155148</v>
       </c>
       <c r="B153">
         <v>60000</v>
@@ -4662,12 +4653,12 @@
         <v>0.01</v>
       </c>
       <c r="N153" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154">
-        <v>15155314</v>
+        <v>15155309</v>
       </c>
       <c r="B154" s="2">
         <v>100000000</v>
@@ -4706,20 +4697,59 @@
         <v>1E-3</v>
       </c>
       <c r="N154" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155">
+        <v>15155150</v>
+      </c>
+      <c r="B155">
+        <v>30000</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>128</v>
+      </c>
+      <c r="G155">
+        <v>128</v>
+      </c>
+      <c r="H155">
+        <v>10</v>
+      </c>
+      <c r="I155">
+        <v>10</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L155">
+        <v>10</v>
+      </c>
+      <c r="M155">
+        <v>0.01</v>
+      </c>
+      <c r="N155" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
-      <c r="A155" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156">
-        <v>15155190</v>
+        <v>15155156</v>
       </c>
       <c r="B156">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -4749,21 +4779,21 @@
         <v>1E-3</v>
       </c>
       <c r="L156">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M156">
         <v>0.01</v>
       </c>
       <c r="N156" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157">
-        <v>15155200</v>
+        <v>15155162</v>
       </c>
       <c r="B157">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -4793,56 +4823,193 @@
         <v>1E-3</v>
       </c>
       <c r="L157">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M157">
         <v>0.01</v>
       </c>
       <c r="N157" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158">
+        <v>15155314</v>
+      </c>
+      <c r="B158" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>256</v>
+      </c>
+      <c r="G158">
+        <v>256</v>
+      </c>
+      <c r="H158">
+        <v>10</v>
+      </c>
+      <c r="I158">
+        <v>10</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N158" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160">
+        <v>15155190</v>
+      </c>
+      <c r="B160">
+        <v>30000</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>128</v>
+      </c>
+      <c r="G160">
+        <v>128</v>
+      </c>
+      <c r="H160">
+        <v>10</v>
+      </c>
+      <c r="I160">
+        <v>10</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>0.01</v>
+      </c>
+      <c r="N160" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161">
+        <v>15155200</v>
+      </c>
+      <c r="B161">
+        <v>40000</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>128</v>
+      </c>
+      <c r="G161">
+        <v>128</v>
+      </c>
+      <c r="H161">
+        <v>10</v>
+      </c>
+      <c r="I161">
+        <v>10</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>0.01</v>
+      </c>
+      <c r="N161" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="A162">
         <v>15155216</v>
       </c>
-      <c r="B158">
+      <c r="B162">
         <v>60000</v>
       </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-      <c r="D158" t="s">
-        <v>13</v>
-      </c>
-      <c r="E158">
-        <v>1</v>
-      </c>
-      <c r="F158">
-        <v>128</v>
-      </c>
-      <c r="G158">
-        <v>128</v>
-      </c>
-      <c r="H158">
-        <v>10</v>
-      </c>
-      <c r="I158">
-        <v>10</v>
-      </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
-      <c r="K158" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L158">
-        <v>1</v>
-      </c>
-      <c r="M158">
-        <v>0.01</v>
-      </c>
-      <c r="N158" t="s">
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>128</v>
+      </c>
+      <c r="G162">
+        <v>128</v>
+      </c>
+      <c r="H162">
+        <v>10</v>
+      </c>
+      <c r="I162">
+        <v>10</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>0.01</v>
+      </c>
+      <c r="N162" t="s">
         <v>66</v>
       </c>
     </row>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DDE272-956C-459E-9ECC-48AE3784B2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72D798D-DF90-412B-91C0-FC0584FC9A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="69">
   <si>
     <t>slurm_num</t>
   </si>
@@ -626,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P162"/>
+  <dimension ref="A1:P165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3984,6 +3984,9 @@
       <c r="M135">
         <v>0.01</v>
       </c>
+      <c r="N135" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="136" spans="1:14" s="6" customFormat="1">
       <c r="A136" s="5">
@@ -4025,6 +4028,9 @@
       <c r="M136">
         <v>0.01</v>
       </c>
+      <c r="N136" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="137" spans="1:14" s="6" customFormat="1">
       <c r="A137" s="5">
@@ -4066,6 +4072,9 @@
       <c r="M137">
         <v>0.01</v>
       </c>
+      <c r="N137" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="138" spans="1:14" s="6" customFormat="1">
       <c r="A138" s="5">
@@ -4107,13 +4116,16 @@
       <c r="M138">
         <v>0.01</v>
       </c>
+      <c r="N138" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="139" spans="1:14" s="6" customFormat="1">
-      <c r="A139" s="1">
-        <v>15156198</v>
+      <c r="A139" s="5">
+        <v>15157523</v>
       </c>
       <c r="B139">
-        <v>46900</v>
+        <v>46885</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -4148,16 +4160,13 @@
       <c r="M139">
         <v>0.01</v>
       </c>
-      <c r="N139" s="6" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="140" spans="1:14" s="6" customFormat="1">
-      <c r="A140" s="1">
-        <v>15154920</v>
+      <c r="A140" s="5">
+        <v>15157535</v>
       </c>
       <c r="B140">
-        <v>47000</v>
+        <v>46890</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -4192,16 +4201,13 @@
       <c r="M140">
         <v>0.01</v>
       </c>
-      <c r="N140" s="6" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="141" spans="1:14" s="6" customFormat="1">
-      <c r="A141" s="1">
-        <v>15154925</v>
+      <c r="A141" s="5">
+        <v>15157545</v>
       </c>
       <c r="B141">
-        <v>47500</v>
+        <v>46895</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -4235,17 +4241,14 @@
       </c>
       <c r="M141">
         <v>0.01</v>
-      </c>
-      <c r="N141" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="142" spans="1:14" s="6" customFormat="1">
       <c r="A142" s="1">
-        <v>907903</v>
+        <v>15156198</v>
       </c>
       <c r="B142">
-        <v>48000</v>
+        <v>46900</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -4286,10 +4289,10 @@
     </row>
     <row r="143" spans="1:14" s="6" customFormat="1">
       <c r="A143" s="1">
-        <v>907919</v>
+        <v>15154920</v>
       </c>
       <c r="B143">
-        <v>50000</v>
+        <v>47000</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -4330,10 +4333,10 @@
     </row>
     <row r="144" spans="1:14" s="6" customFormat="1">
       <c r="A144" s="1">
-        <v>907934</v>
+        <v>15154925</v>
       </c>
       <c r="B144">
-        <v>52000</v>
+        <v>47500</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -4374,10 +4377,10 @@
     </row>
     <row r="145" spans="1:14" s="6" customFormat="1">
       <c r="A145" s="1">
-        <v>907946</v>
+        <v>907903</v>
       </c>
       <c r="B145">
-        <v>54000</v>
+        <v>48000</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -4418,10 +4421,10 @@
     </row>
     <row r="146" spans="1:14" s="6" customFormat="1">
       <c r="A146" s="1">
-        <v>907961</v>
+        <v>907919</v>
       </c>
       <c r="B146">
-        <v>56000</v>
+        <v>50000</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -4462,10 +4465,10 @@
     </row>
     <row r="147" spans="1:14" s="6" customFormat="1">
       <c r="A147" s="1">
-        <v>907979</v>
+        <v>907934</v>
       </c>
       <c r="B147">
-        <v>58000</v>
+        <v>52000</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -4505,163 +4508,163 @@
       </c>
     </row>
     <row r="148" spans="1:14" s="6" customFormat="1">
-      <c r="A148" s="5"/>
-      <c r="B148"/>
-      <c r="C148"/>
-      <c r="D148"/>
-      <c r="E148"/>
-      <c r="F148"/>
-      <c r="G148"/>
-      <c r="H148"/>
-      <c r="I148"/>
-      <c r="J148"/>
-      <c r="K148" s="2"/>
-      <c r="L148"/>
-      <c r="M148"/>
-    </row>
-    <row r="150" spans="1:14">
-      <c r="A150" s="6" t="s">
+      <c r="A148" s="1">
+        <v>907946</v>
+      </c>
+      <c r="B148">
+        <v>54000</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>128</v>
+      </c>
+      <c r="G148">
+        <v>128</v>
+      </c>
+      <c r="H148">
+        <v>10</v>
+      </c>
+      <c r="I148">
+        <v>10</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L148">
+        <v>10</v>
+      </c>
+      <c r="M148">
+        <v>0.01</v>
+      </c>
+      <c r="N148" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" s="6" customFormat="1">
+      <c r="A149" s="1">
+        <v>907961</v>
+      </c>
+      <c r="B149">
+        <v>56000</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>128</v>
+      </c>
+      <c r="G149">
+        <v>128</v>
+      </c>
+      <c r="H149">
+        <v>10</v>
+      </c>
+      <c r="I149">
+        <v>10</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L149">
+        <v>10</v>
+      </c>
+      <c r="M149">
+        <v>0.01</v>
+      </c>
+      <c r="N149" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" s="6" customFormat="1">
+      <c r="A150" s="1">
+        <v>907979</v>
+      </c>
+      <c r="B150">
+        <v>58000</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>128</v>
+      </c>
+      <c r="G150">
+        <v>128</v>
+      </c>
+      <c r="H150">
+        <v>10</v>
+      </c>
+      <c r="I150">
+        <v>10</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L150">
+        <v>10</v>
+      </c>
+      <c r="M150">
+        <v>0.01</v>
+      </c>
+      <c r="N150" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" s="6" customFormat="1">
+      <c r="A151" s="5"/>
+      <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151" s="2"/>
+      <c r="L151"/>
+      <c r="M151"/>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" s="6" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
-      <c r="A151">
-        <v>15155139</v>
-      </c>
-      <c r="B151">
-        <v>30000</v>
-      </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-      <c r="D151" t="s">
-        <v>13</v>
-      </c>
-      <c r="E151">
-        <v>1</v>
-      </c>
-      <c r="F151">
-        <v>128</v>
-      </c>
-      <c r="G151">
-        <v>128</v>
-      </c>
-      <c r="H151">
-        <v>10</v>
-      </c>
-      <c r="I151">
-        <v>10</v>
-      </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-      <c r="K151" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L151">
-        <v>10</v>
-      </c>
-      <c r="M151">
-        <v>0.01</v>
-      </c>
-      <c r="N151" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
-      <c r="A152">
-        <v>15155141</v>
-      </c>
-      <c r="B152">
-        <v>40000</v>
-      </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-      <c r="D152" t="s">
-        <v>13</v>
-      </c>
-      <c r="E152">
-        <v>1</v>
-      </c>
-      <c r="F152">
-        <v>128</v>
-      </c>
-      <c r="G152">
-        <v>128</v>
-      </c>
-      <c r="H152">
-        <v>10</v>
-      </c>
-      <c r="I152">
-        <v>10</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="K152" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L152">
-        <v>10</v>
-      </c>
-      <c r="M152">
-        <v>0.01</v>
-      </c>
-      <c r="N152" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
-      <c r="A153">
-        <v>15155148</v>
-      </c>
-      <c r="B153">
-        <v>60000</v>
-      </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-      <c r="D153" t="s">
-        <v>13</v>
-      </c>
-      <c r="E153">
-        <v>1</v>
-      </c>
-      <c r="F153">
-        <v>128</v>
-      </c>
-      <c r="G153">
-        <v>128</v>
-      </c>
-      <c r="H153">
-        <v>10</v>
-      </c>
-      <c r="I153">
-        <v>10</v>
-      </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-      <c r="K153" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L153">
-        <v>10</v>
-      </c>
-      <c r="M153">
-        <v>0.01</v>
-      </c>
-      <c r="N153" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154">
-        <v>15155309</v>
-      </c>
-      <c r="B154" s="2">
-        <v>100000000</v>
+        <v>15155139</v>
+      </c>
+      <c r="B154">
+        <v>30000</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -4673,10 +4676,10 @@
         <v>1</v>
       </c>
       <c r="F154">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="G154">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="H154">
         <v>10</v>
@@ -4688,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="K154" s="2">
-        <v>9.9999999999999995E-7</v>
+        <v>1E-3</v>
       </c>
       <c r="L154">
-        <v>1</v>
-      </c>
-      <c r="M154" s="2">
-        <v>1E-3</v>
+        <v>10</v>
+      </c>
+      <c r="M154">
+        <v>0.01</v>
       </c>
       <c r="N154" t="s">
         <v>66</v>
@@ -4702,10 +4705,10 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155">
-        <v>15155150</v>
+        <v>15155141</v>
       </c>
       <c r="B155">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -4741,15 +4744,15 @@
         <v>0.01</v>
       </c>
       <c r="N155" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156">
-        <v>15155156</v>
+        <v>15155148</v>
       </c>
       <c r="B156">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -4785,15 +4788,15 @@
         <v>0.01</v>
       </c>
       <c r="N156" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157">
-        <v>15155162</v>
-      </c>
-      <c r="B157">
-        <v>60000</v>
+        <v>15155309</v>
+      </c>
+      <c r="B157" s="2">
+        <v>100000000</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -4805,10 +4808,10 @@
         <v>1</v>
       </c>
       <c r="F157">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="G157">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H157">
         <v>10</v>
@@ -4820,24 +4823,24 @@
         <v>0</v>
       </c>
       <c r="K157" s="2">
-        <v>1E-3</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="L157">
-        <v>10</v>
-      </c>
-      <c r="M157">
-        <v>0.01</v>
+        <v>1</v>
+      </c>
+      <c r="M157" s="2">
+        <v>1E-3</v>
       </c>
       <c r="N157" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158">
-        <v>15155314</v>
-      </c>
-      <c r="B158" s="2">
-        <v>100000000</v>
+        <v>15155150</v>
+      </c>
+      <c r="B158">
+        <v>30000</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -4849,10 +4852,10 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="G158">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="H158">
         <v>10</v>
@@ -4864,29 +4867,68 @@
         <v>0</v>
       </c>
       <c r="K158" s="2">
-        <v>9.9999999999999995E-7</v>
+        <v>1E-3</v>
       </c>
       <c r="L158">
-        <v>1</v>
-      </c>
-      <c r="M158" s="2">
-        <v>1E-3</v>
+        <v>10</v>
+      </c>
+      <c r="M158">
+        <v>0.01</v>
       </c>
       <c r="N158" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="159" spans="1:14">
-      <c r="A159" s="6" t="s">
-        <v>68</v>
+      <c r="A159">
+        <v>15155156</v>
+      </c>
+      <c r="B159">
+        <v>40000</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>128</v>
+      </c>
+      <c r="G159">
+        <v>128</v>
+      </c>
+      <c r="H159">
+        <v>10</v>
+      </c>
+      <c r="I159">
+        <v>10</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L159">
+        <v>10</v>
+      </c>
+      <c r="M159">
+        <v>0.01</v>
+      </c>
+      <c r="N159" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160">
-        <v>15155190</v>
+        <v>15155162</v>
       </c>
       <c r="B160">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -4916,100 +4958,193 @@
         <v>1E-3</v>
       </c>
       <c r="L160">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M160">
         <v>0.01</v>
       </c>
       <c r="N160" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161">
+        <v>15155314</v>
+      </c>
+      <c r="B161" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>256</v>
+      </c>
+      <c r="G161">
+        <v>256</v>
+      </c>
+      <c r="H161">
+        <v>10</v>
+      </c>
+      <c r="I161">
+        <v>10</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N161" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="A162" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
+      <c r="A163">
+        <v>15155190</v>
+      </c>
+      <c r="B163">
+        <v>30000</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>128</v>
+      </c>
+      <c r="G163">
+        <v>128</v>
+      </c>
+      <c r="H163">
+        <v>10</v>
+      </c>
+      <c r="I163">
+        <v>10</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>0.01</v>
+      </c>
+      <c r="N163" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="A164">
         <v>15155200</v>
       </c>
-      <c r="B161">
+      <c r="B164">
         <v>40000</v>
       </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-      <c r="D161" t="s">
-        <v>13</v>
-      </c>
-      <c r="E161">
-        <v>1</v>
-      </c>
-      <c r="F161">
-        <v>128</v>
-      </c>
-      <c r="G161">
-        <v>128</v>
-      </c>
-      <c r="H161">
-        <v>10</v>
-      </c>
-      <c r="I161">
-        <v>10</v>
-      </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-      <c r="K161" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L161">
-        <v>1</v>
-      </c>
-      <c r="M161">
-        <v>0.01</v>
-      </c>
-      <c r="N161" t="s">
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>128</v>
+      </c>
+      <c r="G164">
+        <v>128</v>
+      </c>
+      <c r="H164">
+        <v>10</v>
+      </c>
+      <c r="I164">
+        <v>10</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>0.01</v>
+      </c>
+      <c r="N164" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
-      <c r="A162">
+    <row r="165" spans="1:14">
+      <c r="A165">
         <v>15155216</v>
       </c>
-      <c r="B162">
+      <c r="B165">
         <v>60000</v>
       </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-      <c r="D162" t="s">
-        <v>13</v>
-      </c>
-      <c r="E162">
-        <v>1</v>
-      </c>
-      <c r="F162">
-        <v>128</v>
-      </c>
-      <c r="G162">
-        <v>128</v>
-      </c>
-      <c r="H162">
-        <v>10</v>
-      </c>
-      <c r="I162">
-        <v>10</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-      <c r="K162" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L162">
-        <v>1</v>
-      </c>
-      <c r="M162">
-        <v>0.01</v>
-      </c>
-      <c r="N162" t="s">
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165" t="s">
+        <v>13</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>128</v>
+      </c>
+      <c r="G165">
+        <v>128</v>
+      </c>
+      <c r="H165">
+        <v>10</v>
+      </c>
+      <c r="I165">
+        <v>10</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>0.01</v>
+      </c>
+      <c r="N165" t="s">
         <v>66</v>
       </c>
     </row>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72D798D-DF90-412B-91C0-FC0584FC9A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3703F6-D78D-49B4-B30D-3054989CFDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBC flux" sheetId="1" r:id="rId1"/>
+    <sheet name="RBC_flux_SM" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="77">
   <si>
     <t>slurm_num</t>
   </si>
@@ -243,6 +244,30 @@
   </si>
   <si>
     <t>Truncated to nx=1</t>
+  </si>
+  <si>
+    <t>local_num</t>
+  </si>
+  <si>
+    <t>Nu=1.5807</t>
+  </si>
+  <si>
+    <t>Nu=2.7539</t>
+  </si>
+  <si>
+    <t>Nu=3.8854</t>
+  </si>
+  <si>
+    <t>Nu=1.5759</t>
+  </si>
+  <si>
+    <t>Nu=2.6599</t>
+  </si>
+  <si>
+    <t>W_0=1</t>
+  </si>
+  <si>
+    <t>Nu=3.7466</t>
   </si>
 </sst>
 </file>
@@ -327,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -346,6 +371,7 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P165"/>
+  <dimension ref="A1:P171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView topLeftCell="B154" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O163" sqref="O163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3945,7 +3971,7 @@
       </c>
     </row>
     <row r="135" spans="1:14" s="6" customFormat="1">
-      <c r="A135" s="5">
+      <c r="A135" s="1">
         <v>15156832</v>
       </c>
       <c r="B135">
@@ -3989,7 +4015,7 @@
       </c>
     </row>
     <row r="136" spans="1:14" s="6" customFormat="1">
-      <c r="A136" s="5">
+      <c r="A136" s="1">
         <v>15156833</v>
       </c>
       <c r="B136">
@@ -4033,7 +4059,7 @@
       </c>
     </row>
     <row r="137" spans="1:14" s="6" customFormat="1">
-      <c r="A137" s="5">
+      <c r="A137" s="1">
         <v>15156834</v>
       </c>
       <c r="B137">
@@ -4077,7 +4103,7 @@
       </c>
     </row>
     <row r="138" spans="1:14" s="6" customFormat="1">
-      <c r="A138" s="5">
+      <c r="A138" s="1">
         <v>15156835</v>
       </c>
       <c r="B138">
@@ -4121,7 +4147,7 @@
       </c>
     </row>
     <row r="139" spans="1:14" s="6" customFormat="1">
-      <c r="A139" s="5">
+      <c r="A139" s="1">
         <v>15157523</v>
       </c>
       <c r="B139">
@@ -4160,13 +4186,16 @@
       <c r="M139">
         <v>0.01</v>
       </c>
+      <c r="N139" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="140" spans="1:14" s="6" customFormat="1">
-      <c r="A140" s="5">
-        <v>15157535</v>
+      <c r="A140" s="1">
+        <v>15159128</v>
       </c>
       <c r="B140">
-        <v>46890</v>
+        <v>46887</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -4201,13 +4230,16 @@
       <c r="M140">
         <v>0.01</v>
       </c>
+      <c r="N140" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="141" spans="1:14" s="6" customFormat="1">
-      <c r="A141" s="5">
-        <v>15157545</v>
+      <c r="A141" s="1">
+        <v>15159132</v>
       </c>
       <c r="B141">
-        <v>46895</v>
+        <v>46889</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -4241,14 +4273,17 @@
       </c>
       <c r="M141">
         <v>0.01</v>
+      </c>
+      <c r="N141" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:14" s="6" customFormat="1">
       <c r="A142" s="1">
-        <v>15156198</v>
+        <v>15159726</v>
       </c>
       <c r="B142">
-        <v>46900</v>
+        <v>46891</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -4284,15 +4319,15 @@
         <v>0.01</v>
       </c>
       <c r="N142" s="6" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:14" s="6" customFormat="1">
-      <c r="A143" s="1">
-        <v>15154920</v>
+      <c r="A143" s="5">
+        <v>15163269</v>
       </c>
       <c r="B143">
-        <v>47000</v>
+        <v>46891.5</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -4327,16 +4362,13 @@
       <c r="M143">
         <v>0.01</v>
       </c>
-      <c r="N143" s="6" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="144" spans="1:14" s="6" customFormat="1">
-      <c r="A144" s="1">
-        <v>15154925</v>
+      <c r="A144" s="5">
+        <v>15163270</v>
       </c>
       <c r="B144">
-        <v>47500</v>
+        <v>46892</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -4371,16 +4403,13 @@
       <c r="M144">
         <v>0.01</v>
       </c>
-      <c r="N144" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" s="6" customFormat="1">
-      <c r="A145" s="1">
-        <v>907903</v>
+    </row>
+    <row r="145" spans="1:15" s="6" customFormat="1">
+      <c r="A145" s="5">
+        <v>15163271</v>
       </c>
       <c r="B145">
-        <v>48000</v>
+        <v>46892.5</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -4415,16 +4444,13 @@
       <c r="M145">
         <v>0.01</v>
       </c>
-      <c r="N145" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" s="6" customFormat="1">
+    </row>
+    <row r="146" spans="1:15" s="6" customFormat="1">
       <c r="A146" s="1">
-        <v>907919</v>
+        <v>15159728</v>
       </c>
       <c r="B146">
-        <v>50000</v>
+        <v>46893</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -4463,12 +4489,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="147" spans="1:14" s="6" customFormat="1">
+    <row r="147" spans="1:15" s="6" customFormat="1">
       <c r="A147" s="1">
-        <v>907934</v>
+        <v>15157545</v>
       </c>
       <c r="B147">
-        <v>52000</v>
+        <v>46895</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -4507,12 +4533,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="1:14" s="6" customFormat="1">
+    <row r="148" spans="1:15" s="6" customFormat="1">
       <c r="A148" s="1">
-        <v>907946</v>
+        <v>15156198</v>
       </c>
       <c r="B148">
-        <v>54000</v>
+        <v>46900</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -4551,12 +4577,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="149" spans="1:14" s="6" customFormat="1">
+    <row r="149" spans="1:15" s="6" customFormat="1">
       <c r="A149" s="1">
-        <v>907961</v>
+        <v>15154920</v>
       </c>
       <c r="B149">
-        <v>56000</v>
+        <v>47000</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -4595,12 +4621,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="150" spans="1:14" s="6" customFormat="1">
+    <row r="150" spans="1:15" s="6" customFormat="1">
       <c r="A150" s="1">
-        <v>907979</v>
+        <v>15154925</v>
       </c>
       <c r="B150">
-        <v>58000</v>
+        <v>47500</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -4639,512 +4665,785 @@
         <v>63</v>
       </c>
     </row>
-    <row r="151" spans="1:14" s="6" customFormat="1">
-      <c r="A151" s="5"/>
-      <c r="B151"/>
-      <c r="C151"/>
-      <c r="D151"/>
-      <c r="E151"/>
-      <c r="F151"/>
-      <c r="G151"/>
-      <c r="H151"/>
-      <c r="I151"/>
-      <c r="J151"/>
-      <c r="K151" s="2"/>
-      <c r="L151"/>
-      <c r="M151"/>
-    </row>
-    <row r="153" spans="1:14">
-      <c r="A153" s="6" t="s">
+    <row r="151" spans="1:15" s="6" customFormat="1">
+      <c r="A151" s="1">
+        <v>907903</v>
+      </c>
+      <c r="B151">
+        <v>48000</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>128</v>
+      </c>
+      <c r="G151">
+        <v>128</v>
+      </c>
+      <c r="H151">
+        <v>10</v>
+      </c>
+      <c r="I151">
+        <v>10</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L151">
+        <v>10</v>
+      </c>
+      <c r="M151">
+        <v>0.01</v>
+      </c>
+      <c r="N151" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" s="6" customFormat="1">
+      <c r="A152" s="1">
+        <v>907919</v>
+      </c>
+      <c r="B152">
+        <v>50000</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>128</v>
+      </c>
+      <c r="G152">
+        <v>128</v>
+      </c>
+      <c r="H152">
+        <v>10</v>
+      </c>
+      <c r="I152">
+        <v>10</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L152">
+        <v>10</v>
+      </c>
+      <c r="M152">
+        <v>0.01</v>
+      </c>
+      <c r="N152" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" s="6" customFormat="1">
+      <c r="A153" s="1">
+        <v>907934</v>
+      </c>
+      <c r="B153">
+        <v>52000</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>128</v>
+      </c>
+      <c r="G153">
+        <v>128</v>
+      </c>
+      <c r="H153">
+        <v>10</v>
+      </c>
+      <c r="I153">
+        <v>10</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L153">
+        <v>10</v>
+      </c>
+      <c r="M153">
+        <v>0.01</v>
+      </c>
+      <c r="N153" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" s="6" customFormat="1">
+      <c r="A154" s="1">
+        <v>907946</v>
+      </c>
+      <c r="B154">
+        <v>54000</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>13</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>128</v>
+      </c>
+      <c r="G154">
+        <v>128</v>
+      </c>
+      <c r="H154">
+        <v>10</v>
+      </c>
+      <c r="I154">
+        <v>10</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L154">
+        <v>10</v>
+      </c>
+      <c r="M154">
+        <v>0.01</v>
+      </c>
+      <c r="N154" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" s="6" customFormat="1">
+      <c r="A155" s="1">
+        <v>907961</v>
+      </c>
+      <c r="B155">
+        <v>56000</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>128</v>
+      </c>
+      <c r="G155">
+        <v>128</v>
+      </c>
+      <c r="H155">
+        <v>10</v>
+      </c>
+      <c r="I155">
+        <v>10</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L155">
+        <v>10</v>
+      </c>
+      <c r="M155">
+        <v>0.01</v>
+      </c>
+      <c r="N155" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" s="6" customFormat="1">
+      <c r="A156" s="1">
+        <v>907979</v>
+      </c>
+      <c r="B156">
+        <v>58000</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>128</v>
+      </c>
+      <c r="G156">
+        <v>128</v>
+      </c>
+      <c r="H156">
+        <v>10</v>
+      </c>
+      <c r="I156">
+        <v>10</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L156">
+        <v>10</v>
+      </c>
+      <c r="M156">
+        <v>0.01</v>
+      </c>
+      <c r="N156" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" s="6" customFormat="1">
+      <c r="A157" s="5"/>
+      <c r="B157"/>
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157"/>
+      <c r="G157"/>
+      <c r="H157"/>
+      <c r="I157"/>
+      <c r="J157"/>
+      <c r="K157" s="2"/>
+      <c r="L157"/>
+      <c r="M157"/>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
-      <c r="A154">
+    <row r="160" spans="1:15">
+      <c r="A160">
         <v>15155139</v>
       </c>
-      <c r="B154">
+      <c r="B160">
         <v>30000</v>
       </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-      <c r="D154" t="s">
-        <v>13</v>
-      </c>
-      <c r="E154">
-        <v>1</v>
-      </c>
-      <c r="F154">
-        <v>128</v>
-      </c>
-      <c r="G154">
-        <v>128</v>
-      </c>
-      <c r="H154">
-        <v>10</v>
-      </c>
-      <c r="I154">
-        <v>10</v>
-      </c>
-      <c r="J154">
-        <v>0</v>
-      </c>
-      <c r="K154" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L154">
-        <v>10</v>
-      </c>
-      <c r="M154">
-        <v>0.01</v>
-      </c>
-      <c r="N154" t="s">
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>128</v>
+      </c>
+      <c r="G160">
+        <v>128</v>
+      </c>
+      <c r="H160">
+        <v>10</v>
+      </c>
+      <c r="I160">
+        <v>10</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L160">
+        <v>10</v>
+      </c>
+      <c r="M160">
+        <v>0.01</v>
+      </c>
+      <c r="N160" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="155" spans="1:14">
-      <c r="A155">
+      <c r="O160" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161">
         <v>15155141</v>
       </c>
-      <c r="B155">
+      <c r="B161">
         <v>40000</v>
       </c>
-      <c r="C155">
-        <v>1</v>
-      </c>
-      <c r="D155" t="s">
-        <v>13</v>
-      </c>
-      <c r="E155">
-        <v>1</v>
-      </c>
-      <c r="F155">
-        <v>128</v>
-      </c>
-      <c r="G155">
-        <v>128</v>
-      </c>
-      <c r="H155">
-        <v>10</v>
-      </c>
-      <c r="I155">
-        <v>10</v>
-      </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-      <c r="K155" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L155">
-        <v>10</v>
-      </c>
-      <c r="M155">
-        <v>0.01</v>
-      </c>
-      <c r="N155" t="s">
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>128</v>
+      </c>
+      <c r="G161">
+        <v>128</v>
+      </c>
+      <c r="H161">
+        <v>10</v>
+      </c>
+      <c r="I161">
+        <v>10</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L161">
+        <v>10</v>
+      </c>
+      <c r="M161">
+        <v>0.01</v>
+      </c>
+      <c r="N161" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="156" spans="1:14">
-      <c r="A156">
+      <c r="O161" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162">
         <v>15155148</v>
       </c>
-      <c r="B156">
+      <c r="B162">
         <v>60000</v>
       </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-      <c r="D156" t="s">
-        <v>13</v>
-      </c>
-      <c r="E156">
-        <v>1</v>
-      </c>
-      <c r="F156">
-        <v>128</v>
-      </c>
-      <c r="G156">
-        <v>128</v>
-      </c>
-      <c r="H156">
-        <v>10</v>
-      </c>
-      <c r="I156">
-        <v>10</v>
-      </c>
-      <c r="J156">
-        <v>0</v>
-      </c>
-      <c r="K156" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L156">
-        <v>10</v>
-      </c>
-      <c r="M156">
-        <v>0.01</v>
-      </c>
-      <c r="N156" t="s">
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>128</v>
+      </c>
+      <c r="G162">
+        <v>128</v>
+      </c>
+      <c r="H162">
+        <v>10</v>
+      </c>
+      <c r="I162">
+        <v>10</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L162">
+        <v>10</v>
+      </c>
+      <c r="M162">
+        <v>0.01</v>
+      </c>
+      <c r="N162" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="157" spans="1:14">
-      <c r="A157">
+      <c r="O162" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163">
         <v>15155309</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B163" s="2">
         <v>100000000</v>
       </c>
-      <c r="C157">
-        <v>1</v>
-      </c>
-      <c r="D157" t="s">
-        <v>13</v>
-      </c>
-      <c r="E157">
-        <v>1</v>
-      </c>
-      <c r="F157">
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
         <v>256</v>
       </c>
-      <c r="G157">
+      <c r="G163">
         <v>256</v>
       </c>
-      <c r="H157">
-        <v>10</v>
-      </c>
-      <c r="I157">
-        <v>10</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157" s="2">
+      <c r="H163">
+        <v>10</v>
+      </c>
+      <c r="I163">
+        <v>10</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L157">
-        <v>1</v>
-      </c>
-      <c r="M157" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N157" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
-      <c r="A158">
-        <v>15155150</v>
-      </c>
-      <c r="B158">
-        <v>30000</v>
-      </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-      <c r="D158" t="s">
-        <v>13</v>
-      </c>
-      <c r="E158">
-        <v>1</v>
-      </c>
-      <c r="F158">
-        <v>128</v>
-      </c>
-      <c r="G158">
-        <v>128</v>
-      </c>
-      <c r="H158">
-        <v>10</v>
-      </c>
-      <c r="I158">
-        <v>10</v>
-      </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
-      <c r="K158" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L158">
-        <v>10</v>
-      </c>
-      <c r="M158">
-        <v>0.01</v>
-      </c>
-      <c r="N158" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
-      <c r="A159">
-        <v>15155156</v>
-      </c>
-      <c r="B159">
-        <v>40000</v>
-      </c>
-      <c r="C159">
-        <v>1</v>
-      </c>
-      <c r="D159" t="s">
-        <v>13</v>
-      </c>
-      <c r="E159">
-        <v>1</v>
-      </c>
-      <c r="F159">
-        <v>128</v>
-      </c>
-      <c r="G159">
-        <v>128</v>
-      </c>
-      <c r="H159">
-        <v>10</v>
-      </c>
-      <c r="I159">
-        <v>10</v>
-      </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-      <c r="K159" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L159">
-        <v>10</v>
-      </c>
-      <c r="M159">
-        <v>0.01</v>
-      </c>
-      <c r="N159" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
-      <c r="A160">
-        <v>15155162</v>
-      </c>
-      <c r="B160">
-        <v>60000</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-      <c r="D160" t="s">
-        <v>13</v>
-      </c>
-      <c r="E160">
-        <v>1</v>
-      </c>
-      <c r="F160">
-        <v>128</v>
-      </c>
-      <c r="G160">
-        <v>128</v>
-      </c>
-      <c r="H160">
-        <v>10</v>
-      </c>
-      <c r="I160">
-        <v>10</v>
-      </c>
-      <c r="J160">
-        <v>0</v>
-      </c>
-      <c r="K160" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L160">
-        <v>10</v>
-      </c>
-      <c r="M160">
-        <v>0.01</v>
-      </c>
-      <c r="N160" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
-      <c r="A161">
-        <v>15155314</v>
-      </c>
-      <c r="B161" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-      <c r="D161" t="s">
-        <v>13</v>
-      </c>
-      <c r="E161">
-        <v>1</v>
-      </c>
-      <c r="F161">
-        <v>256</v>
-      </c>
-      <c r="G161">
-        <v>256</v>
-      </c>
-      <c r="H161">
-        <v>10</v>
-      </c>
-      <c r="I161">
-        <v>10</v>
-      </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-      <c r="K161" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L161">
-        <v>1</v>
-      </c>
-      <c r="M161" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N161" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
-      <c r="A162" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
-      <c r="A163">
-        <v>15155190</v>
-      </c>
-      <c r="B163">
-        <v>30000</v>
-      </c>
-      <c r="C163">
-        <v>1</v>
-      </c>
-      <c r="D163" t="s">
-        <v>13</v>
-      </c>
-      <c r="E163">
-        <v>1</v>
-      </c>
-      <c r="F163">
-        <v>128</v>
-      </c>
-      <c r="G163">
-        <v>128</v>
-      </c>
-      <c r="H163">
-        <v>10</v>
-      </c>
-      <c r="I163">
-        <v>10</v>
-      </c>
-      <c r="J163">
-        <v>0</v>
-      </c>
-      <c r="K163" s="2">
-        <v>1E-3</v>
-      </c>
       <c r="L163">
         <v>1</v>
       </c>
-      <c r="M163">
-        <v>0.01</v>
+      <c r="M163" s="2">
+        <v>1E-3</v>
       </c>
       <c r="N163" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:15">
       <c r="A164">
+        <v>15155150</v>
+      </c>
+      <c r="B164">
+        <v>30000</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>128</v>
+      </c>
+      <c r="G164">
+        <v>128</v>
+      </c>
+      <c r="H164">
+        <v>10</v>
+      </c>
+      <c r="I164">
+        <v>10</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L164">
+        <v>10</v>
+      </c>
+      <c r="M164">
+        <v>0.01</v>
+      </c>
+      <c r="N164" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165">
+        <v>15155156</v>
+      </c>
+      <c r="B165">
+        <v>40000</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165" t="s">
+        <v>13</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>128</v>
+      </c>
+      <c r="G165">
+        <v>128</v>
+      </c>
+      <c r="H165">
+        <v>10</v>
+      </c>
+      <c r="I165">
+        <v>10</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L165">
+        <v>10</v>
+      </c>
+      <c r="M165">
+        <v>0.01</v>
+      </c>
+      <c r="N165" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166">
+        <v>15155162</v>
+      </c>
+      <c r="B166">
+        <v>60000</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>128</v>
+      </c>
+      <c r="G166">
+        <v>128</v>
+      </c>
+      <c r="H166">
+        <v>10</v>
+      </c>
+      <c r="I166">
+        <v>10</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L166">
+        <v>10</v>
+      </c>
+      <c r="M166">
+        <v>0.01</v>
+      </c>
+      <c r="N166" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167">
+        <v>15155314</v>
+      </c>
+      <c r="B167" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>256</v>
+      </c>
+      <c r="G167">
+        <v>256</v>
+      </c>
+      <c r="H167">
+        <v>10</v>
+      </c>
+      <c r="I167">
+        <v>10</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N167" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="A168" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="A169">
+        <v>15155190</v>
+      </c>
+      <c r="B169">
+        <v>30000</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>128</v>
+      </c>
+      <c r="G169">
+        <v>128</v>
+      </c>
+      <c r="H169">
+        <v>10</v>
+      </c>
+      <c r="I169">
+        <v>10</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>0.01</v>
+      </c>
+      <c r="N169" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="A170">
         <v>15155200</v>
       </c>
-      <c r="B164">
+      <c r="B170">
         <v>40000</v>
       </c>
-      <c r="C164">
-        <v>1</v>
-      </c>
-      <c r="D164" t="s">
-        <v>13</v>
-      </c>
-      <c r="E164">
-        <v>1</v>
-      </c>
-      <c r="F164">
-        <v>128</v>
-      </c>
-      <c r="G164">
-        <v>128</v>
-      </c>
-      <c r="H164">
-        <v>10</v>
-      </c>
-      <c r="I164">
-        <v>10</v>
-      </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-      <c r="K164" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L164">
-        <v>1</v>
-      </c>
-      <c r="M164">
-        <v>0.01</v>
-      </c>
-      <c r="N164" t="s">
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>128</v>
+      </c>
+      <c r="G170">
+        <v>128</v>
+      </c>
+      <c r="H170">
+        <v>10</v>
+      </c>
+      <c r="I170">
+        <v>10</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>0.01</v>
+      </c>
+      <c r="N170" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
-      <c r="A165">
+    <row r="171" spans="1:15">
+      <c r="A171">
         <v>15155216</v>
       </c>
-      <c r="B165">
+      <c r="B171">
         <v>60000</v>
       </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-      <c r="D165" t="s">
-        <v>13</v>
-      </c>
-      <c r="E165">
-        <v>1</v>
-      </c>
-      <c r="F165">
-        <v>128</v>
-      </c>
-      <c r="G165">
-        <v>128</v>
-      </c>
-      <c r="H165">
-        <v>10</v>
-      </c>
-      <c r="I165">
-        <v>10</v>
-      </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
-      <c r="K165" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L165">
-        <v>1</v>
-      </c>
-      <c r="M165">
-        <v>0.01</v>
-      </c>
-      <c r="N165" t="s">
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>128</v>
+      </c>
+      <c r="G171">
+        <v>128</v>
+      </c>
+      <c r="H171">
+        <v>10</v>
+      </c>
+      <c r="I171">
+        <v>10</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>0.01</v>
+      </c>
+      <c r="N171" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5152,4 +5451,242 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B59324F-8BFA-4D0B-8F1B-AB5C69134BD9}">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="27.453125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="18">
+        <v>20230307231811</v>
+      </c>
+      <c r="B10">
+        <v>30000</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>128</v>
+      </c>
+      <c r="G10">
+        <v>128</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>0.01</v>
+      </c>
+      <c r="N10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="18">
+        <v>20230307232436</v>
+      </c>
+      <c r="B11">
+        <v>40000</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>128</v>
+      </c>
+      <c r="G11">
+        <v>128</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>0.01</v>
+      </c>
+      <c r="N11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="18">
+        <v>20230307232924</v>
+      </c>
+      <c r="B12">
+        <v>60000</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>128</v>
+      </c>
+      <c r="G12">
+        <v>128</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>0.01</v>
+      </c>
+      <c r="N12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3703F6-D78D-49B4-B30D-3054989CFDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8021BA09-634C-4B69-8431-269E46D43C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBC flux" sheetId="1" r:id="rId1"/>
     <sheet name="RBC_flux_SM" sheetId="2" r:id="rId2"/>
+    <sheet name="pde2path" sheetId="4" r:id="rId3"/>
+    <sheet name="ACC_rockfish" sheetId="3" r:id="rId4"/>
+    <sheet name="draft" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="110">
   <si>
     <t>slurm_num</t>
   </si>
@@ -258,22 +262,125 @@
     <t>Nu=3.8854</t>
   </si>
   <si>
-    <t>Nu=1.5759</t>
-  </si>
-  <si>
-    <t>Nu=2.6599</t>
-  </si>
-  <si>
     <t>W_0=1</t>
   </si>
   <si>
-    <t>Nu=3.7466</t>
+    <t>Nu=1.5737</t>
+  </si>
+  <si>
+    <t>Nu=3.7762</t>
+  </si>
+  <si>
+    <t>Nu=2.6951</t>
+  </si>
+  <si>
+    <t>W_0=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCF, Re=358, </t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>mu_K_list</t>
+  </si>
+  <si>
+    <t>[1,1,1,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,1,1,1,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,0,1,1,1]</t>
+  </si>
+  <si>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>PPF, Re=690</t>
+  </si>
+  <si>
+    <t>These are on rockfish cluster!!!!</t>
+  </si>
+  <si>
+    <t>longer time</t>
+  </si>
+  <si>
+    <t>peak kx</t>
+  </si>
+  <si>
+    <t>peak kz</t>
+  </si>
+  <si>
+    <t>Check Hopf frequency</t>
+  </si>
+  <si>
+    <t>10000-60000</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>16gb</t>
+  </si>
+  <si>
+    <t>128gb</t>
+  </si>
+  <si>
+    <t>2D continuation:  folder_name_list={'RBC_Ra_low_Ra_S2T_2D_periodic'};</t>
+  </si>
+  <si>
+    <t>Single-mode continuation: folder_name_list={'RBC_Ra_low_Ra_S2T_2D_periodic'};</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>secondary bifurcation (from elevator mode)</t>
+  </si>
+  <si>
+    <t>tertiary bifurcation (from tilted elevator mode)</t>
+  </si>
+  <si>
+    <t>64gb</t>
+  </si>
+  <si>
+    <t>tertiary Hopf frequency</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>Validate against pde2path</t>
+  </si>
+  <si>
+    <t>Modulated traveling waves</t>
+  </si>
+  <si>
+    <t>Direction reversing TW</t>
+  </si>
+  <si>
+    <t>Correcting the weight_dx_dz, the domain size is missing for averaging</t>
+  </si>
+  <si>
+    <t>Correcting fixed flux constraint, substitute back into the governing equation, so no non-homogeneous term</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -352,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -372,6 +479,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,18 +763,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P171"/>
+  <dimension ref="A1:P192"/>
   <sheetViews>
-    <sheetView topLeftCell="B154" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O163" sqref="O163"/>
+    <sheetView topLeftCell="A160" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" customWidth="1"/>
-    <col min="11" max="11" width="14.90625" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1576,7 +1689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="18.5">
+    <row r="50" spans="1:14" ht="18.75">
       <c r="A50" s="3">
         <v>14673046</v>
       </c>
@@ -1620,7 +1733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="18.5">
+    <row r="51" spans="1:14" ht="18.75">
       <c r="A51" s="3">
         <v>14673047</v>
       </c>
@@ -1664,7 +1777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="18.5">
+    <row r="52" spans="1:14" ht="18.75">
       <c r="A52" s="3">
         <v>14768718</v>
       </c>
@@ -1705,7 +1818,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="18.5">
+    <row r="53" spans="1:14" ht="18.75">
       <c r="A53" s="3">
         <v>14680791</v>
       </c>
@@ -1749,7 +1862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="18.5">
+    <row r="54" spans="1:14" ht="18.75">
       <c r="A54" s="3">
         <v>14741869</v>
       </c>
@@ -1793,7 +1906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="18.5">
+    <row r="55" spans="1:14" ht="18.75">
       <c r="A55" s="3">
         <v>14673849</v>
       </c>
@@ -1834,7 +1947,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="18.5">
+    <row r="56" spans="1:14" ht="18.75">
       <c r="A56" s="3">
         <v>14673048</v>
       </c>
@@ -1878,7 +1991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="18.5">
+    <row r="57" spans="1:14" ht="18.75">
       <c r="A57" s="3">
         <v>14673049</v>
       </c>
@@ -2012,7 +2125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="18.5">
+    <row r="62" spans="1:14" ht="18.75">
       <c r="A62" s="3">
         <v>14680810</v>
       </c>
@@ -2056,7 +2169,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="18.5">
+    <row r="63" spans="1:14" ht="18.75">
       <c r="A63" s="3">
         <v>14672941</v>
       </c>
@@ -2100,7 +2213,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="18.5">
+    <row r="64" spans="1:14" ht="18.75">
       <c r="A64" s="3">
         <v>14672942</v>
       </c>
@@ -2144,7 +2257,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="18.5">
+    <row r="65" spans="1:14" ht="18.75">
       <c r="A65" s="3">
         <v>14672943</v>
       </c>
@@ -2188,7 +2301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="18.5">
+    <row r="66" spans="1:14" ht="18.75">
       <c r="A66" s="3">
         <v>14672940</v>
       </c>
@@ -2232,7 +2345,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="17.5">
+    <row r="67" spans="1:14" ht="18">
       <c r="A67" s="4">
         <v>14671572</v>
       </c>
@@ -2276,7 +2389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="17.5">
+    <row r="68" spans="1:14" ht="18">
       <c r="A68" s="4">
         <v>14680814</v>
       </c>
@@ -2320,7 +2433,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="17.5">
+    <row r="69" spans="1:14" ht="18">
       <c r="A69" s="4">
         <v>14671573</v>
       </c>
@@ -4323,7 +4436,7 @@
       </c>
     </row>
     <row r="143" spans="1:14" s="6" customFormat="1">
-      <c r="A143" s="5">
+      <c r="A143" s="1">
         <v>15163269</v>
       </c>
       <c r="B143">
@@ -4361,13 +4474,16 @@
       </c>
       <c r="M143">
         <v>0.01</v>
+      </c>
+      <c r="N143" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:14" s="6" customFormat="1">
       <c r="A144" s="5">
         <v>15163270</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="6">
         <v>46892</v>
       </c>
       <c r="C144">
@@ -4403,13 +4519,16 @@
       <c r="M144">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" s="6" customFormat="1">
+      <c r="N144" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" s="6" customFormat="1">
       <c r="A145" s="5">
-        <v>15163271</v>
-      </c>
-      <c r="B145">
-        <v>46892.5</v>
+        <v>15163950</v>
+      </c>
+      <c r="B145" s="6">
+        <v>46892.1</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -4444,13 +4563,16 @@
       <c r="M145">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" s="6" customFormat="1">
-      <c r="A146" s="1">
-        <v>15159728</v>
+      <c r="N145" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" s="6" customFormat="1">
+      <c r="A146" s="5">
+        <v>15163951</v>
       </c>
       <c r="B146">
-        <v>46893</v>
+        <v>46892.2</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -4489,12 +4611,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="147" spans="1:15" s="6" customFormat="1">
-      <c r="A147" s="1">
-        <v>15157545</v>
+    <row r="147" spans="1:14" s="6" customFormat="1">
+      <c r="A147" s="5">
+        <v>15163952</v>
       </c>
       <c r="B147">
-        <v>46895</v>
+        <v>46892.3</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -4533,12 +4655,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="1:15" s="6" customFormat="1">
-      <c r="A148" s="1">
-        <v>15156198</v>
+    <row r="148" spans="1:14" s="6" customFormat="1">
+      <c r="A148" s="5">
+        <v>15163953</v>
       </c>
       <c r="B148">
-        <v>46900</v>
+        <v>46892.4</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -4577,12 +4699,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="149" spans="1:15" s="6" customFormat="1">
+    <row r="149" spans="1:14" s="6" customFormat="1">
       <c r="A149" s="1">
-        <v>15154920</v>
+        <v>15163271</v>
       </c>
       <c r="B149">
-        <v>47000</v>
+        <v>46892.5</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -4621,12 +4743,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="150" spans="1:15" s="6" customFormat="1">
+    <row r="150" spans="1:14" s="6" customFormat="1">
       <c r="A150" s="1">
-        <v>15154925</v>
+        <v>15159728</v>
       </c>
       <c r="B150">
-        <v>47500</v>
+        <v>46893</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -4665,12 +4787,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="151" spans="1:15" s="6" customFormat="1">
+    <row r="151" spans="1:14" s="6" customFormat="1">
       <c r="A151" s="1">
-        <v>907903</v>
+        <v>15157545</v>
       </c>
       <c r="B151">
-        <v>48000</v>
+        <v>46895</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -4709,12 +4831,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="152" spans="1:15" s="6" customFormat="1">
+    <row r="152" spans="1:14" s="6" customFormat="1">
       <c r="A152" s="1">
-        <v>907919</v>
+        <v>15156198</v>
       </c>
       <c r="B152">
-        <v>50000</v>
+        <v>46900</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -4753,12 +4875,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="153" spans="1:15" s="6" customFormat="1">
+    <row r="153" spans="1:14" s="6" customFormat="1">
       <c r="A153" s="1">
-        <v>907934</v>
+        <v>15154920</v>
       </c>
       <c r="B153">
-        <v>52000</v>
+        <v>47000</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -4797,12 +4919,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="154" spans="1:15" s="6" customFormat="1">
+    <row r="154" spans="1:14" s="6" customFormat="1">
       <c r="A154" s="1">
-        <v>907946</v>
+        <v>15154925</v>
       </c>
       <c r="B154">
-        <v>54000</v>
+        <v>47500</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -4841,12 +4963,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="155" spans="1:15" s="6" customFormat="1">
+    <row r="155" spans="1:14" s="6" customFormat="1">
       <c r="A155" s="1">
-        <v>907961</v>
+        <v>907903</v>
       </c>
       <c r="B155">
-        <v>56000</v>
+        <v>48000</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -4885,12 +5007,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="156" spans="1:15" s="6" customFormat="1">
+    <row r="156" spans="1:14" s="6" customFormat="1">
       <c r="A156" s="1">
-        <v>907979</v>
+        <v>907919</v>
       </c>
       <c r="B156">
-        <v>58000</v>
+        <v>50000</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -4929,214 +5051,205 @@
         <v>63</v>
       </c>
     </row>
-    <row r="157" spans="1:15" s="6" customFormat="1">
-      <c r="A157" s="5"/>
-      <c r="B157"/>
-      <c r="C157"/>
-      <c r="D157"/>
-      <c r="E157"/>
-      <c r="F157"/>
-      <c r="G157"/>
-      <c r="H157"/>
-      <c r="I157"/>
-      <c r="J157"/>
-      <c r="K157" s="2"/>
-      <c r="L157"/>
-      <c r="M157"/>
-    </row>
-    <row r="159" spans="1:15">
-      <c r="A159" s="6" t="s">
+    <row r="157" spans="1:14" s="6" customFormat="1">
+      <c r="A157" s="1">
+        <v>907934</v>
+      </c>
+      <c r="B157">
+        <v>52000</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>128</v>
+      </c>
+      <c r="G157">
+        <v>128</v>
+      </c>
+      <c r="H157">
+        <v>10</v>
+      </c>
+      <c r="I157">
+        <v>10</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L157">
+        <v>10</v>
+      </c>
+      <c r="M157">
+        <v>0.01</v>
+      </c>
+      <c r="N157" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" s="6" customFormat="1">
+      <c r="A158" s="1">
+        <v>907946</v>
+      </c>
+      <c r="B158">
+        <v>54000</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>128</v>
+      </c>
+      <c r="G158">
+        <v>128</v>
+      </c>
+      <c r="H158">
+        <v>10</v>
+      </c>
+      <c r="I158">
+        <v>10</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L158">
+        <v>10</v>
+      </c>
+      <c r="M158">
+        <v>0.01</v>
+      </c>
+      <c r="N158" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" s="6" customFormat="1">
+      <c r="A159" s="1">
+        <v>907961</v>
+      </c>
+      <c r="B159">
+        <v>56000</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>128</v>
+      </c>
+      <c r="G159">
+        <v>128</v>
+      </c>
+      <c r="H159">
+        <v>10</v>
+      </c>
+      <c r="I159">
+        <v>10</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L159">
+        <v>10</v>
+      </c>
+      <c r="M159">
+        <v>0.01</v>
+      </c>
+      <c r="N159" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" s="6" customFormat="1">
+      <c r="A160" s="1">
+        <v>907979</v>
+      </c>
+      <c r="B160">
+        <v>58000</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>128</v>
+      </c>
+      <c r="G160">
+        <v>128</v>
+      </c>
+      <c r="H160">
+        <v>10</v>
+      </c>
+      <c r="I160">
+        <v>10</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L160">
+        <v>10</v>
+      </c>
+      <c r="M160">
+        <v>0.01</v>
+      </c>
+      <c r="N160" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" s="6" customFormat="1">
+      <c r="A161" s="5"/>
+      <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161" s="2"/>
+      <c r="L161"/>
+      <c r="M161"/>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163" s="6" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
-      <c r="A160">
-        <v>15155139</v>
-      </c>
-      <c r="B160">
-        <v>30000</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-      <c r="D160" t="s">
-        <v>13</v>
-      </c>
-      <c r="E160">
-        <v>1</v>
-      </c>
-      <c r="F160">
-        <v>128</v>
-      </c>
-      <c r="G160">
-        <v>128</v>
-      </c>
-      <c r="H160">
-        <v>10</v>
-      </c>
-      <c r="I160">
-        <v>10</v>
-      </c>
-      <c r="J160">
-        <v>0</v>
-      </c>
-      <c r="K160" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L160">
-        <v>10</v>
-      </c>
-      <c r="M160">
-        <v>0.01</v>
-      </c>
-      <c r="N160" t="s">
-        <v>66</v>
-      </c>
-      <c r="O160" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15">
-      <c r="A161">
-        <v>15155141</v>
-      </c>
-      <c r="B161">
-        <v>40000</v>
-      </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-      <c r="D161" t="s">
-        <v>13</v>
-      </c>
-      <c r="E161">
-        <v>1</v>
-      </c>
-      <c r="F161">
-        <v>128</v>
-      </c>
-      <c r="G161">
-        <v>128</v>
-      </c>
-      <c r="H161">
-        <v>10</v>
-      </c>
-      <c r="I161">
-        <v>10</v>
-      </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-      <c r="K161" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L161">
-        <v>10</v>
-      </c>
-      <c r="M161">
-        <v>0.01</v>
-      </c>
-      <c r="N161" t="s">
-        <v>66</v>
-      </c>
-      <c r="O161" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
-      <c r="A162">
-        <v>15155148</v>
-      </c>
-      <c r="B162">
-        <v>60000</v>
-      </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-      <c r="D162" t="s">
-        <v>13</v>
-      </c>
-      <c r="E162">
-        <v>1</v>
-      </c>
-      <c r="F162">
-        <v>128</v>
-      </c>
-      <c r="G162">
-        <v>128</v>
-      </c>
-      <c r="H162">
-        <v>10</v>
-      </c>
-      <c r="I162">
-        <v>10</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-      <c r="K162" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L162">
-        <v>10</v>
-      </c>
-      <c r="M162">
-        <v>0.01</v>
-      </c>
-      <c r="N162" t="s">
-        <v>66</v>
-      </c>
-      <c r="O162" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15">
-      <c r="A163">
-        <v>15155309</v>
-      </c>
-      <c r="B163" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C163">
-        <v>1</v>
-      </c>
-      <c r="D163" t="s">
-        <v>13</v>
-      </c>
-      <c r="E163">
-        <v>1</v>
-      </c>
-      <c r="F163">
-        <v>256</v>
-      </c>
-      <c r="G163">
-        <v>256</v>
-      </c>
-      <c r="H163">
-        <v>10</v>
-      </c>
-      <c r="I163">
-        <v>10</v>
-      </c>
-      <c r="J163">
-        <v>0</v>
-      </c>
-      <c r="K163" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L163">
-        <v>1</v>
-      </c>
-      <c r="M163" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N163" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="164" spans="1:15">
       <c r="A164">
-        <v>15155150</v>
+        <v>15155139</v>
       </c>
       <c r="B164">
         <v>30000</v>
@@ -5175,12 +5288,15 @@
         <v>0.01</v>
       </c>
       <c r="N164" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="O164" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="165" spans="1:15">
       <c r="A165">
-        <v>15155156</v>
+        <v>15155141</v>
       </c>
       <c r="B165">
         <v>40000</v>
@@ -5219,12 +5335,15 @@
         <v>0.01</v>
       </c>
       <c r="N165" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="O165" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="166" spans="1:15">
       <c r="A166">
-        <v>15155162</v>
+        <v>15155148</v>
       </c>
       <c r="B166">
         <v>60000</v>
@@ -5263,12 +5382,15 @@
         <v>0.01</v>
       </c>
       <c r="N166" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="O166" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="167" spans="1:15">
       <c r="A167">
-        <v>15155314</v>
+        <v>15155309</v>
       </c>
       <c r="B167" s="2">
         <v>100000000</v>
@@ -5307,20 +5429,59 @@
         <v>1E-3</v>
       </c>
       <c r="N167" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="A168">
+        <v>15155150</v>
+      </c>
+      <c r="B168">
+        <v>30000</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>128</v>
+      </c>
+      <c r="G168">
+        <v>128</v>
+      </c>
+      <c r="H168">
+        <v>10</v>
+      </c>
+      <c r="I168">
+        <v>10</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L168">
+        <v>10</v>
+      </c>
+      <c r="M168">
+        <v>0.01</v>
+      </c>
+      <c r="N168" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15">
-      <c r="A168" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="169" spans="1:15">
       <c r="A169">
-        <v>15155190</v>
+        <v>15155156</v>
       </c>
       <c r="B169">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -5350,21 +5511,21 @@
         <v>1E-3</v>
       </c>
       <c r="L169">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M169">
         <v>0.01</v>
       </c>
       <c r="N169" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="170" spans="1:15">
       <c r="A170">
-        <v>15155200</v>
+        <v>15155162</v>
       </c>
       <c r="B170">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -5394,57 +5555,639 @@
         <v>1E-3</v>
       </c>
       <c r="L170">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M170">
         <v>0.01</v>
       </c>
       <c r="N170" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="171" spans="1:15">
       <c r="A171">
+        <v>15155314</v>
+      </c>
+      <c r="B171" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>256</v>
+      </c>
+      <c r="G171">
+        <v>256</v>
+      </c>
+      <c r="H171">
+        <v>10</v>
+      </c>
+      <c r="I171">
+        <v>10</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N171" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="A172" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="A173">
+        <v>15155190</v>
+      </c>
+      <c r="B173">
+        <v>30000</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>128</v>
+      </c>
+      <c r="G173">
+        <v>128</v>
+      </c>
+      <c r="H173">
+        <v>10</v>
+      </c>
+      <c r="I173">
+        <v>10</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>0.01</v>
+      </c>
+      <c r="N173" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
+      <c r="A174">
+        <v>15155200</v>
+      </c>
+      <c r="B174">
+        <v>40000</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>128</v>
+      </c>
+      <c r="G174">
+        <v>128</v>
+      </c>
+      <c r="H174">
+        <v>10</v>
+      </c>
+      <c r="I174">
+        <v>10</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>0.01</v>
+      </c>
+      <c r="N174" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
+      <c r="A175">
         <v>15155216</v>
       </c>
-      <c r="B171">
+      <c r="B175">
         <v>60000</v>
       </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-      <c r="D171" t="s">
-        <v>13</v>
-      </c>
-      <c r="E171">
-        <v>1</v>
-      </c>
-      <c r="F171">
-        <v>128</v>
-      </c>
-      <c r="G171">
-        <v>128</v>
-      </c>
-      <c r="H171">
-        <v>10</v>
-      </c>
-      <c r="I171">
-        <v>10</v>
-      </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-      <c r="K171" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L171">
-        <v>1</v>
-      </c>
-      <c r="M171">
-        <v>0.01</v>
-      </c>
-      <c r="N171" t="s">
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>128</v>
+      </c>
+      <c r="G175">
+        <v>128</v>
+      </c>
+      <c r="H175">
+        <v>10</v>
+      </c>
+      <c r="I175">
+        <v>10</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>0.01</v>
+      </c>
+      <c r="N175" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
+      <c r="A177" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="A178">
+        <v>15191607</v>
+      </c>
+      <c r="B178">
+        <v>26000</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>128</v>
+      </c>
+      <c r="G178">
+        <v>128</v>
+      </c>
+      <c r="H178">
+        <v>10</v>
+      </c>
+      <c r="I178">
+        <v>10</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L178">
+        <v>10</v>
+      </c>
+      <c r="M178">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
+      <c r="A179">
+        <v>15191626</v>
+      </c>
+      <c r="B179">
+        <v>26000</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>32</v>
+      </c>
+      <c r="G179">
+        <v>32</v>
+      </c>
+      <c r="H179">
+        <v>10</v>
+      </c>
+      <c r="I179">
+        <v>10</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L179">
+        <v>10</v>
+      </c>
+      <c r="M179">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
+      <c r="A181" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
+      <c r="A182" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B182" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C182" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
+      <c r="A183" s="19">
+        <v>16017</v>
+      </c>
+      <c r="B183" s="19">
+        <v>25222.5</v>
+      </c>
+      <c r="C183" s="19">
+        <v>45.129399999999997</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
+      <c r="A184" s="6"/>
+    </row>
+    <row r="185" spans="1:13">
+      <c r="A185">
+        <v>15192709</v>
+      </c>
+      <c r="B185">
+        <v>16016</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185" t="s">
+        <v>13</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>32</v>
+      </c>
+      <c r="G185">
+        <v>32</v>
+      </c>
+      <c r="H185">
+        <v>10</v>
+      </c>
+      <c r="I185">
+        <v>10</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
+      <c r="A186">
+        <v>15192712</v>
+      </c>
+      <c r="B186">
+        <v>16018</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186" t="s">
+        <v>13</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>32</v>
+      </c>
+      <c r="G186">
+        <v>32</v>
+      </c>
+      <c r="H186">
+        <v>10</v>
+      </c>
+      <c r="I186">
+        <v>10</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
+      <c r="A187">
+        <v>15192715</v>
+      </c>
+      <c r="B187">
+        <v>16100</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>32</v>
+      </c>
+      <c r="G187">
+        <v>32</v>
+      </c>
+      <c r="H187">
+        <v>10</v>
+      </c>
+      <c r="I187">
+        <v>10</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
+      <c r="A188">
+        <v>15192717</v>
+      </c>
+      <c r="B188">
+        <v>17000</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188" t="s">
+        <v>13</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>32</v>
+      </c>
+      <c r="G188">
+        <v>32</v>
+      </c>
+      <c r="H188">
+        <v>10</v>
+      </c>
+      <c r="I188">
+        <v>10</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
+      <c r="A189">
+        <v>15209890</v>
+      </c>
+      <c r="B189">
+        <v>20000</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189" t="s">
+        <v>13</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>32</v>
+      </c>
+      <c r="G189">
+        <v>32</v>
+      </c>
+      <c r="H189">
+        <v>10</v>
+      </c>
+      <c r="I189">
+        <v>10</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13">
+      <c r="A190">
+        <v>15209889</v>
+      </c>
+      <c r="B190">
+        <v>25000</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190" t="s">
+        <v>13</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>32</v>
+      </c>
+      <c r="G190">
+        <v>32</v>
+      </c>
+      <c r="H190">
+        <v>10</v>
+      </c>
+      <c r="I190">
+        <v>10</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13">
+      <c r="A191">
+        <v>15209888</v>
+      </c>
+      <c r="B191">
+        <v>26000</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>32</v>
+      </c>
+      <c r="G191">
+        <v>32</v>
+      </c>
+      <c r="H191">
+        <v>10</v>
+      </c>
+      <c r="I191">
+        <v>10</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
+      <c r="A192">
+        <v>15209887</v>
+      </c>
+      <c r="B192">
+        <v>30000</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>32</v>
+      </c>
+      <c r="G192">
+        <v>32</v>
+      </c>
+      <c r="H192">
+        <v>10</v>
+      </c>
+      <c r="I192">
+        <v>10</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -5455,15 +6198,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B59324F-8BFA-4D0B-8F1B-AB5C69134BD9}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.453125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -5505,7 +6249,7 @@
       <c r="A9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
@@ -5547,9 +6291,9 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="18">
-        <v>20230307231811</v>
-      </c>
-      <c r="B10">
+        <v>20230307235742</v>
+      </c>
+      <c r="B10" s="22">
         <v>30000</v>
       </c>
       <c r="C10">
@@ -5561,8 +6305,8 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>128</v>
+      <c r="F10" t="s">
+        <v>99</v>
       </c>
       <c r="G10">
         <v>128</v>
@@ -5586,17 +6330,17 @@
         <v>0.01</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="18">
-        <v>20230307232436</v>
-      </c>
-      <c r="B11">
+        <v>20230308000459</v>
+      </c>
+      <c r="B11" s="22">
         <v>40000</v>
       </c>
       <c r="C11">
@@ -5608,8 +6352,8 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>128</v>
+      <c r="F11" t="s">
+        <v>99</v>
       </c>
       <c r="G11">
         <v>128</v>
@@ -5633,17 +6377,17 @@
         <v>0.01</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="18">
-        <v>20230307232924</v>
-      </c>
-      <c r="B12">
+        <v>20230308101259</v>
+      </c>
+      <c r="B12" s="22">
         <v>60000</v>
       </c>
       <c r="C12">
@@ -5655,8 +6399,8 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>128</v>
+      <c r="F12" t="s">
+        <v>99</v>
       </c>
       <c r="G12">
         <v>128</v>
@@ -5680,10 +6424,2660 @@
         <v>0.01</v>
       </c>
       <c r="N12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" t="s">
         <v>75</v>
       </c>
-      <c r="O12" t="s">
-        <v>76</v>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="18">
+        <v>20230308115320</v>
+      </c>
+      <c r="B13" s="22">
+        <v>46891</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13">
+        <v>128</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>0.01</v>
+      </c>
+      <c r="N13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="18">
+        <v>20230315001517</v>
+      </c>
+      <c r="B15" s="22">
+        <v>30000</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15">
+        <v>128</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>0.01</v>
+      </c>
+      <c r="N15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="O19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="18">
+        <v>20230314185834</v>
+      </c>
+      <c r="B22" s="22">
+        <v>42000</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22">
+        <v>32</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>0.01</v>
+      </c>
+      <c r="N22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="18">
+        <v>20230314190117</v>
+      </c>
+      <c r="B23" s="22">
+        <v>44000</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23">
+        <v>32</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>0.01</v>
+      </c>
+      <c r="N23" t="s">
+        <v>77</v>
+      </c>
+      <c r="O23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="18">
+        <v>20230314190403</v>
+      </c>
+      <c r="B24" s="22">
+        <v>45000</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24">
+        <v>32</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>0.01</v>
+      </c>
+      <c r="N24" t="s">
+        <v>77</v>
+      </c>
+      <c r="O24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="18">
+        <v>20230314190655</v>
+      </c>
+      <c r="B25" s="22">
+        <v>45500</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25">
+        <v>32</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>0.01</v>
+      </c>
+      <c r="N25" t="s">
+        <v>77</v>
+      </c>
+      <c r="O25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="18">
+        <v>20230314190928</v>
+      </c>
+      <c r="B26" s="22">
+        <v>46000</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26">
+        <v>32</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
+        <v>0.01</v>
+      </c>
+      <c r="N26" t="s">
+        <v>77</v>
+      </c>
+      <c r="O26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="18">
+        <v>20230314191201</v>
+      </c>
+      <c r="B27" s="22">
+        <v>46400</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27">
+        <v>32</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <v>0.01</v>
+      </c>
+      <c r="N27" t="s">
+        <v>77</v>
+      </c>
+      <c r="O27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="18">
+        <v>20230314191934</v>
+      </c>
+      <c r="B28" s="22">
+        <v>46700</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28">
+        <v>32</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>0.01</v>
+      </c>
+      <c r="N28" t="s">
+        <v>77</v>
+      </c>
+      <c r="O28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="18">
+        <v>20230314193155</v>
+      </c>
+      <c r="B29" s="22">
+        <v>46750</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29">
+        <v>32</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L29">
+        <v>10</v>
+      </c>
+      <c r="M29">
+        <v>0.01</v>
+      </c>
+      <c r="N29" t="s">
+        <v>77</v>
+      </c>
+      <c r="O29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="18">
+        <v>20230314200855</v>
+      </c>
+      <c r="B30" s="22">
+        <v>46756</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30">
+        <v>32</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <v>0.01</v>
+      </c>
+      <c r="N30" t="s">
+        <v>77</v>
+      </c>
+      <c r="O30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="18">
+        <v>20230314201731</v>
+      </c>
+      <c r="B31" s="22">
+        <v>46759</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31">
+        <v>128</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="M31">
+        <v>0.01</v>
+      </c>
+      <c r="N31" t="s">
+        <v>77</v>
+      </c>
+      <c r="O31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="18">
+        <v>20230314211543</v>
+      </c>
+      <c r="B32" s="22">
+        <v>46760.5</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32">
+        <v>128</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L32">
+        <v>10</v>
+      </c>
+      <c r="M32">
+        <v>0.01</v>
+      </c>
+      <c r="N32" t="s">
+        <v>77</v>
+      </c>
+      <c r="O32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="18">
+        <v>20230314213422</v>
+      </c>
+      <c r="B33" s="22">
+        <v>46760.800000000003</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33">
+        <v>128</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L33">
+        <v>10</v>
+      </c>
+      <c r="M33">
+        <v>0.01</v>
+      </c>
+      <c r="N33" t="s">
+        <v>77</v>
+      </c>
+      <c r="O33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="18">
+        <v>20230314220008</v>
+      </c>
+      <c r="B34" s="22">
+        <v>46760.9</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34">
+        <v>128</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L34">
+        <v>10</v>
+      </c>
+      <c r="M34">
+        <v>0.01</v>
+      </c>
+      <c r="N34" t="s">
+        <v>77</v>
+      </c>
+      <c r="O34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="18">
+        <v>20230314221032</v>
+      </c>
+      <c r="B35" s="22">
+        <v>46761.05</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35">
+        <v>128</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <v>0.01</v>
+      </c>
+      <c r="N35" t="s">
+        <v>77</v>
+      </c>
+      <c r="O35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="18">
+        <v>20230314224402</v>
+      </c>
+      <c r="B36" s="22">
+        <v>46761.074999999997</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36">
+        <v>128</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L36">
+        <v>10</v>
+      </c>
+      <c r="M36">
+        <v>0.01</v>
+      </c>
+      <c r="N36" t="s">
+        <v>77</v>
+      </c>
+      <c r="O36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="18">
+        <v>20230314224941</v>
+      </c>
+      <c r="B37" s="22">
+        <v>46761.080999999998</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37">
+        <v>128</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L37">
+        <v>10</v>
+      </c>
+      <c r="M37">
+        <v>0.01</v>
+      </c>
+      <c r="N37" t="s">
+        <v>77</v>
+      </c>
+      <c r="O37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="18">
+        <v>20230314225825</v>
+      </c>
+      <c r="B38" s="22">
+        <v>46761.081749999998</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38">
+        <v>128</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L38">
+        <v>10</v>
+      </c>
+      <c r="M38">
+        <v>0.01</v>
+      </c>
+      <c r="N38" t="s">
+        <v>77</v>
+      </c>
+      <c r="O38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="18">
+        <v>20230314231644</v>
+      </c>
+      <c r="B39" s="22">
+        <v>46761.081899999997</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39">
+        <v>128</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L39">
+        <v>10</v>
+      </c>
+      <c r="M39">
+        <v>0.01</v>
+      </c>
+      <c r="N39" t="s">
+        <v>77</v>
+      </c>
+      <c r="O39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="18">
+        <v>20230314232329</v>
+      </c>
+      <c r="B40" s="22">
+        <v>46761.08195</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40">
+        <v>128</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L40">
+        <v>10</v>
+      </c>
+      <c r="M40">
+        <v>0.01</v>
+      </c>
+      <c r="N40" t="s">
+        <v>77</v>
+      </c>
+      <c r="O40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="18">
+        <v>20230314233351</v>
+      </c>
+      <c r="B41" s="22">
+        <v>46761.081975000001</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41">
+        <v>128</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L41">
+        <v>10</v>
+      </c>
+      <c r="M41">
+        <v>0.01</v>
+      </c>
+      <c r="N41" t="s">
+        <v>77</v>
+      </c>
+      <c r="O41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="18">
+        <v>20230315000200</v>
+      </c>
+      <c r="B42" s="22">
+        <v>46761.081975749999</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42">
+        <v>128</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <v>0.01</v>
+      </c>
+      <c r="N42" t="s">
+        <v>77</v>
+      </c>
+      <c r="O42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="B43" s="22">
+        <v>46761.081976100002</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43">
+        <v>128</v>
+      </c>
+      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L43">
+        <v>10</v>
+      </c>
+      <c r="M43">
+        <v>0.01</v>
+      </c>
+      <c r="N43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="18">
+        <v>20230314235808</v>
+      </c>
+      <c r="B44" s="22">
+        <v>46761.081976499998</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44">
+        <v>128</v>
+      </c>
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L44">
+        <v>10</v>
+      </c>
+      <c r="M44">
+        <v>0.01</v>
+      </c>
+      <c r="N44" t="s">
+        <v>77</v>
+      </c>
+      <c r="O44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="18">
+        <v>20230314235258</v>
+      </c>
+      <c r="B45" s="22">
+        <v>46761.081978000002</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45">
+        <v>128</v>
+      </c>
+      <c r="H45">
+        <v>10</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L45">
+        <v>10</v>
+      </c>
+      <c r="M45">
+        <v>0.01</v>
+      </c>
+      <c r="N45" t="s">
+        <v>77</v>
+      </c>
+      <c r="O45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="18">
+        <v>20230314234258</v>
+      </c>
+      <c r="B46" s="22">
+        <v>46761.081981000003</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46">
+        <v>128</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L46">
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <v>0.01</v>
+      </c>
+      <c r="N46" t="s">
+        <v>77</v>
+      </c>
+      <c r="O46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="18">
+        <v>20230314233927</v>
+      </c>
+      <c r="B47" s="22">
+        <v>46761.081987500002</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47">
+        <v>128</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L47">
+        <v>10</v>
+      </c>
+      <c r="M47">
+        <v>0.01</v>
+      </c>
+      <c r="N47" t="s">
+        <v>77</v>
+      </c>
+      <c r="O47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="18">
+        <v>20230314232011</v>
+      </c>
+      <c r="B48" s="22">
+        <v>46761.082000000002</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48">
+        <v>128</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="I48">
+        <v>10</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L48">
+        <v>10</v>
+      </c>
+      <c r="M48">
+        <v>0.01</v>
+      </c>
+      <c r="N48" t="s">
+        <v>77</v>
+      </c>
+      <c r="O48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="18">
+        <v>20230314231329</v>
+      </c>
+      <c r="B49" s="22">
+        <v>46761.0821</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49">
+        <v>128</v>
+      </c>
+      <c r="H49">
+        <v>10</v>
+      </c>
+      <c r="I49">
+        <v>10</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L49">
+        <v>10</v>
+      </c>
+      <c r="M49">
+        <v>0.01</v>
+      </c>
+      <c r="N49" t="s">
+        <v>77</v>
+      </c>
+      <c r="O49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="18">
+        <v>20230314225530</v>
+      </c>
+      <c r="B50" s="22">
+        <v>46761.082499999997</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50">
+        <v>128</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="I50">
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L50">
+        <v>10</v>
+      </c>
+      <c r="M50">
+        <v>0.01</v>
+      </c>
+      <c r="N50" t="s">
+        <v>77</v>
+      </c>
+      <c r="O50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="18">
+        <v>20230314225234</v>
+      </c>
+      <c r="B51" s="22">
+        <v>46761.084000000003</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51">
+        <v>128</v>
+      </c>
+      <c r="H51">
+        <v>10</v>
+      </c>
+      <c r="I51">
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L51">
+        <v>10</v>
+      </c>
+      <c r="M51">
+        <v>0.01</v>
+      </c>
+      <c r="N51" t="s">
+        <v>77</v>
+      </c>
+      <c r="O51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="18">
+        <v>20230314224654</v>
+      </c>
+      <c r="B52" s="22">
+        <v>46761.087500000001</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52">
+        <v>128</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="I52">
+        <v>10</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L52">
+        <v>10</v>
+      </c>
+      <c r="M52">
+        <v>0.01</v>
+      </c>
+      <c r="N52" t="s">
+        <v>77</v>
+      </c>
+      <c r="O52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="18">
+        <v>20230314224044</v>
+      </c>
+      <c r="B53" s="22">
+        <v>46761.1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53">
+        <v>128</v>
+      </c>
+      <c r="H53">
+        <v>10</v>
+      </c>
+      <c r="I53">
+        <v>10</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L53">
+        <v>10</v>
+      </c>
+      <c r="M53">
+        <v>0.01</v>
+      </c>
+      <c r="N53" t="s">
+        <v>77</v>
+      </c>
+      <c r="O53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="18">
+        <v>20230314222713</v>
+      </c>
+      <c r="B54" s="22">
+        <v>46761.15</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>99</v>
+      </c>
+      <c r="G54">
+        <v>128</v>
+      </c>
+      <c r="H54">
+        <v>10</v>
+      </c>
+      <c r="I54">
+        <v>10</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L54">
+        <v>10</v>
+      </c>
+      <c r="M54">
+        <v>0.01</v>
+      </c>
+      <c r="N54" t="s">
+        <v>77</v>
+      </c>
+      <c r="O54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="18">
+        <v>20230314212929</v>
+      </c>
+      <c r="B55" s="22">
+        <v>46761.25</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55">
+        <v>128</v>
+      </c>
+      <c r="H55">
+        <v>10</v>
+      </c>
+      <c r="I55">
+        <v>10</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L55">
+        <v>10</v>
+      </c>
+      <c r="M55">
+        <v>0.01</v>
+      </c>
+      <c r="N55" t="s">
+        <v>77</v>
+      </c>
+      <c r="O55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="18">
+        <v>20230314194835</v>
+      </c>
+      <c r="B56" s="22">
+        <v>46762</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56">
+        <v>32</v>
+      </c>
+      <c r="H56">
+        <v>10</v>
+      </c>
+      <c r="I56">
+        <v>10</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L56">
+        <v>10</v>
+      </c>
+      <c r="M56">
+        <v>0.01</v>
+      </c>
+      <c r="N56" t="s">
+        <v>77</v>
+      </c>
+      <c r="O56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="18">
+        <v>20230314194124</v>
+      </c>
+      <c r="B57" s="22">
+        <v>46775</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>99</v>
+      </c>
+      <c r="G57">
+        <v>32</v>
+      </c>
+      <c r="H57">
+        <v>10</v>
+      </c>
+      <c r="I57">
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L57">
+        <v>10</v>
+      </c>
+      <c r="M57">
+        <v>0.01</v>
+      </c>
+      <c r="N57" t="s">
+        <v>77</v>
+      </c>
+      <c r="O57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="18">
+        <v>20230314191642</v>
+      </c>
+      <c r="B58" s="22">
+        <v>46800</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>99</v>
+      </c>
+      <c r="G58">
+        <v>32</v>
+      </c>
+      <c r="H58">
+        <v>10</v>
+      </c>
+      <c r="I58">
+        <v>10</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L58">
+        <v>10</v>
+      </c>
+      <c r="M58">
+        <v>0.01</v>
+      </c>
+      <c r="N58" t="s">
+        <v>77</v>
+      </c>
+      <c r="O58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="18">
+        <v>20230314185314</v>
+      </c>
+      <c r="B59" s="22">
+        <v>46891</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59">
+        <v>32</v>
+      </c>
+      <c r="H59">
+        <v>10</v>
+      </c>
+      <c r="I59">
+        <v>10</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L59">
+        <v>10</v>
+      </c>
+      <c r="M59">
+        <v>0.01</v>
+      </c>
+      <c r="N59" t="s">
+        <v>77</v>
+      </c>
+      <c r="O59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76C9478-386D-445B-8B12-05AF01279C9C}">
+  <dimension ref="A3:N25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17:M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="19"/>
+    <col min="5" max="5" width="13.5703125" style="19" customWidth="1"/>
+    <col min="6" max="9" width="8.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="19"/>
+    <col min="11" max="11" width="18.140625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="19" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="21">
+        <v>15191897</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19">
+        <v>128</v>
+      </c>
+      <c r="H5" s="19">
+        <v>10</v>
+      </c>
+      <c r="I5" s="19">
+        <v>10</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="19">
+        <v>16017</v>
+      </c>
+      <c r="L5" s="19">
+        <v>25222.5</v>
+      </c>
+      <c r="M5" s="19">
+        <v>45.129399999999997</v>
+      </c>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="21">
+        <v>15191901</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19">
+        <v>16</v>
+      </c>
+      <c r="G6" s="19">
+        <v>128</v>
+      </c>
+      <c r="H6" s="19">
+        <v>10</v>
+      </c>
+      <c r="I6" s="19">
+        <v>10</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="19">
+        <v>16017</v>
+      </c>
+      <c r="L6" s="19">
+        <v>25222.5</v>
+      </c>
+      <c r="M6" s="19">
+        <v>45.129399999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="21">
+        <v>15191907</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>32</v>
+      </c>
+      <c r="G7" s="19">
+        <v>128</v>
+      </c>
+      <c r="H7" s="19">
+        <v>10</v>
+      </c>
+      <c r="I7" s="19">
+        <v>10</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19">
+        <v>32</v>
+      </c>
+      <c r="G8" s="19">
+        <v>32</v>
+      </c>
+      <c r="H8" s="19">
+        <v>10</v>
+      </c>
+      <c r="I8" s="19">
+        <v>10</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="19">
+        <v>16017</v>
+      </c>
+      <c r="L8" s="19">
+        <v>25222.5</v>
+      </c>
+      <c r="M8" s="19">
+        <v>45.129399999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="19">
+        <v>15192695</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>32</v>
+      </c>
+      <c r="G9" s="19">
+        <v>64</v>
+      </c>
+      <c r="H9" s="19">
+        <v>10</v>
+      </c>
+      <c r="I9" s="19">
+        <v>10</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="19">
+        <v>15192699</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>64</v>
+      </c>
+      <c r="G10" s="19">
+        <v>32</v>
+      </c>
+      <c r="H10" s="19">
+        <v>10</v>
+      </c>
+      <c r="I10" s="19">
+        <v>10</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19">
+        <v>32</v>
+      </c>
+      <c r="G14" s="19">
+        <v>32</v>
+      </c>
+      <c r="H14" s="19">
+        <v>10</v>
+      </c>
+      <c r="I14" s="19">
+        <v>10</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="19">
+        <v>19576.328954076998</v>
+      </c>
+      <c r="L14" s="19">
+        <v>32085.144588459902</v>
+      </c>
+      <c r="M14" s="19">
+        <v>43.052509000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19">
+        <v>32</v>
+      </c>
+      <c r="G17" s="19">
+        <v>32</v>
+      </c>
+      <c r="H17" s="19">
+        <v>10</v>
+      </c>
+      <c r="I17" s="19">
+        <v>10</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="19">
+        <v>19576.328954076998</v>
+      </c>
+      <c r="L17" s="19">
+        <v>32085.144588459902</v>
+      </c>
+      <c r="M17" s="19">
+        <v>43.052509000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="21">
+        <v>15191910</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="19">
+        <v>1</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="19">
+        <v>32</v>
+      </c>
+      <c r="H22" s="19">
+        <v>10</v>
+      </c>
+      <c r="I22" s="19">
+        <v>10</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="19">
+        <v>19291.3</v>
+      </c>
+      <c r="L22" s="19">
+        <v>32254.799999999999</v>
+      </c>
+      <c r="M22" s="19">
+        <v>43.505200000000002</v>
+      </c>
+      <c r="N22" s="20"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="21">
+        <v>15191912</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="19">
+        <v>1</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="19">
+        <v>1</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="19">
+        <v>64</v>
+      </c>
+      <c r="H23" s="19">
+        <v>10</v>
+      </c>
+      <c r="I23" s="19">
+        <v>10</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="K23" s="19">
+        <v>19291.3</v>
+      </c>
+      <c r="L23" s="19">
+        <v>32254.799999999999</v>
+      </c>
+      <c r="M23" s="19">
+        <v>43.505200000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="21">
+        <v>15191915</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="19">
+        <v>1</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="19">
+        <v>128</v>
+      </c>
+      <c r="H24" s="19">
+        <v>10</v>
+      </c>
+      <c r="I24" s="19">
+        <v>10</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" s="19">
+        <v>19291.3</v>
+      </c>
+      <c r="L24" s="19">
+        <v>32254.799999999999</v>
+      </c>
+      <c r="M24" s="19">
+        <v>43.505200000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="21">
+        <v>15191917</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="19">
+        <v>1</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="19">
+        <v>256</v>
+      </c>
+      <c r="H25" s="19">
+        <v>10</v>
+      </c>
+      <c r="I25" s="19">
+        <v>10</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" s="19">
+        <v>19291.3</v>
+      </c>
+      <c r="L25" s="19">
+        <v>32254.799999999999</v>
+      </c>
+      <c r="M25" s="19">
+        <v>43.505200000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78D7654-8772-47C9-9F82-4C2FE71B2004}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>12823334</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <v>12823327</v>
+      </c>
+      <c r="E5">
+        <v>0.22</v>
+      </c>
+      <c r="F5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>12823358</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>12823823</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>12823828</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>12823832</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>12823840</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C5F0AA-E80D-4A30-861D-A445BA7F892E}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>5.9381001148574803</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>5.9547231481602596</v>
       </c>
     </row>
   </sheetData>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8021BA09-634C-4B69-8431-269E46D43C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA6600C-29CA-4571-B7B5-2D7B560C58AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBC flux" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="draft" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="115">
   <si>
     <t>slurm_num</t>
   </si>
@@ -371,6 +370,21 @@
   </si>
   <si>
     <t>Correcting fixed flux constraint, substitute back into the governing equation, so no non-homogeneous term</t>
+  </si>
+  <si>
+    <t>Identify the hysteresis</t>
+  </si>
+  <si>
+    <t>Continue from</t>
+  </si>
+  <si>
+    <t>Direction reversing oscillation</t>
+  </si>
+  <si>
+    <t>Random noise</t>
+  </si>
+  <si>
+    <t>Steady tilted roll</t>
   </si>
 </sst>
 </file>
@@ -765,18 +779,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P192"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192"/>
+    <sheetView topLeftCell="A127" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1689,7 +1703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="18.75">
+    <row r="50" spans="1:14" ht="18.5">
       <c r="A50" s="3">
         <v>14673046</v>
       </c>
@@ -1733,7 +1747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="18.75">
+    <row r="51" spans="1:14" ht="18.5">
       <c r="A51" s="3">
         <v>14673047</v>
       </c>
@@ -1777,7 +1791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="18.75">
+    <row r="52" spans="1:14" ht="18.5">
       <c r="A52" s="3">
         <v>14768718</v>
       </c>
@@ -1818,7 +1832,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="18.75">
+    <row r="53" spans="1:14" ht="18.5">
       <c r="A53" s="3">
         <v>14680791</v>
       </c>
@@ -1862,7 +1876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="18.75">
+    <row r="54" spans="1:14" ht="18.5">
       <c r="A54" s="3">
         <v>14741869</v>
       </c>
@@ -1906,7 +1920,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="18.75">
+    <row r="55" spans="1:14" ht="18.5">
       <c r="A55" s="3">
         <v>14673849</v>
       </c>
@@ -1947,7 +1961,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="18.75">
+    <row r="56" spans="1:14" ht="18.5">
       <c r="A56" s="3">
         <v>14673048</v>
       </c>
@@ -1991,7 +2005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="18.75">
+    <row r="57" spans="1:14" ht="18.5">
       <c r="A57" s="3">
         <v>14673049</v>
       </c>
@@ -2125,7 +2139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="18.75">
+    <row r="62" spans="1:14" ht="18.5">
       <c r="A62" s="3">
         <v>14680810</v>
       </c>
@@ -2169,7 +2183,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="18.75">
+    <row r="63" spans="1:14" ht="18.5">
       <c r="A63" s="3">
         <v>14672941</v>
       </c>
@@ -2213,7 +2227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="18.75">
+    <row r="64" spans="1:14" ht="18.5">
       <c r="A64" s="3">
         <v>14672942</v>
       </c>
@@ -2257,7 +2271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="18.75">
+    <row r="65" spans="1:14" ht="18.5">
       <c r="A65" s="3">
         <v>14672943</v>
       </c>
@@ -2301,7 +2315,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="18.75">
+    <row r="66" spans="1:14" ht="18.5">
       <c r="A66" s="3">
         <v>14672940</v>
       </c>
@@ -2345,7 +2359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="18">
+    <row r="67" spans="1:14" ht="17.5">
       <c r="A67" s="4">
         <v>14671572</v>
       </c>
@@ -2389,7 +2403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="18">
+    <row r="68" spans="1:14" ht="17.5">
       <c r="A68" s="4">
         <v>14680814</v>
       </c>
@@ -2433,7 +2447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="18">
+    <row r="69" spans="1:14" ht="17.5">
       <c r="A69" s="4">
         <v>14671573</v>
       </c>
@@ -6198,2112 +6212,2808 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B59324F-8BFA-4D0B-8F1B-AB5C69134BD9}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="2:16">
+      <c r="B1" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="2:16">
+      <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="2:16">
+      <c r="B3" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="2:16">
+      <c r="B4" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="2:16">
+      <c r="B5" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="2:16">
+      <c r="B6" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="2:16">
+      <c r="B7" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="2:16">
+      <c r="B9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>6</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>8</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>7</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>31</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>9</v>
       </c>
-      <c r="L9" t="s">
-        <v>10</v>
-      </c>
       <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
         <v>11</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="18">
+    <row r="10" spans="2:16">
+      <c r="B10" s="18">
         <v>20230307235742</v>
       </c>
-      <c r="B10" s="22">
+      <c r="C10" s="22">
         <v>30000</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
         <v>99</v>
       </c>
-      <c r="G10">
-        <v>128</v>
-      </c>
       <c r="H10">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I10">
         <v>10</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M10">
-        <v>0.01</v>
-      </c>
-      <c r="N10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>0.01</v>
+      </c>
+      <c r="O10" t="s">
         <v>73</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="18">
+    <row r="11" spans="2:16">
+      <c r="B11" s="18">
         <v>20230308000459</v>
       </c>
-      <c r="B11" s="22">
+      <c r="C11" s="22">
         <v>40000</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
         <v>99</v>
       </c>
-      <c r="G11">
-        <v>128</v>
-      </c>
       <c r="H11">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L11">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M11">
-        <v>0.01</v>
-      </c>
-      <c r="N11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>0.01</v>
+      </c>
+      <c r="O11" t="s">
         <v>73</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="18">
+    <row r="12" spans="2:16">
+      <c r="B12" s="18">
         <v>20230308101259</v>
       </c>
-      <c r="B12" s="22">
+      <c r="C12" s="22">
         <v>60000</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
         <v>99</v>
       </c>
-      <c r="G12">
-        <v>128</v>
-      </c>
       <c r="H12">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I12">
         <v>10</v>
       </c>
       <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M12">
-        <v>0.01</v>
-      </c>
-      <c r="N12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>0.01</v>
+      </c>
+      <c r="O12" t="s">
         <v>73</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="18">
+    <row r="13" spans="2:16">
+      <c r="B13" s="18">
         <v>20230308115320</v>
       </c>
-      <c r="B13" s="22">
+      <c r="C13" s="22">
         <v>46891</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
         <v>99</v>
       </c>
-      <c r="G13">
-        <v>128</v>
-      </c>
       <c r="H13">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I13">
         <v>10</v>
       </c>
       <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L13">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M13">
-        <v>0.01</v>
-      </c>
-      <c r="N13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>0.01</v>
+      </c>
+      <c r="O13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="18">
+    <row r="15" spans="2:16">
+      <c r="B15" s="18">
         <v>20230315001517</v>
       </c>
-      <c r="B15" s="22">
+      <c r="C15" s="22">
         <v>30000</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
         <v>99</v>
       </c>
-      <c r="G15">
-        <v>128</v>
-      </c>
       <c r="H15">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I15">
         <v>10</v>
       </c>
       <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L15">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M15">
-        <v>0.01</v>
-      </c>
-      <c r="N15" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>0.01</v>
+      </c>
+      <c r="O15" t="s">
         <v>77</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="O19" t="s">
+    <row r="19" spans="2:16">
+      <c r="P19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="18">
+    <row r="22" spans="2:16">
+      <c r="B22" s="18">
         <v>20230314185834</v>
       </c>
-      <c r="B22" s="22">
+      <c r="C22" s="22">
         <v>42000</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>99</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>32</v>
       </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
       <c r="I22">
         <v>10</v>
       </c>
       <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L22">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M22">
-        <v>0.01</v>
-      </c>
-      <c r="N22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>0.01</v>
+      </c>
+      <c r="O22" t="s">
         <v>77</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="18">
+    <row r="23" spans="2:16">
+      <c r="B23" s="18">
         <v>20230314190117</v>
       </c>
-      <c r="B23" s="22">
+      <c r="C23" s="22">
         <v>44000</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
         <v>99</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>32</v>
       </c>
-      <c r="H23">
-        <v>10</v>
-      </c>
       <c r="I23">
         <v>10</v>
       </c>
       <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L23">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M23">
-        <v>0.01</v>
-      </c>
-      <c r="N23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23">
+        <v>0.01</v>
+      </c>
+      <c r="O23" t="s">
         <v>77</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="18">
+    <row r="24" spans="2:16">
+      <c r="B24" s="18">
         <v>20230314190403</v>
       </c>
-      <c r="B24" s="22">
+      <c r="C24" s="22">
         <v>45000</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
         <v>99</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>32</v>
       </c>
-      <c r="H24">
-        <v>10</v>
-      </c>
       <c r="I24">
         <v>10</v>
       </c>
       <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L24">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M24">
-        <v>0.01</v>
-      </c>
-      <c r="N24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24">
+        <v>0.01</v>
+      </c>
+      <c r="O24" t="s">
         <v>77</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="18">
+    <row r="25" spans="2:16">
+      <c r="B25" s="18">
         <v>20230314190655</v>
       </c>
-      <c r="B25" s="22">
+      <c r="C25" s="22">
         <v>45500</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
         <v>99</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>32</v>
       </c>
-      <c r="H25">
-        <v>10</v>
-      </c>
       <c r="I25">
         <v>10</v>
       </c>
       <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L25">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M25">
-        <v>0.01</v>
-      </c>
-      <c r="N25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>0.01</v>
+      </c>
+      <c r="O25" t="s">
         <v>77</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="18">
+    <row r="26" spans="2:16">
+      <c r="B26" s="18">
         <v>20230314190928</v>
       </c>
-      <c r="B26" s="22">
+      <c r="C26" s="22">
         <v>46000</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
         <v>99</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>32</v>
       </c>
-      <c r="H26">
-        <v>10</v>
-      </c>
       <c r="I26">
         <v>10</v>
       </c>
       <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L26">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M26">
-        <v>0.01</v>
-      </c>
-      <c r="N26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>0.01</v>
+      </c>
+      <c r="O26" t="s">
         <v>77</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="18">
+    <row r="27" spans="2:16">
+      <c r="B27" s="18">
         <v>20230314191201</v>
       </c>
-      <c r="B27" s="22">
+      <c r="C27" s="22">
         <v>46400</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
         <v>99</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>32</v>
       </c>
-      <c r="H27">
-        <v>10</v>
-      </c>
       <c r="I27">
         <v>10</v>
       </c>
       <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L27">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M27">
-        <v>0.01</v>
-      </c>
-      <c r="N27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>0.01</v>
+      </c>
+      <c r="O27" t="s">
         <v>77</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="18">
+    <row r="28" spans="2:16">
+      <c r="B28" s="18">
         <v>20230314191934</v>
       </c>
-      <c r="B28" s="22">
+      <c r="C28" s="22">
         <v>46700</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
         <v>99</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>32</v>
       </c>
-      <c r="H28">
-        <v>10</v>
-      </c>
       <c r="I28">
         <v>10</v>
       </c>
       <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L28">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M28">
-        <v>0.01</v>
-      </c>
-      <c r="N28" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>0.01</v>
+      </c>
+      <c r="O28" t="s">
         <v>77</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="18">
+    <row r="29" spans="2:16">
+      <c r="B29" s="18">
         <v>20230314193155</v>
       </c>
-      <c r="B29" s="22">
+      <c r="C29" s="22">
         <v>46750</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
         <v>99</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>32</v>
       </c>
-      <c r="H29">
-        <v>10</v>
-      </c>
       <c r="I29">
         <v>10</v>
       </c>
       <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L29">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M29">
-        <v>0.01</v>
-      </c>
-      <c r="N29" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29">
+        <v>0.01</v>
+      </c>
+      <c r="O29" t="s">
         <v>77</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="18">
+    <row r="30" spans="2:16">
+      <c r="B30" s="18">
         <v>20230314200855</v>
       </c>
-      <c r="B30" s="22">
+      <c r="C30" s="22">
         <v>46756</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
         <v>99</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>32</v>
       </c>
-      <c r="H30">
-        <v>10</v>
-      </c>
       <c r="I30">
         <v>10</v>
       </c>
       <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L30">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M30">
-        <v>0.01</v>
-      </c>
-      <c r="N30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30">
+        <v>0.01</v>
+      </c>
+      <c r="O30" t="s">
         <v>77</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="18">
+    <row r="31" spans="2:16">
+      <c r="B31" s="18">
         <v>20230314201731</v>
       </c>
-      <c r="B31" s="22">
+      <c r="C31" s="22">
         <v>46759</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
         <v>99</v>
       </c>
-      <c r="G31">
-        <v>128</v>
-      </c>
       <c r="H31">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I31">
         <v>10</v>
       </c>
       <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L31">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M31">
-        <v>0.01</v>
-      </c>
-      <c r="N31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N31">
+        <v>0.01</v>
+      </c>
+      <c r="O31" t="s">
         <v>77</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="18">
+    <row r="32" spans="2:16">
+      <c r="B32" s="18">
         <v>20230314211543</v>
       </c>
-      <c r="B32" s="22">
+      <c r="C32" s="22">
         <v>46760.5</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
         <v>99</v>
       </c>
-      <c r="G32">
-        <v>128</v>
-      </c>
       <c r="H32">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I32">
         <v>10</v>
       </c>
       <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L32">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M32">
-        <v>0.01</v>
-      </c>
-      <c r="N32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32">
+        <v>0.01</v>
+      </c>
+      <c r="O32" t="s">
         <v>77</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="18">
+    <row r="33" spans="2:16">
+      <c r="B33" s="18">
         <v>20230314213422</v>
       </c>
-      <c r="B33" s="22">
+      <c r="C33" s="22">
         <v>46760.800000000003</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
         <v>99</v>
       </c>
-      <c r="G33">
-        <v>128</v>
-      </c>
       <c r="H33">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I33">
         <v>10</v>
       </c>
       <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L33">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M33">
-        <v>0.01</v>
-      </c>
-      <c r="N33" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33">
+        <v>0.01</v>
+      </c>
+      <c r="O33" t="s">
         <v>77</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="18">
+    <row r="34" spans="2:16">
+      <c r="B34" s="18">
         <v>20230314220008</v>
       </c>
-      <c r="B34" s="22">
+      <c r="C34" s="22">
         <v>46760.9</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
         <v>99</v>
       </c>
-      <c r="G34">
-        <v>128</v>
-      </c>
       <c r="H34">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I34">
         <v>10</v>
       </c>
       <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L34">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M34">
-        <v>0.01</v>
-      </c>
-      <c r="N34" t="s">
+        <v>10</v>
+      </c>
+      <c r="N34">
+        <v>0.01</v>
+      </c>
+      <c r="O34" t="s">
         <v>77</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="18">
+    <row r="35" spans="2:16">
+      <c r="B35" s="18">
         <v>20230314221032</v>
       </c>
-      <c r="B35" s="22">
+      <c r="C35" s="22">
         <v>46761.05</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
         <v>99</v>
       </c>
-      <c r="G35">
-        <v>128</v>
-      </c>
       <c r="H35">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I35">
         <v>10</v>
       </c>
       <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L35">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M35">
-        <v>0.01</v>
-      </c>
-      <c r="N35" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35">
+        <v>0.01</v>
+      </c>
+      <c r="O35" t="s">
         <v>77</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="18">
+    <row r="36" spans="2:16">
+      <c r="B36" s="18">
         <v>20230314224402</v>
       </c>
-      <c r="B36" s="22">
+      <c r="C36" s="22">
         <v>46761.074999999997</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
         <v>99</v>
       </c>
-      <c r="G36">
-        <v>128</v>
-      </c>
       <c r="H36">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I36">
         <v>10</v>
       </c>
       <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L36">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M36">
-        <v>0.01</v>
-      </c>
-      <c r="N36" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36">
+        <v>0.01</v>
+      </c>
+      <c r="O36" t="s">
         <v>77</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="18">
+    <row r="37" spans="2:16">
+      <c r="B37" s="18">
         <v>20230314224941</v>
       </c>
-      <c r="B37" s="22">
+      <c r="C37" s="22">
         <v>46761.080999999998</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
         <v>99</v>
       </c>
-      <c r="G37">
-        <v>128</v>
-      </c>
       <c r="H37">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I37">
         <v>10</v>
       </c>
       <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L37">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M37">
-        <v>0.01</v>
-      </c>
-      <c r="N37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37">
+        <v>0.01</v>
+      </c>
+      <c r="O37" t="s">
         <v>77</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="18">
+    <row r="38" spans="2:16">
+      <c r="B38" s="18">
         <v>20230314225825</v>
       </c>
-      <c r="B38" s="22">
+      <c r="C38" s="22">
         <v>46761.081749999998</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
         <v>99</v>
       </c>
-      <c r="G38">
-        <v>128</v>
-      </c>
       <c r="H38">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I38">
         <v>10</v>
       </c>
       <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L38">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M38">
-        <v>0.01</v>
-      </c>
-      <c r="N38" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38">
+        <v>0.01</v>
+      </c>
+      <c r="O38" t="s">
         <v>77</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="18">
+    <row r="39" spans="2:16">
+      <c r="B39" s="18">
         <v>20230314231644</v>
       </c>
-      <c r="B39" s="22">
+      <c r="C39" s="22">
         <v>46761.081899999997</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
         <v>99</v>
       </c>
-      <c r="G39">
-        <v>128</v>
-      </c>
       <c r="H39">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I39">
         <v>10</v>
       </c>
       <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L39">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M39">
-        <v>0.01</v>
-      </c>
-      <c r="N39" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39">
+        <v>0.01</v>
+      </c>
+      <c r="O39" t="s">
         <v>77</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="18">
+    <row r="40" spans="2:16">
+      <c r="B40" s="18">
         <v>20230314232329</v>
       </c>
-      <c r="B40" s="22">
+      <c r="C40" s="22">
         <v>46761.08195</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
         <v>99</v>
       </c>
-      <c r="G40">
-        <v>128</v>
-      </c>
       <c r="H40">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I40">
         <v>10</v>
       </c>
       <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L40">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M40">
-        <v>0.01</v>
-      </c>
-      <c r="N40" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40">
+        <v>0.01</v>
+      </c>
+      <c r="O40" t="s">
         <v>77</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="18">
+    <row r="41" spans="2:16">
+      <c r="B41" s="18">
         <v>20230314233351</v>
       </c>
-      <c r="B41" s="22">
+      <c r="C41" s="22">
         <v>46761.081975000001</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
         <v>99</v>
       </c>
-      <c r="G41">
-        <v>128</v>
-      </c>
       <c r="H41">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I41">
         <v>10</v>
       </c>
       <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L41">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M41">
-        <v>0.01</v>
-      </c>
-      <c r="N41" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41">
+        <v>0.01</v>
+      </c>
+      <c r="O41" t="s">
         <v>77</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="18">
+    <row r="42" spans="2:16">
+      <c r="B42" s="18">
         <v>20230315000200</v>
       </c>
-      <c r="B42" s="22">
+      <c r="C42" s="22">
         <v>46761.081975749999</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
         <v>99</v>
       </c>
-      <c r="G42">
-        <v>128</v>
-      </c>
       <c r="H42">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I42">
         <v>10</v>
       </c>
       <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L42">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M42">
-        <v>0.01</v>
-      </c>
-      <c r="N42" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42">
+        <v>0.01</v>
+      </c>
+      <c r="O42" t="s">
         <v>77</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
-      <c r="B43" s="22">
+    <row r="43" spans="2:16">
+      <c r="C43" s="22">
         <v>46761.081976100002</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
         <v>99</v>
       </c>
-      <c r="G43">
-        <v>128</v>
-      </c>
       <c r="H43">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I43">
         <v>10</v>
       </c>
       <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L43">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M43">
-        <v>0.01</v>
-      </c>
-      <c r="N43" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43">
+        <v>0.01</v>
+      </c>
+      <c r="O43" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="18">
+    <row r="44" spans="2:16">
+      <c r="B44" s="18">
         <v>20230314235808</v>
       </c>
-      <c r="B44" s="22">
+      <c r="C44" s="22">
         <v>46761.081976499998</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
         <v>99</v>
       </c>
-      <c r="G44">
-        <v>128</v>
-      </c>
       <c r="H44">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I44">
         <v>10</v>
       </c>
       <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L44">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M44">
-        <v>0.01</v>
-      </c>
-      <c r="N44" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44">
+        <v>0.01</v>
+      </c>
+      <c r="O44" t="s">
         <v>77</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="18">
+    <row r="45" spans="2:16">
+      <c r="B45" s="18">
         <v>20230314235258</v>
       </c>
-      <c r="B45" s="22">
+      <c r="C45" s="22">
         <v>46761.081978000002</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
         <v>99</v>
       </c>
-      <c r="G45">
-        <v>128</v>
-      </c>
       <c r="H45">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I45">
         <v>10</v>
       </c>
       <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L45">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M45">
-        <v>0.01</v>
-      </c>
-      <c r="N45" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45">
+        <v>0.01</v>
+      </c>
+      <c r="O45" t="s">
         <v>77</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="18">
+    <row r="46" spans="2:16">
+      <c r="B46" s="18">
         <v>20230314234258</v>
       </c>
-      <c r="B46" s="22">
+      <c r="C46" s="22">
         <v>46761.081981000003</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
         <v>99</v>
       </c>
-      <c r="G46">
-        <v>128</v>
-      </c>
       <c r="H46">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I46">
         <v>10</v>
       </c>
       <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L46">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M46">
-        <v>0.01</v>
-      </c>
-      <c r="N46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46">
+        <v>0.01</v>
+      </c>
+      <c r="O46" t="s">
         <v>77</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="18">
+    <row r="47" spans="2:16">
+      <c r="B47" s="18">
         <v>20230314233927</v>
       </c>
-      <c r="B47" s="22">
+      <c r="C47" s="22">
         <v>46761.081987500002</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
         <v>99</v>
       </c>
-      <c r="G47">
-        <v>128</v>
-      </c>
       <c r="H47">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I47">
         <v>10</v>
       </c>
       <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L47">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M47">
-        <v>0.01</v>
-      </c>
-      <c r="N47" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47">
+        <v>0.01</v>
+      </c>
+      <c r="O47" t="s">
         <v>77</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="18">
+    <row r="48" spans="2:16">
+      <c r="B48" s="18">
         <v>20230314232011</v>
       </c>
-      <c r="B48" s="22">
+      <c r="C48" s="22">
         <v>46761.082000000002</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
         <v>99</v>
       </c>
-      <c r="G48">
-        <v>128</v>
-      </c>
       <c r="H48">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I48">
         <v>10</v>
       </c>
       <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L48">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M48">
-        <v>0.01</v>
-      </c>
-      <c r="N48" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48">
+        <v>0.01</v>
+      </c>
+      <c r="O48" t="s">
         <v>77</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="18">
+    <row r="49" spans="1:16">
+      <c r="B49" s="18">
         <v>20230314231329</v>
       </c>
-      <c r="B49" s="22">
+      <c r="C49" s="22">
         <v>46761.0821</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
         <v>99</v>
       </c>
-      <c r="G49">
-        <v>128</v>
-      </c>
       <c r="H49">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I49">
         <v>10</v>
       </c>
       <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L49">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M49">
-        <v>0.01</v>
-      </c>
-      <c r="N49" t="s">
+        <v>10</v>
+      </c>
+      <c r="N49">
+        <v>0.01</v>
+      </c>
+      <c r="O49" t="s">
         <v>77</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="18">
+    <row r="50" spans="1:16">
+      <c r="B50" s="18">
         <v>20230314225530</v>
       </c>
-      <c r="B50" s="22">
+      <c r="C50" s="22">
         <v>46761.082499999997</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
         <v>99</v>
       </c>
-      <c r="G50">
-        <v>128</v>
-      </c>
       <c r="H50">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I50">
         <v>10</v>
       </c>
       <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L50">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M50">
-        <v>0.01</v>
-      </c>
-      <c r="N50" t="s">
+        <v>10</v>
+      </c>
+      <c r="N50">
+        <v>0.01</v>
+      </c>
+      <c r="O50" t="s">
         <v>77</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="18">
+    <row r="51" spans="1:16">
+      <c r="B51" s="18">
         <v>20230314225234</v>
       </c>
-      <c r="B51" s="22">
+      <c r="C51" s="22">
         <v>46761.084000000003</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
         <v>99</v>
       </c>
-      <c r="G51">
-        <v>128</v>
-      </c>
       <c r="H51">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I51">
         <v>10</v>
       </c>
       <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L51">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M51">
-        <v>0.01</v>
-      </c>
-      <c r="N51" t="s">
+        <v>10</v>
+      </c>
+      <c r="N51">
+        <v>0.01</v>
+      </c>
+      <c r="O51" t="s">
         <v>77</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="18">
+    <row r="52" spans="1:16">
+      <c r="B52" s="18">
         <v>20230314224654</v>
       </c>
-      <c r="B52" s="22">
+      <c r="C52" s="22">
         <v>46761.087500000001</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
         <v>99</v>
       </c>
-      <c r="G52">
-        <v>128</v>
-      </c>
       <c r="H52">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I52">
         <v>10</v>
       </c>
       <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L52">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M52">
-        <v>0.01</v>
-      </c>
-      <c r="N52" t="s">
+        <v>10</v>
+      </c>
+      <c r="N52">
+        <v>0.01</v>
+      </c>
+      <c r="O52" t="s">
         <v>77</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="18">
+    <row r="53" spans="1:16">
+      <c r="B53" s="18">
         <v>20230314224044</v>
       </c>
-      <c r="B53" s="22">
+      <c r="C53" s="22">
         <v>46761.1</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
         <v>99</v>
       </c>
-      <c r="G53">
-        <v>128</v>
-      </c>
       <c r="H53">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I53">
         <v>10</v>
       </c>
       <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L53">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M53">
-        <v>0.01</v>
-      </c>
-      <c r="N53" t="s">
+        <v>10</v>
+      </c>
+      <c r="N53">
+        <v>0.01</v>
+      </c>
+      <c r="O53" t="s">
         <v>77</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="18">
+    <row r="54" spans="1:16">
+      <c r="B54" s="18">
         <v>20230314222713</v>
       </c>
-      <c r="B54" s="22">
+      <c r="C54" s="22">
         <v>46761.15</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
         <v>99</v>
       </c>
-      <c r="G54">
-        <v>128</v>
-      </c>
       <c r="H54">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I54">
         <v>10</v>
       </c>
       <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L54">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M54">
-        <v>0.01</v>
-      </c>
-      <c r="N54" t="s">
+        <v>10</v>
+      </c>
+      <c r="N54">
+        <v>0.01</v>
+      </c>
+      <c r="O54" t="s">
         <v>77</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="18">
+    <row r="55" spans="1:16">
+      <c r="B55" s="18">
         <v>20230314212929</v>
       </c>
-      <c r="B55" s="22">
+      <c r="C55" s="22">
         <v>46761.25</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
         <v>99</v>
       </c>
-      <c r="G55">
-        <v>128</v>
-      </c>
       <c r="H55">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I55">
         <v>10</v>
       </c>
       <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L55">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M55">
-        <v>0.01</v>
-      </c>
-      <c r="N55" t="s">
+        <v>10</v>
+      </c>
+      <c r="N55">
+        <v>0.01</v>
+      </c>
+      <c r="O55" t="s">
         <v>77</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="18">
+    <row r="56" spans="1:16">
+      <c r="B56" s="18">
         <v>20230314194835</v>
       </c>
-      <c r="B56" s="22">
+      <c r="C56" s="22">
         <v>46762</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
         <v>99</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>32</v>
       </c>
-      <c r="H56">
-        <v>10</v>
-      </c>
       <c r="I56">
         <v>10</v>
       </c>
       <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L56">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M56">
-        <v>0.01</v>
-      </c>
-      <c r="N56" t="s">
+        <v>10</v>
+      </c>
+      <c r="N56">
+        <v>0.01</v>
+      </c>
+      <c r="O56" t="s">
         <v>77</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="18">
+    <row r="57" spans="1:16">
+      <c r="B57" s="18">
         <v>20230314194124</v>
       </c>
-      <c r="B57" s="22">
+      <c r="C57" s="22">
         <v>46775</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
         <v>99</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>32</v>
       </c>
-      <c r="H57">
-        <v>10</v>
-      </c>
       <c r="I57">
         <v>10</v>
       </c>
       <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L57">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M57">
-        <v>0.01</v>
-      </c>
-      <c r="N57" t="s">
+        <v>10</v>
+      </c>
+      <c r="N57">
+        <v>0.01</v>
+      </c>
+      <c r="O57" t="s">
         <v>77</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="18">
+    <row r="58" spans="1:16">
+      <c r="B58" s="18">
         <v>20230314191642</v>
       </c>
-      <c r="B58" s="22">
+      <c r="C58" s="22">
         <v>46800</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
         <v>99</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>32</v>
       </c>
-      <c r="H58">
-        <v>10</v>
-      </c>
       <c r="I58">
         <v>10</v>
       </c>
       <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L58">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M58">
-        <v>0.01</v>
-      </c>
-      <c r="N58" t="s">
+        <v>10</v>
+      </c>
+      <c r="N58">
+        <v>0.01</v>
+      </c>
+      <c r="O58" t="s">
         <v>77</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="18">
+    <row r="59" spans="1:16">
+      <c r="B59" s="18">
         <v>20230314185314</v>
       </c>
-      <c r="B59" s="22">
+      <c r="C59" s="22">
         <v>46891</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
         <v>99</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>32</v>
       </c>
-      <c r="H59">
-        <v>10</v>
-      </c>
       <c r="I59">
         <v>10</v>
       </c>
       <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L59">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M59">
-        <v>0.01</v>
-      </c>
-      <c r="N59" t="s">
+        <v>10</v>
+      </c>
+      <c r="N59">
+        <v>0.01</v>
+      </c>
+      <c r="O59" t="s">
         <v>77</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="B63" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="18">
+        <v>20230326170614</v>
+      </c>
+      <c r="C65" s="22">
+        <v>33000</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>99</v>
+      </c>
+      <c r="H65">
+        <v>128</v>
+      </c>
+      <c r="I65">
+        <v>10</v>
+      </c>
+      <c r="J65">
+        <v>10</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M65">
+        <v>20</v>
+      </c>
+      <c r="N65">
+        <v>0.01</v>
+      </c>
+      <c r="O65" t="s">
+        <v>77</v>
+      </c>
+      <c r="P65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="18">
+        <v>20230326170614</v>
+      </c>
+      <c r="C66" s="22">
+        <v>32255</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>99</v>
+      </c>
+      <c r="H66">
+        <v>128</v>
+      </c>
+      <c r="I66">
+        <v>10</v>
+      </c>
+      <c r="J66">
+        <v>10</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M66">
+        <v>10</v>
+      </c>
+      <c r="N66">
+        <v>0.01</v>
+      </c>
+      <c r="O66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="C67" s="22">
+        <v>32000</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>99</v>
+      </c>
+      <c r="H67">
+        <v>128</v>
+      </c>
+      <c r="I67">
+        <v>10</v>
+      </c>
+      <c r="J67">
+        <v>10</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M67">
+        <v>10</v>
+      </c>
+      <c r="N67">
+        <v>0.01</v>
+      </c>
+      <c r="O67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="C68" s="22">
+        <v>31900</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>99</v>
+      </c>
+      <c r="H68">
+        <v>128</v>
+      </c>
+      <c r="I68">
+        <v>10</v>
+      </c>
+      <c r="J68">
+        <v>10</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M68">
+        <v>10</v>
+      </c>
+      <c r="N68">
+        <v>0.01</v>
+      </c>
+      <c r="O68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="C69" s="22">
+        <v>31800</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>99</v>
+      </c>
+      <c r="H69">
+        <v>128</v>
+      </c>
+      <c r="I69">
+        <v>10</v>
+      </c>
+      <c r="J69">
+        <v>10</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M69">
+        <v>10</v>
+      </c>
+      <c r="N69">
+        <v>0.01</v>
+      </c>
+      <c r="O69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="C70" s="22">
+        <v>31700</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>99</v>
+      </c>
+      <c r="H70">
+        <v>128</v>
+      </c>
+      <c r="I70">
+        <v>10</v>
+      </c>
+      <c r="J70">
+        <v>10</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M70">
+        <v>10</v>
+      </c>
+      <c r="N70">
+        <v>0.01</v>
+      </c>
+      <c r="O70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="C71" s="22">
+        <v>31600</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>99</v>
+      </c>
+      <c r="H71">
+        <v>128</v>
+      </c>
+      <c r="I71">
+        <v>10</v>
+      </c>
+      <c r="J71">
+        <v>10</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M71">
+        <v>10</v>
+      </c>
+      <c r="N71">
+        <v>0.01</v>
+      </c>
+      <c r="O71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="C72" s="22">
+        <v>31500</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>99</v>
+      </c>
+      <c r="H72">
+        <v>128</v>
+      </c>
+      <c r="I72">
+        <v>10</v>
+      </c>
+      <c r="J72">
+        <v>10</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M72">
+        <v>10</v>
+      </c>
+      <c r="N72">
+        <v>0.01</v>
+      </c>
+      <c r="O72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="22">
+        <v>31500</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>99</v>
+      </c>
+      <c r="H75">
+        <v>128</v>
+      </c>
+      <c r="I75">
+        <v>10</v>
+      </c>
+      <c r="J75">
+        <v>10</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M75">
+        <v>10</v>
+      </c>
+      <c r="N75">
+        <v>0.01</v>
+      </c>
+      <c r="O75" t="s">
+        <v>77</v>
+      </c>
+      <c r="P75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="C76" s="22">
+        <v>31600</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>99</v>
+      </c>
+      <c r="H76">
+        <v>128</v>
+      </c>
+      <c r="I76">
+        <v>10</v>
+      </c>
+      <c r="J76">
+        <v>10</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M76">
+        <v>10</v>
+      </c>
+      <c r="N76">
+        <v>0.01</v>
+      </c>
+      <c r="O76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="C77" s="22">
+        <v>31700</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>99</v>
+      </c>
+      <c r="H77">
+        <v>128</v>
+      </c>
+      <c r="I77">
+        <v>10</v>
+      </c>
+      <c r="J77">
+        <v>10</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M77">
+        <v>10</v>
+      </c>
+      <c r="N77">
+        <v>0.01</v>
+      </c>
+      <c r="O77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="C78" s="22">
+        <v>31800</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>99</v>
+      </c>
+      <c r="H78">
+        <v>128</v>
+      </c>
+      <c r="I78">
+        <v>10</v>
+      </c>
+      <c r="J78">
+        <v>10</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M78">
+        <v>10</v>
+      </c>
+      <c r="N78">
+        <v>0.01</v>
+      </c>
+      <c r="O78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="C79" s="22">
+        <v>31900</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>99</v>
+      </c>
+      <c r="H79">
+        <v>128</v>
+      </c>
+      <c r="I79">
+        <v>10</v>
+      </c>
+      <c r="J79">
+        <v>10</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M79">
+        <v>10</v>
+      </c>
+      <c r="N79">
+        <v>0.01</v>
+      </c>
+      <c r="O79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="C80" s="22">
+        <v>32000</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>99</v>
+      </c>
+      <c r="H80">
+        <v>128</v>
+      </c>
+      <c r="I80">
+        <v>10</v>
+      </c>
+      <c r="J80">
+        <v>10</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M80">
+        <v>10</v>
+      </c>
+      <c r="N80">
+        <v>0.01</v>
+      </c>
+      <c r="O80" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15">
+      <c r="C81" s="22">
+        <v>32255</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>99</v>
+      </c>
+      <c r="H81">
+        <v>128</v>
+      </c>
+      <c r="I81">
+        <v>10</v>
+      </c>
+      <c r="J81">
+        <v>10</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M81">
+        <v>10</v>
+      </c>
+      <c r="N81">
+        <v>0.01</v>
+      </c>
+      <c r="O81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15">
+      <c r="C82" s="22">
+        <v>33000</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>99</v>
+      </c>
+      <c r="H82">
+        <v>128</v>
+      </c>
+      <c r="I82">
+        <v>10</v>
+      </c>
+      <c r="J82">
+        <v>10</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M82">
+        <v>10</v>
+      </c>
+      <c r="N82">
+        <v>0.01</v>
+      </c>
+      <c r="O82" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -8316,23 +9026,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76C9478-386D-445B-8B12-05AF01279C9C}">
   <dimension ref="A3:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:M17"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="19"/>
-    <col min="5" max="5" width="13.5703125" style="19" customWidth="1"/>
-    <col min="6" max="9" width="8.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="19"/>
-    <col min="11" max="11" width="18.140625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="19" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="19"/>
+    <col min="1" max="1" width="22.453125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="19"/>
+    <col min="5" max="5" width="13.54296875" style="19" customWidth="1"/>
+    <col min="6" max="9" width="8.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="19"/>
+    <col min="11" max="11" width="18.1796875" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" style="19" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:14">
@@ -8941,11 +9651,11 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9068,7 +9778,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA6600C-29CA-4571-B7B5-2D7B560C58AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FF71B5-D75F-42D7-84E5-83BFF2F0DBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBC flux" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="120">
   <si>
     <t>slurm_num</t>
   </si>
@@ -372,9 +372,6 @@
     <t>Correcting fixed flux constraint, substitute back into the governing equation, so no non-homogeneous term</t>
   </si>
   <si>
-    <t>Identify the hysteresis</t>
-  </si>
-  <si>
     <t>Continue from</t>
   </si>
   <si>
@@ -384,7 +381,25 @@
     <t>Random noise</t>
   </si>
   <si>
-    <t>Steady tilted roll</t>
+    <t>steady tilted</t>
+  </si>
+  <si>
+    <t>steady state</t>
+  </si>
+  <si>
+    <t>Hopf oscillation!!!!, not reversing shear</t>
+  </si>
+  <si>
+    <t>Verify Hysteresis</t>
+  </si>
+  <si>
+    <t>Identify the Hysteresis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue from </t>
+  </si>
+  <si>
+    <t>noise</t>
   </si>
 </sst>
 </file>
@@ -777,862 +792,862 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P192"/>
+  <dimension ref="A1:Q198"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" customWidth="1"/>
-    <col min="11" max="11" width="14.81640625" customWidth="1"/>
-    <col min="12" max="12" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1" spans="2:15">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
+    <row r="2" spans="2:15">
+      <c r="B2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
+    <row r="3" spans="2:15">
+      <c r="B3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
+    <row r="4" spans="2:15">
+      <c r="B4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
+    <row r="5" spans="2:15">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
+    <row r="6" spans="2:15">
+      <c r="B6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
+    <row r="7" spans="2:15">
+      <c r="B7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
+    <row r="9" spans="2:15">
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>6</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>8</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>7</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>31</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>9</v>
       </c>
-      <c r="L9" t="s">
-        <v>10</v>
-      </c>
       <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
         <v>11</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
+    <row r="10" spans="2:15">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1">
+    <row r="12" spans="2:15">
+      <c r="B12" s="1">
         <v>14739407</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>30000</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>128</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I12">
         <v>10</v>
       </c>
       <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M12">
-        <v>0.01</v>
-      </c>
-      <c r="N12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>0.01</v>
+      </c>
+      <c r="O12" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1">
+    <row r="13" spans="2:15">
+      <c r="B13" s="1">
         <v>14739406</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>40000</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
       </c>
       <c r="F13">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>128</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I13">
         <v>10</v>
       </c>
       <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L13">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M13">
-        <v>0.01</v>
-      </c>
-      <c r="N13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>0.01</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1">
+    <row r="14" spans="2:15">
+      <c r="B14" s="1">
         <v>14739405</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>60000</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
       </c>
       <c r="F14">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>128</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I14">
         <v>10</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L14">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M14">
-        <v>0.01</v>
-      </c>
-      <c r="N14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>0.01</v>
+      </c>
+      <c r="O14" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1">
+    <row r="15" spans="2:15">
+      <c r="B15" s="1">
         <v>14739404</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>200000</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
       </c>
       <c r="F15">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>128</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I15">
         <v>10</v>
       </c>
       <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L15">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M15">
-        <v>0.01</v>
-      </c>
-      <c r="N15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>0.01</v>
+      </c>
+      <c r="O15" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="1">
+    <row r="16" spans="2:15">
+      <c r="B16" s="1">
         <v>14739403</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>200000</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
       </c>
       <c r="F16">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>128</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
         <v>20</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L16">
-        <v>10</v>
+      <c r="L16" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M16">
-        <v>0.01</v>
-      </c>
-      <c r="N16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>0.01</v>
+      </c>
+      <c r="O16" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="1">
+    <row r="17" spans="2:17">
+      <c r="B17" s="1">
         <v>14768858</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>3000000</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
       </c>
       <c r="F17">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>128</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
         <v>40</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L17">
-        <v>10</v>
-      </c>
       <c r="M17">
-        <v>0.01</v>
-      </c>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>0.01</v>
+      </c>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="1">
         <v>14746063</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>30000</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>128</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I18">
-        <v>14739403</v>
+        <v>10</v>
       </c>
       <c r="J18">
         <v>14739403</v>
       </c>
-      <c r="K18" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L18">
+      <c r="K18">
+        <v>14739403</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M18">
         <v>20</v>
       </c>
-      <c r="M18">
-        <v>0.01</v>
-      </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18">
+        <v>0.01</v>
+      </c>
+      <c r="O18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="6" customFormat="1">
-      <c r="A19" s="1">
+    <row r="19" spans="2:17" s="6" customFormat="1">
+      <c r="B19" s="1">
         <v>14760377</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>37000</v>
       </c>
-      <c r="C19" s="8">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="8">
-        <v>1</v>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F19" s="8">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G19" s="8">
         <v>128</v>
       </c>
       <c r="H19" s="8">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I19" s="8">
-        <v>14739403</v>
+        <v>10</v>
       </c>
       <c r="J19" s="8">
         <v>14739403</v>
       </c>
-      <c r="K19" s="9">
-        <v>1E-3</v>
-      </c>
-      <c r="L19" s="8">
+      <c r="K19" s="8">
+        <v>14739403</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M19" s="8">
         <v>20</v>
       </c>
-      <c r="M19" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O19" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="8" customFormat="1">
-      <c r="A20" s="7">
+    <row r="20" spans="2:17" s="8" customFormat="1">
+      <c r="B20" s="7">
         <v>14758590</v>
       </c>
-      <c r="B20" s="8">
+      <c r="C20" s="8">
         <v>37500</v>
       </c>
-      <c r="C20" s="8">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="8">
-        <v>1</v>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F20" s="8">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G20" s="8">
         <v>128</v>
       </c>
       <c r="H20" s="8">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I20" s="8">
-        <v>14739403</v>
+        <v>10</v>
       </c>
       <c r="J20" s="8">
         <v>14739403</v>
       </c>
-      <c r="K20" s="9">
-        <v>1E-3</v>
-      </c>
-      <c r="L20" s="8">
+      <c r="K20" s="8">
+        <v>14739403</v>
+      </c>
+      <c r="L20" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M20" s="8">
         <v>20</v>
       </c>
-      <c r="M20" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="N20" s="10" t="s">
+      <c r="N20" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O20" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="1">
+    <row r="21" spans="2:17">
+      <c r="B21" s="1">
         <v>14741864</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>40000</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
       </c>
       <c r="F21">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>128</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I21">
-        <v>14739403</v>
+        <v>10</v>
       </c>
       <c r="J21">
         <v>14739403</v>
       </c>
-      <c r="K21" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L21">
+      <c r="K21">
+        <v>14739403</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M21">
         <v>20</v>
       </c>
-      <c r="M21">
-        <v>0.01</v>
-      </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21">
+        <v>0.01</v>
+      </c>
+      <c r="O21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="1">
+    <row r="22" spans="2:17">
+      <c r="B22" s="1">
         <v>14741865</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>60000</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
         <v>32</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
       <c r="F22">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>128</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I22">
-        <v>14739403</v>
+        <v>10</v>
       </c>
       <c r="J22">
         <v>14739403</v>
       </c>
-      <c r="K22" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L22">
+      <c r="K22">
+        <v>14739403</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M22">
         <v>20</v>
       </c>
-      <c r="M22">
-        <v>0.01</v>
-      </c>
-      <c r="N22" s="6" t="s">
+      <c r="N22">
+        <v>0.01</v>
+      </c>
+      <c r="O22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="1">
+    <row r="23" spans="2:17">
+      <c r="B23" s="1">
         <v>14741866</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>80000</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>32</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
       <c r="F23">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>128</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I23">
-        <v>14739403</v>
+        <v>10</v>
       </c>
       <c r="J23">
         <v>14739403</v>
       </c>
-      <c r="K23" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L23">
+      <c r="K23">
+        <v>14739403</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M23">
         <v>20</v>
       </c>
-      <c r="M23">
-        <v>0.01</v>
-      </c>
-      <c r="N23" s="6" t="s">
+      <c r="N23">
+        <v>0.01</v>
+      </c>
+      <c r="O23" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="1">
+    <row r="24" spans="2:17">
+      <c r="B24" s="1">
         <v>14741867</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>100000</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>32</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
       <c r="F24">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>128</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I24">
-        <v>14739403</v>
+        <v>10</v>
       </c>
       <c r="J24">
         <v>14739403</v>
       </c>
-      <c r="K24" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L24">
+      <c r="K24">
+        <v>14739403</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M24">
         <v>20</v>
       </c>
-      <c r="M24">
-        <v>0.01</v>
-      </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24">
+        <v>0.01</v>
+      </c>
+      <c r="O24" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="1">
+    <row r="25" spans="2:17">
+      <c r="B25" s="1">
         <v>14768953</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>30000</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
       </c>
       <c r="F25">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>128</v>
       </c>
       <c r="H25">
-        <v>10</v>
-      </c>
-      <c r="I25" s="1">
-        <v>14768858</v>
+        <v>128</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
       </c>
       <c r="J25" s="1">
         <v>14768858</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
+        <v>14768858</v>
+      </c>
+      <c r="L25" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>20</v>
       </c>
-      <c r="M25">
-        <v>0.01</v>
-      </c>
-      <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="1">
+      <c r="N25">
+        <v>0.01</v>
+      </c>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="1">
         <v>14768949</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>40000</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
       </c>
       <c r="F26">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>128</v>
       </c>
       <c r="H26">
-        <v>10</v>
-      </c>
-      <c r="I26" s="1">
-        <v>14768858</v>
+        <v>128</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
       </c>
       <c r="J26" s="1">
         <v>14768858</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
+        <v>14768858</v>
+      </c>
+      <c r="L26" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>20</v>
       </c>
-      <c r="M26">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="1">
+      <c r="N26">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="1">
         <v>14768964</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>40000</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
       </c>
       <c r="F27">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>128</v>
       </c>
       <c r="H27">
-        <v>10</v>
-      </c>
-      <c r="I27" s="1">
-        <v>14768858</v>
+        <v>128</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
       </c>
       <c r="J27" s="1">
         <v>14768858</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="1">
+        <v>14768858</v>
+      </c>
+      <c r="L27" s="2">
         <v>1E-4</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>20</v>
       </c>
-      <c r="M27">
-        <v>0.01</v>
-      </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27">
+        <v>0.01</v>
+      </c>
+      <c r="O27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="6" customFormat="1">
-      <c r="A28" s="1">
+    <row r="28" spans="2:17" s="6" customFormat="1">
+      <c r="B28" s="1">
         <v>14768963</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>60000</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
       </c>
       <c r="F28">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>128</v>
       </c>
       <c r="H28">
-        <v>10</v>
-      </c>
-      <c r="I28" s="1">
-        <v>14768858</v>
+        <v>128</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
       </c>
       <c r="J28" s="1">
         <v>14768858</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="1">
+        <v>14768858</v>
+      </c>
+      <c r="L28" s="2">
         <v>1E-4</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>20</v>
       </c>
-      <c r="M28">
-        <v>0.01</v>
-      </c>
-      <c r="N28" s="6" t="s">
+      <c r="N28">
+        <v>0.01</v>
+      </c>
+      <c r="O28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="6" t="s">
+      <c r="Q28" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="6" customFormat="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="10"/>
+    <row r="29" spans="2:17" s="6" customFormat="1">
+      <c r="B29" s="5"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -1641,13 +1656,13 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="10"/>
-    </row>
-    <row r="30" spans="1:16" s="6" customFormat="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="10"/>
+      <c r="N29" s="10"/>
+    </row>
+    <row r="30" spans="2:17" s="6" customFormat="1">
+      <c r="B30" s="5"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -1656,13 +1671,13 @@
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="11"/>
       <c r="M30" s="10"/>
-    </row>
-    <row r="45" spans="1:13" s="6" customFormat="1">
-      <c r="A45" s="5"/>
-      <c r="B45"/>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="45" spans="2:14" s="6" customFormat="1">
+      <c r="B45" s="5"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
@@ -1671,13 +1686,13 @@
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
-      <c r="K45" s="2"/>
-      <c r="L45"/>
+      <c r="K45"/>
+      <c r="L45" s="2"/>
       <c r="M45"/>
-    </row>
-    <row r="46" spans="1:13" s="6" customFormat="1">
-      <c r="A46" s="5"/>
-      <c r="B46"/>
+      <c r="N45"/>
+    </row>
+    <row r="46" spans="2:14" s="6" customFormat="1">
+      <c r="B46" s="5"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -1686,2097 +1701,2097 @@
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
-      <c r="K46" s="2"/>
-      <c r="L46"/>
+      <c r="K46"/>
+      <c r="L46" s="2"/>
       <c r="M46"/>
-    </row>
-    <row r="47" spans="1:13" s="6" customFormat="1">
-      <c r="A47" s="5"/>
-      <c r="K47" s="12"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="1"/>
-      <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" t="s">
+      <c r="N46"/>
+    </row>
+    <row r="47" spans="2:14" s="6" customFormat="1">
+      <c r="B47" s="5"/>
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48" s="1"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="18.5">
-      <c r="A50" s="3">
+    <row r="50" spans="2:15" ht="18.5">
+      <c r="B50" s="3">
         <v>14673046</v>
       </c>
-      <c r="B50" s="2">
+      <c r="C50" s="2">
         <v>100000000</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
       </c>
       <c r="F50">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>256</v>
       </c>
       <c r="H50">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I50">
         <v>10</v>
       </c>
       <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50" s="2">
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N50" t="s">
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O50" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="18.5">
-      <c r="A51" s="3">
+    <row r="51" spans="2:15" ht="18.5">
+      <c r="B51" s="3">
         <v>14673047</v>
       </c>
-      <c r="B51" s="2">
+      <c r="C51" s="2">
         <v>100000000</v>
       </c>
-      <c r="C51">
-        <v>0.01</v>
-      </c>
-      <c r="D51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
+      <c r="D51">
+        <v>0.01</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
       </c>
       <c r="F51">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>256</v>
       </c>
       <c r="H51">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I51">
         <v>10</v>
       </c>
       <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51" s="2">
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N51" t="s">
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O51" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="18.5">
-      <c r="A52" s="3">
+    <row r="52" spans="2:15" ht="18.5">
+      <c r="B52" s="3">
         <v>14768718</v>
       </c>
-      <c r="B52" s="2">
+      <c r="C52" s="2">
         <v>100000000</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>0.02</v>
       </c>
-      <c r="D52" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
+      <c r="E52" t="s">
+        <v>13</v>
       </c>
       <c r="F52">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>256</v>
       </c>
       <c r="H52">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I52">
         <v>10</v>
       </c>
       <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52" s="2">
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="18.5">
-      <c r="A53" s="3">
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" ht="18.5">
+      <c r="B53" s="3">
         <v>14680791</v>
       </c>
-      <c r="B53" s="2">
+      <c r="C53" s="2">
         <v>100000000</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>0.03</v>
       </c>
-      <c r="D53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
+      <c r="E53" t="s">
+        <v>13</v>
       </c>
       <c r="F53">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>256</v>
       </c>
       <c r="H53">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I53">
         <v>10</v>
       </c>
       <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2">
+        <v>10</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N53" s="6" t="s">
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O53" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="18.5">
-      <c r="A54" s="3">
+    <row r="54" spans="2:15" ht="18.5">
+      <c r="B54" s="3">
         <v>14741869</v>
       </c>
-      <c r="B54" s="2">
+      <c r="C54" s="2">
         <v>100000000</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>0.03</v>
       </c>
-      <c r="D54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
+      <c r="E54" t="s">
+        <v>13</v>
       </c>
       <c r="F54">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>256</v>
       </c>
       <c r="H54">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I54">
-        <v>14680791</v>
+        <v>10</v>
       </c>
       <c r="J54">
         <v>14680791</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54">
+        <v>14680791</v>
+      </c>
+      <c r="L54" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>3</v>
       </c>
-      <c r="M54" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N54" s="6" t="s">
+      <c r="N54" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O54" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="18.5">
-      <c r="A55" s="3">
+    <row r="55" spans="2:15" ht="18.5">
+      <c r="B55" s="3">
         <v>14673849</v>
       </c>
-      <c r="B55" s="2">
+      <c r="C55" s="2">
         <v>100000000</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>0.1</v>
       </c>
-      <c r="D55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
+      <c r="E55" t="s">
+        <v>13</v>
       </c>
       <c r="F55">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>256</v>
       </c>
       <c r="H55">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I55">
         <v>10</v>
       </c>
       <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55" s="2">
+        <v>10</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="18.5">
-      <c r="A56" s="3">
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" ht="18.5">
+      <c r="B56" s="3">
         <v>14673048</v>
       </c>
-      <c r="B56" s="2">
+      <c r="C56" s="2">
         <v>100000000</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>70</v>
       </c>
-      <c r="D56" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
+      <c r="E56" t="s">
+        <v>13</v>
       </c>
       <c r="F56">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>256</v>
       </c>
       <c r="H56">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I56">
         <v>10</v>
       </c>
       <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56" s="2">
+        <v>10</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N56" s="6" t="s">
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O56" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="18.5">
-      <c r="A57" s="3">
+    <row r="57" spans="2:15" ht="18.5">
+      <c r="B57" s="3">
         <v>14673049</v>
       </c>
-      <c r="B57" s="2">
+      <c r="C57" s="2">
         <v>800000000</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>700</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>17</v>
       </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
       <c r="F57">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>256</v>
       </c>
       <c r="H57">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="I57">
         <v>20</v>
       </c>
       <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57" s="2">
+        <v>20</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N57" s="6" t="s">
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O57" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="6" customFormat="1">
-      <c r="A58" s="6">
+    <row r="58" spans="2:15" s="6" customFormat="1">
+      <c r="B58" s="6">
         <v>14878470</v>
       </c>
-      <c r="B58" s="12">
+      <c r="C58" s="12">
         <v>100000000</v>
       </c>
-      <c r="C58" s="6">
-        <v>0</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="6">
-        <v>1</v>
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="F58" s="6">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G58" s="6">
         <v>256</v>
       </c>
       <c r="H58" s="6">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I58" s="6">
         <v>10</v>
       </c>
       <c r="J58" s="6">
-        <v>0</v>
-      </c>
-      <c r="K58" s="12">
+        <v>10</v>
+      </c>
+      <c r="K58" s="6">
+        <v>0</v>
+      </c>
+      <c r="L58" s="12">
         <v>1E-8</v>
       </c>
-      <c r="L58" s="6">
+      <c r="M58" s="6">
         <v>0.1</v>
       </c>
-      <c r="M58" s="12">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" s="6" customFormat="1">
-      <c r="A59" s="6">
+      <c r="N58" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" s="6" customFormat="1">
+      <c r="B59" s="6">
         <v>14878462</v>
       </c>
-      <c r="B59" s="12">
+      <c r="C59" s="12">
         <v>100000000</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="D59" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="6">
-        <v>1</v>
+      <c r="E59" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="F59" s="6">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G59" s="6">
         <v>256</v>
       </c>
       <c r="H59" s="6">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I59" s="6">
         <v>10</v>
       </c>
       <c r="J59" s="6">
-        <v>0</v>
-      </c>
-      <c r="K59" s="12">
+        <v>10</v>
+      </c>
+      <c r="K59" s="6">
+        <v>0</v>
+      </c>
+      <c r="L59" s="12">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L59" s="6">
+      <c r="M59" s="6">
         <v>0.1</v>
       </c>
-      <c r="M59" s="12">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" t="s">
+      <c r="N59" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="18.5">
-      <c r="A62" s="3">
+    <row r="62" spans="2:15" ht="18.5">
+      <c r="B62" s="3">
         <v>14680810</v>
       </c>
-      <c r="B62" s="2">
+      <c r="C62" s="2">
         <v>100000000</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
       </c>
       <c r="F62">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>256</v>
       </c>
       <c r="H62">
-        <v>10</v>
-      </c>
-      <c r="I62" t="s">
-        <v>16</v>
+        <v>256</v>
+      </c>
+      <c r="I62">
+        <v>10</v>
       </c>
       <c r="J62" t="s">
         <v>16</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N62" t="s">
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O62" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="18.5">
-      <c r="A63" s="3">
+    <row r="63" spans="2:15" ht="18.5">
+      <c r="B63" s="3">
         <v>14672941</v>
       </c>
-      <c r="B63" s="2">
+      <c r="C63" s="2">
         <v>100000000</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
       </c>
       <c r="F63">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>256</v>
       </c>
       <c r="H63">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I63">
+        <v>10</v>
+      </c>
+      <c r="J63">
         <v>20</v>
       </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63" s="2">
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N63" t="s">
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O63" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="18.5">
-      <c r="A64" s="3">
+    <row r="64" spans="2:15" ht="18.5">
+      <c r="B64" s="3">
         <v>14672942</v>
       </c>
-      <c r="B64" s="2">
+      <c r="C64" s="2">
         <v>100000000</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
       </c>
       <c r="F64">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>256</v>
       </c>
       <c r="H64">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I64">
+        <v>10</v>
+      </c>
+      <c r="J64">
         <v>30</v>
       </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2">
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N64" t="s">
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O64" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="18.5">
-      <c r="A65" s="3">
+    <row r="65" spans="2:15" ht="18.5">
+      <c r="B65" s="3">
         <v>14672943</v>
       </c>
-      <c r="B65" s="2">
+      <c r="C65" s="2">
         <v>100000000</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
       </c>
       <c r="F65">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>256</v>
       </c>
       <c r="H65">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I65">
+        <v>10</v>
+      </c>
+      <c r="J65">
         <v>40</v>
       </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65" s="2">
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N65" t="s">
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O65" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="18.5">
-      <c r="A66" s="3">
+    <row r="66" spans="2:15" ht="18.5">
+      <c r="B66" s="3">
         <v>14672940</v>
       </c>
-      <c r="B66" s="2">
+      <c r="C66" s="2">
         <v>100000000</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
       </c>
       <c r="F66">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <v>256</v>
       </c>
       <c r="H66">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I66">
+        <v>10</v>
+      </c>
+      <c r="J66">
         <v>20</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>14</v>
       </c>
-      <c r="K66" s="2">
+      <c r="L66" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N66" t="s">
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O66" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="17.5">
-      <c r="A67" s="4">
+    <row r="67" spans="2:15" ht="17.5">
+      <c r="B67" s="4">
         <v>14671572</v>
       </c>
-      <c r="B67" s="2">
+      <c r="C67" s="2">
         <v>100000000</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
       </c>
       <c r="F67">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>256</v>
       </c>
       <c r="H67">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I67">
+        <v>10</v>
+      </c>
+      <c r="J67">
         <v>20</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>14</v>
       </c>
-      <c r="K67" s="2">
+      <c r="L67" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N67" s="6" t="s">
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O67" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="17.5">
-      <c r="A68" s="4">
+    <row r="68" spans="2:15" ht="17.5">
+      <c r="B68" s="4">
         <v>14680814</v>
       </c>
-      <c r="B68" s="2">
+      <c r="C68" s="2">
         <v>100000000</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
       </c>
       <c r="F68">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>256</v>
       </c>
       <c r="H68">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I68">
+        <v>10</v>
+      </c>
+      <c r="J68">
         <v>30</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>14</v>
       </c>
-      <c r="K68" s="2">
+      <c r="L68" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-      <c r="M68" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N68" t="s">
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O68" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="17.5">
-      <c r="A69" s="4">
+    <row r="69" spans="2:15" ht="17.5">
+      <c r="B69" s="4">
         <v>14671573</v>
       </c>
-      <c r="B69" s="2">
+      <c r="C69" s="2">
         <v>100000000</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
       </c>
       <c r="F69">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>256</v>
       </c>
       <c r="H69">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I69">
+        <v>10</v>
+      </c>
+      <c r="J69">
         <v>40</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>14</v>
       </c>
-      <c r="K69" s="2">
+      <c r="L69" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N69" s="6" t="s">
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O69" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
-      <c r="A71" t="s">
+    <row r="71" spans="2:15">
+      <c r="B71" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="6" customFormat="1" ht="18">
-      <c r="A72" s="13">
+    <row r="72" spans="2:15" s="6" customFormat="1" ht="18">
+      <c r="B72" s="13">
         <v>14762932</v>
       </c>
-      <c r="B72" s="12">
+      <c r="C72" s="12">
         <v>100000000</v>
       </c>
-      <c r="C72" s="6">
-        <v>1</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="6">
-        <v>1</v>
+      <c r="D72" s="6">
+        <v>1</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="F72" s="6">
-        <v>384</v>
+        <v>1</v>
       </c>
       <c r="G72" s="6">
         <v>384</v>
       </c>
       <c r="H72" s="6">
-        <v>10</v>
+        <v>384</v>
       </c>
       <c r="I72" s="6">
         <v>10</v>
       </c>
       <c r="J72" s="6">
-        <v>0</v>
-      </c>
-      <c r="K72" s="12">
+        <v>10</v>
+      </c>
+      <c r="K72" s="6">
+        <v>0</v>
+      </c>
+      <c r="L72" s="12">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L72" s="6">
-        <v>1</v>
-      </c>
-      <c r="M72" s="12">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" s="6" customFormat="1" ht="18">
-      <c r="A73" s="13">
+      <c r="M72" s="6">
+        <v>1</v>
+      </c>
+      <c r="N72" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" s="6" customFormat="1" ht="18">
+      <c r="B73" s="13">
         <v>14762935</v>
       </c>
-      <c r="B73" s="12">
+      <c r="C73" s="12">
         <v>100000000</v>
       </c>
-      <c r="C73" s="6">
-        <v>1</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="6">
-        <v>1</v>
+      <c r="D73" s="6">
+        <v>1</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="F73" s="6">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="G73" s="6">
         <v>512</v>
       </c>
       <c r="H73" s="6">
-        <v>10</v>
+        <v>512</v>
       </c>
       <c r="I73" s="6">
         <v>10</v>
       </c>
       <c r="J73" s="6">
-        <v>0</v>
-      </c>
-      <c r="K73" s="12">
+        <v>10</v>
+      </c>
+      <c r="K73" s="6">
+        <v>0</v>
+      </c>
+      <c r="L73" s="12">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L73" s="6">
-        <v>1</v>
-      </c>
-      <c r="M73" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" t="s">
+      <c r="M73" s="6">
+        <v>1</v>
+      </c>
+      <c r="N73" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15">
+      <c r="B75" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
-      <c r="A76">
+    <row r="76" spans="2:15">
+      <c r="B76">
         <v>14</v>
       </c>
-      <c r="B76" s="2">
+      <c r="C76" s="2">
         <v>100000000</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
-      <c r="A78" t="s">
+    <row r="78" spans="2:15">
+      <c r="B78" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="1">
+    <row r="79" spans="2:15">
+      <c r="B79" s="1">
         <v>14965608</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>30000</v>
       </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
       </c>
       <c r="F79">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G79">
         <v>128</v>
       </c>
       <c r="H79">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I79">
         <v>10</v>
       </c>
       <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L79">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M79">
-        <v>0.01</v>
-      </c>
-      <c r="N79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N79">
+        <v>0.01</v>
+      </c>
+      <c r="O79" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="1">
+    <row r="80" spans="2:15">
+      <c r="B80" s="1">
         <v>14965609</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>40000</v>
       </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
       </c>
       <c r="F80">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>128</v>
       </c>
       <c r="H80">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I80">
         <v>10</v>
       </c>
       <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L80">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M80">
-        <v>0.01</v>
-      </c>
-      <c r="N80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N80">
+        <v>0.01</v>
+      </c>
+      <c r="O80" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
-      <c r="A81" s="1">
+    <row r="81" spans="2:15">
+      <c r="B81" s="1">
         <v>14965611</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>60000</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
       </c>
       <c r="F81">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>128</v>
       </c>
       <c r="H81">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I81">
         <v>10</v>
       </c>
       <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L81">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M81">
-        <v>0.01</v>
-      </c>
-      <c r="N81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N81">
+        <v>0.01</v>
+      </c>
+      <c r="O81" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
-      <c r="A83" t="s">
+    <row r="83" spans="2:15">
+      <c r="B83" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
-      <c r="A84" s="1">
+    <row r="84" spans="2:15">
+      <c r="B84" s="1">
         <v>14965912</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>30000</v>
       </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
       </c>
       <c r="F84">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>128</v>
       </c>
       <c r="H84">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I84">
         <v>10</v>
       </c>
       <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L84">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M84">
-        <v>0.01</v>
-      </c>
-      <c r="N84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N84">
+        <v>0.01</v>
+      </c>
+      <c r="O84" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
-      <c r="A85" s="1">
+    <row r="85" spans="2:15">
+      <c r="B85" s="1">
         <v>14965914</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>40000</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
       </c>
       <c r="F85">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>128</v>
       </c>
       <c r="H85">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I85">
         <v>10</v>
       </c>
       <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L85">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M85">
-        <v>0.01</v>
-      </c>
-      <c r="N85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N85">
+        <v>0.01</v>
+      </c>
+      <c r="O85" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
-      <c r="A86" s="1">
+    <row r="86" spans="2:15">
+      <c r="B86" s="1">
         <v>14965915</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>60000</v>
       </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
       </c>
       <c r="F86">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <v>128</v>
       </c>
       <c r="H86">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I86">
         <v>10</v>
       </c>
       <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L86">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M86">
-        <v>0.01</v>
-      </c>
-      <c r="N86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N86">
+        <v>0.01</v>
+      </c>
+      <c r="O86" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
-      <c r="A88" t="s">
+    <row r="88" spans="2:15">
+      <c r="B88" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
-      <c r="A89" s="1">
+    <row r="89" spans="2:15">
+      <c r="B89" s="1">
         <v>14965918</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>30000</v>
       </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
       </c>
       <c r="F89">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G89">
         <v>128</v>
       </c>
       <c r="H89">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I89">
         <v>10</v>
       </c>
       <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L89">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M89">
-        <v>0.01</v>
-      </c>
-      <c r="N89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N89">
+        <v>0.01</v>
+      </c>
+      <c r="O89" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
-      <c r="A90" s="1">
+    <row r="90" spans="2:15">
+      <c r="B90" s="1">
         <v>14965919</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>40000</v>
       </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
       </c>
       <c r="F90">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>128</v>
       </c>
       <c r="H90">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I90">
         <v>10</v>
       </c>
       <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L90">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M90">
-        <v>0.01</v>
-      </c>
-      <c r="N90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N90">
+        <v>0.01</v>
+      </c>
+      <c r="O90" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
-      <c r="A91" s="1">
+    <row r="91" spans="2:15">
+      <c r="B91" s="1">
         <v>14965920</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>60000</v>
       </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91" t="s">
-        <v>13</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
       </c>
       <c r="F91">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>128</v>
       </c>
       <c r="H91">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I91">
         <v>10</v>
       </c>
       <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L91">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M91">
-        <v>0.01</v>
-      </c>
-      <c r="N91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N91">
+        <v>0.01</v>
+      </c>
+      <c r="O91" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
-      <c r="A93" s="15">
+    <row r="93" spans="2:15">
+      <c r="B93" s="15">
         <v>44983</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
-      <c r="A94" t="s">
+    <row r="94" spans="2:15">
+      <c r="B94" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
-      <c r="A95" t="s">
+    <row r="95" spans="2:15">
+      <c r="B95" t="s">
         <v>50</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
-      <c r="A96">
+    <row r="96" spans="2:15">
+      <c r="B96">
         <v>15127911</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>60000</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>57</v>
       </c>
-      <c r="D96" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
+      <c r="E96" t="s">
+        <v>13</v>
       </c>
       <c r="F96">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>128</v>
       </c>
       <c r="H96">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I96">
         <v>10</v>
       </c>
       <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L96">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M96">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97">
+        <v>10</v>
+      </c>
+      <c r="N96">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14">
+      <c r="B97">
         <v>15127861</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>60000</v>
       </c>
-      <c r="C97">
-        <v>0.01</v>
-      </c>
-      <c r="D97" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
+      <c r="D97">
+        <v>0.01</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
       </c>
       <c r="F97">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G97">
         <v>128</v>
       </c>
       <c r="H97">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I97">
         <v>10</v>
       </c>
       <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L97">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M97">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" s="8" customFormat="1">
-      <c r="A98" s="8">
+        <v>10</v>
+      </c>
+      <c r="N97">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" s="8" customFormat="1">
+      <c r="B98" s="8">
         <v>15131602</v>
       </c>
-      <c r="B98" s="9">
+      <c r="C98" s="9">
         <v>100000000</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="D98" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E98" s="8">
-        <v>1</v>
+      <c r="E98" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F98" s="8">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G98" s="8">
         <v>256</v>
       </c>
       <c r="H98" s="8">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I98" s="8">
         <v>10</v>
       </c>
       <c r="J98" s="8">
-        <v>0</v>
-      </c>
-      <c r="K98" s="9">
+        <v>10</v>
+      </c>
+      <c r="K98" s="8">
+        <v>0</v>
+      </c>
+      <c r="L98" s="9">
         <v>1000000</v>
       </c>
-      <c r="L98" s="8">
-        <v>1</v>
-      </c>
-      <c r="M98" s="9">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="K99" s="2"/>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" t="s">
+      <c r="M98" s="8">
+        <v>1</v>
+      </c>
+      <c r="N98" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14">
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="2:14">
+      <c r="B100" t="s">
         <v>51</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
-      <c r="A101">
+    <row r="101" spans="2:14">
+      <c r="B101">
         <v>15127953</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>60000</v>
       </c>
-      <c r="C101">
-        <v>0.01</v>
-      </c>
-      <c r="D101" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
+      <c r="D101">
+        <v>0.01</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
       </c>
       <c r="F101">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <v>128</v>
       </c>
       <c r="H101">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I101">
         <v>10</v>
       </c>
       <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L101" t="s">
+      <c r="M101" t="s">
         <v>55</v>
       </c>
-      <c r="M101" t="s">
+      <c r="N101" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
-      <c r="A102">
+    <row r="102" spans="2:14">
+      <c r="B102">
         <v>15130729</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>60000</v>
       </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102" t="s">
-        <v>13</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
       </c>
       <c r="F102">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <v>128</v>
       </c>
       <c r="H102">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I102">
         <v>10</v>
       </c>
       <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L102">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M102">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
-      <c r="A103">
+        <v>10</v>
+      </c>
+      <c r="N102">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14">
+      <c r="B103">
         <v>15132168</v>
       </c>
-      <c r="B103" s="2">
+      <c r="C103" s="2">
         <v>100000000</v>
       </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
       </c>
       <c r="F103">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G103">
         <v>256</v>
       </c>
       <c r="H103">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I103">
         <v>10</v>
       </c>
       <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103" s="2">
+        <v>10</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103" s="2">
         <v>1E-8</v>
       </c>
-      <c r="L103">
-        <v>1</v>
-      </c>
-      <c r="M103" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="A104">
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14">
+      <c r="B104">
         <v>15140639</v>
       </c>
-      <c r="B104" s="2">
+      <c r="C104" s="2">
         <v>100000000</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E104">
-        <v>1</v>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
       </c>
       <c r="F104">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G104">
         <v>256</v>
       </c>
       <c r="H104">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I104">
         <v>10</v>
       </c>
       <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104" s="2">
+        <v>10</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2">
         <v>1E-8</v>
       </c>
-      <c r="L104" s="2">
+      <c r="M104" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M104" s="2">
+      <c r="N104" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="16" customFormat="1">
-      <c r="A105" s="16">
+    <row r="105" spans="2:14" s="16" customFormat="1">
+      <c r="B105" s="16">
         <v>15144596</v>
       </c>
-      <c r="B105" s="17">
+      <c r="C105" s="17">
         <v>100000000</v>
       </c>
-      <c r="C105" s="16">
-        <v>0</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E105" s="16">
-        <v>1</v>
+      <c r="D105" s="16">
+        <v>0</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="F105" s="16">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G105" s="16">
         <v>256</v>
       </c>
       <c r="H105" s="16">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I105" s="16">
         <v>10</v>
       </c>
       <c r="J105" s="16">
-        <v>0</v>
-      </c>
-      <c r="K105" s="17">
+        <v>10</v>
+      </c>
+      <c r="K105" s="16">
+        <v>0</v>
+      </c>
+      <c r="L105" s="17">
         <v>1E-8</v>
       </c>
-      <c r="L105" s="17">
+      <c r="M105" s="17">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="M105" s="17">
+      <c r="N105" s="17">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="8" customFormat="1">
-      <c r="A106" s="8">
+    <row r="106" spans="2:14" s="8" customFormat="1">
+      <c r="B106" s="8">
         <v>15142489</v>
       </c>
-      <c r="B106" s="9">
+      <c r="C106" s="9">
         <v>100000000</v>
       </c>
-      <c r="C106" s="8">
-        <v>0</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E106" s="8">
-        <v>1</v>
+      <c r="D106" s="8">
+        <v>0</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F106" s="8">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G106" s="8">
         <v>256</v>
       </c>
       <c r="H106" s="8">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I106" s="8">
         <v>10</v>
       </c>
       <c r="J106" s="8">
-        <v>0</v>
-      </c>
-      <c r="K106" s="9">
+        <v>10</v>
+      </c>
+      <c r="K106" s="8">
+        <v>0</v>
+      </c>
+      <c r="L106" s="9">
         <v>1E-8</v>
       </c>
-      <c r="L106" s="9">
+      <c r="M106" s="9">
         <v>1E-4</v>
       </c>
-      <c r="M106" s="9">
+      <c r="N106" s="9">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
-      <c r="B107" s="2"/>
-      <c r="K107" s="2"/>
+    <row r="107" spans="2:14">
+      <c r="C107" s="2"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="14">
+      <c r="N107" s="2"/>
+    </row>
+    <row r="108" spans="2:14">
+      <c r="B108" s="14">
         <v>44984</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
-      <c r="A109" t="s">
+    <row r="109" spans="2:14">
+      <c r="B109" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
-      <c r="A110" t="s">
+    <row r="110" spans="2:14">
+      <c r="B110" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
-      <c r="A111">
+    <row r="111" spans="2:14">
+      <c r="B111">
         <v>15136552</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>40000</v>
       </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
       </c>
       <c r="F111">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <v>128</v>
       </c>
       <c r="H111">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I111">
         <v>10</v>
       </c>
       <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L111">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M111">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
-      <c r="A112">
+        <v>10</v>
+      </c>
+      <c r="N111">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14">
+      <c r="B112">
         <v>15136553</v>
       </c>
-      <c r="B112">
+      <c r="C112">
         <v>60000</v>
       </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-      <c r="D112" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112">
-        <v>1</v>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
       </c>
       <c r="F112">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G112">
         <v>128</v>
       </c>
       <c r="H112">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I112">
         <v>10</v>
       </c>
       <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L112">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M112">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" s="8" customFormat="1">
-      <c r="A113" s="8">
+        <v>10</v>
+      </c>
+      <c r="N112">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" s="8" customFormat="1">
+      <c r="B113" s="8">
         <v>15142501</v>
       </c>
-      <c r="B113" s="9">
+      <c r="C113" s="9">
         <v>100000000</v>
       </c>
-      <c r="C113" s="8">
-        <v>1</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" s="8">
-        <v>1</v>
+      <c r="D113" s="8">
+        <v>1</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F113" s="8">
+        <v>1</v>
+      </c>
+      <c r="G113" s="8">
         <v>256</v>
       </c>
-      <c r="G113" s="8">
+      <c r="H113" s="8">
         <v>16</v>
       </c>
-      <c r="H113" s="8">
-        <v>10</v>
-      </c>
       <c r="I113" s="8">
         <v>10</v>
       </c>
       <c r="J113" s="8">
-        <v>0</v>
-      </c>
-      <c r="K113" s="9">
+        <v>10</v>
+      </c>
+      <c r="K113" s="8">
+        <v>0</v>
+      </c>
+      <c r="L113" s="9">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L113" s="8">
-        <v>1</v>
-      </c>
       <c r="M113" s="8">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" s="16" customFormat="1">
-      <c r="A114" s="16">
+        <v>1</v>
+      </c>
+      <c r="N113" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" s="16" customFormat="1">
+      <c r="B114" s="16">
         <v>15144692</v>
       </c>
-      <c r="B114" s="17">
+      <c r="C114" s="17">
         <v>100000000</v>
       </c>
-      <c r="C114" s="16" t="s">
+      <c r="D114" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D114" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E114" s="16">
-        <v>1</v>
+      <c r="E114" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="F114" s="16">
+        <v>1</v>
+      </c>
+      <c r="G114" s="16">
         <v>256</v>
       </c>
-      <c r="G114" s="16">
+      <c r="H114" s="16">
         <v>16</v>
       </c>
-      <c r="H114" s="16">
-        <v>10</v>
-      </c>
       <c r="I114" s="16">
         <v>10</v>
       </c>
       <c r="J114" s="16">
-        <v>0</v>
-      </c>
-      <c r="K114" s="17">
+        <v>10</v>
+      </c>
+      <c r="K114" s="16">
+        <v>0</v>
+      </c>
+      <c r="L114" s="17">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L114" s="16">
-        <v>1</v>
-      </c>
       <c r="M114" s="16">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" s="8" customFormat="1">
-      <c r="B115" s="9"/>
-      <c r="K115" s="9"/>
-    </row>
-    <row r="116" spans="1:14">
-      <c r="A116" t="s">
+        <v>1</v>
+      </c>
+      <c r="N114" s="16">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" s="8" customFormat="1">
+      <c r="C115" s="9"/>
+      <c r="L115" s="9"/>
+    </row>
+    <row r="116" spans="2:15">
+      <c r="B116" t="s">
         <v>61</v>
       </c>
-      <c r="B116" s="2"/>
-      <c r="K116" s="2"/>
-    </row>
-    <row r="117" spans="1:14">
-      <c r="A117" s="16">
+      <c r="C116" s="2"/>
+      <c r="L116" s="2"/>
+    </row>
+    <row r="117" spans="2:15">
+      <c r="B117" s="16">
         <v>15144604</v>
       </c>
-      <c r="B117" s="17">
+      <c r="C117" s="17">
         <v>100000000</v>
       </c>
-      <c r="C117" s="16">
-        <v>0</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" s="16">
-        <v>1</v>
+      <c r="D117" s="16">
+        <v>0</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="F117" s="16">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G117" s="16">
         <v>256</v>
       </c>
       <c r="H117" s="16">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I117" s="16">
         <v>10</v>
       </c>
       <c r="J117" s="16">
-        <v>0</v>
-      </c>
-      <c r="K117" s="17">
+        <v>10</v>
+      </c>
+      <c r="K117" s="16">
+        <v>0</v>
+      </c>
+      <c r="L117" s="17">
         <v>1E-8</v>
       </c>
-      <c r="L117" s="17">
+      <c r="M117" s="17">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="M117" s="17">
+      <c r="N117" s="17">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
-      <c r="B118" s="2"/>
-      <c r="K118" s="2"/>
-    </row>
-    <row r="119" spans="1:14">
-      <c r="B119">
+    <row r="118" spans="2:15">
+      <c r="C118" s="2"/>
+      <c r="L118" s="2"/>
+    </row>
+    <row r="119" spans="2:15">
+      <c r="C119">
         <v>40000</v>
       </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119" t="s">
-        <v>13</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
       </c>
       <c r="F119">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G119">
         <v>32</v>
       </c>
       <c r="H119">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I119">
         <v>10</v>
       </c>
       <c r="J119">
-        <v>0</v>
-      </c>
-      <c r="K119" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L119">
+        <v>10</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M119">
         <v>1000</v>
       </c>
-      <c r="M119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
-      <c r="A120">
+      <c r="N119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15">
+      <c r="B120">
         <v>15135104</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>60000</v>
       </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120" t="s">
-        <v>13</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
       </c>
       <c r="F120">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G120">
         <v>32</v>
       </c>
       <c r="H120">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I120">
         <v>10</v>
       </c>
       <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L120">
+        <v>10</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M120">
         <v>1000</v>
       </c>
-      <c r="M120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
-      <c r="K121" s="2"/>
-    </row>
-    <row r="122" spans="1:14">
-      <c r="K122" s="2"/>
-    </row>
-    <row r="123" spans="1:14">
-      <c r="A123" t="s">
+      <c r="N120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15">
+      <c r="L121" s="2"/>
+    </row>
+    <row r="122" spans="2:15">
+      <c r="L122" s="2"/>
+    </row>
+    <row r="123" spans="2:15">
+      <c r="B123" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
-      <c r="A124">
+    <row r="124" spans="2:15">
+      <c r="B124">
         <v>15135106</v>
       </c>
-      <c r="B124">
+      <c r="C124">
         <v>60000</v>
       </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124" t="s">
-        <v>13</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>13</v>
       </c>
       <c r="F124">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G124">
         <v>32</v>
       </c>
       <c r="H124">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I124">
         <v>10</v>
       </c>
       <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L124">
+        <v>10</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M124">
         <v>1000</v>
       </c>
-      <c r="M124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" s="6" customFormat="1">
-      <c r="A127" s="5" t="s">
+      <c r="N124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" s="6" customFormat="1">
+      <c r="B127" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B127" s="10"/>
       <c r="C127" s="10"/>
       <c r="D127" s="10"/>
       <c r="E127" s="10"/>
@@ -3785,1465 +3800,1465 @@
       <c r="H127" s="10"/>
       <c r="I127" s="10"/>
       <c r="J127" s="10"/>
-      <c r="K127" s="11"/>
-      <c r="L127" s="10"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="11"/>
       <c r="M127" s="10"/>
-    </row>
-    <row r="128" spans="1:14" s="6" customFormat="1">
-      <c r="A128" s="1">
+      <c r="N127" s="10"/>
+    </row>
+    <row r="128" spans="2:15" s="6" customFormat="1">
+      <c r="B128" s="1">
         <v>907837</v>
       </c>
-      <c r="B128">
+      <c r="C128">
         <v>42000</v>
       </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128" t="s">
-        <v>13</v>
-      </c>
-      <c r="E128">
-        <v>1</v>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
       </c>
       <c r="F128">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G128">
         <v>128</v>
       </c>
       <c r="H128">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I128">
         <v>10</v>
       </c>
       <c r="J128">
-        <v>0</v>
-      </c>
-      <c r="K128" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L128">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M128">
-        <v>0.01</v>
-      </c>
-      <c r="N128" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N128">
+        <v>0.01</v>
+      </c>
+      <c r="O128" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="129" spans="1:14" s="6" customFormat="1">
-      <c r="A129" s="1">
+    <row r="129" spans="2:15" s="6" customFormat="1">
+      <c r="B129" s="1">
         <v>907867</v>
       </c>
-      <c r="B129">
+      <c r="C129">
         <v>44000</v>
       </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-      <c r="D129" t="s">
-        <v>13</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>13</v>
       </c>
       <c r="F129">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G129">
         <v>128</v>
       </c>
       <c r="H129">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I129">
         <v>10</v>
       </c>
       <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L129">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M129">
-        <v>0.01</v>
-      </c>
-      <c r="N129" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N129">
+        <v>0.01</v>
+      </c>
+      <c r="O129" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:14" s="6" customFormat="1">
-      <c r="A130" s="1">
+    <row r="130" spans="2:15" s="6" customFormat="1">
+      <c r="B130" s="1">
         <v>907878</v>
       </c>
-      <c r="B130">
+      <c r="C130">
         <v>46000</v>
       </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-      <c r="D130" t="s">
-        <v>13</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
       </c>
       <c r="F130">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G130">
         <v>128</v>
       </c>
       <c r="H130">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I130">
         <v>10</v>
       </c>
       <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L130">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M130">
-        <v>0.01</v>
-      </c>
-      <c r="N130" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N130">
+        <v>0.01</v>
+      </c>
+      <c r="O130" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:14" s="6" customFormat="1">
-      <c r="A131" s="1">
+    <row r="131" spans="2:15" s="6" customFormat="1">
+      <c r="B131" s="1">
         <v>15154914</v>
       </c>
-      <c r="B131">
+      <c r="C131">
         <v>46500</v>
       </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-      <c r="D131" t="s">
-        <v>13</v>
-      </c>
-      <c r="E131">
-        <v>1</v>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>13</v>
       </c>
       <c r="F131">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G131">
         <v>128</v>
       </c>
       <c r="H131">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I131">
         <v>10</v>
       </c>
       <c r="J131">
-        <v>0</v>
-      </c>
-      <c r="K131" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L131">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M131">
-        <v>0.01</v>
-      </c>
-      <c r="N131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N131">
+        <v>0.01</v>
+      </c>
+      <c r="O131" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:14" s="6" customFormat="1">
-      <c r="A132" s="1">
+    <row r="132" spans="2:15" s="6" customFormat="1">
+      <c r="B132" s="1">
         <v>15156185</v>
       </c>
-      <c r="B132">
+      <c r="C132">
         <v>46600</v>
       </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-      <c r="D132" t="s">
-        <v>13</v>
-      </c>
-      <c r="E132">
-        <v>1</v>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
       </c>
       <c r="F132">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G132">
         <v>128</v>
       </c>
       <c r="H132">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I132">
         <v>10</v>
       </c>
       <c r="J132">
-        <v>0</v>
-      </c>
-      <c r="K132" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L132">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M132">
-        <v>0.01</v>
-      </c>
-      <c r="N132" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N132">
+        <v>0.01</v>
+      </c>
+      <c r="O132" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:14" s="6" customFormat="1">
-      <c r="A133" s="1">
+    <row r="133" spans="2:15" s="6" customFormat="1">
+      <c r="B133" s="1">
         <v>15156187</v>
       </c>
-      <c r="B133">
+      <c r="C133">
         <v>46700</v>
       </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-      <c r="D133" t="s">
-        <v>13</v>
-      </c>
-      <c r="E133">
-        <v>1</v>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>13</v>
       </c>
       <c r="F133">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G133">
         <v>128</v>
       </c>
       <c r="H133">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I133">
         <v>10</v>
       </c>
       <c r="J133">
-        <v>0</v>
-      </c>
-      <c r="K133" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L133">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M133">
-        <v>0.01</v>
-      </c>
-      <c r="N133" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N133">
+        <v>0.01</v>
+      </c>
+      <c r="O133" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:14" s="6" customFormat="1">
-      <c r="A134" s="1">
+    <row r="134" spans="2:15" s="6" customFormat="1">
+      <c r="B134" s="1">
         <v>15156193</v>
       </c>
-      <c r="B134">
+      <c r="C134">
         <v>46800</v>
       </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-      <c r="D134" t="s">
-        <v>13</v>
-      </c>
-      <c r="E134">
-        <v>1</v>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>13</v>
       </c>
       <c r="F134">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G134">
         <v>128</v>
       </c>
       <c r="H134">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I134">
         <v>10</v>
       </c>
       <c r="J134">
-        <v>0</v>
-      </c>
-      <c r="K134" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L134">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M134">
-        <v>0.01</v>
-      </c>
-      <c r="N134" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N134">
+        <v>0.01</v>
+      </c>
+      <c r="O134" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:14" s="6" customFormat="1">
-      <c r="A135" s="1">
+    <row r="135" spans="2:15" s="6" customFormat="1">
+      <c r="B135" s="1">
         <v>15156832</v>
       </c>
-      <c r="B135">
+      <c r="C135">
         <v>46820</v>
       </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="D135" t="s">
-        <v>13</v>
-      </c>
-      <c r="E135">
-        <v>1</v>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
       </c>
       <c r="F135">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G135">
         <v>128</v>
       </c>
       <c r="H135">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I135">
         <v>10</v>
       </c>
       <c r="J135">
-        <v>0</v>
-      </c>
-      <c r="K135" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L135">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M135">
-        <v>0.01</v>
-      </c>
-      <c r="N135" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N135">
+        <v>0.01</v>
+      </c>
+      <c r="O135" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:14" s="6" customFormat="1">
-      <c r="A136" s="1">
+    <row r="136" spans="2:15" s="6" customFormat="1">
+      <c r="B136" s="1">
         <v>15156833</v>
       </c>
-      <c r="B136">
+      <c r="C136">
         <v>46840</v>
       </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-      <c r="D136" t="s">
-        <v>13</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
       </c>
       <c r="F136">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G136">
         <v>128</v>
       </c>
       <c r="H136">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I136">
         <v>10</v>
       </c>
       <c r="J136">
-        <v>0</v>
-      </c>
-      <c r="K136" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L136">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M136">
-        <v>0.01</v>
-      </c>
-      <c r="N136" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N136">
+        <v>0.01</v>
+      </c>
+      <c r="O136" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:14" s="6" customFormat="1">
-      <c r="A137" s="1">
+    <row r="137" spans="2:15" s="6" customFormat="1">
+      <c r="B137" s="1">
         <v>15156834</v>
       </c>
-      <c r="B137">
+      <c r="C137">
         <v>46860</v>
       </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-      <c r="D137" t="s">
-        <v>13</v>
-      </c>
-      <c r="E137">
-        <v>1</v>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
       </c>
       <c r="F137">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G137">
         <v>128</v>
       </c>
       <c r="H137">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I137">
         <v>10</v>
       </c>
       <c r="J137">
-        <v>0</v>
-      </c>
-      <c r="K137" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L137">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M137">
-        <v>0.01</v>
-      </c>
-      <c r="N137" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N137">
+        <v>0.01</v>
+      </c>
+      <c r="O137" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:14" s="6" customFormat="1">
-      <c r="A138" s="1">
+    <row r="138" spans="2:15" s="6" customFormat="1">
+      <c r="B138" s="1">
         <v>15156835</v>
       </c>
-      <c r="B138">
+      <c r="C138">
         <v>46880</v>
       </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138" t="s">
-        <v>13</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>13</v>
       </c>
       <c r="F138">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G138">
         <v>128</v>
       </c>
       <c r="H138">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I138">
         <v>10</v>
       </c>
       <c r="J138">
-        <v>0</v>
-      </c>
-      <c r="K138" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L138">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M138">
-        <v>0.01</v>
-      </c>
-      <c r="N138" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N138">
+        <v>0.01</v>
+      </c>
+      <c r="O138" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:14" s="6" customFormat="1">
-      <c r="A139" s="1">
+    <row r="139" spans="2:15" s="6" customFormat="1">
+      <c r="B139" s="1">
         <v>15157523</v>
       </c>
-      <c r="B139">
+      <c r="C139">
         <v>46885</v>
       </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-      <c r="D139" t="s">
-        <v>13</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>13</v>
       </c>
       <c r="F139">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G139">
         <v>128</v>
       </c>
       <c r="H139">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I139">
         <v>10</v>
       </c>
       <c r="J139">
-        <v>0</v>
-      </c>
-      <c r="K139" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L139">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M139">
-        <v>0.01</v>
-      </c>
-      <c r="N139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N139">
+        <v>0.01</v>
+      </c>
+      <c r="O139" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:14" s="6" customFormat="1">
-      <c r="A140" s="1">
+    <row r="140" spans="2:15" s="6" customFormat="1">
+      <c r="B140" s="1">
         <v>15159128</v>
       </c>
-      <c r="B140">
+      <c r="C140">
         <v>46887</v>
       </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-      <c r="D140" t="s">
-        <v>13</v>
-      </c>
-      <c r="E140">
-        <v>1</v>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
       </c>
       <c r="F140">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G140">
         <v>128</v>
       </c>
       <c r="H140">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I140">
         <v>10</v>
       </c>
       <c r="J140">
-        <v>0</v>
-      </c>
-      <c r="K140" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L140">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M140">
-        <v>0.01</v>
-      </c>
-      <c r="N140" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N140">
+        <v>0.01</v>
+      </c>
+      <c r="O140" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:14" s="6" customFormat="1">
-      <c r="A141" s="1">
+    <row r="141" spans="2:15" s="6" customFormat="1">
+      <c r="B141" s="1">
         <v>15159132</v>
       </c>
-      <c r="B141">
+      <c r="C141">
         <v>46889</v>
       </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141" t="s">
-        <v>13</v>
-      </c>
-      <c r="E141">
-        <v>1</v>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
       </c>
       <c r="F141">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G141">
         <v>128</v>
       </c>
       <c r="H141">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I141">
         <v>10</v>
       </c>
       <c r="J141">
-        <v>0</v>
-      </c>
-      <c r="K141" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L141">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M141">
-        <v>0.01</v>
-      </c>
-      <c r="N141" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N141">
+        <v>0.01</v>
+      </c>
+      <c r="O141" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:14" s="6" customFormat="1">
-      <c r="A142" s="1">
+    <row r="142" spans="2:15" s="6" customFormat="1">
+      <c r="B142" s="1">
         <v>15159726</v>
       </c>
-      <c r="B142">
+      <c r="C142">
         <v>46891</v>
       </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-      <c r="D142" t="s">
-        <v>13</v>
-      </c>
-      <c r="E142">
-        <v>1</v>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
       </c>
       <c r="F142">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G142">
         <v>128</v>
       </c>
       <c r="H142">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I142">
         <v>10</v>
       </c>
       <c r="J142">
-        <v>0</v>
-      </c>
-      <c r="K142" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L142">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M142">
-        <v>0.01</v>
-      </c>
-      <c r="N142" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N142">
+        <v>0.01</v>
+      </c>
+      <c r="O142" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:14" s="6" customFormat="1">
-      <c r="A143" s="1">
+    <row r="143" spans="2:15" s="6" customFormat="1">
+      <c r="B143" s="1">
         <v>15163269</v>
       </c>
-      <c r="B143">
+      <c r="C143">
         <v>46891.5</v>
       </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143" t="s">
-        <v>13</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>13</v>
       </c>
       <c r="F143">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G143">
         <v>128</v>
       </c>
       <c r="H143">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I143">
         <v>10</v>
       </c>
       <c r="J143">
-        <v>0</v>
-      </c>
-      <c r="K143" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L143">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M143">
-        <v>0.01</v>
-      </c>
-      <c r="N143" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N143">
+        <v>0.01</v>
+      </c>
+      <c r="O143" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:14" s="6" customFormat="1">
-      <c r="A144" s="5">
+    <row r="144" spans="2:15" s="6" customFormat="1">
+      <c r="B144" s="5">
         <v>15163270</v>
       </c>
-      <c r="B144" s="6">
+      <c r="C144" s="6">
         <v>46892</v>
       </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-      <c r="D144" t="s">
-        <v>13</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>13</v>
       </c>
       <c r="F144">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G144">
         <v>128</v>
       </c>
       <c r="H144">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I144">
         <v>10</v>
       </c>
       <c r="J144">
-        <v>0</v>
-      </c>
-      <c r="K144" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L144">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M144">
-        <v>0.01</v>
-      </c>
-      <c r="N144" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N144">
+        <v>0.01</v>
+      </c>
+      <c r="O144" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:14" s="6" customFormat="1">
-      <c r="A145" s="5">
+    <row r="145" spans="2:15" s="6" customFormat="1">
+      <c r="B145" s="5">
         <v>15163950</v>
       </c>
-      <c r="B145" s="6">
+      <c r="C145" s="6">
         <v>46892.1</v>
       </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-      <c r="D145" t="s">
-        <v>13</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>13</v>
       </c>
       <c r="F145">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G145">
         <v>128</v>
       </c>
       <c r="H145">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I145">
         <v>10</v>
       </c>
       <c r="J145">
-        <v>0</v>
-      </c>
-      <c r="K145" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L145">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M145">
-        <v>0.01</v>
-      </c>
-      <c r="N145" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N145">
+        <v>0.01</v>
+      </c>
+      <c r="O145" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="146" spans="1:14" s="6" customFormat="1">
-      <c r="A146" s="5">
+    <row r="146" spans="2:15" s="6" customFormat="1">
+      <c r="B146" s="5">
         <v>15163951</v>
       </c>
-      <c r="B146">
+      <c r="C146">
         <v>46892.2</v>
       </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146" t="s">
-        <v>13</v>
-      </c>
-      <c r="E146">
-        <v>1</v>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>13</v>
       </c>
       <c r="F146">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G146">
         <v>128</v>
       </c>
       <c r="H146">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I146">
         <v>10</v>
       </c>
       <c r="J146">
-        <v>0</v>
-      </c>
-      <c r="K146" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L146">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M146">
-        <v>0.01</v>
-      </c>
-      <c r="N146" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N146">
+        <v>0.01</v>
+      </c>
+      <c r="O146" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="147" spans="1:14" s="6" customFormat="1">
-      <c r="A147" s="5">
+    <row r="147" spans="2:15" s="6" customFormat="1">
+      <c r="B147" s="5">
         <v>15163952</v>
       </c>
-      <c r="B147">
+      <c r="C147">
         <v>46892.3</v>
       </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-      <c r="D147" t="s">
-        <v>13</v>
-      </c>
-      <c r="E147">
-        <v>1</v>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
       </c>
       <c r="F147">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G147">
         <v>128</v>
       </c>
       <c r="H147">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I147">
         <v>10</v>
       </c>
       <c r="J147">
-        <v>0</v>
-      </c>
-      <c r="K147" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L147">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M147">
-        <v>0.01</v>
-      </c>
-      <c r="N147" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N147">
+        <v>0.01</v>
+      </c>
+      <c r="O147" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="1:14" s="6" customFormat="1">
-      <c r="A148" s="5">
+    <row r="148" spans="2:15" s="6" customFormat="1">
+      <c r="B148" s="5">
         <v>15163953</v>
       </c>
-      <c r="B148">
+      <c r="C148">
         <v>46892.4</v>
       </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-      <c r="D148" t="s">
-        <v>13</v>
-      </c>
-      <c r="E148">
-        <v>1</v>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>13</v>
       </c>
       <c r="F148">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G148">
         <v>128</v>
       </c>
       <c r="H148">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I148">
         <v>10</v>
       </c>
       <c r="J148">
-        <v>0</v>
-      </c>
-      <c r="K148" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L148">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M148">
-        <v>0.01</v>
-      </c>
-      <c r="N148" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N148">
+        <v>0.01</v>
+      </c>
+      <c r="O148" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="149" spans="1:14" s="6" customFormat="1">
-      <c r="A149" s="1">
+    <row r="149" spans="2:15" s="6" customFormat="1">
+      <c r="B149" s="1">
         <v>15163271</v>
       </c>
-      <c r="B149">
+      <c r="C149">
         <v>46892.5</v>
       </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-      <c r="D149" t="s">
-        <v>13</v>
-      </c>
-      <c r="E149">
-        <v>1</v>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>13</v>
       </c>
       <c r="F149">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G149">
         <v>128</v>
       </c>
       <c r="H149">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I149">
         <v>10</v>
       </c>
       <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L149">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M149">
-        <v>0.01</v>
-      </c>
-      <c r="N149" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N149">
+        <v>0.01</v>
+      </c>
+      <c r="O149" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="150" spans="1:14" s="6" customFormat="1">
-      <c r="A150" s="1">
+    <row r="150" spans="2:15" s="6" customFormat="1">
+      <c r="B150" s="1">
         <v>15159728</v>
       </c>
-      <c r="B150">
+      <c r="C150">
         <v>46893</v>
       </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-      <c r="D150" t="s">
-        <v>13</v>
-      </c>
-      <c r="E150">
-        <v>1</v>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>13</v>
       </c>
       <c r="F150">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G150">
         <v>128</v>
       </c>
       <c r="H150">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I150">
         <v>10</v>
       </c>
       <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L150">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M150">
-        <v>0.01</v>
-      </c>
-      <c r="N150" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N150">
+        <v>0.01</v>
+      </c>
+      <c r="O150" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="151" spans="1:14" s="6" customFormat="1">
-      <c r="A151" s="1">
+    <row r="151" spans="2:15" s="6" customFormat="1">
+      <c r="B151" s="1">
         <v>15157545</v>
       </c>
-      <c r="B151">
+      <c r="C151">
         <v>46895</v>
       </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-      <c r="D151" t="s">
-        <v>13</v>
-      </c>
-      <c r="E151">
-        <v>1</v>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>13</v>
       </c>
       <c r="F151">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G151">
         <v>128</v>
       </c>
       <c r="H151">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I151">
         <v>10</v>
       </c>
       <c r="J151">
-        <v>0</v>
-      </c>
-      <c r="K151" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L151">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M151">
-        <v>0.01</v>
-      </c>
-      <c r="N151" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N151">
+        <v>0.01</v>
+      </c>
+      <c r="O151" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="152" spans="1:14" s="6" customFormat="1">
-      <c r="A152" s="1">
+    <row r="152" spans="2:15" s="6" customFormat="1">
+      <c r="B152" s="1">
         <v>15156198</v>
       </c>
-      <c r="B152">
+      <c r="C152">
         <v>46900</v>
       </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-      <c r="D152" t="s">
-        <v>13</v>
-      </c>
-      <c r="E152">
-        <v>1</v>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>13</v>
       </c>
       <c r="F152">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G152">
         <v>128</v>
       </c>
       <c r="H152">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I152">
         <v>10</v>
       </c>
       <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="K152" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L152">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M152">
-        <v>0.01</v>
-      </c>
-      <c r="N152" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N152">
+        <v>0.01</v>
+      </c>
+      <c r="O152" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="153" spans="1:14" s="6" customFormat="1">
-      <c r="A153" s="1">
+    <row r="153" spans="2:15" s="6" customFormat="1">
+      <c r="B153" s="1">
         <v>15154920</v>
       </c>
-      <c r="B153">
+      <c r="C153">
         <v>47000</v>
       </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-      <c r="D153" t="s">
-        <v>13</v>
-      </c>
-      <c r="E153">
-        <v>1</v>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>13</v>
       </c>
       <c r="F153">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G153">
         <v>128</v>
       </c>
       <c r="H153">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I153">
         <v>10</v>
       </c>
       <c r="J153">
-        <v>0</v>
-      </c>
-      <c r="K153" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L153">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M153">
-        <v>0.01</v>
-      </c>
-      <c r="N153" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N153">
+        <v>0.01</v>
+      </c>
+      <c r="O153" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="154" spans="1:14" s="6" customFormat="1">
-      <c r="A154" s="1">
+    <row r="154" spans="2:15" s="6" customFormat="1">
+      <c r="B154" s="1">
         <v>15154925</v>
       </c>
-      <c r="B154">
+      <c r="C154">
         <v>47500</v>
       </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-      <c r="D154" t="s">
-        <v>13</v>
-      </c>
-      <c r="E154">
-        <v>1</v>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>13</v>
       </c>
       <c r="F154">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G154">
         <v>128</v>
       </c>
       <c r="H154">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I154">
         <v>10</v>
       </c>
       <c r="J154">
-        <v>0</v>
-      </c>
-      <c r="K154" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L154">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M154">
-        <v>0.01</v>
-      </c>
-      <c r="N154" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N154">
+        <v>0.01</v>
+      </c>
+      <c r="O154" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="155" spans="1:14" s="6" customFormat="1">
-      <c r="A155" s="1">
+    <row r="155" spans="2:15" s="6" customFormat="1">
+      <c r="B155" s="1">
         <v>907903</v>
       </c>
-      <c r="B155">
+      <c r="C155">
         <v>48000</v>
       </c>
-      <c r="C155">
-        <v>1</v>
-      </c>
-      <c r="D155" t="s">
-        <v>13</v>
-      </c>
-      <c r="E155">
-        <v>1</v>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>13</v>
       </c>
       <c r="F155">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G155">
         <v>128</v>
       </c>
       <c r="H155">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I155">
         <v>10</v>
       </c>
       <c r="J155">
-        <v>0</v>
-      </c>
-      <c r="K155" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L155">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M155">
-        <v>0.01</v>
-      </c>
-      <c r="N155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N155">
+        <v>0.01</v>
+      </c>
+      <c r="O155" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="156" spans="1:14" s="6" customFormat="1">
-      <c r="A156" s="1">
+    <row r="156" spans="2:15" s="6" customFormat="1">
+      <c r="B156" s="1">
         <v>907919</v>
       </c>
-      <c r="B156">
+      <c r="C156">
         <v>50000</v>
       </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-      <c r="D156" t="s">
-        <v>13</v>
-      </c>
-      <c r="E156">
-        <v>1</v>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>13</v>
       </c>
       <c r="F156">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G156">
         <v>128</v>
       </c>
       <c r="H156">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I156">
         <v>10</v>
       </c>
       <c r="J156">
-        <v>0</v>
-      </c>
-      <c r="K156" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L156">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M156">
-        <v>0.01</v>
-      </c>
-      <c r="N156" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N156">
+        <v>0.01</v>
+      </c>
+      <c r="O156" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="157" spans="1:14" s="6" customFormat="1">
-      <c r="A157" s="1">
+    <row r="157" spans="2:15" s="6" customFormat="1">
+      <c r="B157" s="1">
         <v>907934</v>
       </c>
-      <c r="B157">
+      <c r="C157">
         <v>52000</v>
       </c>
-      <c r="C157">
-        <v>1</v>
-      </c>
-      <c r="D157" t="s">
-        <v>13</v>
-      </c>
-      <c r="E157">
-        <v>1</v>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>13</v>
       </c>
       <c r="F157">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G157">
         <v>128</v>
       </c>
       <c r="H157">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I157">
         <v>10</v>
       </c>
       <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L157">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M157">
-        <v>0.01</v>
-      </c>
-      <c r="N157" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N157">
+        <v>0.01</v>
+      </c>
+      <c r="O157" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="1:14" s="6" customFormat="1">
-      <c r="A158" s="1">
+    <row r="158" spans="2:15" s="6" customFormat="1">
+      <c r="B158" s="1">
         <v>907946</v>
       </c>
-      <c r="B158">
+      <c r="C158">
         <v>54000</v>
       </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-      <c r="D158" t="s">
-        <v>13</v>
-      </c>
-      <c r="E158">
-        <v>1</v>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>13</v>
       </c>
       <c r="F158">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G158">
         <v>128</v>
       </c>
       <c r="H158">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I158">
         <v>10</v>
       </c>
       <c r="J158">
-        <v>0</v>
-      </c>
-      <c r="K158" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L158">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M158">
-        <v>0.01</v>
-      </c>
-      <c r="N158" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N158">
+        <v>0.01</v>
+      </c>
+      <c r="O158" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="159" spans="1:14" s="6" customFormat="1">
-      <c r="A159" s="1">
+    <row r="159" spans="2:15" s="6" customFormat="1">
+      <c r="B159" s="1">
         <v>907961</v>
       </c>
-      <c r="B159">
+      <c r="C159">
         <v>56000</v>
       </c>
-      <c r="C159">
-        <v>1</v>
-      </c>
-      <c r="D159" t="s">
-        <v>13</v>
-      </c>
-      <c r="E159">
-        <v>1</v>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
       </c>
       <c r="F159">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G159">
         <v>128</v>
       </c>
       <c r="H159">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I159">
         <v>10</v>
       </c>
       <c r="J159">
-        <v>0</v>
-      </c>
-      <c r="K159" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L159">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M159">
-        <v>0.01</v>
-      </c>
-      <c r="N159" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N159">
+        <v>0.01</v>
+      </c>
+      <c r="O159" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="160" spans="1:14" s="6" customFormat="1">
-      <c r="A160" s="1">
+    <row r="160" spans="2:15" s="6" customFormat="1">
+      <c r="B160" s="1">
         <v>907979</v>
       </c>
-      <c r="B160">
+      <c r="C160">
         <v>58000</v>
       </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-      <c r="D160" t="s">
-        <v>13</v>
-      </c>
-      <c r="E160">
-        <v>1</v>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>13</v>
       </c>
       <c r="F160">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G160">
         <v>128</v>
       </c>
       <c r="H160">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I160">
         <v>10</v>
       </c>
       <c r="J160">
-        <v>0</v>
-      </c>
-      <c r="K160" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L160">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M160">
-        <v>0.01</v>
-      </c>
-      <c r="N160" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N160">
+        <v>0.01</v>
+      </c>
+      <c r="O160" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="161" spans="1:15" s="6" customFormat="1">
-      <c r="A161" s="5"/>
-      <c r="B161"/>
+    <row r="161" spans="2:16" s="6" customFormat="1">
+      <c r="B161" s="5"/>
       <c r="C161"/>
       <c r="D161"/>
       <c r="E161"/>
@@ -5252,955 +5267,1093 @@
       <c r="H161"/>
       <c r="I161"/>
       <c r="J161"/>
-      <c r="K161" s="2"/>
-      <c r="L161"/>
+      <c r="K161"/>
+      <c r="L161" s="2"/>
       <c r="M161"/>
-    </row>
-    <row r="163" spans="1:15">
-      <c r="A163" s="6" t="s">
+      <c r="N161"/>
+    </row>
+    <row r="163" spans="2:16">
+      <c r="B163" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
-      <c r="A164">
+    <row r="164" spans="2:16">
+      <c r="B164">
         <v>15155139</v>
       </c>
-      <c r="B164">
+      <c r="C164">
         <v>30000</v>
       </c>
-      <c r="C164">
-        <v>1</v>
-      </c>
-      <c r="D164" t="s">
-        <v>13</v>
-      </c>
-      <c r="E164">
-        <v>1</v>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164" t="s">
+        <v>13</v>
       </c>
       <c r="F164">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G164">
         <v>128</v>
       </c>
       <c r="H164">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I164">
         <v>10</v>
       </c>
       <c r="J164">
-        <v>0</v>
-      </c>
-      <c r="K164" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L164">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M164">
-        <v>0.01</v>
-      </c>
-      <c r="N164" t="s">
+        <v>10</v>
+      </c>
+      <c r="N164">
+        <v>0.01</v>
+      </c>
+      <c r="O164" t="s">
         <v>66</v>
       </c>
-      <c r="O164" t="s">
+      <c r="P164" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
-      <c r="A165">
+    <row r="165" spans="2:16">
+      <c r="B165">
         <v>15155141</v>
       </c>
-      <c r="B165">
+      <c r="C165">
         <v>40000</v>
       </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-      <c r="D165" t="s">
-        <v>13</v>
-      </c>
-      <c r="E165">
-        <v>1</v>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>13</v>
       </c>
       <c r="F165">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G165">
         <v>128</v>
       </c>
       <c r="H165">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I165">
         <v>10</v>
       </c>
       <c r="J165">
-        <v>0</v>
-      </c>
-      <c r="K165" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L165">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M165">
-        <v>0.01</v>
-      </c>
-      <c r="N165" t="s">
+        <v>10</v>
+      </c>
+      <c r="N165">
+        <v>0.01</v>
+      </c>
+      <c r="O165" t="s">
         <v>66</v>
       </c>
-      <c r="O165" t="s">
+      <c r="P165" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
-      <c r="A166">
+    <row r="166" spans="2:16">
+      <c r="B166">
         <v>15155148</v>
       </c>
-      <c r="B166">
+      <c r="C166">
         <v>60000</v>
       </c>
-      <c r="C166">
-        <v>1</v>
-      </c>
-      <c r="D166" t="s">
-        <v>13</v>
-      </c>
-      <c r="E166">
-        <v>1</v>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>13</v>
       </c>
       <c r="F166">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G166">
         <v>128</v>
       </c>
       <c r="H166">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I166">
         <v>10</v>
       </c>
       <c r="J166">
-        <v>0</v>
-      </c>
-      <c r="K166" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L166">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M166">
-        <v>0.01</v>
-      </c>
-      <c r="N166" t="s">
+        <v>10</v>
+      </c>
+      <c r="N166">
+        <v>0.01</v>
+      </c>
+      <c r="O166" t="s">
         <v>66</v>
       </c>
-      <c r="O166" t="s">
+      <c r="P166" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
-      <c r="A167">
+    <row r="167" spans="2:16">
+      <c r="B167">
         <v>15155309</v>
       </c>
-      <c r="B167" s="2">
+      <c r="C167" s="2">
         <v>100000000</v>
       </c>
-      <c r="C167">
-        <v>1</v>
-      </c>
-      <c r="D167" t="s">
-        <v>13</v>
-      </c>
-      <c r="E167">
-        <v>1</v>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167" t="s">
+        <v>13</v>
       </c>
       <c r="F167">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G167">
         <v>256</v>
       </c>
       <c r="H167">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I167">
         <v>10</v>
       </c>
       <c r="J167">
-        <v>0</v>
-      </c>
-      <c r="K167" s="2">
+        <v>10</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L167">
-        <v>1</v>
-      </c>
-      <c r="M167" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N167" t="s">
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O167" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
-      <c r="A168">
+    <row r="168" spans="2:16">
+      <c r="B168">
         <v>15155150</v>
       </c>
-      <c r="B168">
+      <c r="C168">
         <v>30000</v>
       </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-      <c r="D168" t="s">
-        <v>13</v>
-      </c>
-      <c r="E168">
-        <v>1</v>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168" t="s">
+        <v>13</v>
       </c>
       <c r="F168">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G168">
         <v>128</v>
       </c>
       <c r="H168">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I168">
         <v>10</v>
       </c>
       <c r="J168">
-        <v>0</v>
-      </c>
-      <c r="K168" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L168">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M168">
-        <v>0.01</v>
-      </c>
-      <c r="N168" t="s">
+        <v>10</v>
+      </c>
+      <c r="N168">
+        <v>0.01</v>
+      </c>
+      <c r="O168" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
-      <c r="A169">
+    <row r="169" spans="2:16">
+      <c r="B169">
         <v>15155156</v>
       </c>
-      <c r="B169">
+      <c r="C169">
         <v>40000</v>
       </c>
-      <c r="C169">
-        <v>1</v>
-      </c>
-      <c r="D169" t="s">
-        <v>13</v>
-      </c>
-      <c r="E169">
-        <v>1</v>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169" t="s">
+        <v>13</v>
       </c>
       <c r="F169">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G169">
         <v>128</v>
       </c>
       <c r="H169">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I169">
         <v>10</v>
       </c>
       <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L169">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M169">
-        <v>0.01</v>
-      </c>
-      <c r="N169" t="s">
+        <v>10</v>
+      </c>
+      <c r="N169">
+        <v>0.01</v>
+      </c>
+      <c r="O169" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
-      <c r="A170">
+    <row r="170" spans="2:16">
+      <c r="B170">
         <v>15155162</v>
       </c>
-      <c r="B170">
+      <c r="C170">
         <v>60000</v>
       </c>
-      <c r="C170">
-        <v>1</v>
-      </c>
-      <c r="D170" t="s">
-        <v>13</v>
-      </c>
-      <c r="E170">
-        <v>1</v>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170" t="s">
+        <v>13</v>
       </c>
       <c r="F170">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G170">
         <v>128</v>
       </c>
       <c r="H170">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I170">
         <v>10</v>
       </c>
       <c r="J170">
-        <v>0</v>
-      </c>
-      <c r="K170" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L170">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M170">
-        <v>0.01</v>
-      </c>
-      <c r="N170" t="s">
+        <v>10</v>
+      </c>
+      <c r="N170">
+        <v>0.01</v>
+      </c>
+      <c r="O170" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
-      <c r="A171">
+    <row r="171" spans="2:16">
+      <c r="B171">
         <v>15155314</v>
       </c>
-      <c r="B171" s="2">
+      <c r="C171" s="2">
         <v>100000000</v>
       </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-      <c r="D171" t="s">
-        <v>13</v>
-      </c>
-      <c r="E171">
-        <v>1</v>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>13</v>
       </c>
       <c r="F171">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G171">
         <v>256</v>
       </c>
       <c r="H171">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I171">
         <v>10</v>
       </c>
       <c r="J171">
-        <v>0</v>
-      </c>
-      <c r="K171" s="2">
+        <v>10</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L171">
-        <v>1</v>
-      </c>
-      <c r="M171" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N171" t="s">
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O171" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
-      <c r="A172" s="6" t="s">
+    <row r="172" spans="2:16">
+      <c r="B172" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="173" spans="1:15">
-      <c r="A173">
+    <row r="173" spans="2:16">
+      <c r="B173">
         <v>15155190</v>
       </c>
-      <c r="B173">
+      <c r="C173">
         <v>30000</v>
       </c>
-      <c r="C173">
-        <v>1</v>
-      </c>
-      <c r="D173" t="s">
-        <v>13</v>
-      </c>
-      <c r="E173">
-        <v>1</v>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173" t="s">
+        <v>13</v>
       </c>
       <c r="F173">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G173">
         <v>128</v>
       </c>
       <c r="H173">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I173">
         <v>10</v>
       </c>
       <c r="J173">
-        <v>0</v>
-      </c>
-      <c r="K173" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L173">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M173">
-        <v>0.01</v>
-      </c>
-      <c r="N173" t="s">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>0.01</v>
+      </c>
+      <c r="O173" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
-      <c r="A174">
+    <row r="174" spans="2:16">
+      <c r="B174">
         <v>15155200</v>
       </c>
-      <c r="B174">
+      <c r="C174">
         <v>40000</v>
       </c>
-      <c r="C174">
-        <v>1</v>
-      </c>
-      <c r="D174" t="s">
-        <v>13</v>
-      </c>
-      <c r="E174">
-        <v>1</v>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174" t="s">
+        <v>13</v>
       </c>
       <c r="F174">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G174">
         <v>128</v>
       </c>
       <c r="H174">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I174">
         <v>10</v>
       </c>
       <c r="J174">
-        <v>0</v>
-      </c>
-      <c r="K174" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L174">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M174">
-        <v>0.01</v>
-      </c>
-      <c r="N174" t="s">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>0.01</v>
+      </c>
+      <c r="O174" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="175" spans="1:15">
-      <c r="A175">
+    <row r="175" spans="2:16">
+      <c r="B175">
         <v>15155216</v>
       </c>
-      <c r="B175">
+      <c r="C175">
         <v>60000</v>
       </c>
-      <c r="C175">
-        <v>1</v>
-      </c>
-      <c r="D175" t="s">
-        <v>13</v>
-      </c>
-      <c r="E175">
-        <v>1</v>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>13</v>
       </c>
       <c r="F175">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G175">
         <v>128</v>
       </c>
       <c r="H175">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I175">
         <v>10</v>
       </c>
       <c r="J175">
-        <v>0</v>
-      </c>
-      <c r="K175" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L175">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M175">
-        <v>0.01</v>
-      </c>
-      <c r="N175" t="s">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>0.01</v>
+      </c>
+      <c r="O175" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
-      <c r="A177" t="s">
+    <row r="177" spans="2:14">
+      <c r="B177" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
-      <c r="A178">
+    <row r="178" spans="2:14">
+      <c r="B178">
         <v>15191607</v>
       </c>
-      <c r="B178">
+      <c r="C178">
         <v>26000</v>
       </c>
-      <c r="C178">
-        <v>1</v>
-      </c>
-      <c r="D178" t="s">
-        <v>13</v>
-      </c>
-      <c r="E178">
-        <v>1</v>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178" t="s">
+        <v>13</v>
       </c>
       <c r="F178">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G178">
         <v>128</v>
       </c>
       <c r="H178">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I178">
         <v>10</v>
       </c>
       <c r="J178">
-        <v>0</v>
-      </c>
-      <c r="K178" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L178">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M178">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13">
-      <c r="A179">
+        <v>10</v>
+      </c>
+      <c r="N178">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14">
+      <c r="B179">
         <v>15191626</v>
       </c>
-      <c r="B179">
+      <c r="C179">
         <v>26000</v>
       </c>
-      <c r="C179">
-        <v>1</v>
-      </c>
-      <c r="D179" t="s">
-        <v>13</v>
-      </c>
-      <c r="E179">
-        <v>1</v>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179" t="s">
+        <v>13</v>
       </c>
       <c r="F179">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G179">
         <v>32</v>
       </c>
       <c r="H179">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I179">
         <v>10</v>
       </c>
       <c r="J179">
-        <v>0</v>
-      </c>
-      <c r="K179" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L179">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M179">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13">
-      <c r="A181" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N179">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14">
+      <c r="B181" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
-      <c r="A182" s="19" t="s">
+    <row r="182" spans="2:14">
+      <c r="B182" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B182" s="19" t="s">
+      <c r="C182" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C182" s="19" t="s">
+      <c r="D182" s="19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
-      <c r="A183" s="19">
-        <v>16017</v>
-      </c>
+    <row r="183" spans="2:14">
       <c r="B183" s="19">
-        <v>25222.5</v>
+        <v>19576.328954076998</v>
       </c>
       <c r="C183" s="19">
-        <v>45.129399999999997</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13">
-      <c r="A184" s="6"/>
-    </row>
-    <row r="185" spans="1:13">
-      <c r="A185">
+        <v>32085.144588459902</v>
+      </c>
+      <c r="D183" s="19">
+        <v>43.052509000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14">
+      <c r="B184" s="6"/>
+    </row>
+    <row r="185" spans="2:14">
+      <c r="B185">
         <v>15192709</v>
       </c>
-      <c r="B185">
+      <c r="C185">
         <v>16016</v>
       </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-      <c r="D185" t="s">
-        <v>13</v>
-      </c>
-      <c r="E185">
-        <v>1</v>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185" t="s">
+        <v>13</v>
       </c>
       <c r="F185">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G185">
         <v>32</v>
       </c>
       <c r="H185">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I185">
         <v>10</v>
       </c>
       <c r="J185">
-        <v>0</v>
-      </c>
-      <c r="K185" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L185">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M185">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13">
-      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14">
+      <c r="B186">
         <v>15192712</v>
       </c>
-      <c r="B186">
+      <c r="C186">
         <v>16018</v>
       </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-      <c r="D186" t="s">
-        <v>13</v>
-      </c>
-      <c r="E186">
-        <v>1</v>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186" t="s">
+        <v>13</v>
       </c>
       <c r="F186">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G186">
         <v>32</v>
       </c>
       <c r="H186">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I186">
         <v>10</v>
       </c>
       <c r="J186">
-        <v>0</v>
-      </c>
-      <c r="K186" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L186">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M186">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13">
-      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14">
+      <c r="B187">
         <v>15192715</v>
       </c>
-      <c r="B187">
+      <c r="C187">
         <v>16100</v>
       </c>
-      <c r="C187">
-        <v>1</v>
-      </c>
-      <c r="D187" t="s">
-        <v>13</v>
-      </c>
-      <c r="E187">
-        <v>1</v>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187" t="s">
+        <v>13</v>
       </c>
       <c r="F187">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G187">
         <v>32</v>
       </c>
       <c r="H187">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I187">
         <v>10</v>
       </c>
       <c r="J187">
-        <v>0</v>
-      </c>
-      <c r="K187" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L187">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M187">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13">
-      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14">
+      <c r="B188">
         <v>15192717</v>
       </c>
-      <c r="B188">
+      <c r="C188">
         <v>17000</v>
       </c>
-      <c r="C188">
-        <v>1</v>
-      </c>
-      <c r="D188" t="s">
-        <v>13</v>
-      </c>
-      <c r="E188">
-        <v>1</v>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188" t="s">
+        <v>13</v>
       </c>
       <c r="F188">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G188">
         <v>32</v>
       </c>
       <c r="H188">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I188">
         <v>10</v>
       </c>
       <c r="J188">
-        <v>0</v>
-      </c>
-      <c r="K188" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L188">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M188">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13">
-      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14">
+      <c r="B189">
         <v>15209890</v>
       </c>
-      <c r="B189">
+      <c r="C189">
         <v>20000</v>
       </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
-      <c r="D189" t="s">
-        <v>13</v>
-      </c>
-      <c r="E189">
-        <v>1</v>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189" t="s">
+        <v>13</v>
       </c>
       <c r="F189">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G189">
         <v>32</v>
       </c>
       <c r="H189">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I189">
         <v>10</v>
       </c>
       <c r="J189">
-        <v>0</v>
-      </c>
-      <c r="K189" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L189">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M189">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13">
-      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14">
+      <c r="B190">
         <v>15209889</v>
       </c>
-      <c r="B190">
+      <c r="C190">
         <v>25000</v>
       </c>
-      <c r="C190">
-        <v>1</v>
-      </c>
-      <c r="D190" t="s">
-        <v>13</v>
-      </c>
-      <c r="E190">
-        <v>1</v>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190" t="s">
+        <v>13</v>
       </c>
       <c r="F190">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G190">
         <v>32</v>
       </c>
       <c r="H190">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I190">
         <v>10</v>
       </c>
       <c r="J190">
-        <v>0</v>
-      </c>
-      <c r="K190" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L190">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M190">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13">
-      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14">
+      <c r="B191">
         <v>15209888</v>
       </c>
-      <c r="B191">
+      <c r="C191">
         <v>26000</v>
       </c>
-      <c r="C191">
-        <v>1</v>
-      </c>
-      <c r="D191" t="s">
-        <v>13</v>
-      </c>
-      <c r="E191">
-        <v>1</v>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191" t="s">
+        <v>13</v>
       </c>
       <c r="F191">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G191">
         <v>32</v>
       </c>
       <c r="H191">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I191">
         <v>10</v>
       </c>
       <c r="J191">
-        <v>0</v>
-      </c>
-      <c r="K191" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L191">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M191">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13">
-      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="N191">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14">
+      <c r="B192">
         <v>15209887</v>
       </c>
-      <c r="B192">
+      <c r="C192">
         <v>30000</v>
       </c>
-      <c r="C192">
-        <v>1</v>
-      </c>
-      <c r="D192" t="s">
-        <v>13</v>
-      </c>
-      <c r="E192">
-        <v>1</v>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192" t="s">
+        <v>13</v>
       </c>
       <c r="F192">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G192">
         <v>32</v>
       </c>
       <c r="H192">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I192">
         <v>10</v>
       </c>
       <c r="J192">
-        <v>0</v>
-      </c>
-      <c r="K192" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="L192">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192" s="2">
+        <v>1E-3</v>
       </c>
       <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
+      <c r="B193">
+        <v>15236625</v>
+      </c>
+      <c r="C193">
+        <v>40000</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>32</v>
+      </c>
+      <c r="H193">
+        <v>32</v>
+      </c>
+      <c r="I193">
+        <v>10</v>
+      </c>
+      <c r="J193">
+        <v>10</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
+      <c r="A195" t="s">
+        <v>118</v>
+      </c>
+      <c r="B195" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
+      <c r="A197">
+        <v>15209887</v>
+      </c>
+      <c r="B197">
+        <v>15236626</v>
+      </c>
+      <c r="C197">
+        <v>32085</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <v>32</v>
+      </c>
+      <c r="H197">
+        <v>32</v>
+      </c>
+      <c r="I197">
+        <v>10</v>
+      </c>
+      <c r="J197">
+        <v>10</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
+      <c r="A198" t="s">
+        <v>119</v>
+      </c>
+      <c r="B198">
+        <v>15236625</v>
+      </c>
+      <c r="C198">
+        <v>32085</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>32</v>
+      </c>
+      <c r="H198">
+        <v>32</v>
+      </c>
+      <c r="I198">
+        <v>10</v>
+      </c>
+      <c r="J198">
+        <v>10</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198">
         <v>0.01</v>
       </c>
     </row>
@@ -6214,8 +6367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B59324F-8BFA-4D0B-8F1B-AB5C69134BD9}">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8323,12 +8476,12 @@
     </row>
     <row r="63" spans="1:16">
       <c r="B63" s="18" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B64" s="18" t="s">
         <v>69</v>
@@ -8336,7 +8489,7 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B65" s="18">
         <v>20230326170614</v>
@@ -8381,13 +8534,16 @@
         <v>77</v>
       </c>
       <c r="P65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="18">
         <v>20230326170614</v>
       </c>
+      <c r="B66" s="18">
+        <v>20230326172234</v>
+      </c>
       <c r="C66" s="22">
         <v>32255</v>
       </c>
@@ -8427,10 +8583,19 @@
       <c r="O66" t="s">
         <v>77</v>
       </c>
+      <c r="P66" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="67" spans="1:16">
+      <c r="A67" s="18">
+        <v>20230326172234</v>
+      </c>
+      <c r="B67" s="18">
+        <v>20230326222249</v>
+      </c>
       <c r="C67" s="22">
-        <v>32000</v>
+        <v>32254</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -8468,10 +8633,19 @@
       <c r="O67" t="s">
         <v>77</v>
       </c>
+      <c r="P67" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="68" spans="1:16">
+      <c r="A68" s="18">
+        <v>20230326172234</v>
+      </c>
+      <c r="B68" s="18">
+        <v>20230326173418</v>
+      </c>
       <c r="C68" s="22">
-        <v>31900</v>
+        <v>32000</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -8509,10 +8683,19 @@
       <c r="O68" t="s">
         <v>77</v>
       </c>
+      <c r="P68" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="69" spans="1:16">
+      <c r="A69" s="18">
+        <v>20230326173418</v>
+      </c>
+      <c r="B69" s="18">
+        <v>20230326205440</v>
+      </c>
       <c r="C69" s="22">
-        <v>31800</v>
+        <v>31900</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -8542,7 +8725,7 @@
         <v>1E-3</v>
       </c>
       <c r="M69">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N69">
         <v>0.01</v>
@@ -8550,229 +8733,44 @@
       <c r="O69" t="s">
         <v>77</v>
       </c>
+      <c r="P69" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="70" spans="1:16">
-      <c r="C70" s="22">
-        <v>31700</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="s">
-        <v>99</v>
-      </c>
-      <c r="H70">
-        <v>128</v>
-      </c>
-      <c r="I70">
-        <v>10</v>
-      </c>
-      <c r="J70">
-        <v>10</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="M70">
-        <v>10</v>
-      </c>
-      <c r="N70">
-        <v>0.01</v>
-      </c>
-      <c r="O70" t="s">
-        <v>77</v>
-      </c>
+      <c r="A70" s="18"/>
+      <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:16">
-      <c r="C71" s="22">
-        <v>31600</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s">
-        <v>99</v>
-      </c>
-      <c r="H71">
-        <v>128</v>
-      </c>
-      <c r="I71">
-        <v>10</v>
-      </c>
-      <c r="J71">
-        <v>10</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="M71">
-        <v>10</v>
-      </c>
-      <c r="N71">
-        <v>0.01</v>
-      </c>
-      <c r="O71" t="s">
-        <v>77</v>
-      </c>
+      <c r="A71" s="18"/>
+      <c r="L71" s="2"/>
     </row>
     <row r="72" spans="1:16">
-      <c r="C72" s="22">
-        <v>31500</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" t="s">
-        <v>99</v>
-      </c>
-      <c r="H72">
-        <v>128</v>
-      </c>
-      <c r="I72">
-        <v>10</v>
-      </c>
-      <c r="J72">
-        <v>10</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="M72">
-        <v>10</v>
-      </c>
-      <c r="N72">
-        <v>0.01</v>
-      </c>
-      <c r="O72" t="s">
-        <v>77</v>
-      </c>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" t="s">
-        <v>111</v>
-      </c>
-      <c r="B74" s="18" t="s">
+      <c r="L74" s="2"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
-      <c r="A75" t="s">
-        <v>113</v>
-      </c>
-      <c r="C75" s="22">
-        <v>31500</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" t="s">
-        <v>99</v>
-      </c>
-      <c r="H75">
-        <v>128</v>
-      </c>
-      <c r="I75">
-        <v>10</v>
-      </c>
-      <c r="J75">
-        <v>10</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="M75">
-        <v>10</v>
-      </c>
-      <c r="N75">
-        <v>0.01</v>
-      </c>
-      <c r="O75" t="s">
-        <v>77</v>
-      </c>
-      <c r="P75" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
-      <c r="C76" s="22">
-        <v>31600</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" t="s">
-        <v>99</v>
-      </c>
-      <c r="H76">
-        <v>128</v>
-      </c>
-      <c r="I76">
-        <v>10</v>
-      </c>
-      <c r="J76">
-        <v>10</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="M76">
-        <v>10</v>
-      </c>
-      <c r="N76">
-        <v>0.01</v>
-      </c>
-      <c r="O76" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="77" spans="1:16">
+      <c r="A77" s="18">
+        <v>20230326173418</v>
+      </c>
+      <c r="B77" s="18">
+        <v>20230326205440</v>
+      </c>
       <c r="C77" s="22">
-        <v>31700</v>
+        <v>31900</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -8810,10 +8808,19 @@
       <c r="O77" t="s">
         <v>77</v>
       </c>
+      <c r="P77" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="78" spans="1:16">
+      <c r="A78" s="18">
+        <v>20230326205440</v>
+      </c>
+      <c r="B78" s="18">
+        <v>20230326211527</v>
+      </c>
       <c r="C78" s="22">
-        <v>31800</v>
+        <v>32000</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -8851,10 +8858,19 @@
       <c r="O78" t="s">
         <v>77</v>
       </c>
+      <c r="P78" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="79" spans="1:16">
+      <c r="A79" s="18">
+        <v>20230326211527</v>
+      </c>
+      <c r="B79" s="18">
+        <v>20230326213924</v>
+      </c>
       <c r="C79" s="22">
-        <v>31900</v>
+        <v>32254</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -8892,10 +8908,16 @@
       <c r="O79" t="s">
         <v>77</v>
       </c>
+      <c r="P79" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="80" spans="1:16">
+      <c r="A80" s="18">
+        <v>20230326211527</v>
+      </c>
       <c r="C80" s="22">
-        <v>32000</v>
+        <v>32254</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -8925,7 +8947,7 @@
         <v>1E-3</v>
       </c>
       <c r="M80">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="N80">
         <v>0.01</v>
@@ -8933,8 +8955,17 @@
       <c r="O80" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="81" spans="3:15">
+      <c r="P80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="18">
+        <v>20230326213924</v>
+      </c>
+      <c r="B81" s="18">
+        <v>20230326220025</v>
+      </c>
       <c r="C81" s="22">
         <v>32255</v>
       </c>
@@ -8975,7 +9006,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="3:15">
+    <row r="82" spans="1:15">
       <c r="C82" s="22">
         <v>33000</v>
       </c>
@@ -9026,8 +9057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76C9478-386D-445B-8B12-05AF01279C9C}">
   <dimension ref="A3:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="B13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FF71B5-D75F-42D7-84E5-83BFF2F0DBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B720B55F-212F-44B0-A6BF-D6E2FA585C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -795,7 +795,7 @@
   <dimension ref="A1:Q198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6222,7 +6222,7 @@
     </row>
     <row r="193" spans="1:14">
       <c r="B193">
-        <v>15236625</v>
+        <v>15236642</v>
       </c>
       <c r="C193">
         <v>40000</v>
@@ -6274,7 +6274,7 @@
         <v>15209887</v>
       </c>
       <c r="B197">
-        <v>15236626</v>
+        <v>15236643</v>
       </c>
       <c r="C197">
         <v>32085</v>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B720B55F-212F-44B0-A6BF-D6E2FA585C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDCFF3E-080D-4921-B73D-09E7D3C59776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,7 +794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
@@ -6220,44 +6220,44 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
-      <c r="B193">
+    <row r="193" spans="1:14" s="16" customFormat="1">
+      <c r="B193" s="16">
         <v>15236642</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="16">
         <v>40000</v>
       </c>
-      <c r="D193">
-        <v>1</v>
-      </c>
-      <c r="E193" t="s">
-        <v>13</v>
-      </c>
-      <c r="F193">
-        <v>1</v>
-      </c>
-      <c r="G193">
+      <c r="D193" s="16">
+        <v>1</v>
+      </c>
+      <c r="E193" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" s="16">
+        <v>1</v>
+      </c>
+      <c r="G193" s="16">
         <v>32</v>
       </c>
-      <c r="H193">
+      <c r="H193" s="16">
         <v>32</v>
       </c>
-      <c r="I193">
-        <v>10</v>
-      </c>
-      <c r="J193">
-        <v>10</v>
-      </c>
-      <c r="K193">
-        <v>0</v>
-      </c>
-      <c r="L193" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="M193">
-        <v>1</v>
-      </c>
-      <c r="N193">
+      <c r="I193" s="16">
+        <v>10</v>
+      </c>
+      <c r="J193" s="16">
+        <v>10</v>
+      </c>
+      <c r="K193" s="16">
+        <v>0</v>
+      </c>
+      <c r="L193" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="M193" s="16">
+        <v>1</v>
+      </c>
+      <c r="N193" s="16">
         <v>0.01</v>
       </c>
     </row>
@@ -6269,91 +6269,91 @@
         <v>116</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
-      <c r="A197">
+    <row r="197" spans="1:14" s="16" customFormat="1">
+      <c r="A197" s="16">
         <v>15209887</v>
       </c>
-      <c r="B197">
-        <v>15236643</v>
-      </c>
-      <c r="C197">
+      <c r="B197" s="16">
+        <v>15236651</v>
+      </c>
+      <c r="C197" s="16">
         <v>32085</v>
       </c>
-      <c r="D197">
-        <v>1</v>
-      </c>
-      <c r="E197" t="s">
-        <v>13</v>
-      </c>
-      <c r="F197">
-        <v>1</v>
-      </c>
-      <c r="G197">
+      <c r="D197" s="16">
+        <v>1</v>
+      </c>
+      <c r="E197" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197" s="16">
+        <v>1</v>
+      </c>
+      <c r="G197" s="16">
         <v>32</v>
       </c>
-      <c r="H197">
+      <c r="H197" s="16">
         <v>32</v>
       </c>
-      <c r="I197">
-        <v>10</v>
-      </c>
-      <c r="J197">
-        <v>10</v>
-      </c>
-      <c r="K197">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="M197">
-        <v>1</v>
-      </c>
-      <c r="N197">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14">
-      <c r="A198" t="s">
+      <c r="I197" s="16">
+        <v>10</v>
+      </c>
+      <c r="J197" s="16">
+        <v>10</v>
+      </c>
+      <c r="K197" s="16">
+        <v>0</v>
+      </c>
+      <c r="L197" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="M197" s="16">
+        <v>1</v>
+      </c>
+      <c r="N197" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" s="16" customFormat="1">
+      <c r="A198" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="16">
         <v>15236625</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="16">
         <v>32085</v>
       </c>
-      <c r="D198">
-        <v>1</v>
-      </c>
-      <c r="E198" t="s">
-        <v>13</v>
-      </c>
-      <c r="F198">
-        <v>1</v>
-      </c>
-      <c r="G198">
+      <c r="D198" s="16">
+        <v>1</v>
+      </c>
+      <c r="E198" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" s="16">
+        <v>1</v>
+      </c>
+      <c r="G198" s="16">
         <v>32</v>
       </c>
-      <c r="H198">
+      <c r="H198" s="16">
         <v>32</v>
       </c>
-      <c r="I198">
-        <v>10</v>
-      </c>
-      <c r="J198">
-        <v>10</v>
-      </c>
-      <c r="K198">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="M198">
-        <v>1</v>
-      </c>
-      <c r="N198">
+      <c r="I198" s="16">
+        <v>10</v>
+      </c>
+      <c r="J198" s="16">
+        <v>10</v>
+      </c>
+      <c r="K198" s="16">
+        <v>0</v>
+      </c>
+      <c r="L198" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="M198" s="16">
+        <v>1</v>
+      </c>
+      <c r="N198" s="16">
         <v>0.01</v>
       </c>
     </row>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDCFF3E-080D-4921-B73D-09E7D3C59776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9806F973-3DDB-442B-A1D4-56390B28FF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBC flux" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="121">
   <si>
     <t>slurm_num</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>noise</t>
+  </si>
+  <si>
+    <t>Hopf oscillation, then transition to direction reversing oscillation</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -512,6 +515,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+    <sheetView topLeftCell="A187" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6365,10 +6371,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B59324F-8BFA-4D0B-8F1B-AB5C69134BD9}">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8916,6 +8922,9 @@
       <c r="A80" s="18">
         <v>20230326211527</v>
       </c>
+      <c r="B80" s="18">
+        <v>20230326225026</v>
+      </c>
       <c r="C80" s="22">
         <v>32254</v>
       </c>
@@ -8959,7 +8968,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:16">
       <c r="A81" s="18">
         <v>20230326213924</v>
       </c>
@@ -9005,46 +9014,312 @@
       <c r="O81" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="82" spans="1:15">
-      <c r="C82" s="22">
+      <c r="P81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="18"/>
+      <c r="C82" s="24">
+        <v>32257</v>
+      </c>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:16" s="6" customFormat="1">
+      <c r="A83" s="25">
+        <v>20230326220025</v>
+      </c>
+      <c r="B83" s="23"/>
+      <c r="C83" s="24">
+        <v>32260</v>
+      </c>
+      <c r="L83" s="12"/>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="18">
+        <v>20230326220025</v>
+      </c>
+      <c r="B84" s="18">
+        <v>20230327135928</v>
+      </c>
+      <c r="C84" s="22">
+        <v>32300</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>99</v>
+      </c>
+      <c r="H84">
+        <v>128</v>
+      </c>
+      <c r="I84">
+        <v>10</v>
+      </c>
+      <c r="J84">
+        <v>10</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M84">
+        <v>10</v>
+      </c>
+      <c r="N84">
+        <v>0.01</v>
+      </c>
+      <c r="O84" t="s">
+        <v>77</v>
+      </c>
+      <c r="P84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="18">
+        <v>20230326220025</v>
+      </c>
+      <c r="B85" s="18">
+        <v>20230327144450</v>
+      </c>
+      <c r="C85" s="22">
+        <v>32300</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>99</v>
+      </c>
+      <c r="H85">
+        <v>128</v>
+      </c>
+      <c r="I85">
+        <v>10</v>
+      </c>
+      <c r="J85">
+        <v>10</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M85">
+        <v>300</v>
+      </c>
+      <c r="N85">
+        <v>0.01</v>
+      </c>
+      <c r="O85" t="s">
+        <v>77</v>
+      </c>
+      <c r="P85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="18">
+        <v>20230327135928</v>
+      </c>
+      <c r="C86" s="22">
+        <v>32400</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>99</v>
+      </c>
+      <c r="H86">
+        <v>128</v>
+      </c>
+      <c r="I86">
+        <v>10</v>
+      </c>
+      <c r="J86">
+        <v>10</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M86">
+        <v>10</v>
+      </c>
+      <c r="N86">
+        <v>0.01</v>
+      </c>
+      <c r="O86" t="s">
+        <v>77</v>
+      </c>
+      <c r="P86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="18"/>
+      <c r="C87" s="22">
+        <v>32600</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>99</v>
+      </c>
+      <c r="H87">
+        <v>128</v>
+      </c>
+      <c r="I87">
+        <v>10</v>
+      </c>
+      <c r="J87">
+        <v>10</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M87">
+        <v>10</v>
+      </c>
+      <c r="N87">
+        <v>0.01</v>
+      </c>
+      <c r="O87" t="s">
+        <v>77</v>
+      </c>
+      <c r="P87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="18"/>
+      <c r="C88" s="22">
+        <v>32800</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>99</v>
+      </c>
+      <c r="H88">
+        <v>128</v>
+      </c>
+      <c r="I88">
+        <v>10</v>
+      </c>
+      <c r="J88">
+        <v>10</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M88">
+        <v>10</v>
+      </c>
+      <c r="N88">
+        <v>0.01</v>
+      </c>
+      <c r="O88" t="s">
+        <v>77</v>
+      </c>
+      <c r="P88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="18">
+        <v>20230326220025</v>
+      </c>
+      <c r="B89" s="18">
+        <v>20230327135202</v>
+      </c>
+      <c r="C89" s="22">
         <v>33000</v>
       </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
         <v>99</v>
       </c>
-      <c r="H82">
-        <v>128</v>
-      </c>
-      <c r="I82">
-        <v>10</v>
-      </c>
-      <c r="J82">
-        <v>10</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="M82">
-        <v>10</v>
-      </c>
-      <c r="N82">
-        <v>0.01</v>
-      </c>
-      <c r="O82" t="s">
+      <c r="H89">
+        <v>128</v>
+      </c>
+      <c r="I89">
+        <v>10</v>
+      </c>
+      <c r="J89">
+        <v>10</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M89">
+        <v>10</v>
+      </c>
+      <c r="N89">
+        <v>0.01</v>
+      </c>
+      <c r="O89" t="s">
         <v>77</v>
+      </c>
+      <c r="P89" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -9058,7 +9333,7 @@
   <dimension ref="A3:N25"/>
   <sheetViews>
     <sheetView topLeftCell="B13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:M17"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9806F973-3DDB-442B-A1D4-56390B28FF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0295D2D4-CBF1-4A25-9B6A-22530D430DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBC flux" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="135">
   <si>
     <t>slurm_num</t>
   </si>
@@ -404,6 +404,48 @@
   <si>
     <t>Hopf oscillation, then transition to direction reversing oscillation</t>
   </si>
+  <si>
+    <t>hyteresis in blanca</t>
+  </si>
+  <si>
+    <t>Flow structures</t>
+  </si>
+  <si>
+    <t>Nu</t>
+  </si>
+  <si>
+    <t>Hopf oscillation then unstable</t>
+  </si>
+  <si>
+    <t>direction reversing</t>
+  </si>
+  <si>
+    <t>RaTq</t>
+  </si>
+  <si>
+    <t>needs to run longer</t>
+  </si>
+  <si>
+    <t>Veryfy Hyteresis, larger resolution</t>
+  </si>
+  <si>
+    <t>flow structure</t>
+  </si>
+  <si>
+    <t>elevator mode</t>
+  </si>
+  <si>
+    <t>###Below are wrong stuff!!!!!, the 15241058 case show wrong Rayleigh number</t>
+  </si>
+  <si>
+    <t>Update the case 32300, 2023/03/29</t>
+  </si>
+  <si>
+    <t>run longer</t>
+  </si>
+  <si>
+    <t>Longer time to check the Nusselt number</t>
+  </si>
 </sst>
 </file>
 
@@ -459,7 +501,7 @@
       <name val="Unset"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,6 +520,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -491,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -518,6 +566,8 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q198"/>
+  <dimension ref="A1:Q254"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C198" sqref="C198"/>
+    <sheetView tabSelected="1" topLeftCell="A227" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5933,7 +5983,7 @@
         <v>1E-3</v>
       </c>
       <c r="M185">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N185">
         <v>0.01</v>
@@ -5974,7 +6024,7 @@
         <v>1E-3</v>
       </c>
       <c r="M186">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N186">
         <v>0.01</v>
@@ -6015,7 +6065,7 @@
         <v>1E-3</v>
       </c>
       <c r="M187">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N187">
         <v>0.01</v>
@@ -6056,7 +6106,7 @@
         <v>1E-3</v>
       </c>
       <c r="M188">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N188">
         <v>0.01</v>
@@ -6097,7 +6147,7 @@
         <v>1E-3</v>
       </c>
       <c r="M189">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N189">
         <v>0.01</v>
@@ -6138,7 +6188,7 @@
         <v>1E-3</v>
       </c>
       <c r="M190">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N190">
         <v>0.01</v>
@@ -6179,7 +6229,7 @@
         <v>1E-3</v>
       </c>
       <c r="M191">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N191">
         <v>0.01</v>
@@ -6220,13 +6270,13 @@
         <v>1E-3</v>
       </c>
       <c r="M192">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N192">
         <v>0.01</v>
       </c>
     </row>
-    <row r="193" spans="1:14" s="16" customFormat="1">
+    <row r="193" spans="1:17" s="16" customFormat="1">
       <c r="B193" s="16">
         <v>15236642</v>
       </c>
@@ -6261,13 +6311,13 @@
         <v>1E-3</v>
       </c>
       <c r="M193" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N193" s="16">
         <v>0.01</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:17">
       <c r="A195" t="s">
         <v>118</v>
       </c>
@@ -6275,51 +6325,51 @@
         <v>116</v>
       </c>
     </row>
-    <row r="197" spans="1:14" s="16" customFormat="1">
-      <c r="A197" s="16">
+    <row r="197" spans="1:17" s="26" customFormat="1">
+      <c r="A197" s="26">
         <v>15209887</v>
       </c>
-      <c r="B197" s="16">
+      <c r="B197" s="26">
         <v>15236651</v>
       </c>
-      <c r="C197" s="16">
+      <c r="C197" s="26">
         <v>32085</v>
       </c>
-      <c r="D197" s="16">
-        <v>1</v>
-      </c>
-      <c r="E197" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F197" s="16">
-        <v>1</v>
-      </c>
-      <c r="G197" s="16">
+      <c r="D197" s="26">
+        <v>1</v>
+      </c>
+      <c r="E197" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197" s="26">
+        <v>1</v>
+      </c>
+      <c r="G197" s="26">
         <v>32</v>
       </c>
-      <c r="H197" s="16">
+      <c r="H197" s="26">
         <v>32</v>
       </c>
-      <c r="I197" s="16">
-        <v>10</v>
-      </c>
-      <c r="J197" s="16">
-        <v>10</v>
-      </c>
-      <c r="K197" s="16">
-        <v>0</v>
-      </c>
-      <c r="L197" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="M197" s="16">
-        <v>1</v>
-      </c>
-      <c r="N197" s="16">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14" s="16" customFormat="1">
+      <c r="I197" s="26">
+        <v>10</v>
+      </c>
+      <c r="J197" s="26">
+        <v>10</v>
+      </c>
+      <c r="K197" s="26">
+        <v>0</v>
+      </c>
+      <c r="L197" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="M197" s="26">
+        <v>10</v>
+      </c>
+      <c r="N197" s="26">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" s="16" customFormat="1">
       <c r="A198" s="16" t="s">
         <v>119</v>
       </c>
@@ -6357,10 +6407,2308 @@
         <v>1E-3</v>
       </c>
       <c r="M198" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N198" s="16">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17">
+      <c r="A200" t="s">
+        <v>116</v>
+      </c>
+      <c r="O200" t="s">
+        <v>122</v>
+      </c>
+      <c r="P200" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17">
+      <c r="A201">
+        <v>15209887</v>
+      </c>
+      <c r="B201">
+        <v>15243701</v>
+      </c>
+      <c r="C201">
+        <v>31000</v>
+      </c>
+      <c r="D201" s="8">
+        <v>1</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201" s="8">
+        <v>1</v>
+      </c>
+      <c r="G201" s="8">
+        <v>32</v>
+      </c>
+      <c r="H201" s="8">
+        <v>32</v>
+      </c>
+      <c r="I201" s="8">
+        <v>10</v>
+      </c>
+      <c r="J201" s="8">
+        <v>10</v>
+      </c>
+      <c r="K201" s="8">
+        <v>0</v>
+      </c>
+      <c r="L201" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M201" s="8">
+        <v>10</v>
+      </c>
+      <c r="N201" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O201" t="s">
+        <v>21</v>
+      </c>
+      <c r="P201" s="8">
+        <v>1.5567024</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17">
+      <c r="A202">
+        <v>15209887</v>
+      </c>
+      <c r="B202">
+        <v>15243704</v>
+      </c>
+      <c r="C202">
+        <v>31500</v>
+      </c>
+      <c r="D202" s="8">
+        <v>1</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F202" s="8">
+        <v>1</v>
+      </c>
+      <c r="G202" s="8">
+        <v>32</v>
+      </c>
+      <c r="H202" s="8">
+        <v>32</v>
+      </c>
+      <c r="I202" s="8">
+        <v>10</v>
+      </c>
+      <c r="J202" s="8">
+        <v>10</v>
+      </c>
+      <c r="K202" s="8">
+        <v>0</v>
+      </c>
+      <c r="L202" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M202" s="8">
+        <v>10</v>
+      </c>
+      <c r="N202" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O202" t="s">
+        <v>21</v>
+      </c>
+      <c r="P202">
+        <v>1.5451401918054699</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17">
+      <c r="A203">
+        <v>15209887</v>
+      </c>
+      <c r="B203">
+        <v>15243718</v>
+      </c>
+      <c r="C203">
+        <v>31950</v>
+      </c>
+      <c r="D203" s="8">
+        <v>1</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F203" s="8">
+        <v>1</v>
+      </c>
+      <c r="G203" s="8">
+        <v>32</v>
+      </c>
+      <c r="H203" s="8">
+        <v>32</v>
+      </c>
+      <c r="I203" s="8">
+        <v>10</v>
+      </c>
+      <c r="J203" s="8">
+        <v>10</v>
+      </c>
+      <c r="K203" s="8">
+        <v>0</v>
+      </c>
+      <c r="L203" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M203" s="8">
+        <v>10</v>
+      </c>
+      <c r="N203" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O203" t="s">
+        <v>21</v>
+      </c>
+      <c r="P203">
+        <v>1.53501396193117</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17">
+      <c r="A204">
+        <v>15209887</v>
+      </c>
+      <c r="B204">
+        <v>15243757</v>
+      </c>
+      <c r="C204">
+        <v>32000</v>
+      </c>
+      <c r="D204" s="8">
+        <v>1</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F204" s="8">
+        <v>1</v>
+      </c>
+      <c r="G204" s="8">
+        <v>32</v>
+      </c>
+      <c r="H204" s="8">
+        <v>32</v>
+      </c>
+      <c r="I204" s="8">
+        <v>10</v>
+      </c>
+      <c r="J204" s="8">
+        <v>10</v>
+      </c>
+      <c r="K204" s="8">
+        <v>0</v>
+      </c>
+      <c r="L204" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M204" s="8">
+        <v>10</v>
+      </c>
+      <c r="N204" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O204" t="s">
+        <v>21</v>
+      </c>
+      <c r="P204">
+        <v>1.53408466435765</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17">
+      <c r="A205">
+        <v>15209887</v>
+      </c>
+      <c r="B205">
+        <v>15243771</v>
+      </c>
+      <c r="C205">
+        <v>32050</v>
+      </c>
+      <c r="D205" s="8">
+        <v>1</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F205" s="8">
+        <v>1</v>
+      </c>
+      <c r="G205" s="8">
+        <v>32</v>
+      </c>
+      <c r="H205" s="8">
+        <v>32</v>
+      </c>
+      <c r="I205" s="8">
+        <v>10</v>
+      </c>
+      <c r="J205" s="8">
+        <v>10</v>
+      </c>
+      <c r="K205" s="8">
+        <v>0</v>
+      </c>
+      <c r="L205" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M205" s="8">
+        <v>10</v>
+      </c>
+      <c r="N205" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O205" t="s">
+        <v>21</v>
+      </c>
+      <c r="P205">
+        <v>1.5335505474942299</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17">
+      <c r="A206">
+        <v>15209887</v>
+      </c>
+      <c r="B206">
+        <v>15243776</v>
+      </c>
+      <c r="C206">
+        <v>32100</v>
+      </c>
+      <c r="D206" s="8">
+        <v>1</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F206" s="8">
+        <v>1</v>
+      </c>
+      <c r="G206" s="8">
+        <v>32</v>
+      </c>
+      <c r="H206" s="8">
+        <v>32</v>
+      </c>
+      <c r="I206" s="8">
+        <v>10</v>
+      </c>
+      <c r="J206" s="8">
+        <v>10</v>
+      </c>
+      <c r="K206" s="8">
+        <v>0</v>
+      </c>
+      <c r="L206" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M206" s="8">
+        <v>10</v>
+      </c>
+      <c r="N206" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O206" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17">
+      <c r="A207">
+        <v>15209887</v>
+      </c>
+      <c r="B207">
+        <v>15243778</v>
+      </c>
+      <c r="C207">
+        <v>32150</v>
+      </c>
+      <c r="D207" s="8">
+        <v>1</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F207" s="8">
+        <v>1</v>
+      </c>
+      <c r="G207" s="8">
+        <v>32</v>
+      </c>
+      <c r="H207" s="8">
+        <v>32</v>
+      </c>
+      <c r="I207" s="8">
+        <v>10</v>
+      </c>
+      <c r="J207" s="8">
+        <v>10</v>
+      </c>
+      <c r="K207" s="8">
+        <v>0</v>
+      </c>
+      <c r="L207" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M207" s="8">
+        <v>10</v>
+      </c>
+      <c r="N207" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O207" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" s="8" customFormat="1">
+      <c r="A210" s="8">
+        <v>15236642</v>
+      </c>
+      <c r="B210">
+        <v>15243781</v>
+      </c>
+      <c r="C210" s="8">
+        <v>32150</v>
+      </c>
+      <c r="D210" s="8">
+        <v>1</v>
+      </c>
+      <c r="E210" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F210" s="8">
+        <v>1</v>
+      </c>
+      <c r="G210" s="8">
+        <v>32</v>
+      </c>
+      <c r="H210" s="8">
+        <v>32</v>
+      </c>
+      <c r="I210" s="8">
+        <v>10</v>
+      </c>
+      <c r="J210" s="8">
+        <v>10</v>
+      </c>
+      <c r="K210" s="8">
+        <v>0</v>
+      </c>
+      <c r="L210" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M210" s="8">
+        <v>10</v>
+      </c>
+      <c r="N210" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O210" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17">
+      <c r="A211" s="8">
+        <v>15236642</v>
+      </c>
+      <c r="B211">
+        <v>15243790</v>
+      </c>
+      <c r="C211">
+        <v>32100</v>
+      </c>
+      <c r="D211" s="8">
+        <v>1</v>
+      </c>
+      <c r="E211" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F211" s="8">
+        <v>1</v>
+      </c>
+      <c r="G211" s="8">
+        <v>32</v>
+      </c>
+      <c r="H211" s="8">
+        <v>32</v>
+      </c>
+      <c r="I211" s="8">
+        <v>10</v>
+      </c>
+      <c r="J211" s="8">
+        <v>10</v>
+      </c>
+      <c r="K211" s="8">
+        <v>0</v>
+      </c>
+      <c r="L211" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M211" s="8">
+        <v>10</v>
+      </c>
+      <c r="N211" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O211" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17">
+      <c r="A212" s="8">
+        <v>15236642</v>
+      </c>
+      <c r="B212">
+        <v>15243799</v>
+      </c>
+      <c r="C212">
+        <v>32050</v>
+      </c>
+      <c r="D212" s="8">
+        <v>1</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F212" s="8">
+        <v>1</v>
+      </c>
+      <c r="G212" s="8">
+        <v>32</v>
+      </c>
+      <c r="H212" s="8">
+        <v>32</v>
+      </c>
+      <c r="I212" s="8">
+        <v>10</v>
+      </c>
+      <c r="J212" s="8">
+        <v>10</v>
+      </c>
+      <c r="K212" s="8">
+        <v>0</v>
+      </c>
+      <c r="L212" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M212" s="8">
+        <v>10</v>
+      </c>
+      <c r="N212" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O212" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17">
+      <c r="A213" s="8">
+        <v>15236642</v>
+      </c>
+      <c r="B213">
+        <v>15243818</v>
+      </c>
+      <c r="C213">
+        <v>32000</v>
+      </c>
+      <c r="D213" s="8">
+        <v>1</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F213" s="8">
+        <v>1</v>
+      </c>
+      <c r="G213" s="8">
+        <v>32</v>
+      </c>
+      <c r="H213" s="8">
+        <v>32</v>
+      </c>
+      <c r="I213" s="8">
+        <v>10</v>
+      </c>
+      <c r="J213" s="8">
+        <v>10</v>
+      </c>
+      <c r="K213" s="8">
+        <v>0</v>
+      </c>
+      <c r="L213" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M213" s="8">
+        <v>10</v>
+      </c>
+      <c r="N213" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O213" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17">
+      <c r="A214" s="8">
+        <v>15236642</v>
+      </c>
+      <c r="B214">
+        <v>15243854</v>
+      </c>
+      <c r="C214">
+        <v>31950</v>
+      </c>
+      <c r="D214" s="8">
+        <v>1</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F214" s="8">
+        <v>1</v>
+      </c>
+      <c r="G214" s="8">
+        <v>32</v>
+      </c>
+      <c r="H214" s="8">
+        <v>32</v>
+      </c>
+      <c r="I214" s="8">
+        <v>10</v>
+      </c>
+      <c r="J214" s="8">
+        <v>10</v>
+      </c>
+      <c r="K214" s="8">
+        <v>0</v>
+      </c>
+      <c r="L214" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M214" s="8">
+        <v>10</v>
+      </c>
+      <c r="N214" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O214" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17">
+      <c r="A215" s="8">
+        <v>15236642</v>
+      </c>
+      <c r="B215">
+        <v>15243857</v>
+      </c>
+      <c r="C215">
+        <v>31500</v>
+      </c>
+      <c r="D215" s="8">
+        <v>1</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F215" s="8">
+        <v>1</v>
+      </c>
+      <c r="G215" s="8">
+        <v>32</v>
+      </c>
+      <c r="H215" s="8">
+        <v>32</v>
+      </c>
+      <c r="I215" s="8">
+        <v>10</v>
+      </c>
+      <c r="J215" s="8">
+        <v>10</v>
+      </c>
+      <c r="K215" s="8">
+        <v>0</v>
+      </c>
+      <c r="L215" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M215" s="8">
+        <v>10</v>
+      </c>
+      <c r="N215" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O215" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17">
+      <c r="A216" s="8">
+        <v>15236642</v>
+      </c>
+      <c r="B216">
+        <v>15243865</v>
+      </c>
+      <c r="C216">
+        <v>31000</v>
+      </c>
+      <c r="D216" s="8">
+        <v>1</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F216" s="8">
+        <v>1</v>
+      </c>
+      <c r="G216" s="8">
+        <v>32</v>
+      </c>
+      <c r="H216" s="8">
+        <v>32</v>
+      </c>
+      <c r="I216" s="8">
+        <v>10</v>
+      </c>
+      <c r="J216" s="8">
+        <v>10</v>
+      </c>
+      <c r="K216" s="8">
+        <v>0</v>
+      </c>
+      <c r="L216" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M216" s="8">
+        <v>10</v>
+      </c>
+      <c r="N216" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O216" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17">
+      <c r="A218" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17">
+      <c r="O219" t="s">
+        <v>129</v>
+      </c>
+      <c r="P219" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17">
+      <c r="A220" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B220">
+        <v>15245786</v>
+      </c>
+      <c r="C220">
+        <v>31800</v>
+      </c>
+      <c r="D220" s="8">
+        <v>1</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F220" s="8">
+        <v>1</v>
+      </c>
+      <c r="G220" s="8">
+        <v>128</v>
+      </c>
+      <c r="H220" s="8">
+        <v>128</v>
+      </c>
+      <c r="I220" s="8">
+        <v>10</v>
+      </c>
+      <c r="J220" s="8">
+        <v>10</v>
+      </c>
+      <c r="K220" s="8">
+        <v>0</v>
+      </c>
+      <c r="L220" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M220" s="8">
+        <v>10</v>
+      </c>
+      <c r="N220" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O220" t="s">
+        <v>21</v>
+      </c>
+      <c r="P220" s="8">
+        <v>1.5383</v>
+      </c>
+      <c r="Q220">
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17">
+      <c r="A221">
+        <v>15245786</v>
+      </c>
+      <c r="B221">
+        <v>15247389</v>
+      </c>
+      <c r="C221">
+        <v>31850</v>
+      </c>
+      <c r="D221" s="8">
+        <v>1</v>
+      </c>
+      <c r="E221" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F221" s="8">
+        <v>1</v>
+      </c>
+      <c r="G221" s="8">
+        <v>128</v>
+      </c>
+      <c r="H221" s="8">
+        <v>128</v>
+      </c>
+      <c r="I221" s="8">
+        <v>10</v>
+      </c>
+      <c r="J221" s="8">
+        <v>10</v>
+      </c>
+      <c r="K221" s="8">
+        <v>0</v>
+      </c>
+      <c r="L221" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M221" s="8">
+        <v>10</v>
+      </c>
+      <c r="N221" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O221" t="s">
+        <v>21</v>
+      </c>
+      <c r="P221" s="8">
+        <v>1.5371999999999999</v>
+      </c>
+      <c r="Q221">
+        <v>31850</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17">
+      <c r="A222">
+        <v>15245786</v>
+      </c>
+      <c r="B222">
+        <v>15247390</v>
+      </c>
+      <c r="C222">
+        <v>31900</v>
+      </c>
+      <c r="D222" s="8">
+        <v>1</v>
+      </c>
+      <c r="E222" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F222" s="8">
+        <v>1</v>
+      </c>
+      <c r="G222" s="8">
+        <v>128</v>
+      </c>
+      <c r="H222" s="8">
+        <v>128</v>
+      </c>
+      <c r="I222" s="8">
+        <v>10</v>
+      </c>
+      <c r="J222" s="8">
+        <v>10</v>
+      </c>
+      <c r="K222" s="8">
+        <v>0</v>
+      </c>
+      <c r="L222" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M222" s="8">
+        <v>10</v>
+      </c>
+      <c r="N222" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O222" t="s">
+        <v>21</v>
+      </c>
+      <c r="P222" s="8">
+        <v>1.536</v>
+      </c>
+      <c r="Q222">
+        <v>31900</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17">
+      <c r="A223">
+        <v>15245786</v>
+      </c>
+      <c r="B223">
+        <v>15247396</v>
+      </c>
+      <c r="C223">
+        <v>31950</v>
+      </c>
+      <c r="D223" s="8">
+        <v>1</v>
+      </c>
+      <c r="E223" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F223" s="8">
+        <v>1</v>
+      </c>
+      <c r="G223" s="8">
+        <v>128</v>
+      </c>
+      <c r="H223" s="8">
+        <v>128</v>
+      </c>
+      <c r="I223" s="8">
+        <v>10</v>
+      </c>
+      <c r="J223" s="8">
+        <v>10</v>
+      </c>
+      <c r="K223" s="8">
+        <v>0</v>
+      </c>
+      <c r="L223" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M223" s="8">
+        <v>30</v>
+      </c>
+      <c r="N223" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O223" t="s">
+        <v>21</v>
+      </c>
+      <c r="P223" s="8">
+        <v>1.5348999999999999</v>
+      </c>
+      <c r="Q223">
+        <v>31950</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17">
+      <c r="A224">
+        <v>15245786</v>
+      </c>
+      <c r="B224">
+        <v>15247401</v>
+      </c>
+      <c r="C224">
+        <v>32000</v>
+      </c>
+      <c r="D224" s="8">
+        <v>1</v>
+      </c>
+      <c r="E224" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F224" s="8">
+        <v>1</v>
+      </c>
+      <c r="G224" s="8">
+        <v>128</v>
+      </c>
+      <c r="H224" s="8">
+        <v>128</v>
+      </c>
+      <c r="I224" s="8">
+        <v>10</v>
+      </c>
+      <c r="J224" s="8">
+        <v>10</v>
+      </c>
+      <c r="K224" s="8">
+        <v>0</v>
+      </c>
+      <c r="L224" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M224" s="8">
+        <v>10</v>
+      </c>
+      <c r="N224" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O224" t="s">
+        <v>21</v>
+      </c>
+      <c r="P224" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q224">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" s="8" customFormat="1">
+      <c r="A225" s="8">
+        <v>15245786</v>
+      </c>
+      <c r="B225" s="8">
+        <v>15247698</v>
+      </c>
+      <c r="C225" s="8">
+        <v>32000</v>
+      </c>
+      <c r="D225" s="8">
+        <v>1</v>
+      </c>
+      <c r="E225" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F225" s="8">
+        <v>1</v>
+      </c>
+      <c r="G225" s="8">
+        <v>128</v>
+      </c>
+      <c r="H225" s="8">
+        <v>128</v>
+      </c>
+      <c r="I225" s="8">
+        <v>10</v>
+      </c>
+      <c r="J225" s="8">
+        <v>10</v>
+      </c>
+      <c r="K225" s="8">
+        <v>0</v>
+      </c>
+      <c r="L225" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M225" s="8">
+        <v>50</v>
+      </c>
+      <c r="N225" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O225" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P225" s="8">
+        <v>1.5338350000000001</v>
+      </c>
+      <c r="Q225" s="8">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17">
+      <c r="A226">
+        <v>15245786</v>
+      </c>
+      <c r="B226">
+        <v>15247411</v>
+      </c>
+      <c r="C226">
+        <v>32050</v>
+      </c>
+      <c r="D226" s="8">
+        <v>1</v>
+      </c>
+      <c r="E226" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F226" s="8">
+        <v>1</v>
+      </c>
+      <c r="G226" s="8">
+        <v>128</v>
+      </c>
+      <c r="H226" s="8">
+        <v>128</v>
+      </c>
+      <c r="I226" s="8">
+        <v>10</v>
+      </c>
+      <c r="J226" s="8">
+        <v>10</v>
+      </c>
+      <c r="K226" s="8">
+        <v>0</v>
+      </c>
+      <c r="L226" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M226" s="8">
+        <v>10</v>
+      </c>
+      <c r="N226" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O226" t="s">
+        <v>21</v>
+      </c>
+      <c r="P226" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q226">
+        <v>32050</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" s="8" customFormat="1">
+      <c r="A227" s="8">
+        <v>15245786</v>
+      </c>
+      <c r="B227" s="8">
+        <v>15247699</v>
+      </c>
+      <c r="C227" s="8">
+        <v>32050</v>
+      </c>
+      <c r="D227" s="8">
+        <v>1</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F227" s="8">
+        <v>1</v>
+      </c>
+      <c r="G227" s="8">
+        <v>128</v>
+      </c>
+      <c r="H227" s="8">
+        <v>128</v>
+      </c>
+      <c r="I227" s="8">
+        <v>10</v>
+      </c>
+      <c r="J227" s="8">
+        <v>10</v>
+      </c>
+      <c r="K227" s="8">
+        <v>0</v>
+      </c>
+      <c r="L227" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M227" s="8">
+        <v>50</v>
+      </c>
+      <c r="N227" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O227" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P227" s="8">
+        <v>1.5327</v>
+      </c>
+      <c r="Q227" s="8">
+        <v>32050</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17">
+      <c r="A228">
+        <v>15245786</v>
+      </c>
+      <c r="B228">
+        <v>15247418</v>
+      </c>
+      <c r="C228">
+        <v>32100</v>
+      </c>
+      <c r="D228" s="8">
+        <v>1</v>
+      </c>
+      <c r="E228" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F228" s="8">
+        <v>1</v>
+      </c>
+      <c r="G228" s="8">
+        <v>128</v>
+      </c>
+      <c r="H228" s="8">
+        <v>128</v>
+      </c>
+      <c r="I228" s="8">
+        <v>10</v>
+      </c>
+      <c r="J228" s="8">
+        <v>10</v>
+      </c>
+      <c r="K228" s="8">
+        <v>0</v>
+      </c>
+      <c r="L228" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M228" s="8">
+        <v>10</v>
+      </c>
+      <c r="N228" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O228" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q228">
+        <v>32100</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" s="8" customFormat="1">
+      <c r="A229" s="8">
+        <v>15245786</v>
+      </c>
+      <c r="B229" s="8">
+        <v>15247702</v>
+      </c>
+      <c r="C229" s="8">
+        <v>32100</v>
+      </c>
+      <c r="D229" s="8">
+        <v>1</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F229" s="8">
+        <v>1</v>
+      </c>
+      <c r="G229" s="8">
+        <v>128</v>
+      </c>
+      <c r="H229" s="8">
+        <v>128</v>
+      </c>
+      <c r="I229" s="8">
+        <v>10</v>
+      </c>
+      <c r="J229" s="8">
+        <v>10</v>
+      </c>
+      <c r="K229" s="8">
+        <v>0</v>
+      </c>
+      <c r="L229" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M229" s="8">
+        <v>50</v>
+      </c>
+      <c r="N229" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O229" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q229" s="8">
+        <v>32100</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" s="8" customFormat="1">
+      <c r="A230" s="8">
+        <v>15247702</v>
+      </c>
+      <c r="B230" s="8">
+        <v>15248846</v>
+      </c>
+      <c r="C230" s="8">
+        <v>32100</v>
+      </c>
+      <c r="D230" s="8">
+        <v>1</v>
+      </c>
+      <c r="E230" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F230" s="8">
+        <v>1</v>
+      </c>
+      <c r="G230" s="8">
+        <v>128</v>
+      </c>
+      <c r="H230" s="8">
+        <v>128</v>
+      </c>
+      <c r="I230" s="8">
+        <v>10</v>
+      </c>
+      <c r="J230" s="8">
+        <v>10</v>
+      </c>
+      <c r="K230" s="8">
+        <v>0</v>
+      </c>
+      <c r="L230" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M230" s="8">
+        <v>50</v>
+      </c>
+      <c r="N230" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O230" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q230" s="8">
+        <v>32100</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" s="8" customFormat="1">
+      <c r="A231" s="8">
+        <v>15247702</v>
+      </c>
+      <c r="B231" s="8">
+        <v>15249573</v>
+      </c>
+      <c r="C231" s="8">
+        <v>32100</v>
+      </c>
+      <c r="D231" s="8">
+        <v>1</v>
+      </c>
+      <c r="E231" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F231" s="8">
+        <v>1</v>
+      </c>
+      <c r="G231" s="8">
+        <v>128</v>
+      </c>
+      <c r="H231" s="8">
+        <v>128</v>
+      </c>
+      <c r="I231" s="8">
+        <v>10</v>
+      </c>
+      <c r="J231" s="8">
+        <v>10</v>
+      </c>
+      <c r="K231" s="8">
+        <v>0</v>
+      </c>
+      <c r="L231" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M231" s="8">
+        <v>90</v>
+      </c>
+      <c r="N231" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O231" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P231" s="8">
+        <v>1.72784250293332</v>
+      </c>
+      <c r="Q231" s="8">
+        <v>32100</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17">
+      <c r="A232">
+        <v>15245786</v>
+      </c>
+      <c r="B232">
+        <v>15247419</v>
+      </c>
+      <c r="C232">
+        <v>32150</v>
+      </c>
+      <c r="D232" s="8">
+        <v>1</v>
+      </c>
+      <c r="E232" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F232" s="8">
+        <v>1</v>
+      </c>
+      <c r="G232" s="8">
+        <v>128</v>
+      </c>
+      <c r="H232" s="8">
+        <v>128</v>
+      </c>
+      <c r="I232" s="8">
+        <v>10</v>
+      </c>
+      <c r="J232" s="8">
+        <v>10</v>
+      </c>
+      <c r="K232" s="8">
+        <v>0</v>
+      </c>
+      <c r="L232" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M232" s="8">
+        <v>10</v>
+      </c>
+      <c r="N232" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="Q232">
+        <v>32150</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" s="8" customFormat="1">
+      <c r="A233" s="8">
+        <v>15245786</v>
+      </c>
+      <c r="B233" s="8">
+        <v>15247717</v>
+      </c>
+      <c r="C233" s="8">
+        <v>32150</v>
+      </c>
+      <c r="D233" s="8">
+        <v>1</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F233" s="8">
+        <v>1</v>
+      </c>
+      <c r="G233" s="8">
+        <v>128</v>
+      </c>
+      <c r="H233" s="8">
+        <v>128</v>
+      </c>
+      <c r="I233" s="8">
+        <v>10</v>
+      </c>
+      <c r="J233" s="8">
+        <v>10</v>
+      </c>
+      <c r="K233" s="8">
+        <v>0</v>
+      </c>
+      <c r="L233" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M233" s="8">
+        <v>50</v>
+      </c>
+      <c r="N233" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O233" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P233" s="8">
+        <v>1.74564391667573</v>
+      </c>
+      <c r="Q233" s="8">
+        <v>32150</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17">
+      <c r="D234" s="8"/>
+      <c r="E234" s="8"/>
+      <c r="F234" s="8"/>
+      <c r="G234" s="8"/>
+      <c r="H234" s="8"/>
+      <c r="I234" s="8"/>
+      <c r="J234" s="8"/>
+      <c r="K234" s="8"/>
+      <c r="L234" s="9"/>
+      <c r="M234" s="8"/>
+      <c r="N234" s="8"/>
+    </row>
+    <row r="235" spans="1:17">
+      <c r="D235" s="8"/>
+      <c r="E235" s="8"/>
+      <c r="F235" s="8"/>
+      <c r="G235" s="8"/>
+      <c r="H235" s="8"/>
+      <c r="I235" s="8"/>
+      <c r="J235" s="8"/>
+      <c r="K235" s="8"/>
+      <c r="L235" s="9"/>
+      <c r="M235" s="8"/>
+      <c r="N235" s="8"/>
+    </row>
+    <row r="236" spans="1:17">
+      <c r="O236" t="s">
+        <v>129</v>
+      </c>
+      <c r="P236" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17">
+      <c r="A237" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B237">
+        <v>15245854</v>
+      </c>
+      <c r="C237">
+        <v>32150</v>
+      </c>
+      <c r="D237" s="8">
+        <v>1</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F237" s="8">
+        <v>1</v>
+      </c>
+      <c r="G237" s="8">
+        <v>128</v>
+      </c>
+      <c r="H237" s="8">
+        <v>128</v>
+      </c>
+      <c r="I237" s="8">
+        <v>10</v>
+      </c>
+      <c r="J237" s="8">
+        <v>10</v>
+      </c>
+      <c r="K237" s="8">
+        <v>0</v>
+      </c>
+      <c r="L237" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M237" s="8">
+        <v>10</v>
+      </c>
+      <c r="N237" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O237" t="s">
+        <v>125</v>
+      </c>
+      <c r="P237" s="8">
+        <v>1.74797053306493</v>
+      </c>
+      <c r="Q237">
+        <v>32150</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17">
+      <c r="A238">
+        <v>15245854</v>
+      </c>
+      <c r="B238">
+        <v>15247183</v>
+      </c>
+      <c r="C238">
+        <v>32100</v>
+      </c>
+      <c r="D238" s="8">
+        <v>1</v>
+      </c>
+      <c r="E238" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F238" s="8">
+        <v>1</v>
+      </c>
+      <c r="G238" s="8">
+        <v>128</v>
+      </c>
+      <c r="H238" s="8">
+        <v>128</v>
+      </c>
+      <c r="I238" s="8">
+        <v>10</v>
+      </c>
+      <c r="J238" s="8">
+        <v>10</v>
+      </c>
+      <c r="K238" s="8">
+        <v>0</v>
+      </c>
+      <c r="L238" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M238" s="8">
+        <v>10</v>
+      </c>
+      <c r="N238" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O238" t="s">
+        <v>125</v>
+      </c>
+      <c r="P238">
+        <v>1.7303166823054199</v>
+      </c>
+      <c r="Q238">
+        <v>32100</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17">
+      <c r="A239">
+        <v>15245854</v>
+      </c>
+      <c r="B239">
+        <v>15247191</v>
+      </c>
+      <c r="C239">
+        <v>32050</v>
+      </c>
+      <c r="D239" s="8">
+        <v>1</v>
+      </c>
+      <c r="E239" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F239" s="8">
+        <v>1</v>
+      </c>
+      <c r="G239" s="8">
+        <v>128</v>
+      </c>
+      <c r="H239" s="8">
+        <v>128</v>
+      </c>
+      <c r="I239" s="8">
+        <v>10</v>
+      </c>
+      <c r="J239" s="8">
+        <v>10</v>
+      </c>
+      <c r="K239" s="8">
+        <v>0</v>
+      </c>
+      <c r="L239" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M239" s="8">
+        <v>10</v>
+      </c>
+      <c r="N239" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O239" t="s">
+        <v>125</v>
+      </c>
+      <c r="P239">
+        <v>1.71437137264868</v>
+      </c>
+      <c r="Q239">
+        <v>32050</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" s="8" customFormat="1">
+      <c r="A240" s="8">
+        <v>15245854</v>
+      </c>
+      <c r="B240" s="8">
+        <v>15247196</v>
+      </c>
+      <c r="C240" s="8">
+        <v>32000</v>
+      </c>
+      <c r="D240" s="8">
+        <v>1</v>
+      </c>
+      <c r="E240" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F240" s="8">
+        <v>1</v>
+      </c>
+      <c r="G240" s="8">
+        <v>128</v>
+      </c>
+      <c r="H240" s="8">
+        <v>128</v>
+      </c>
+      <c r="I240" s="8">
+        <v>10</v>
+      </c>
+      <c r="J240" s="8">
+        <v>10</v>
+      </c>
+      <c r="K240" s="8">
+        <v>0</v>
+      </c>
+      <c r="L240" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M240" s="8">
+        <v>10</v>
+      </c>
+      <c r="N240" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O240" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P240" s="8">
+        <v>1.68516939226083</v>
+      </c>
+      <c r="Q240" s="8">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" s="8" customFormat="1">
+      <c r="A241" s="8">
+        <v>15245854</v>
+      </c>
+      <c r="B241" s="8">
+        <v>15247200</v>
+      </c>
+      <c r="C241" s="8">
+        <v>31950</v>
+      </c>
+      <c r="D241" s="8">
+        <v>1</v>
+      </c>
+      <c r="E241" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F241" s="8">
+        <v>1</v>
+      </c>
+      <c r="G241" s="8">
+        <v>128</v>
+      </c>
+      <c r="H241" s="8">
+        <v>128</v>
+      </c>
+      <c r="I241" s="8">
+        <v>10</v>
+      </c>
+      <c r="J241" s="8">
+        <v>10</v>
+      </c>
+      <c r="K241" s="8">
+        <v>0</v>
+      </c>
+      <c r="L241" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M241" s="8">
+        <v>10</v>
+      </c>
+      <c r="N241" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O241" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P241" s="8">
+        <v>1.6630535505895401</v>
+      </c>
+      <c r="Q241" s="8">
+        <v>31950</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17">
+      <c r="A242">
+        <v>15245854</v>
+      </c>
+      <c r="B242">
+        <v>15247257</v>
+      </c>
+      <c r="C242">
+        <v>31900</v>
+      </c>
+      <c r="D242" s="8">
+        <v>1</v>
+      </c>
+      <c r="E242" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F242" s="8">
+        <v>1</v>
+      </c>
+      <c r="G242" s="8">
+        <v>128</v>
+      </c>
+      <c r="H242" s="8">
+        <v>128</v>
+      </c>
+      <c r="I242" s="8">
+        <v>10</v>
+      </c>
+      <c r="J242" s="8">
+        <v>10</v>
+      </c>
+      <c r="K242" s="8">
+        <v>0</v>
+      </c>
+      <c r="L242" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M242" s="8">
+        <v>10</v>
+      </c>
+      <c r="N242" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O242" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q242">
+        <v>31900</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" s="8" customFormat="1">
+      <c r="A243" s="8">
+        <v>15245854</v>
+      </c>
+      <c r="B243" s="8">
+        <v>15248452</v>
+      </c>
+      <c r="C243" s="8">
+        <v>31900</v>
+      </c>
+      <c r="D243" s="8">
+        <v>1</v>
+      </c>
+      <c r="E243" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F243" s="8">
+        <v>1</v>
+      </c>
+      <c r="G243" s="8">
+        <v>128</v>
+      </c>
+      <c r="H243" s="8">
+        <v>128</v>
+      </c>
+      <c r="I243" s="8">
+        <v>10</v>
+      </c>
+      <c r="J243" s="8">
+        <v>10</v>
+      </c>
+      <c r="K243" s="8">
+        <v>0</v>
+      </c>
+      <c r="L243" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M243" s="8">
+        <v>50</v>
+      </c>
+      <c r="N243" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O243" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P243" s="8">
+        <v>1.70109429918801</v>
+      </c>
+      <c r="Q243" s="8">
+        <v>31900</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17">
+      <c r="A244">
+        <v>15245854</v>
+      </c>
+      <c r="B244">
+        <v>15247260</v>
+      </c>
+      <c r="C244">
+        <v>31850</v>
+      </c>
+      <c r="D244" s="8">
+        <v>1</v>
+      </c>
+      <c r="E244" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F244" s="8">
+        <v>1</v>
+      </c>
+      <c r="G244" s="8">
+        <v>128</v>
+      </c>
+      <c r="H244" s="8">
+        <v>128</v>
+      </c>
+      <c r="I244" s="8">
+        <v>10</v>
+      </c>
+      <c r="J244" s="8">
+        <v>10</v>
+      </c>
+      <c r="K244" s="8">
+        <v>0</v>
+      </c>
+      <c r="L244" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M244" s="8">
+        <v>10</v>
+      </c>
+      <c r="N244" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O244" t="s">
+        <v>21</v>
+      </c>
+      <c r="P244" s="8">
+        <v>1.5372123</v>
+      </c>
+      <c r="Q244">
+        <v>31850</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17">
+      <c r="A245">
+        <v>15245854</v>
+      </c>
+      <c r="B245">
+        <v>15247261</v>
+      </c>
+      <c r="C245">
+        <v>31800</v>
+      </c>
+      <c r="D245" s="8">
+        <v>1</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F245" s="8">
+        <v>1</v>
+      </c>
+      <c r="G245" s="8">
+        <v>128</v>
+      </c>
+      <c r="H245" s="8">
+        <v>128</v>
+      </c>
+      <c r="I245" s="8">
+        <v>10</v>
+      </c>
+      <c r="J245" s="8">
+        <v>10</v>
+      </c>
+      <c r="K245" s="8">
+        <v>0</v>
+      </c>
+      <c r="L245" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M245" s="8">
+        <v>10</v>
+      </c>
+      <c r="N245" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O245" t="s">
+        <v>21</v>
+      </c>
+      <c r="P245" s="8">
+        <v>1.5383</v>
+      </c>
+      <c r="Q245">
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17">
+      <c r="D246" s="8"/>
+      <c r="E246" s="8"/>
+      <c r="F246" s="8"/>
+      <c r="G246" s="8"/>
+      <c r="H246" s="8"/>
+      <c r="I246" s="8"/>
+      <c r="J246" s="8"/>
+      <c r="K246" s="8"/>
+      <c r="L246" s="9"/>
+      <c r="M246" s="8"/>
+      <c r="N246" s="8"/>
+      <c r="P246" s="8"/>
+    </row>
+    <row r="247" spans="1:17">
+      <c r="D247" s="8"/>
+      <c r="E247" s="8"/>
+      <c r="F247" s="8"/>
+      <c r="G247" s="8"/>
+      <c r="H247" s="8"/>
+      <c r="I247" s="8"/>
+      <c r="J247" s="8"/>
+      <c r="K247" s="8"/>
+      <c r="L247" s="9"/>
+      <c r="M247" s="8"/>
+      <c r="N247" s="8"/>
+      <c r="P247" s="8"/>
+    </row>
+    <row r="248" spans="1:17">
+      <c r="A248" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17">
+      <c r="A249" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B249">
+        <v>15245854</v>
+      </c>
+      <c r="C249">
+        <v>32150</v>
+      </c>
+      <c r="D249" s="8">
+        <v>1</v>
+      </c>
+      <c r="E249" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F249" s="8">
+        <v>1</v>
+      </c>
+      <c r="G249" s="8">
+        <v>128</v>
+      </c>
+      <c r="H249" s="8">
+        <v>128</v>
+      </c>
+      <c r="I249" s="8">
+        <v>10</v>
+      </c>
+      <c r="J249" s="8">
+        <v>10</v>
+      </c>
+      <c r="K249" s="8">
+        <v>0</v>
+      </c>
+      <c r="L249" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M249" s="8">
+        <v>50</v>
+      </c>
+      <c r="N249" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O249" t="s">
+        <v>125</v>
+      </c>
+      <c r="P249" s="8">
+        <v>1.74797053306493</v>
+      </c>
+      <c r="Q249">
+        <v>32150</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" s="8" customFormat="1">
+      <c r="A250" s="8">
+        <v>15245854</v>
+      </c>
+      <c r="B250" s="8">
+        <v>15249587</v>
+      </c>
+      <c r="C250" s="8">
+        <v>32100</v>
+      </c>
+      <c r="D250" s="8">
+        <v>1</v>
+      </c>
+      <c r="E250" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F250" s="8">
+        <v>1</v>
+      </c>
+      <c r="G250" s="8">
+        <v>128</v>
+      </c>
+      <c r="H250" s="8">
+        <v>128</v>
+      </c>
+      <c r="I250" s="8">
+        <v>10</v>
+      </c>
+      <c r="J250" s="8">
+        <v>10</v>
+      </c>
+      <c r="K250" s="8">
+        <v>0</v>
+      </c>
+      <c r="L250" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M250" s="8">
+        <v>50</v>
+      </c>
+      <c r="N250" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O250" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P250" s="8">
+        <v>1.7295619138031399</v>
+      </c>
+      <c r="Q250" s="8">
+        <v>32100</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" s="8" customFormat="1">
+      <c r="A251" s="8">
+        <v>15245854</v>
+      </c>
+      <c r="B251" s="8">
+        <v>15249589</v>
+      </c>
+      <c r="C251" s="8">
+        <v>32050</v>
+      </c>
+      <c r="D251" s="8">
+        <v>1</v>
+      </c>
+      <c r="E251" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F251" s="8">
+        <v>1</v>
+      </c>
+      <c r="G251" s="8">
+        <v>128</v>
+      </c>
+      <c r="H251" s="8">
+        <v>128</v>
+      </c>
+      <c r="I251" s="8">
+        <v>10</v>
+      </c>
+      <c r="J251" s="8">
+        <v>10</v>
+      </c>
+      <c r="K251" s="8">
+        <v>0</v>
+      </c>
+      <c r="L251" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M251" s="8">
+        <v>50</v>
+      </c>
+      <c r="N251" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O251" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P251" s="8">
+        <v>1.7099405409691999</v>
+      </c>
+      <c r="Q251" s="8">
+        <v>32050</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" s="8" customFormat="1">
+      <c r="A252" s="8">
+        <v>15245854</v>
+      </c>
+      <c r="B252" s="8">
+        <v>15249590</v>
+      </c>
+      <c r="C252" s="8">
+        <v>32000</v>
+      </c>
+      <c r="D252" s="8">
+        <v>1</v>
+      </c>
+      <c r="E252" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F252" s="8">
+        <v>1</v>
+      </c>
+      <c r="G252" s="8">
+        <v>128</v>
+      </c>
+      <c r="H252" s="8">
+        <v>128</v>
+      </c>
+      <c r="I252" s="8">
+        <v>10</v>
+      </c>
+      <c r="J252" s="8">
+        <v>10</v>
+      </c>
+      <c r="K252" s="8">
+        <v>0</v>
+      </c>
+      <c r="L252" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M252" s="8">
+        <v>50</v>
+      </c>
+      <c r="N252" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O252" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P252" s="8">
+        <v>1.7001890944070801</v>
+      </c>
+      <c r="Q252" s="8">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" s="8" customFormat="1">
+      <c r="A253" s="8">
+        <v>15245854</v>
+      </c>
+      <c r="B253" s="8">
+        <v>15249594</v>
+      </c>
+      <c r="C253" s="8">
+        <v>31950</v>
+      </c>
+      <c r="D253" s="8">
+        <v>1</v>
+      </c>
+      <c r="E253" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F253" s="8">
+        <v>1</v>
+      </c>
+      <c r="G253" s="8">
+        <v>128</v>
+      </c>
+      <c r="H253" s="8">
+        <v>128</v>
+      </c>
+      <c r="I253" s="8">
+        <v>10</v>
+      </c>
+      <c r="J253" s="8">
+        <v>10</v>
+      </c>
+      <c r="K253" s="8">
+        <v>0</v>
+      </c>
+      <c r="L253" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M253" s="8">
+        <v>50</v>
+      </c>
+      <c r="N253" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O253" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P253" s="8">
+        <v>1.6966402139933301</v>
+      </c>
+      <c r="Q253" s="8">
+        <v>31950</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" s="8" customFormat="1">
+      <c r="A254" s="8">
+        <v>15245854</v>
+      </c>
+      <c r="B254" s="8">
+        <v>15248452</v>
+      </c>
+      <c r="C254" s="8">
+        <v>31900</v>
+      </c>
+      <c r="D254" s="8">
+        <v>1</v>
+      </c>
+      <c r="E254" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F254" s="8">
+        <v>1</v>
+      </c>
+      <c r="G254" s="8">
+        <v>128</v>
+      </c>
+      <c r="H254" s="8">
+        <v>128</v>
+      </c>
+      <c r="I254" s="8">
+        <v>10</v>
+      </c>
+      <c r="J254" s="8">
+        <v>10</v>
+      </c>
+      <c r="K254" s="8">
+        <v>0</v>
+      </c>
+      <c r="L254" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M254" s="8">
+        <v>50</v>
+      </c>
+      <c r="N254" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O254" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P254" s="8">
+        <v>1.70109429918801</v>
+      </c>
+      <c r="Q254" s="8">
+        <v>31900</v>
       </c>
     </row>
   </sheetData>
@@ -6371,10 +8719,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B59324F-8BFA-4D0B-8F1B-AB5C69134BD9}">
-  <dimension ref="A1:P89"/>
+  <dimension ref="A1:R136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6382,6 +8730,8 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="27.453125" style="18" customWidth="1"/>
     <col min="3" max="3" width="25.1796875" style="22" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" customWidth="1"/>
+    <col min="18" max="18" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
@@ -8872,58 +11222,17 @@
       <c r="A79" s="18">
         <v>20230326211527</v>
       </c>
-      <c r="B79" s="18">
-        <v>20230326213924</v>
-      </c>
       <c r="C79" s="22">
-        <v>32254</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79" t="s">
-        <v>99</v>
-      </c>
-      <c r="H79">
-        <v>128</v>
-      </c>
-      <c r="I79">
-        <v>10</v>
-      </c>
-      <c r="J79">
-        <v>10</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="M79">
-        <v>10</v>
-      </c>
-      <c r="N79">
-        <v>0.01</v>
-      </c>
-      <c r="O79" t="s">
-        <v>77</v>
-      </c>
-      <c r="P79" t="s">
-        <v>115</v>
-      </c>
+        <v>32200</v>
+      </c>
+      <c r="L79" s="2"/>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="18">
         <v>20230326211527</v>
       </c>
       <c r="B80" s="18">
-        <v>20230326225026</v>
+        <v>20230326213924</v>
       </c>
       <c r="C80" s="22">
         <v>32254</v>
@@ -8956,7 +11265,7 @@
         <v>1E-3</v>
       </c>
       <c r="M80">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="N80">
         <v>0.01</v>
@@ -8968,15 +11277,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:18">
       <c r="A81" s="18">
-        <v>20230326213924</v>
+        <v>20230326211527</v>
       </c>
       <c r="B81" s="18">
-        <v>20230326220025</v>
+        <v>20230326225026</v>
       </c>
       <c r="C81" s="22">
-        <v>32255</v>
+        <v>32254</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -9006,7 +11315,7 @@
         <v>1E-3</v>
       </c>
       <c r="M81">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="N81">
         <v>0.01</v>
@@ -9018,79 +11327,79 @@
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
-      <c r="A82" s="18"/>
-      <c r="C82" s="24">
+    <row r="82" spans="1:18">
+      <c r="A82" s="18">
+        <v>20230326213924</v>
+      </c>
+      <c r="B82" s="18">
+        <v>20230326220025</v>
+      </c>
+      <c r="C82" s="22">
+        <v>32255</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>99</v>
+      </c>
+      <c r="H82">
+        <v>128</v>
+      </c>
+      <c r="I82">
+        <v>10</v>
+      </c>
+      <c r="J82">
+        <v>10</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M82">
+        <v>10</v>
+      </c>
+      <c r="N82">
+        <v>0.01</v>
+      </c>
+      <c r="O82" t="s">
+        <v>77</v>
+      </c>
+      <c r="P82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" s="18"/>
+      <c r="C83" s="24">
         <v>32257</v>
       </c>
-      <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="1:16" s="6" customFormat="1">
-      <c r="A83" s="25">
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:18" s="6" customFormat="1">
+      <c r="A84" s="25">
         <v>20230326220025</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="24">
+      <c r="B84" s="23"/>
+      <c r="C84" s="24">
         <v>32260</v>
       </c>
-      <c r="L83" s="12"/>
-    </row>
-    <row r="84" spans="1:16">
-      <c r="A84" s="18">
-        <v>20230326220025</v>
-      </c>
-      <c r="B84" s="18">
-        <v>20230327135928</v>
-      </c>
-      <c r="C84" s="22">
-        <v>32300</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84" t="s">
-        <v>99</v>
-      </c>
-      <c r="H84">
-        <v>128</v>
-      </c>
-      <c r="I84">
-        <v>10</v>
-      </c>
-      <c r="J84">
-        <v>10</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="M84">
-        <v>10</v>
-      </c>
-      <c r="N84">
-        <v>0.01</v>
-      </c>
-      <c r="O84" t="s">
-        <v>77</v>
-      </c>
-      <c r="P84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="L84" s="12"/>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="18">
         <v>20230326220025</v>
       </c>
       <c r="B85" s="18">
-        <v>20230327144450</v>
+        <v>20230327135928</v>
       </c>
       <c r="C85" s="22">
         <v>32300</v>
@@ -9123,7 +11432,7 @@
         <v>1E-3</v>
       </c>
       <c r="M85">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="N85">
         <v>0.01</v>
@@ -9135,12 +11444,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:18">
       <c r="A86" s="18">
-        <v>20230327135928</v>
+        <v>20230326220025</v>
+      </c>
+      <c r="B86" s="18">
+        <v>20230327144450</v>
       </c>
       <c r="C86" s="22">
-        <v>32400</v>
+        <v>32300</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -9170,7 +11482,7 @@
         <v>1E-3</v>
       </c>
       <c r="M86">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="N86">
         <v>0.01</v>
@@ -9182,10 +11494,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
-      <c r="A87" s="18"/>
+    <row r="87" spans="1:18">
+      <c r="A87" s="18">
+        <v>20230327135928</v>
+      </c>
       <c r="C87" s="22">
-        <v>32600</v>
+        <v>32400</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -9227,10 +11541,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:18">
       <c r="A88" s="18"/>
       <c r="C88" s="22">
-        <v>32800</v>
+        <v>32600</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -9272,15 +11586,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
-      <c r="A89" s="18">
-        <v>20230326220025</v>
-      </c>
-      <c r="B89" s="18">
-        <v>20230327135202</v>
-      </c>
+    <row r="89" spans="1:18">
+      <c r="A89" s="18"/>
       <c r="C89" s="22">
-        <v>33000</v>
+        <v>32800</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -9319,7 +11628,2018 @@
         <v>77</v>
       </c>
       <c r="P89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" s="18">
+        <v>20230326220025</v>
+      </c>
+      <c r="B90" s="18">
+        <v>20230327135202</v>
+      </c>
+      <c r="C90" s="22">
+        <v>33000</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>99</v>
+      </c>
+      <c r="H90">
+        <v>128</v>
+      </c>
+      <c r="I90">
+        <v>10</v>
+      </c>
+      <c r="J90">
+        <v>10</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M90">
+        <v>10</v>
+      </c>
+      <c r="N90">
+        <v>0.01</v>
+      </c>
+      <c r="O90" t="s">
+        <v>77</v>
+      </c>
+      <c r="P90" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" t="s">
+        <v>121</v>
+      </c>
+      <c r="P92" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>123</v>
+      </c>
+      <c r="R92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" t="s">
+        <v>119</v>
+      </c>
+      <c r="B93" s="18">
+        <v>15241067</v>
+      </c>
+      <c r="C93" s="22">
+        <v>30000</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>99</v>
+      </c>
+      <c r="H93">
+        <v>128</v>
+      </c>
+      <c r="I93">
+        <v>10</v>
+      </c>
+      <c r="J93">
+        <v>10</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M93">
+        <v>10</v>
+      </c>
+      <c r="N93">
+        <v>0.01</v>
+      </c>
+      <c r="O93" t="s">
+        <v>77</v>
+      </c>
+      <c r="P93" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q93">
+        <v>1.5736770577000001</v>
+      </c>
+      <c r="R93" s="22">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" s="18">
+        <v>15241067</v>
+      </c>
+      <c r="B94" s="18">
+        <v>15241084</v>
+      </c>
+      <c r="C94" s="22">
+        <v>31000</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>99</v>
+      </c>
+      <c r="H94">
+        <v>128</v>
+      </c>
+      <c r="I94">
+        <v>10</v>
+      </c>
+      <c r="J94">
+        <v>10</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M94">
+        <v>10</v>
+      </c>
+      <c r="N94">
+        <v>0.01</v>
+      </c>
+      <c r="O94" t="s">
+        <v>77</v>
+      </c>
+      <c r="P94" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q94">
+        <v>1.5515353769</v>
+      </c>
+      <c r="R94" s="22">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" s="18">
+        <v>15241067</v>
+      </c>
+      <c r="B95" s="18">
+        <v>15247077</v>
+      </c>
+      <c r="C95" s="22">
+        <v>31950</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>99</v>
+      </c>
+      <c r="H95">
+        <v>128</v>
+      </c>
+      <c r="I95">
+        <v>10</v>
+      </c>
+      <c r="J95">
+        <v>10</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M95">
+        <v>10</v>
+      </c>
+      <c r="N95">
+        <v>0.01</v>
+      </c>
+      <c r="O95" t="s">
+        <v>77</v>
+      </c>
+      <c r="P95" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q95">
+        <v>1.531379</v>
+      </c>
+      <c r="R95" s="22"/>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96" s="18">
+        <v>15241067</v>
+      </c>
+      <c r="B96" s="18">
+        <v>15241085</v>
+      </c>
+      <c r="C96" s="22">
+        <v>32000</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>99</v>
+      </c>
+      <c r="H96">
+        <v>128</v>
+      </c>
+      <c r="I96">
+        <v>10</v>
+      </c>
+      <c r="J96">
+        <v>10</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M96">
+        <v>10</v>
+      </c>
+      <c r="N96">
+        <v>0.01</v>
+      </c>
+      <c r="O96" t="s">
+        <v>77</v>
+      </c>
+      <c r="P96" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q96">
+        <v>1.53034</v>
+      </c>
+      <c r="R96" s="22">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" s="18">
+        <v>15241067</v>
+      </c>
+      <c r="B97" s="18">
+        <v>15241086</v>
+      </c>
+      <c r="C97" s="22">
+        <v>32050</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>99</v>
+      </c>
+      <c r="H97">
+        <v>128</v>
+      </c>
+      <c r="I97">
+        <v>10</v>
+      </c>
+      <c r="J97">
+        <v>10</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M97">
+        <v>10</v>
+      </c>
+      <c r="N97">
+        <v>0.01</v>
+      </c>
+      <c r="O97" t="s">
+        <v>77</v>
+      </c>
+      <c r="P97" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q97">
+        <v>1.5293000000000001</v>
+      </c>
+      <c r="R97" s="22">
+        <v>32050</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" s="18">
+        <v>15241067</v>
+      </c>
+      <c r="B98" s="18">
+        <v>15241089</v>
+      </c>
+      <c r="C98" s="22">
+        <v>32100</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>99</v>
+      </c>
+      <c r="H98">
+        <v>128</v>
+      </c>
+      <c r="I98">
+        <v>10</v>
+      </c>
+      <c r="J98">
+        <v>10</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M98">
+        <v>10</v>
+      </c>
+      <c r="N98">
+        <v>0.01</v>
+      </c>
+      <c r="O98" t="s">
+        <v>77</v>
+      </c>
+      <c r="P98" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q98">
+        <v>1.5282500000000001</v>
+      </c>
+      <c r="R98" s="22">
+        <v>32100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" s="18">
+        <v>15241067</v>
+      </c>
+      <c r="B99" s="18">
+        <v>15241094</v>
+      </c>
+      <c r="C99" s="22">
+        <v>32150</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>99</v>
+      </c>
+      <c r="H99">
+        <v>128</v>
+      </c>
+      <c r="I99">
+        <v>10</v>
+      </c>
+      <c r="J99">
+        <v>10</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M99">
+        <v>10</v>
+      </c>
+      <c r="N99">
+        <v>0.01</v>
+      </c>
+      <c r="O99" t="s">
+        <v>77</v>
+      </c>
+      <c r="P99" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q99">
+        <v>1.5271999999999999</v>
+      </c>
+      <c r="R99" s="22">
+        <v>32150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100" s="18">
+        <v>15241067</v>
+      </c>
+      <c r="B100" s="18">
+        <v>15241095</v>
+      </c>
+      <c r="C100" s="22">
+        <v>32200</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>99</v>
+      </c>
+      <c r="H100">
+        <v>128</v>
+      </c>
+      <c r="I100">
+        <v>10</v>
+      </c>
+      <c r="J100">
+        <v>10</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M100">
+        <v>10</v>
+      </c>
+      <c r="N100">
+        <v>0.01</v>
+      </c>
+      <c r="O100" t="s">
+        <v>77</v>
+      </c>
+      <c r="P100" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q100">
+        <v>1.5262</v>
+      </c>
+      <c r="R100" s="22">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" s="18">
+        <v>15241067</v>
+      </c>
+      <c r="B101" s="18">
+        <v>15241156</v>
+      </c>
+      <c r="C101" s="22">
+        <v>32200</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>99</v>
+      </c>
+      <c r="H101">
+        <v>128</v>
+      </c>
+      <c r="I101">
+        <v>10</v>
+      </c>
+      <c r="J101">
+        <v>10</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M101">
+        <v>200</v>
+      </c>
+      <c r="N101">
+        <v>0.01</v>
+      </c>
+      <c r="O101" t="s">
+        <v>77</v>
+      </c>
+      <c r="P101" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q101">
+        <v>1.5261983400000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" s="18">
+        <v>15241067</v>
+      </c>
+      <c r="B102" s="18">
+        <v>15241103</v>
+      </c>
+      <c r="C102" s="22">
+        <v>32250</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>99</v>
+      </c>
+      <c r="H102">
+        <v>128</v>
+      </c>
+      <c r="I102">
+        <v>10</v>
+      </c>
+      <c r="J102">
+        <v>10</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M102">
+        <v>10</v>
+      </c>
+      <c r="N102">
+        <v>0.01</v>
+      </c>
+      <c r="O102" t="s">
+        <v>77</v>
+      </c>
+      <c r="P102" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="18">
+        <v>15241067</v>
+      </c>
+      <c r="B103" s="18">
+        <v>15241160</v>
+      </c>
+      <c r="C103" s="22">
+        <v>32250</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>99</v>
+      </c>
+      <c r="H103">
+        <v>128</v>
+      </c>
+      <c r="I103">
+        <v>10</v>
+      </c>
+      <c r="J103">
+        <v>10</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M103">
+        <v>200</v>
+      </c>
+      <c r="N103">
+        <v>0.01</v>
+      </c>
+      <c r="O103" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="18">
+        <v>15241095</v>
+      </c>
+      <c r="B104" s="18">
+        <v>15241203</v>
+      </c>
+      <c r="C104" s="22">
+        <v>32250</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>99</v>
+      </c>
+      <c r="H104">
+        <v>128</v>
+      </c>
+      <c r="I104">
+        <v>10</v>
+      </c>
+      <c r="J104">
+        <v>10</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M104">
+        <v>200</v>
+      </c>
+      <c r="N104">
+        <v>0.01</v>
+      </c>
+      <c r="O104" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105" s="18">
+        <v>15241095</v>
+      </c>
+      <c r="B105" s="18">
+        <v>15241562</v>
+      </c>
+      <c r="C105" s="22">
+        <v>32250</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>99</v>
+      </c>
+      <c r="H105">
+        <v>128</v>
+      </c>
+      <c r="I105">
+        <v>10</v>
+      </c>
+      <c r="J105">
+        <v>10</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M105">
+        <v>500</v>
+      </c>
+      <c r="N105">
+        <v>0.01</v>
+      </c>
+      <c r="O105" t="s">
+        <v>77</v>
+      </c>
+      <c r="P105" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q105">
+        <v>1.5249999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="18">
+        <v>15241067</v>
+      </c>
+      <c r="B106" s="18">
+        <v>15241104</v>
+      </c>
+      <c r="C106" s="22">
+        <v>32300</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>99</v>
+      </c>
+      <c r="H106">
+        <v>128</v>
+      </c>
+      <c r="I106">
+        <v>10</v>
+      </c>
+      <c r="J106">
+        <v>10</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M106">
+        <v>10</v>
+      </c>
+      <c r="N106">
+        <v>0.01</v>
+      </c>
+      <c r="O106" t="s">
+        <v>77</v>
+      </c>
+      <c r="P106" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q106">
+        <v>1.75494467628696</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" s="18"/>
+      <c r="L107" s="2"/>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="18"/>
+      <c r="L108" s="2"/>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109" s="18">
+        <v>15241058</v>
+      </c>
+      <c r="C109" s="22">
+        <v>32000</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>99</v>
+      </c>
+      <c r="H109">
+        <v>128</v>
+      </c>
+      <c r="I109">
+        <v>10</v>
+      </c>
+      <c r="J109">
+        <v>10</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M109">
+        <v>10</v>
+      </c>
+      <c r="N109">
+        <v>0.01</v>
+      </c>
+      <c r="O109" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="L110" s="2"/>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111" t="s">
+        <v>131</v>
+      </c>
+      <c r="L111" s="2"/>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" s="18">
+        <v>15241058</v>
+      </c>
+      <c r="C112" s="22">
+        <v>32300</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>99</v>
+      </c>
+      <c r="H112">
+        <v>128</v>
+      </c>
+      <c r="I112">
+        <v>10</v>
+      </c>
+      <c r="J112">
+        <v>10</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M112">
+        <v>10</v>
+      </c>
+      <c r="N112">
+        <v>0.01</v>
+      </c>
+      <c r="O112" t="s">
+        <v>77</v>
+      </c>
+      <c r="P112" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q112">
+        <v>1.6719785549999999</v>
+      </c>
+      <c r="R112" s="22">
+        <v>32300</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
+      <c r="A113" s="18">
+        <v>15241058</v>
+      </c>
+      <c r="B113" s="18">
+        <v>15241108</v>
+      </c>
+      <c r="C113" s="22">
+        <v>32250</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
+        <v>99</v>
+      </c>
+      <c r="H113">
+        <v>128</v>
+      </c>
+      <c r="I113">
+        <v>10</v>
+      </c>
+      <c r="J113">
+        <v>10</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M113">
+        <v>10</v>
+      </c>
+      <c r="N113">
+        <v>0.01</v>
+      </c>
+      <c r="O113" t="s">
+        <v>77</v>
+      </c>
+      <c r="P113" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q113">
+        <v>1.7367146899999999</v>
+      </c>
+      <c r="R113" s="22">
+        <v>32250</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
+      <c r="A114" s="18">
+        <v>15241058</v>
+      </c>
+      <c r="B114" s="18">
+        <v>15241109</v>
+      </c>
+      <c r="C114" s="22">
+        <v>32200</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" t="s">
+        <v>99</v>
+      </c>
+      <c r="H114">
+        <v>128</v>
+      </c>
+      <c r="I114">
+        <v>10</v>
+      </c>
+      <c r="J114">
+        <v>10</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M114">
+        <v>10</v>
+      </c>
+      <c r="N114">
+        <v>0.01</v>
+      </c>
+      <c r="O114" t="s">
+        <v>77</v>
+      </c>
+      <c r="P114" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q114">
+        <v>1.72170024687167</v>
+      </c>
+      <c r="R114" s="22">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
+      <c r="A115" s="18">
+        <v>15241058</v>
+      </c>
+      <c r="B115" s="18">
+        <v>15241115</v>
+      </c>
+      <c r="C115" s="22">
+        <v>32150</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>99</v>
+      </c>
+      <c r="H115">
+        <v>128</v>
+      </c>
+      <c r="I115">
+        <v>10</v>
+      </c>
+      <c r="J115">
+        <v>10</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M115">
+        <v>10</v>
+      </c>
+      <c r="N115">
+        <v>0.01</v>
+      </c>
+      <c r="O115" t="s">
+        <v>77</v>
+      </c>
+      <c r="P115" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q115">
+        <v>1.71018267540897</v>
+      </c>
+      <c r="R115" s="22">
+        <v>32150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
+      <c r="A116" s="18">
+        <v>15241058</v>
+      </c>
+      <c r="B116" s="18">
+        <v>15241116</v>
+      </c>
+      <c r="C116" s="22">
+        <v>32100</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" t="s">
+        <v>99</v>
+      </c>
+      <c r="H116">
+        <v>128</v>
+      </c>
+      <c r="I116">
+        <v>10</v>
+      </c>
+      <c r="J116">
+        <v>10</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M116">
+        <v>10</v>
+      </c>
+      <c r="N116">
+        <v>0.01</v>
+      </c>
+      <c r="O116" t="s">
+        <v>77</v>
+      </c>
+      <c r="P116" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q116">
+        <v>1.70913370523329</v>
+      </c>
+      <c r="R116" s="22">
+        <v>32100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
+      <c r="A117" s="18">
+        <v>15241058</v>
+      </c>
+      <c r="B117" s="18">
+        <v>15241117</v>
+      </c>
+      <c r="C117" s="22">
+        <v>32050</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" t="s">
+        <v>99</v>
+      </c>
+      <c r="H117">
+        <v>128</v>
+      </c>
+      <c r="I117">
+        <v>10</v>
+      </c>
+      <c r="J117">
+        <v>10</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M117">
+        <v>10</v>
+      </c>
+      <c r="N117">
+        <v>0.01</v>
+      </c>
+      <c r="O117" t="s">
+        <v>77</v>
+      </c>
+      <c r="P117" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q117">
+        <v>1.70078381137917</v>
+      </c>
+      <c r="R117" s="22">
+        <v>32050</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
+      <c r="A118" s="18">
+        <v>15241058</v>
+      </c>
+      <c r="B118" s="18">
+        <v>15241123</v>
+      </c>
+      <c r="C118" s="22">
+        <v>32000</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>99</v>
+      </c>
+      <c r="H118">
+        <v>128</v>
+      </c>
+      <c r="I118">
+        <v>10</v>
+      </c>
+      <c r="J118">
+        <v>10</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M118">
+        <v>10</v>
+      </c>
+      <c r="N118">
+        <v>0.01</v>
+      </c>
+      <c r="O118" t="s">
+        <v>77</v>
+      </c>
+      <c r="P118" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q118">
+        <v>1.68370262946267</v>
+      </c>
+      <c r="R118" s="22">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
+      <c r="A119" s="18">
+        <v>15241058</v>
+      </c>
+      <c r="C119" s="22">
+        <v>31950</v>
+      </c>
+      <c r="L119" s="2"/>
+      <c r="R119" s="22"/>
+    </row>
+    <row r="120" spans="1:18">
+      <c r="A120" s="18"/>
+      <c r="C120" s="22">
+        <v>31800</v>
+      </c>
+      <c r="L120" s="2"/>
+      <c r="R120" s="22"/>
+    </row>
+    <row r="121" spans="1:18">
+      <c r="A121" s="18">
+        <v>15241058</v>
+      </c>
+      <c r="B121" s="18">
+        <v>15241128</v>
+      </c>
+      <c r="C121" s="22">
+        <v>31000</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121" t="s">
+        <v>99</v>
+      </c>
+      <c r="H121">
+        <v>128</v>
+      </c>
+      <c r="I121">
+        <v>10</v>
+      </c>
+      <c r="J121">
+        <v>10</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M121">
+        <v>10</v>
+      </c>
+      <c r="N121">
+        <v>0.01</v>
+      </c>
+      <c r="O121" t="s">
+        <v>77</v>
+      </c>
+      <c r="P121" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q121">
+        <v>1.5515353769125999</v>
+      </c>
+      <c r="R121" s="22">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
+      <c r="A122" s="18">
+        <v>15241058</v>
+      </c>
+      <c r="B122" s="18">
+        <v>15241131</v>
+      </c>
+      <c r="C122" s="22">
+        <v>30000</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>99</v>
+      </c>
+      <c r="H122">
+        <v>128</v>
+      </c>
+      <c r="I122">
+        <v>10</v>
+      </c>
+      <c r="J122">
+        <v>10</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M122">
+        <v>10</v>
+      </c>
+      <c r="N122">
+        <v>0.01</v>
+      </c>
+      <c r="O122" t="s">
+        <v>77</v>
+      </c>
+      <c r="P122" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q122">
+        <v>1.5736770577014001</v>
+      </c>
+      <c r="R122" s="22">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
+      <c r="A126" t="s">
+        <v>119</v>
+      </c>
+      <c r="B126" s="18">
+        <v>15245892</v>
+      </c>
+      <c r="C126" s="22">
+        <v>32300</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>99</v>
+      </c>
+      <c r="H126">
+        <v>128</v>
+      </c>
+      <c r="I126">
+        <v>10</v>
+      </c>
+      <c r="J126">
+        <v>10</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M126">
+        <v>10</v>
+      </c>
+      <c r="N126">
+        <v>0.01</v>
+      </c>
+      <c r="O126" t="s">
+        <v>77</v>
+      </c>
+      <c r="P126" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q126">
+        <v>1.7533178974897301</v>
+      </c>
+      <c r="R126" s="22">
+        <v>32300</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
+      <c r="A127" s="18">
+        <v>15245892</v>
+      </c>
+      <c r="B127" s="18">
+        <v>15246137</v>
+      </c>
+      <c r="C127" s="22">
+        <v>32250</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" t="s">
+        <v>99</v>
+      </c>
+      <c r="H127">
+        <v>128</v>
+      </c>
+      <c r="I127">
+        <v>10</v>
+      </c>
+      <c r="J127">
+        <v>10</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M127">
+        <v>10</v>
+      </c>
+      <c r="N127">
+        <v>0.01</v>
+      </c>
+      <c r="O127" t="s">
+        <v>77</v>
+      </c>
+      <c r="P127" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q127">
+        <v>1.73299878194932</v>
+      </c>
+      <c r="R127" s="22">
+        <v>32250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="A128" s="18">
+        <v>15245892</v>
+      </c>
+      <c r="B128" s="18">
+        <v>15246172</v>
+      </c>
+      <c r="C128" s="22">
+        <v>32200</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>99</v>
+      </c>
+      <c r="H128">
+        <v>128</v>
+      </c>
+      <c r="I128">
+        <v>10</v>
+      </c>
+      <c r="J128">
+        <v>10</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M128">
+        <v>10</v>
+      </c>
+      <c r="N128">
+        <v>0.01</v>
+      </c>
+      <c r="O128" t="s">
+        <v>77</v>
+      </c>
+      <c r="P128" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q128">
+        <v>1.71941017514931</v>
+      </c>
+      <c r="R128" s="22">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
+      <c r="A129" s="18">
+        <v>15245892</v>
+      </c>
+      <c r="B129" s="18">
+        <v>15246208</v>
+      </c>
+      <c r="C129" s="22">
+        <v>32150</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>99</v>
+      </c>
+      <c r="H129">
+        <v>128</v>
+      </c>
+      <c r="I129">
+        <v>10</v>
+      </c>
+      <c r="J129">
+        <v>10</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M129">
+        <v>10</v>
+      </c>
+      <c r="N129">
+        <v>0.01</v>
+      </c>
+      <c r="O129" t="s">
+        <v>77</v>
+      </c>
+      <c r="P129" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q129">
+        <v>1.7049625260155099</v>
+      </c>
+      <c r="R129" s="22">
+        <v>32150</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
+      <c r="A130" s="18">
+        <v>15245892</v>
+      </c>
+      <c r="B130" s="18">
+        <v>15246314</v>
+      </c>
+      <c r="C130" s="22">
+        <v>32100</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130" t="s">
+        <v>99</v>
+      </c>
+      <c r="H130">
+        <v>128</v>
+      </c>
+      <c r="I130">
+        <v>10</v>
+      </c>
+      <c r="J130">
+        <v>10</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M130">
+        <v>10</v>
+      </c>
+      <c r="N130">
+        <v>0.01</v>
+      </c>
+      <c r="O130" t="s">
+        <v>77</v>
+      </c>
+      <c r="P130" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q130">
+        <v>1.6867567568194399</v>
+      </c>
+      <c r="R130" s="22">
+        <v>32100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
+      <c r="A131" s="18">
+        <v>15245892</v>
+      </c>
+      <c r="B131" s="18">
+        <v>15246387</v>
+      </c>
+      <c r="C131" s="22">
+        <v>32050</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131" t="s">
+        <v>99</v>
+      </c>
+      <c r="H131">
+        <v>128</v>
+      </c>
+      <c r="I131">
+        <v>10</v>
+      </c>
+      <c r="J131">
+        <v>10</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M131">
+        <v>10</v>
+      </c>
+      <c r="N131">
+        <v>0.01</v>
+      </c>
+      <c r="O131" t="s">
+        <v>77</v>
+      </c>
+      <c r="P131" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q131">
+        <v>1.6723011985790299</v>
+      </c>
+      <c r="R131" s="22">
+        <v>32050</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
+      <c r="A132" s="18">
+        <v>15245892</v>
+      </c>
+      <c r="B132" s="18">
+        <v>15246421</v>
+      </c>
+      <c r="C132" s="22">
+        <v>32000</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132" t="s">
+        <v>99</v>
+      </c>
+      <c r="H132">
+        <v>128</v>
+      </c>
+      <c r="I132">
+        <v>10</v>
+      </c>
+      <c r="J132">
+        <v>10</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M132">
+        <v>10</v>
+      </c>
+      <c r="N132">
+        <v>0.01</v>
+      </c>
+      <c r="O132" t="s">
+        <v>77</v>
+      </c>
+      <c r="P132" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q132">
+        <v>1.66415700496618</v>
+      </c>
+      <c r="R132" s="22">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
+      <c r="A133" s="18">
+        <v>15245892</v>
+      </c>
+      <c r="B133" s="18">
+        <v>15247053</v>
+      </c>
+      <c r="C133" s="22">
+        <v>31950</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" t="s">
+        <v>99</v>
+      </c>
+      <c r="H133">
+        <v>128</v>
+      </c>
+      <c r="I133">
+        <v>10</v>
+      </c>
+      <c r="J133">
+        <v>10</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M133">
+        <v>50</v>
+      </c>
+      <c r="N133">
+        <v>0.01</v>
+      </c>
+      <c r="O133" t="s">
+        <v>77</v>
+      </c>
+      <c r="P133" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q133">
+        <v>1.5313760000000001</v>
+      </c>
+      <c r="R133" s="22">
+        <v>31900</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
+      <c r="A134" s="18">
+        <v>15245892</v>
+      </c>
+      <c r="B134" s="18">
+        <v>15246455</v>
+      </c>
+      <c r="C134" s="22">
+        <v>31900</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>99</v>
+      </c>
+      <c r="H134">
+        <v>128</v>
+      </c>
+      <c r="I134">
+        <v>10</v>
+      </c>
+      <c r="J134">
+        <v>10</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M134">
+        <v>10</v>
+      </c>
+      <c r="N134">
+        <v>0.01</v>
+      </c>
+      <c r="O134" t="s">
+        <v>77</v>
+      </c>
+      <c r="P134" t="s">
+        <v>21</v>
+      </c>
+      <c r="R134" s="22">
+        <v>31900</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
+      <c r="A135" s="18">
+        <v>15245892</v>
+      </c>
+      <c r="B135" s="18">
+        <v>15246494</v>
+      </c>
+      <c r="C135" s="22">
+        <v>31800</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>99</v>
+      </c>
+      <c r="H135">
+        <v>128</v>
+      </c>
+      <c r="I135">
+        <v>10</v>
+      </c>
+      <c r="J135">
+        <v>10</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M135">
+        <v>10</v>
+      </c>
+      <c r="N135">
+        <v>0.01</v>
+      </c>
+      <c r="O135" t="s">
+        <v>77</v>
+      </c>
+      <c r="P135" t="s">
+        <v>21</v>
+      </c>
+      <c r="R135" s="22">
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
+      <c r="A136" s="18">
+        <v>15245892</v>
+      </c>
+      <c r="B136" s="18">
+        <v>15247020</v>
+      </c>
+      <c r="C136" s="22">
+        <v>31700</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
+        <v>99</v>
+      </c>
+      <c r="H136">
+        <v>128</v>
+      </c>
+      <c r="I136">
+        <v>10</v>
+      </c>
+      <c r="J136">
+        <v>10</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M136">
+        <v>10</v>
+      </c>
+      <c r="N136">
+        <v>0.01</v>
+      </c>
+      <c r="O136" t="s">
+        <v>77</v>
+      </c>
+      <c r="P136" t="s">
+        <v>21</v>
+      </c>
+      <c r="R136" s="22">
+        <v>31700</v>
       </c>
     </row>
   </sheetData>
@@ -9332,8 +13652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76C9478-386D-445B-8B12-05AF01279C9C}">
   <dimension ref="A3:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="C13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2640D6C-211C-4200-8F54-E74D44933702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418EB9E3-F762-4036-88BE-33F0E6C661DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBC flux" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="234">
   <si>
     <t>slurm_num</t>
   </si>
@@ -742,6 +742,9 @@
   <si>
     <t>Need to make shear stronger and no_phase_step=10</t>
   </si>
+  <si>
+    <t>2pi/18</t>
+  </si>
 </sst>
 </file>
 
@@ -24200,15 +24203,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDB63EE-010E-4366-8142-3356469E97C6}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="C1" s="19" t="s">
         <v>206</v>
       </c>
@@ -24233,13 +24236,58 @@
       <c r="J1" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>228</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+      <c r="C2">
+        <v>100000</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>0.01</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>128</v>
+      </c>
+      <c r="J2">
+        <v>128</v>
+      </c>
+      <c r="K2">
+        <v>1E-3</v>
+      </c>
+      <c r="L2">
+        <v>0.3</v>
+      </c>
+      <c r="M2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -24251,8 +24299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76C9478-386D-445B-8B12-05AF01279C9C}">
   <dimension ref="A3:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView topLeftCell="C39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418EB9E3-F762-4036-88BE-33F0E6C661DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BE09A2-E075-448F-B84C-8E56DA570DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBC flux" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="250">
   <si>
     <t>slurm_num</t>
   </si>
@@ -745,6 +745,54 @@
   <si>
     <t>2pi/18</t>
   </si>
+  <si>
+    <t>2D continuation</t>
+  </si>
+  <si>
+    <t>2pi/17</t>
+  </si>
+  <si>
+    <t>2pi/16</t>
+  </si>
+  <si>
+    <t>2pi/15</t>
+  </si>
+  <si>
+    <t>2pi/14</t>
+  </si>
+  <si>
+    <t>2pi/13</t>
+  </si>
+  <si>
+    <t>2pi/12</t>
+  </si>
+  <si>
+    <t>2pi/11</t>
+  </si>
+  <si>
+    <t>longer time up to 300</t>
+  </si>
+  <si>
+    <t>Update 2023/06/11 generate the Neumann solution</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>conduction</t>
+  </si>
 </sst>
 </file>
 
@@ -1197,7 +1245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S385"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A129" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
@@ -24203,15 +24251,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDB63EE-010E-4366-8142-3356469E97C6}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="19" t="s">
         <v>206</v>
       </c>
@@ -24251,10 +24305,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
+        <v>234</v>
+      </c>
+      <c r="B2">
+        <v>15504120</v>
       </c>
       <c r="C2">
         <v>100000</v>
@@ -24290,8 +24344,633 @@
         <v>30</v>
       </c>
     </row>
+    <row r="3" spans="1:14">
+      <c r="B3">
+        <v>15504121</v>
+      </c>
+      <c r="C3">
+        <v>100000</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>0.01</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>128</v>
+      </c>
+      <c r="J3">
+        <v>128</v>
+      </c>
+      <c r="K3">
+        <v>1E-3</v>
+      </c>
+      <c r="L3">
+        <v>0.3</v>
+      </c>
+      <c r="M3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4">
+        <v>15504122</v>
+      </c>
+      <c r="C4">
+        <v>100000</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>0.01</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>128</v>
+      </c>
+      <c r="J4">
+        <v>128</v>
+      </c>
+      <c r="K4">
+        <v>1E-3</v>
+      </c>
+      <c r="L4">
+        <v>0.3</v>
+      </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5">
+        <v>15504123</v>
+      </c>
+      <c r="C5">
+        <v>100000</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>0.01</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>128</v>
+      </c>
+      <c r="J5">
+        <v>128</v>
+      </c>
+      <c r="K5">
+        <v>1E-3</v>
+      </c>
+      <c r="L5">
+        <v>0.3</v>
+      </c>
+      <c r="M5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6">
+        <v>15504159</v>
+      </c>
+      <c r="C6">
+        <v>100000</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>0.01</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>128</v>
+      </c>
+      <c r="J6">
+        <v>128</v>
+      </c>
+      <c r="K6">
+        <v>1E-3</v>
+      </c>
+      <c r="L6">
+        <v>0.3</v>
+      </c>
+      <c r="M6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7">
+        <v>15504160</v>
+      </c>
+      <c r="C7">
+        <v>100000</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>0.01</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>128</v>
+      </c>
+      <c r="J7">
+        <v>128</v>
+      </c>
+      <c r="K7">
+        <v>1E-3</v>
+      </c>
+      <c r="L7">
+        <v>0.3</v>
+      </c>
+      <c r="M7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8">
+        <v>15504161</v>
+      </c>
+      <c r="C8">
+        <v>100000</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>0.01</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>240</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>128</v>
+      </c>
+      <c r="J8">
+        <v>128</v>
+      </c>
+      <c r="K8">
+        <v>1E-3</v>
+      </c>
+      <c r="L8">
+        <v>0.3</v>
+      </c>
+      <c r="M8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9">
+        <v>15504162</v>
+      </c>
+      <c r="C9">
+        <v>100000</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>0.01</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>128</v>
+      </c>
+      <c r="J9">
+        <v>128</v>
+      </c>
+      <c r="K9">
+        <v>1E-3</v>
+      </c>
+      <c r="L9">
+        <v>0.3</v>
+      </c>
+      <c r="M9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10">
+        <v>15504164</v>
+      </c>
+      <c r="C10">
+        <v>100000</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>0.01</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>128</v>
+      </c>
+      <c r="J10">
+        <v>128</v>
+      </c>
+      <c r="K10">
+        <v>1E-3</v>
+      </c>
+      <c r="L10">
+        <v>0.3</v>
+      </c>
+      <c r="M10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="C13">
+        <v>100000</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>0.01</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>233</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>128</v>
+      </c>
+      <c r="J13">
+        <v>128</v>
+      </c>
+      <c r="K13">
+        <v>1E-3</v>
+      </c>
+      <c r="L13">
+        <v>0.3</v>
+      </c>
+      <c r="M13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="C14">
+        <v>100000</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>0.01</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>235</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>128</v>
+      </c>
+      <c r="J14">
+        <v>128</v>
+      </c>
+      <c r="K14">
+        <v>1E-3</v>
+      </c>
+      <c r="L14">
+        <v>0.3</v>
+      </c>
+      <c r="M14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="C15">
+        <v>100000</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>0.01</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>236</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>128</v>
+      </c>
+      <c r="J15">
+        <v>128</v>
+      </c>
+      <c r="K15">
+        <v>1E-3</v>
+      </c>
+      <c r="L15">
+        <v>0.3</v>
+      </c>
+      <c r="M15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="C16">
+        <v>100000</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>0.01</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>128</v>
+      </c>
+      <c r="J16">
+        <v>128</v>
+      </c>
+      <c r="K16">
+        <v>1E-3</v>
+      </c>
+      <c r="L16">
+        <v>0.3</v>
+      </c>
+      <c r="M16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17">
+        <v>100000</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>0.01</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>238</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>128</v>
+      </c>
+      <c r="J17">
+        <v>128</v>
+      </c>
+      <c r="K17">
+        <v>1E-3</v>
+      </c>
+      <c r="L17">
+        <v>0.3</v>
+      </c>
+      <c r="M17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18">
+        <v>100000</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>0.01</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>239</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>128</v>
+      </c>
+      <c r="J18">
+        <v>128</v>
+      </c>
+      <c r="K18">
+        <v>1E-3</v>
+      </c>
+      <c r="L18">
+        <v>0.3</v>
+      </c>
+      <c r="M18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19">
+        <v>100000</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>0.01</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>240</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>128</v>
+      </c>
+      <c r="J19">
+        <v>128</v>
+      </c>
+      <c r="K19">
+        <v>1E-3</v>
+      </c>
+      <c r="L19">
+        <v>0.3</v>
+      </c>
+      <c r="M19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20">
+        <v>100000</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>0.01</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>241</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>128</v>
+      </c>
+      <c r="J20">
+        <v>128</v>
+      </c>
+      <c r="K20">
+        <v>1E-3</v>
+      </c>
+      <c r="L20">
+        <v>0.3</v>
+      </c>
+      <c r="M20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21">
+        <v>100000</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>0.01</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>128</v>
+      </c>
+      <c r="J21">
+        <v>128</v>
+      </c>
+      <c r="K21">
+        <v>1E-3</v>
+      </c>
+      <c r="L21">
+        <v>0.3</v>
+      </c>
+      <c r="M21">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24299,8 +24978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76C9478-386D-445B-8B12-05AF01279C9C}">
   <dimension ref="A3:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="C39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -25653,10 +26332,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73000ED-ACF1-4870-B376-DD86BAB5368D}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -26652,6 +27331,222 @@
       </c>
       <c r="Q27" s="31">
         <v>17.940178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="18">
+        <v>16985672</v>
+      </c>
+      <c r="C30" s="31">
+        <v>100</v>
+      </c>
+      <c r="D30" s="31">
+        <v>35</v>
+      </c>
+      <c r="E30" s="31">
+        <v>1</v>
+      </c>
+      <c r="F30" s="31">
+        <v>10</v>
+      </c>
+      <c r="G30" s="31">
+        <v>256</v>
+      </c>
+      <c r="H30" s="31">
+        <v>64</v>
+      </c>
+      <c r="I30" s="31">
+        <v>0</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M30" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N30" s="31">
+        <v>3</v>
+      </c>
+      <c r="O30" s="31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" s="18">
+        <v>16985675</v>
+      </c>
+      <c r="C31" s="31">
+        <v>100</v>
+      </c>
+      <c r="D31" s="31">
+        <v>35</v>
+      </c>
+      <c r="E31" s="31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="31">
+        <v>10</v>
+      </c>
+      <c r="G31" s="31">
+        <v>256</v>
+      </c>
+      <c r="H31" s="31">
+        <v>64</v>
+      </c>
+      <c r="I31" s="31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="M31" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N31" s="31">
+        <v>3</v>
+      </c>
+      <c r="O31" s="31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" s="18">
+        <v>16985716</v>
+      </c>
+      <c r="C32" s="31">
+        <v>100</v>
+      </c>
+      <c r="D32" s="31">
+        <v>35</v>
+      </c>
+      <c r="E32" s="31">
+        <v>1</v>
+      </c>
+      <c r="F32" s="31">
+        <v>10</v>
+      </c>
+      <c r="G32" s="31">
+        <v>256</v>
+      </c>
+      <c r="H32" s="31">
+        <v>64</v>
+      </c>
+      <c r="I32" s="31">
+        <v>0</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="M32" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N32" s="31">
+        <v>3</v>
+      </c>
+      <c r="O32" s="31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" s="18">
+        <v>16983311</v>
+      </c>
+      <c r="C33" s="31">
+        <v>100</v>
+      </c>
+      <c r="D33" s="31">
+        <v>35</v>
+      </c>
+      <c r="E33" s="31">
+        <v>1</v>
+      </c>
+      <c r="F33" s="31">
+        <v>10</v>
+      </c>
+      <c r="G33" s="31">
+        <v>256</v>
+      </c>
+      <c r="H33" s="31">
+        <v>64</v>
+      </c>
+      <c r="I33" s="31">
+        <v>0</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="M33" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N33" s="31">
+        <v>3</v>
+      </c>
+      <c r="O33" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" s="18">
+        <v>16983463</v>
+      </c>
+      <c r="C34" s="31">
+        <v>100</v>
+      </c>
+      <c r="D34" s="31">
+        <v>35</v>
+      </c>
+      <c r="E34" s="31">
+        <v>1</v>
+      </c>
+      <c r="F34" s="31">
+        <v>10</v>
+      </c>
+      <c r="G34" s="31">
+        <v>256</v>
+      </c>
+      <c r="H34" s="31">
+        <v>64</v>
+      </c>
+      <c r="I34" s="31">
+        <v>0</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="M34" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N34" s="31">
+        <v>3</v>
+      </c>
+      <c r="O34" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P34" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BE09A2-E075-448F-B84C-8E56DA570DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5150FA-A1BC-4DFA-9EC8-5879BCF5E5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBC flux" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="255">
   <si>
     <t>slurm_num</t>
   </si>
@@ -793,6 +793,21 @@
   <si>
     <t>conduction</t>
   </si>
+  <si>
+    <t>Update 2023/06/16 generate phase shifted X2 solution</t>
+  </si>
+  <si>
+    <t>2 wave localized</t>
+  </si>
+  <si>
+    <t>with new parameter initial_phase=pi/2</t>
+  </si>
+  <si>
+    <t>Test beta=10^4, initial value as random variable</t>
+  </si>
+  <si>
+    <t>elevator mode + A_noise=0.1</t>
+  </si>
 </sst>
 </file>
 
@@ -1243,22 +1258,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S385"/>
+  <dimension ref="A1:S392"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" topLeftCell="A387" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B393" sqref="B393"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" customWidth="1"/>
-    <col min="13" max="13" width="14.54296875" customWidth="1"/>
-    <col min="16" max="16" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
@@ -2433,7 +2448,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="24" customFormat="1" ht="18.5">
+    <row r="38" spans="1:16" s="24" customFormat="1" ht="18.75">
       <c r="B38" s="51">
         <v>14673046</v>
       </c>
@@ -2508,7 +2523,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:16" ht="18.5">
+    <row r="44" spans="1:16" ht="18.75">
       <c r="B44" s="3">
         <v>14541125</v>
       </c>
@@ -2555,7 +2570,7 @@
         <v>12.0533</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="18.5">
+    <row r="45" spans="1:16" ht="18.75">
       <c r="B45" s="3">
         <v>14541126</v>
       </c>
@@ -2602,7 +2617,7 @@
         <v>12.0533</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="18.5">
+    <row r="46" spans="1:16" ht="18.75">
       <c r="B46" s="3">
         <v>14541127</v>
       </c>
@@ -2649,7 +2664,7 @@
         <v>12.0533</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="18.5">
+    <row r="47" spans="1:16" ht="18.75">
       <c r="B47" s="3">
         <v>14541128</v>
       </c>
@@ -2786,7 +2801,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="2:16" ht="18.5">
+    <row r="56" spans="2:16" ht="18.75">
       <c r="B56" s="3">
         <v>14673046</v>
       </c>
@@ -2830,7 +2845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="2:16" ht="18.5">
+    <row r="57" spans="2:16" ht="18.75">
       <c r="B57" s="3">
         <v>14673047</v>
       </c>
@@ -2874,7 +2889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="2:16" ht="18.5">
+    <row r="58" spans="2:16" ht="18.75">
       <c r="B58" s="3">
         <v>14768718</v>
       </c>
@@ -2915,7 +2930,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="59" spans="2:16" ht="18.5">
+    <row r="59" spans="2:16" ht="18.75">
       <c r="B59" s="3">
         <v>14680791</v>
       </c>
@@ -2959,7 +2974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:16" ht="18.5">
+    <row r="60" spans="2:16" ht="18.75">
       <c r="B60" s="3">
         <v>14741869</v>
       </c>
@@ -3003,7 +3018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="2:16" ht="18.5">
+    <row r="61" spans="2:16" ht="18.75">
       <c r="B61" s="3">
         <v>14673849</v>
       </c>
@@ -3044,7 +3059,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="62" spans="2:16" ht="18.5">
+    <row r="62" spans="2:16" ht="18.75">
       <c r="B62" s="3">
         <v>14673048</v>
       </c>
@@ -3088,7 +3103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="2:16" ht="18.5">
+    <row r="63" spans="2:16" ht="18.75">
       <c r="B63" s="3">
         <v>14673049</v>
       </c>
@@ -3222,7 +3237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:15" ht="18.5">
+    <row r="68" spans="2:15" ht="18.75">
       <c r="B68" s="3">
         <v>14680810</v>
       </c>
@@ -3266,7 +3281,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:15" ht="18.5">
+    <row r="69" spans="2:15" ht="18.75">
       <c r="B69" s="3">
         <v>14672941</v>
       </c>
@@ -3310,7 +3325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="2:15" ht="18.5">
+    <row r="70" spans="2:15" ht="18.75">
       <c r="B70" s="3">
         <v>14672942</v>
       </c>
@@ -3354,7 +3369,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="2:15" ht="18.5">
+    <row r="71" spans="2:15" ht="18.75">
       <c r="B71" s="3">
         <v>14672943</v>
       </c>
@@ -3398,7 +3413,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:15" ht="18.5">
+    <row r="72" spans="2:15" ht="18.75">
       <c r="B72" s="3">
         <v>14672940</v>
       </c>
@@ -3442,7 +3457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="2:15" ht="17.5">
+    <row r="73" spans="2:15" ht="18">
       <c r="B73" s="4">
         <v>14671572</v>
       </c>
@@ -3486,7 +3501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="2:15" ht="17.5">
+    <row r="74" spans="2:15" ht="18">
       <c r="B74" s="4">
         <v>14680814</v>
       </c>
@@ -3530,7 +3545,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:15" ht="17.5">
+    <row r="75" spans="2:15" ht="18">
       <c r="B75" s="4">
         <v>14671573</v>
       </c>
@@ -15511,7 +15526,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="385" spans="3:12">
+    <row r="385" spans="1:14">
       <c r="C385" s="2">
         <v>100000000</v>
       </c>
@@ -15541,6 +15556,140 @@
       </c>
       <c r="L385" s="2">
         <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14">
+      <c r="A389" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14">
+      <c r="A390" t="s">
+        <v>254</v>
+      </c>
+      <c r="B390">
+        <v>15565217</v>
+      </c>
+      <c r="C390" s="2">
+        <v>30000</v>
+      </c>
+      <c r="D390" s="8">
+        <v>1</v>
+      </c>
+      <c r="E390" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F390" s="8">
+        <v>1</v>
+      </c>
+      <c r="G390" s="8">
+        <v>128</v>
+      </c>
+      <c r="H390" s="8">
+        <v>128</v>
+      </c>
+      <c r="I390" s="8">
+        <v>10</v>
+      </c>
+      <c r="J390" s="8">
+        <v>10</v>
+      </c>
+      <c r="K390" s="8">
+        <v>0</v>
+      </c>
+      <c r="L390" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M390" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14">
+      <c r="A391" t="s">
+        <v>254</v>
+      </c>
+      <c r="B391">
+        <v>15565216</v>
+      </c>
+      <c r="C391" s="2">
+        <v>60000</v>
+      </c>
+      <c r="D391" s="8">
+        <v>1</v>
+      </c>
+      <c r="E391" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F391" s="8">
+        <v>1</v>
+      </c>
+      <c r="G391" s="8">
+        <v>128</v>
+      </c>
+      <c r="H391" s="8">
+        <v>128</v>
+      </c>
+      <c r="I391" s="8">
+        <v>10</v>
+      </c>
+      <c r="J391" s="8">
+        <v>10</v>
+      </c>
+      <c r="K391" s="8">
+        <v>0</v>
+      </c>
+      <c r="L391" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M391" s="8">
+        <v>10</v>
+      </c>
+      <c r="N391" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14">
+      <c r="A392" t="s">
+        <v>254</v>
+      </c>
+      <c r="B392">
+        <v>15565218</v>
+      </c>
+      <c r="C392" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="D392" s="8">
+        <v>1</v>
+      </c>
+      <c r="E392" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F392" s="8">
+        <v>1</v>
+      </c>
+      <c r="G392" s="8">
+        <v>256</v>
+      </c>
+      <c r="H392" s="8">
+        <v>256</v>
+      </c>
+      <c r="I392" s="8">
+        <v>10</v>
+      </c>
+      <c r="J392" s="8">
+        <v>10</v>
+      </c>
+      <c r="K392" s="8">
+        <v>0</v>
+      </c>
+      <c r="L392" s="9">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M392" s="8">
+        <v>1</v>
+      </c>
+      <c r="N392" s="8">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
@@ -15553,17 +15702,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B59324F-8BFA-4D0B-8F1B-AB5C69134BD9}">
   <dimension ref="A1:T234"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B234" sqref="B234"/>
+    <sheetView topLeftCell="A219" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A236" sqref="A236:XFD237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" style="26" customWidth="1"/>
-    <col min="17" max="18" width="13.26953125" customWidth="1"/>
-    <col min="19" max="19" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="26" customWidth="1"/>
+    <col min="17" max="18" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
@@ -22877,7 +23026,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="18.5">
+    <row r="190" spans="1:17" ht="18.75">
       <c r="B190" s="38"/>
       <c r="C190" s="2">
         <v>100000000</v>
@@ -22921,7 +23070,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="18.5">
+    <row r="195" spans="1:15" ht="18.75">
       <c r="B195" s="38">
         <v>20230417223929</v>
       </c>
@@ -22962,7 +23111,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="18.5">
+    <row r="196" spans="1:15" ht="18.75">
       <c r="B196" s="38">
         <v>20230423215417</v>
       </c>
@@ -23009,7 +23158,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="18.5">
+    <row r="198" spans="1:15" ht="18.75">
       <c r="B198" s="38">
         <v>20230417234354</v>
       </c>
@@ -23053,7 +23202,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="18.5">
+    <row r="199" spans="1:15" ht="18.75">
       <c r="B199" s="38">
         <v>20230417235803</v>
       </c>
@@ -23094,7 +23243,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="18.5">
+    <row r="200" spans="1:15" ht="18.75">
       <c r="B200" s="38">
         <v>20230418001339</v>
       </c>
@@ -23138,7 +23287,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="18.5">
+    <row r="201" spans="1:15" ht="18.75">
       <c r="A201" t="s">
         <v>118</v>
       </c>
@@ -23185,7 +23334,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="18.5">
+    <row r="202" spans="1:15" ht="18.75">
       <c r="B202" s="38"/>
       <c r="C202" s="26">
         <v>10600</v>
@@ -23224,7 +23373,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="18.5">
+    <row r="203" spans="1:15" ht="18.75">
       <c r="A203" s="38">
         <v>20230417232841</v>
       </c>
@@ -23268,7 +23417,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="204" spans="1:15" s="16" customFormat="1" ht="18.5">
+    <row r="204" spans="1:15" s="16" customFormat="1" ht="18.75">
       <c r="A204" s="40" t="s">
         <v>118</v>
       </c>
@@ -23315,7 +23464,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="205" spans="1:15" s="16" customFormat="1" ht="18.5">
+    <row r="205" spans="1:15" s="16" customFormat="1" ht="18.75">
       <c r="A205" s="40" t="s">
         <v>118</v>
       </c>
@@ -23362,7 +23511,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="18.5">
+    <row r="206" spans="1:15" ht="18.75">
       <c r="A206" s="38">
         <v>20230417232841</v>
       </c>
@@ -23406,7 +23555,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="18.5">
+    <row r="207" spans="1:15" ht="18.75">
       <c r="A207" s="38">
         <v>20230417232841</v>
       </c>
@@ -23453,7 +23602,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="18.5">
+    <row r="208" spans="1:15" ht="18.75">
       <c r="A208" s="38">
         <v>20230417232841</v>
       </c>
@@ -23500,7 +23649,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="18.5">
+    <row r="209" spans="1:15" ht="18.75">
       <c r="B209" s="38">
         <v>20230423104141</v>
       </c>
@@ -23544,7 +23693,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="210" spans="1:15" s="16" customFormat="1" ht="18.5">
+    <row r="210" spans="1:15" s="16" customFormat="1" ht="18.75">
       <c r="B210" s="40"/>
       <c r="C210" s="28">
         <v>11000</v>
@@ -23583,7 +23732,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="18.5">
+    <row r="211" spans="1:15" ht="18.75">
       <c r="B211" s="38">
         <v>20230427230257</v>
       </c>
@@ -23627,7 +23776,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="18.5">
+    <row r="212" spans="1:15" ht="18.75">
       <c r="B212" s="38"/>
       <c r="C212" s="26">
         <v>12000</v>
@@ -23666,7 +23815,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="18.5">
+    <row r="213" spans="1:15" ht="18.75">
       <c r="B213" s="38">
         <v>20230427232001</v>
       </c>
@@ -23710,7 +23859,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="18.5">
+    <row r="214" spans="1:15" ht="18.75">
       <c r="B214" s="38">
         <v>20230427224222</v>
       </c>
@@ -24257,7 +24406,7 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
@@ -24982,19 +25131,19 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.453125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="19"/>
-    <col min="5" max="5" width="13.54296875" style="19" customWidth="1"/>
-    <col min="6" max="9" width="8.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="19"/>
-    <col min="11" max="11" width="18.1796875" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" style="19" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="19"/>
+    <col min="1" max="1" width="22.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="19"/>
+    <col min="5" max="5" width="13.5703125" style="19" customWidth="1"/>
+    <col min="6" max="9" width="8.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="19"/>
+    <col min="11" max="11" width="18.140625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="19" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="19"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:14">
@@ -26211,11 +26360,11 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -26332,22 +26481,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73000ED-ACF1-4870-B376-DD86BAB5368D}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="26.1796875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.81640625" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -27461,7 +27612,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>247</v>
       </c>
@@ -27505,7 +27656,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -27547,6 +27698,55 @@
       </c>
       <c r="P34" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="31">
+        <v>100</v>
+      </c>
+      <c r="D37" s="31">
+        <v>35</v>
+      </c>
+      <c r="E37" s="31">
+        <v>0</v>
+      </c>
+      <c r="F37" s="31">
+        <v>10</v>
+      </c>
+      <c r="G37" s="31">
+        <v>256</v>
+      </c>
+      <c r="H37" s="31">
+        <v>64</v>
+      </c>
+      <c r="I37" s="31">
+        <v>0</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="L37" s="31">
+        <v>5</v>
+      </c>
+      <c r="M37" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N37" s="31">
+        <v>30</v>
+      </c>
+      <c r="O37" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P37" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -27562,9 +27762,9 @@
       <selection activeCell="A12" sqref="A12:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5150FA-A1BC-4DFA-9EC8-5879BCF5E5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C71D34E-4A2E-4479-A0C2-3028E4726C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15568,7 +15568,7 @@
         <v>254</v>
       </c>
       <c r="B390">
-        <v>15565217</v>
+        <v>15565226</v>
       </c>
       <c r="C390" s="2">
         <v>30000</v>
@@ -15609,7 +15609,7 @@
         <v>254</v>
       </c>
       <c r="B391">
-        <v>15565216</v>
+        <v>15565231</v>
       </c>
       <c r="C391" s="2">
         <v>60000</v>
@@ -15653,7 +15653,7 @@
         <v>254</v>
       </c>
       <c r="B392">
-        <v>15565218</v>
+        <v>15565232</v>
       </c>
       <c r="C392" s="9">
         <v>100000000</v>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C71D34E-4A2E-4479-A0C2-3028E4726C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2484EBDE-92C1-4454-99FB-DE24BA2AC03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="1950" windowWidth="21600" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBC flux" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="261">
   <si>
     <t>slurm_num</t>
   </si>
@@ -808,6 +808,24 @@
   <si>
     <t>elevator mode + A_noise=0.1</t>
   </si>
+  <si>
+    <t>Test Ra_Tq=6e4, with different beta</t>
+  </si>
+  <si>
+    <t>beta=1</t>
+  </si>
+  <si>
+    <t>beta=10</t>
+  </si>
+  <si>
+    <t>beta=100</t>
+  </si>
+  <si>
+    <t>Elevator mode, Q0=0</t>
+  </si>
+  <si>
+    <t>beta=0.1</t>
+  </si>
 </sst>
 </file>
 
@@ -1258,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S392"/>
+  <dimension ref="A1:S402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B393" sqref="B393"/>
+    <sheetView tabSelected="1" topLeftCell="A392" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B398" sqref="B398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15603,6 +15621,9 @@
       <c r="M390" s="8">
         <v>10</v>
       </c>
+      <c r="N390" s="8">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="391" spans="1:14">
       <c r="A391" t="s">
@@ -15653,7 +15674,7 @@
         <v>254</v>
       </c>
       <c r="B392">
-        <v>15565232</v>
+        <v>15560065</v>
       </c>
       <c r="C392" s="9">
         <v>100000000</v>
@@ -15690,6 +15711,198 @@
       </c>
       <c r="N392" s="8">
         <v>1E-3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14">
+      <c r="A394" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14">
+      <c r="A395" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14">
+      <c r="A396" t="s">
+        <v>259</v>
+      </c>
+      <c r="B396">
+        <v>15597574</v>
+      </c>
+      <c r="C396" s="2">
+        <v>60000</v>
+      </c>
+      <c r="D396" s="8">
+        <v>1</v>
+      </c>
+      <c r="E396" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F396" s="8">
+        <v>1</v>
+      </c>
+      <c r="G396" s="8">
+        <v>128</v>
+      </c>
+      <c r="H396" s="8">
+        <v>128</v>
+      </c>
+      <c r="I396" s="8">
+        <v>10</v>
+      </c>
+      <c r="J396" s="8">
+        <v>10</v>
+      </c>
+      <c r="K396" s="8">
+        <v>0</v>
+      </c>
+      <c r="L396" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M396" s="8">
+        <v>10</v>
+      </c>
+      <c r="N396" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14">
+      <c r="A397" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14">
+      <c r="A398" t="s">
+        <v>259</v>
+      </c>
+      <c r="C398" s="2">
+        <v>60000</v>
+      </c>
+      <c r="D398" s="8">
+        <v>1</v>
+      </c>
+      <c r="E398" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F398" s="8">
+        <v>1</v>
+      </c>
+      <c r="G398" s="8">
+        <v>128</v>
+      </c>
+      <c r="H398" s="8">
+        <v>128</v>
+      </c>
+      <c r="I398" s="8">
+        <v>10</v>
+      </c>
+      <c r="J398" s="8">
+        <v>10</v>
+      </c>
+      <c r="K398" s="8">
+        <v>0</v>
+      </c>
+      <c r="L398" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M398" s="8">
+        <v>10</v>
+      </c>
+      <c r="N398" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14">
+      <c r="A399" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14">
+      <c r="A400" t="s">
+        <v>259</v>
+      </c>
+      <c r="C400" s="2">
+        <v>60000</v>
+      </c>
+      <c r="D400" s="8">
+        <v>1</v>
+      </c>
+      <c r="E400" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F400" s="8">
+        <v>1</v>
+      </c>
+      <c r="G400" s="8">
+        <v>128</v>
+      </c>
+      <c r="H400" s="8">
+        <v>128</v>
+      </c>
+      <c r="I400" s="8">
+        <v>10</v>
+      </c>
+      <c r="J400" s="8">
+        <v>10</v>
+      </c>
+      <c r="K400" s="8">
+        <v>0</v>
+      </c>
+      <c r="L400" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M400" s="8">
+        <v>10</v>
+      </c>
+      <c r="N400" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14">
+      <c r="A401" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14">
+      <c r="A402" t="s">
+        <v>259</v>
+      </c>
+      <c r="C402" s="2">
+        <v>60000</v>
+      </c>
+      <c r="D402" s="8">
+        <v>1</v>
+      </c>
+      <c r="E402" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F402" s="8">
+        <v>1</v>
+      </c>
+      <c r="G402" s="8">
+        <v>128</v>
+      </c>
+      <c r="H402" s="8">
+        <v>128</v>
+      </c>
+      <c r="I402" s="8">
+        <v>10</v>
+      </c>
+      <c r="J402" s="8">
+        <v>10</v>
+      </c>
+      <c r="K402" s="8">
+        <v>0</v>
+      </c>
+      <c r="L402" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M402" s="8">
+        <v>10</v>
+      </c>
+      <c r="N402" s="8">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2484EBDE-92C1-4454-99FB-DE24BA2AC03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ECF6E7-56E8-4B42-ACDB-15291C108AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="1950" windowWidth="21600" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBC flux" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="278">
   <si>
     <t>slurm_num</t>
   </si>
@@ -826,6 +826,57 @@
   <si>
     <t>beta=0.1</t>
   </si>
+  <si>
+    <t>beta=1000</t>
+  </si>
+  <si>
+    <t>beta=1e4</t>
+  </si>
+  <si>
+    <t>Update 2023/08/27 generate localized structures with different resolutions</t>
+  </si>
+  <si>
+    <t>Expected TKE</t>
+  </si>
+  <si>
+    <t>Lx=10, Nx=128</t>
+  </si>
+  <si>
+    <t>Lx=10, Nx=64</t>
+  </si>
+  <si>
+    <t>Lx=10, Nx=32</t>
+  </si>
+  <si>
+    <t>Lx=10, Nx=16</t>
+  </si>
+  <si>
+    <t>Lx=20, Nx=512</t>
+  </si>
+  <si>
+    <t>Lx=40, Nx=1024</t>
+  </si>
+  <si>
+    <t>34.098047 (still increasing)</t>
+  </si>
+  <si>
+    <t>48.59(still increasing)</t>
+  </si>
+  <si>
+    <t>Lx=10, Nx=256 long run</t>
+  </si>
+  <si>
+    <t>34.788964 (still increasing)</t>
+  </si>
+  <si>
+    <t>50.311298(still increasing)</t>
+  </si>
+  <si>
+    <t>initial_phase=0</t>
+  </si>
+  <si>
+    <t>initial_phase=pi/2</t>
+  </si>
 </sst>
 </file>
 
@@ -940,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -996,6 +1047,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1276,22 +1328,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S402"/>
+  <dimension ref="A1:S406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B398" sqref="B398"/>
+    <sheetView topLeftCell="A399" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C406" sqref="C406:N406"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" customWidth="1"/>
+    <col min="16" max="16" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
@@ -2466,7 +2518,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="24" customFormat="1" ht="18.75">
+    <row r="38" spans="1:16" s="24" customFormat="1" ht="18.5">
       <c r="B38" s="51">
         <v>14673046</v>
       </c>
@@ -2541,7 +2593,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:16" ht="18.75">
+    <row r="44" spans="1:16" ht="18.5">
       <c r="B44" s="3">
         <v>14541125</v>
       </c>
@@ -2588,7 +2640,7 @@
         <v>12.0533</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="18.75">
+    <row r="45" spans="1:16" ht="18.5">
       <c r="B45" s="3">
         <v>14541126</v>
       </c>
@@ -2635,7 +2687,7 @@
         <v>12.0533</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="18.75">
+    <row r="46" spans="1:16" ht="18.5">
       <c r="B46" s="3">
         <v>14541127</v>
       </c>
@@ -2682,7 +2734,7 @@
         <v>12.0533</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="18.75">
+    <row r="47" spans="1:16" ht="18.5">
       <c r="B47" s="3">
         <v>14541128</v>
       </c>
@@ -2819,7 +2871,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="2:16" ht="18.75">
+    <row r="56" spans="2:16" ht="18.5">
       <c r="B56" s="3">
         <v>14673046</v>
       </c>
@@ -2863,7 +2915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="2:16" ht="18.75">
+    <row r="57" spans="2:16" ht="18.5">
       <c r="B57" s="3">
         <v>14673047</v>
       </c>
@@ -2907,7 +2959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="2:16" ht="18.75">
+    <row r="58" spans="2:16" ht="18.5">
       <c r="B58" s="3">
         <v>14768718</v>
       </c>
@@ -2948,7 +3000,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="59" spans="2:16" ht="18.75">
+    <row r="59" spans="2:16" ht="18.5">
       <c r="B59" s="3">
         <v>14680791</v>
       </c>
@@ -2992,7 +3044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:16" ht="18.75">
+    <row r="60" spans="2:16" ht="18.5">
       <c r="B60" s="3">
         <v>14741869</v>
       </c>
@@ -3036,7 +3088,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="2:16" ht="18.75">
+    <row r="61" spans="2:16" ht="18.5">
       <c r="B61" s="3">
         <v>14673849</v>
       </c>
@@ -3077,7 +3129,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="62" spans="2:16" ht="18.75">
+    <row r="62" spans="2:16" ht="18.5">
       <c r="B62" s="3">
         <v>14673048</v>
       </c>
@@ -3121,7 +3173,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="2:16" ht="18.75">
+    <row r="63" spans="2:16" ht="18.5">
       <c r="B63" s="3">
         <v>14673049</v>
       </c>
@@ -3255,7 +3307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:15" ht="18.75">
+    <row r="68" spans="2:15" ht="18.5">
       <c r="B68" s="3">
         <v>14680810</v>
       </c>
@@ -3299,7 +3351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:15" ht="18.75">
+    <row r="69" spans="2:15" ht="18.5">
       <c r="B69" s="3">
         <v>14672941</v>
       </c>
@@ -3343,7 +3395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="2:15" ht="18.75">
+    <row r="70" spans="2:15" ht="18.5">
       <c r="B70" s="3">
         <v>14672942</v>
       </c>
@@ -3387,7 +3439,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="2:15" ht="18.75">
+    <row r="71" spans="2:15" ht="18.5">
       <c r="B71" s="3">
         <v>14672943</v>
       </c>
@@ -3431,7 +3483,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:15" ht="18.75">
+    <row r="72" spans="2:15" ht="18.5">
       <c r="B72" s="3">
         <v>14672940</v>
       </c>
@@ -3475,7 +3527,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="2:15" ht="18">
+    <row r="73" spans="2:15" ht="17.5">
       <c r="B73" s="4">
         <v>14671572</v>
       </c>
@@ -3519,7 +3571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="2:15" ht="18">
+    <row r="74" spans="2:15" ht="17.5">
       <c r="B74" s="4">
         <v>14680814</v>
       </c>
@@ -3563,7 +3615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:15" ht="18">
+    <row r="75" spans="2:15" ht="17.5">
       <c r="B75" s="4">
         <v>14671573</v>
       </c>
@@ -15728,7 +15780,7 @@
         <v>259</v>
       </c>
       <c r="B396">
-        <v>15597574</v>
+        <v>15597575</v>
       </c>
       <c r="C396" s="2">
         <v>60000</v>
@@ -15776,6 +15828,9 @@
       <c r="A398" t="s">
         <v>259</v>
       </c>
+      <c r="B398">
+        <v>15597576</v>
+      </c>
       <c r="C398" s="2">
         <v>60000</v>
       </c>
@@ -15822,6 +15877,9 @@
       <c r="A400" t="s">
         <v>259</v>
       </c>
+      <c r="B400">
+        <v>15597577</v>
+      </c>
       <c r="C400" s="2">
         <v>60000</v>
       </c>
@@ -15868,6 +15926,9 @@
       <c r="A402" t="s">
         <v>259</v>
       </c>
+      <c r="B402">
+        <v>15597578</v>
+      </c>
       <c r="C402" s="2">
         <v>60000</v>
       </c>
@@ -15902,6 +15963,104 @@
         <v>10</v>
       </c>
       <c r="N402" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14">
+      <c r="A403" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14">
+      <c r="A404" t="s">
+        <v>259</v>
+      </c>
+      <c r="B404">
+        <v>15597579</v>
+      </c>
+      <c r="C404" s="2">
+        <v>60000</v>
+      </c>
+      <c r="D404" s="8">
+        <v>1</v>
+      </c>
+      <c r="E404" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F404" s="8">
+        <v>1</v>
+      </c>
+      <c r="G404" s="8">
+        <v>128</v>
+      </c>
+      <c r="H404" s="8">
+        <v>128</v>
+      </c>
+      <c r="I404" s="8">
+        <v>10</v>
+      </c>
+      <c r="J404" s="8">
+        <v>10</v>
+      </c>
+      <c r="K404" s="8">
+        <v>0</v>
+      </c>
+      <c r="L404" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M404" s="8">
+        <v>10</v>
+      </c>
+      <c r="N404" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14">
+      <c r="A405" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14">
+      <c r="A406" t="s">
+        <v>259</v>
+      </c>
+      <c r="B406">
+        <v>15565231</v>
+      </c>
+      <c r="C406" s="2">
+        <v>60000</v>
+      </c>
+      <c r="D406" s="8">
+        <v>1</v>
+      </c>
+      <c r="E406" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F406" s="8">
+        <v>1</v>
+      </c>
+      <c r="G406" s="8">
+        <v>128</v>
+      </c>
+      <c r="H406" s="8">
+        <v>128</v>
+      </c>
+      <c r="I406" s="8">
+        <v>10</v>
+      </c>
+      <c r="J406" s="8">
+        <v>10</v>
+      </c>
+      <c r="K406" s="8">
+        <v>0</v>
+      </c>
+      <c r="L406" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M406" s="8">
+        <v>10</v>
+      </c>
+      <c r="N406" s="8">
         <v>0.01</v>
       </c>
     </row>
@@ -15919,13 +16078,13 @@
       <selection activeCell="A236" sqref="A236:XFD237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="26" customWidth="1"/>
-    <col min="17" max="18" width="13.28515625" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" style="26" customWidth="1"/>
+    <col min="17" max="18" width="13.26953125" customWidth="1"/>
+    <col min="19" max="19" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
@@ -23239,7 +23398,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="18.75">
+    <row r="190" spans="1:17" ht="18.5">
       <c r="B190" s="38"/>
       <c r="C190" s="2">
         <v>100000000</v>
@@ -23283,7 +23442,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="18.75">
+    <row r="195" spans="1:15" ht="18.5">
       <c r="B195" s="38">
         <v>20230417223929</v>
       </c>
@@ -23324,7 +23483,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="18.75">
+    <row r="196" spans="1:15" ht="18.5">
       <c r="B196" s="38">
         <v>20230423215417</v>
       </c>
@@ -23371,7 +23530,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="18.75">
+    <row r="198" spans="1:15" ht="18.5">
       <c r="B198" s="38">
         <v>20230417234354</v>
       </c>
@@ -23415,7 +23574,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="18.75">
+    <row r="199" spans="1:15" ht="18.5">
       <c r="B199" s="38">
         <v>20230417235803</v>
       </c>
@@ -23456,7 +23615,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="18.75">
+    <row r="200" spans="1:15" ht="18.5">
       <c r="B200" s="38">
         <v>20230418001339</v>
       </c>
@@ -23500,7 +23659,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="18.75">
+    <row r="201" spans="1:15" ht="18.5">
       <c r="A201" t="s">
         <v>118</v>
       </c>
@@ -23547,7 +23706,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="18.75">
+    <row r="202" spans="1:15" ht="18.5">
       <c r="B202" s="38"/>
       <c r="C202" s="26">
         <v>10600</v>
@@ -23586,7 +23745,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="18.75">
+    <row r="203" spans="1:15" ht="18.5">
       <c r="A203" s="38">
         <v>20230417232841</v>
       </c>
@@ -23630,7 +23789,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="204" spans="1:15" s="16" customFormat="1" ht="18.75">
+    <row r="204" spans="1:15" s="16" customFormat="1" ht="18.5">
       <c r="A204" s="40" t="s">
         <v>118</v>
       </c>
@@ -23677,7 +23836,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="205" spans="1:15" s="16" customFormat="1" ht="18.75">
+    <row r="205" spans="1:15" s="16" customFormat="1" ht="18.5">
       <c r="A205" s="40" t="s">
         <v>118</v>
       </c>
@@ -23724,7 +23883,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="18.75">
+    <row r="206" spans="1:15" ht="18.5">
       <c r="A206" s="38">
         <v>20230417232841</v>
       </c>
@@ -23768,7 +23927,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="18.75">
+    <row r="207" spans="1:15" ht="18.5">
       <c r="A207" s="38">
         <v>20230417232841</v>
       </c>
@@ -23815,7 +23974,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="18.75">
+    <row r="208" spans="1:15" ht="18.5">
       <c r="A208" s="38">
         <v>20230417232841</v>
       </c>
@@ -23862,7 +24021,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="18.75">
+    <row r="209" spans="1:15" ht="18.5">
       <c r="B209" s="38">
         <v>20230423104141</v>
       </c>
@@ -23906,7 +24065,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="210" spans="1:15" s="16" customFormat="1" ht="18.75">
+    <row r="210" spans="1:15" s="16" customFormat="1" ht="18.5">
       <c r="B210" s="40"/>
       <c r="C210" s="28">
         <v>11000</v>
@@ -23945,7 +24104,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="18.75">
+    <row r="211" spans="1:15" ht="18.5">
       <c r="B211" s="38">
         <v>20230427230257</v>
       </c>
@@ -23989,7 +24148,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="18.75">
+    <row r="212" spans="1:15" ht="18.5">
       <c r="B212" s="38"/>
       <c r="C212" s="26">
         <v>12000</v>
@@ -24028,7 +24187,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="18.75">
+    <row r="213" spans="1:15" ht="18.5">
       <c r="B213" s="38">
         <v>20230427232001</v>
       </c>
@@ -24072,7 +24231,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="18.75">
+    <row r="214" spans="1:15" ht="18.5">
       <c r="B214" s="38">
         <v>20230427224222</v>
       </c>
@@ -24619,7 +24778,7 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
@@ -25344,19 +25503,19 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="19"/>
-    <col min="5" max="5" width="13.5703125" style="19" customWidth="1"/>
-    <col min="6" max="9" width="8.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="19"/>
-    <col min="11" max="11" width="18.140625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="19" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="19"/>
+    <col min="1" max="1" width="22.453125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="19"/>
+    <col min="5" max="5" width="13.54296875" style="19" customWidth="1"/>
+    <col min="6" max="9" width="8.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="19"/>
+    <col min="11" max="11" width="18.1796875" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" style="19" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:14">
@@ -26573,11 +26732,11 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -26694,24 +26853,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73000ED-ACF1-4870-B376-DD86BAB5368D}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="26.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -27825,7 +27985,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>247</v>
       </c>
@@ -27869,7 +28029,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -27913,12 +28073,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:18">
       <c r="C37" s="31">
         <v>100</v>
       </c>
@@ -27960,6 +28120,1739 @@
       </c>
       <c r="Q37" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>151</v>
+      </c>
+      <c r="R40" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="16" customFormat="1">
+      <c r="B42" s="27">
+        <v>498554</v>
+      </c>
+      <c r="C42" s="53">
+        <v>100</v>
+      </c>
+      <c r="D42" s="53">
+        <v>35</v>
+      </c>
+      <c r="E42" s="53">
+        <v>0</v>
+      </c>
+      <c r="F42" s="53">
+        <v>10</v>
+      </c>
+      <c r="G42" s="53">
+        <v>256</v>
+      </c>
+      <c r="H42" s="53">
+        <v>64</v>
+      </c>
+      <c r="I42" s="53">
+        <v>0</v>
+      </c>
+      <c r="J42" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="K42" s="53">
+        <v>1</v>
+      </c>
+      <c r="L42" s="53">
+        <v>1</v>
+      </c>
+      <c r="M42" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N42" s="53">
+        <v>1000</v>
+      </c>
+      <c r="O42" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P42" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q42" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="R42" s="53">
+        <v>18.0412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="16" customFormat="1">
+      <c r="B43" s="27">
+        <v>498545</v>
+      </c>
+      <c r="C43" s="53">
+        <v>100</v>
+      </c>
+      <c r="D43" s="53">
+        <v>35</v>
+      </c>
+      <c r="E43" s="53">
+        <v>0</v>
+      </c>
+      <c r="F43" s="53">
+        <v>10</v>
+      </c>
+      <c r="G43" s="53">
+        <v>256</v>
+      </c>
+      <c r="H43" s="53">
+        <v>64</v>
+      </c>
+      <c r="I43" s="53">
+        <v>0</v>
+      </c>
+      <c r="J43" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53">
+        <v>5</v>
+      </c>
+      <c r="M43" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N43" s="53">
+        <v>1000</v>
+      </c>
+      <c r="O43" s="53">
+        <v>10</v>
+      </c>
+      <c r="P43" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q43" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="R43" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="16" customFormat="1">
+      <c r="B44" s="27">
+        <v>498551</v>
+      </c>
+      <c r="C44" s="53">
+        <v>100</v>
+      </c>
+      <c r="D44" s="53">
+        <v>35</v>
+      </c>
+      <c r="E44" s="53">
+        <v>0</v>
+      </c>
+      <c r="F44" s="53">
+        <v>10</v>
+      </c>
+      <c r="G44" s="53">
+        <v>256</v>
+      </c>
+      <c r="H44" s="53">
+        <v>64</v>
+      </c>
+      <c r="I44" s="53">
+        <v>0</v>
+      </c>
+      <c r="J44" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53">
+        <v>2</v>
+      </c>
+      <c r="M44" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N44" s="53">
+        <v>1000</v>
+      </c>
+      <c r="O44" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P44" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q44" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="R44" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="16" customFormat="1">
+      <c r="B45" s="27">
+        <v>498552</v>
+      </c>
+      <c r="C45" s="53">
+        <v>100</v>
+      </c>
+      <c r="D45" s="53">
+        <v>35</v>
+      </c>
+      <c r="E45" s="53">
+        <v>0</v>
+      </c>
+      <c r="F45" s="53">
+        <v>10</v>
+      </c>
+      <c r="G45" s="53">
+        <v>256</v>
+      </c>
+      <c r="H45" s="53">
+        <v>64</v>
+      </c>
+      <c r="I45" s="53">
+        <v>0</v>
+      </c>
+      <c r="J45" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53">
+        <v>4</v>
+      </c>
+      <c r="M45" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N45" s="53">
+        <v>1000</v>
+      </c>
+      <c r="O45" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P45" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q45" s="16">
+        <v>56.929834999999997</v>
+      </c>
+      <c r="R45" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="16" customFormat="1">
+      <c r="B46" s="27">
+        <v>498553</v>
+      </c>
+      <c r="C46" s="53">
+        <v>100</v>
+      </c>
+      <c r="D46" s="53">
+        <v>35</v>
+      </c>
+      <c r="E46" s="53">
+        <v>0</v>
+      </c>
+      <c r="F46" s="53">
+        <v>10</v>
+      </c>
+      <c r="G46" s="53">
+        <v>256</v>
+      </c>
+      <c r="H46" s="53">
+        <v>64</v>
+      </c>
+      <c r="I46" s="53">
+        <v>0</v>
+      </c>
+      <c r="J46" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K46" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="L46" s="53">
+        <v>3</v>
+      </c>
+      <c r="M46" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N46" s="53">
+        <v>1000</v>
+      </c>
+      <c r="O46" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P46" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="R46" s="53">
+        <v>57.424432000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="16" customFormat="1">
+      <c r="B47" s="27">
+        <v>504615</v>
+      </c>
+      <c r="C47" s="53">
+        <v>100</v>
+      </c>
+      <c r="D47" s="53">
+        <v>35</v>
+      </c>
+      <c r="E47" s="53">
+        <v>0</v>
+      </c>
+      <c r="F47" s="53">
+        <v>10</v>
+      </c>
+      <c r="G47" s="53">
+        <v>256</v>
+      </c>
+      <c r="H47" s="53">
+        <v>64</v>
+      </c>
+      <c r="I47" s="53">
+        <v>0</v>
+      </c>
+      <c r="J47" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K47" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="L47" s="53">
+        <v>3</v>
+      </c>
+      <c r="M47" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N47" s="53">
+        <v>1000</v>
+      </c>
+      <c r="O47" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P47" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="R47" s="53">
+        <v>57.424432000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="16" customFormat="1">
+      <c r="A49" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B49" s="27"/>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="B50" s="18">
+        <v>498184</v>
+      </c>
+      <c r="C50" s="31">
+        <v>100</v>
+      </c>
+      <c r="D50" s="31">
+        <v>35</v>
+      </c>
+      <c r="E50" s="31">
+        <v>0</v>
+      </c>
+      <c r="F50" s="31">
+        <v>10</v>
+      </c>
+      <c r="G50" s="31">
+        <v>128</v>
+      </c>
+      <c r="H50" s="31">
+        <v>64</v>
+      </c>
+      <c r="I50" s="31">
+        <v>0</v>
+      </c>
+      <c r="J50" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="K50" s="31">
+        <v>1</v>
+      </c>
+      <c r="L50" s="31">
+        <v>1</v>
+      </c>
+      <c r="M50" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N50" s="31">
+        <v>10</v>
+      </c>
+      <c r="O50" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P50" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q50" s="31">
+        <v>18.041212000000002</v>
+      </c>
+      <c r="R50" s="31">
+        <v>18.0412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="B51" s="18">
+        <v>498190</v>
+      </c>
+      <c r="C51" s="31">
+        <v>100</v>
+      </c>
+      <c r="D51" s="31">
+        <v>35</v>
+      </c>
+      <c r="E51" s="31">
+        <v>0</v>
+      </c>
+      <c r="F51" s="31">
+        <v>10</v>
+      </c>
+      <c r="G51" s="31">
+        <v>128</v>
+      </c>
+      <c r="H51" s="31">
+        <v>64</v>
+      </c>
+      <c r="I51" s="31">
+        <v>0</v>
+      </c>
+      <c r="J51" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31">
+        <v>5</v>
+      </c>
+      <c r="M51" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N51" s="31">
+        <v>10</v>
+      </c>
+      <c r="O51" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P51" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q51" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="R51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="B52" s="18">
+        <v>498197</v>
+      </c>
+      <c r="C52" s="31">
+        <v>100</v>
+      </c>
+      <c r="D52" s="31">
+        <v>35</v>
+      </c>
+      <c r="E52" s="31">
+        <v>0</v>
+      </c>
+      <c r="F52" s="31">
+        <v>10</v>
+      </c>
+      <c r="G52" s="31">
+        <v>128</v>
+      </c>
+      <c r="H52" s="31">
+        <v>64</v>
+      </c>
+      <c r="I52" s="31">
+        <v>0</v>
+      </c>
+      <c r="J52" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K52" s="31"/>
+      <c r="L52" s="53">
+        <v>2</v>
+      </c>
+      <c r="M52" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N52" s="31">
+        <v>10</v>
+      </c>
+      <c r="O52" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P52" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>272</v>
+      </c>
+      <c r="R52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="C53" s="31">
+        <v>100</v>
+      </c>
+      <c r="D53" s="31">
+        <v>35</v>
+      </c>
+      <c r="E53" s="31">
+        <v>0</v>
+      </c>
+      <c r="F53" s="31">
+        <v>10</v>
+      </c>
+      <c r="G53" s="31">
+        <v>128</v>
+      </c>
+      <c r="H53" s="31">
+        <v>64</v>
+      </c>
+      <c r="I53" s="31">
+        <v>0</v>
+      </c>
+      <c r="J53" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31">
+        <v>4</v>
+      </c>
+      <c r="M53" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N53" s="31">
+        <v>10</v>
+      </c>
+      <c r="O53" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P53" t="s">
+        <v>144</v>
+      </c>
+      <c r="R53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="C54" s="31">
+        <v>100</v>
+      </c>
+      <c r="D54" s="31">
+        <v>35</v>
+      </c>
+      <c r="E54" s="31">
+        <v>0</v>
+      </c>
+      <c r="F54" s="31">
+        <v>10</v>
+      </c>
+      <c r="G54" s="31">
+        <v>128</v>
+      </c>
+      <c r="H54" s="31">
+        <v>64</v>
+      </c>
+      <c r="I54" s="31">
+        <v>0</v>
+      </c>
+      <c r="J54" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31">
+        <v>3</v>
+      </c>
+      <c r="M54" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N54" s="31">
+        <v>10</v>
+      </c>
+      <c r="O54" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P54" t="s">
+        <v>143</v>
+      </c>
+      <c r="R54" s="31">
+        <v>57.424432000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="C57" s="31">
+        <v>100</v>
+      </c>
+      <c r="D57" s="31">
+        <v>35</v>
+      </c>
+      <c r="E57" s="31">
+        <v>0</v>
+      </c>
+      <c r="F57" s="31">
+        <v>10</v>
+      </c>
+      <c r="G57" s="31">
+        <v>64</v>
+      </c>
+      <c r="H57" s="31">
+        <v>64</v>
+      </c>
+      <c r="I57" s="31">
+        <v>0</v>
+      </c>
+      <c r="J57" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="K57" s="31">
+        <v>1</v>
+      </c>
+      <c r="L57" s="31">
+        <v>1</v>
+      </c>
+      <c r="M57" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N57" s="31">
+        <v>10</v>
+      </c>
+      <c r="O57" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P57" t="s">
+        <v>149</v>
+      </c>
+      <c r="R57" s="31">
+        <v>18.0412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="C58" s="31">
+        <v>100</v>
+      </c>
+      <c r="D58" s="31">
+        <v>35</v>
+      </c>
+      <c r="E58" s="31">
+        <v>0</v>
+      </c>
+      <c r="F58" s="31">
+        <v>10</v>
+      </c>
+      <c r="G58" s="31">
+        <v>64</v>
+      </c>
+      <c r="H58" s="31">
+        <v>64</v>
+      </c>
+      <c r="I58" s="31">
+        <v>0</v>
+      </c>
+      <c r="J58" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31">
+        <v>5</v>
+      </c>
+      <c r="M58" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N58" s="31">
+        <v>10</v>
+      </c>
+      <c r="O58" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P58" t="s">
+        <v>142</v>
+      </c>
+      <c r="R58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="C59" s="31">
+        <v>100</v>
+      </c>
+      <c r="D59" s="31">
+        <v>35</v>
+      </c>
+      <c r="E59" s="31">
+        <v>0</v>
+      </c>
+      <c r="F59" s="31">
+        <v>10</v>
+      </c>
+      <c r="G59" s="31">
+        <v>64</v>
+      </c>
+      <c r="H59" s="31">
+        <v>64</v>
+      </c>
+      <c r="I59" s="31">
+        <v>0</v>
+      </c>
+      <c r="J59" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31">
+        <v>1</v>
+      </c>
+      <c r="M59" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N59" s="31">
+        <v>10</v>
+      </c>
+      <c r="O59" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P59" t="s">
+        <v>141</v>
+      </c>
+      <c r="R59" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="C60" s="31">
+        <v>100</v>
+      </c>
+      <c r="D60" s="31">
+        <v>35</v>
+      </c>
+      <c r="E60" s="31">
+        <v>0</v>
+      </c>
+      <c r="F60" s="31">
+        <v>10</v>
+      </c>
+      <c r="G60" s="31">
+        <v>64</v>
+      </c>
+      <c r="H60" s="31">
+        <v>64</v>
+      </c>
+      <c r="I60" s="31">
+        <v>0</v>
+      </c>
+      <c r="J60" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31">
+        <v>4</v>
+      </c>
+      <c r="M60" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N60" s="31">
+        <v>10</v>
+      </c>
+      <c r="O60" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P60" t="s">
+        <v>144</v>
+      </c>
+      <c r="R60" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="C61" s="31">
+        <v>100</v>
+      </c>
+      <c r="D61" s="31">
+        <v>35</v>
+      </c>
+      <c r="E61" s="31">
+        <v>0</v>
+      </c>
+      <c r="F61" s="31">
+        <v>10</v>
+      </c>
+      <c r="G61" s="31">
+        <v>64</v>
+      </c>
+      <c r="H61" s="31">
+        <v>64</v>
+      </c>
+      <c r="I61" s="31">
+        <v>0</v>
+      </c>
+      <c r="J61" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31">
+        <v>3</v>
+      </c>
+      <c r="M61" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N61" s="31">
+        <v>10</v>
+      </c>
+      <c r="O61" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P61" t="s">
+        <v>143</v>
+      </c>
+      <c r="R61" s="31">
+        <v>57.424432000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="C64" s="31">
+        <v>100</v>
+      </c>
+      <c r="D64" s="31">
+        <v>35</v>
+      </c>
+      <c r="E64" s="31">
+        <v>0</v>
+      </c>
+      <c r="F64" s="31">
+        <v>10</v>
+      </c>
+      <c r="G64" s="31">
+        <v>32</v>
+      </c>
+      <c r="H64" s="31">
+        <v>64</v>
+      </c>
+      <c r="I64" s="31">
+        <v>0</v>
+      </c>
+      <c r="J64" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="K64" s="31">
+        <v>1</v>
+      </c>
+      <c r="L64" s="31">
+        <v>1</v>
+      </c>
+      <c r="M64" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N64" s="31">
+        <v>10</v>
+      </c>
+      <c r="O64" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P64" t="s">
+        <v>149</v>
+      </c>
+      <c r="R64" s="31">
+        <v>18.0412</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="C65" s="31">
+        <v>100</v>
+      </c>
+      <c r="D65" s="31">
+        <v>35</v>
+      </c>
+      <c r="E65" s="31">
+        <v>0</v>
+      </c>
+      <c r="F65" s="31">
+        <v>10</v>
+      </c>
+      <c r="G65" s="31">
+        <v>32</v>
+      </c>
+      <c r="H65" s="31">
+        <v>64</v>
+      </c>
+      <c r="I65" s="31">
+        <v>0</v>
+      </c>
+      <c r="J65" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31">
+        <v>5</v>
+      </c>
+      <c r="M65" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N65" s="31">
+        <v>10</v>
+      </c>
+      <c r="O65" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P65" t="s">
+        <v>142</v>
+      </c>
+      <c r="R65" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="C66" s="31">
+        <v>100</v>
+      </c>
+      <c r="D66" s="31">
+        <v>35</v>
+      </c>
+      <c r="E66" s="31">
+        <v>0</v>
+      </c>
+      <c r="F66" s="31">
+        <v>10</v>
+      </c>
+      <c r="G66" s="31">
+        <v>32</v>
+      </c>
+      <c r="H66" s="31">
+        <v>64</v>
+      </c>
+      <c r="I66" s="31">
+        <v>0</v>
+      </c>
+      <c r="J66" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31">
+        <v>1</v>
+      </c>
+      <c r="M66" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N66" s="31">
+        <v>10</v>
+      </c>
+      <c r="O66" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P66" t="s">
+        <v>141</v>
+      </c>
+      <c r="R66" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="C67" s="31">
+        <v>100</v>
+      </c>
+      <c r="D67" s="31">
+        <v>35</v>
+      </c>
+      <c r="E67" s="31">
+        <v>0</v>
+      </c>
+      <c r="F67" s="31">
+        <v>10</v>
+      </c>
+      <c r="G67" s="31">
+        <v>32</v>
+      </c>
+      <c r="H67" s="31">
+        <v>64</v>
+      </c>
+      <c r="I67" s="31">
+        <v>0</v>
+      </c>
+      <c r="J67" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31">
+        <v>4</v>
+      </c>
+      <c r="M67" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N67" s="31">
+        <v>10</v>
+      </c>
+      <c r="O67" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P67" t="s">
+        <v>144</v>
+      </c>
+      <c r="R67" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="C68" s="31">
+        <v>100</v>
+      </c>
+      <c r="D68" s="31">
+        <v>35</v>
+      </c>
+      <c r="E68" s="31">
+        <v>0</v>
+      </c>
+      <c r="F68" s="31">
+        <v>10</v>
+      </c>
+      <c r="G68" s="31">
+        <v>32</v>
+      </c>
+      <c r="H68" s="31">
+        <v>64</v>
+      </c>
+      <c r="I68" s="31">
+        <v>0</v>
+      </c>
+      <c r="J68" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31">
+        <v>3</v>
+      </c>
+      <c r="M68" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N68" s="31">
+        <v>10</v>
+      </c>
+      <c r="O68" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P68" t="s">
+        <v>143</v>
+      </c>
+      <c r="R68" s="31">
+        <v>57.424432000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="C71" s="31">
+        <v>100</v>
+      </c>
+      <c r="D71" s="31">
+        <v>35</v>
+      </c>
+      <c r="E71" s="31">
+        <v>0</v>
+      </c>
+      <c r="F71" s="31">
+        <v>10</v>
+      </c>
+      <c r="G71" s="31">
+        <v>16</v>
+      </c>
+      <c r="H71" s="31">
+        <v>64</v>
+      </c>
+      <c r="I71" s="31">
+        <v>0</v>
+      </c>
+      <c r="J71" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="K71" s="31">
+        <v>1</v>
+      </c>
+      <c r="L71" s="31">
+        <v>1</v>
+      </c>
+      <c r="M71" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N71" s="31">
+        <v>10</v>
+      </c>
+      <c r="O71" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P71" t="s">
+        <v>149</v>
+      </c>
+      <c r="R71" s="31">
+        <v>18.0412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="C72" s="31">
+        <v>100</v>
+      </c>
+      <c r="D72" s="31">
+        <v>35</v>
+      </c>
+      <c r="E72" s="31">
+        <v>0</v>
+      </c>
+      <c r="F72" s="31">
+        <v>10</v>
+      </c>
+      <c r="G72" s="31">
+        <v>16</v>
+      </c>
+      <c r="H72" s="31">
+        <v>64</v>
+      </c>
+      <c r="I72" s="31">
+        <v>0</v>
+      </c>
+      <c r="J72" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K72" s="31"/>
+      <c r="L72" s="31">
+        <v>5</v>
+      </c>
+      <c r="M72" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N72" s="31">
+        <v>10</v>
+      </c>
+      <c r="O72" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P72" t="s">
+        <v>142</v>
+      </c>
+      <c r="R72" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="C73" s="31">
+        <v>100</v>
+      </c>
+      <c r="D73" s="31">
+        <v>35</v>
+      </c>
+      <c r="E73" s="31">
+        <v>0</v>
+      </c>
+      <c r="F73" s="31">
+        <v>10</v>
+      </c>
+      <c r="G73" s="31">
+        <v>16</v>
+      </c>
+      <c r="H73" s="31">
+        <v>64</v>
+      </c>
+      <c r="I73" s="31">
+        <v>0</v>
+      </c>
+      <c r="J73" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31">
+        <v>1</v>
+      </c>
+      <c r="M73" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N73" s="31">
+        <v>10</v>
+      </c>
+      <c r="O73" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P73" t="s">
+        <v>141</v>
+      </c>
+      <c r="R73" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="C74" s="31">
+        <v>100</v>
+      </c>
+      <c r="D74" s="31">
+        <v>35</v>
+      </c>
+      <c r="E74" s="31">
+        <v>0</v>
+      </c>
+      <c r="F74" s="31">
+        <v>10</v>
+      </c>
+      <c r="G74" s="31">
+        <v>16</v>
+      </c>
+      <c r="H74" s="31">
+        <v>64</v>
+      </c>
+      <c r="I74" s="31">
+        <v>0</v>
+      </c>
+      <c r="J74" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31">
+        <v>4</v>
+      </c>
+      <c r="M74" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N74" s="31">
+        <v>10</v>
+      </c>
+      <c r="O74" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P74" t="s">
+        <v>144</v>
+      </c>
+      <c r="R74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="C75" s="31">
+        <v>100</v>
+      </c>
+      <c r="D75" s="31">
+        <v>35</v>
+      </c>
+      <c r="E75" s="31">
+        <v>0</v>
+      </c>
+      <c r="F75" s="31">
+        <v>10</v>
+      </c>
+      <c r="G75" s="31">
+        <v>16</v>
+      </c>
+      <c r="H75" s="31">
+        <v>64</v>
+      </c>
+      <c r="I75" s="31">
+        <v>0</v>
+      </c>
+      <c r="J75" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K75" s="31"/>
+      <c r="L75" s="31">
+        <v>3</v>
+      </c>
+      <c r="M75" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N75" s="31">
+        <v>10</v>
+      </c>
+      <c r="O75" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P75" t="s">
+        <v>143</v>
+      </c>
+      <c r="R75" s="31">
+        <v>57.424432000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="C78" s="31">
+        <v>100</v>
+      </c>
+      <c r="D78" s="31">
+        <v>35</v>
+      </c>
+      <c r="E78" s="31">
+        <v>0</v>
+      </c>
+      <c r="F78" s="31">
+        <v>20</v>
+      </c>
+      <c r="G78" s="31">
+        <v>512</v>
+      </c>
+      <c r="H78" s="31">
+        <v>64</v>
+      </c>
+      <c r="I78" s="31">
+        <v>0</v>
+      </c>
+      <c r="J78" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="K78" s="31">
+        <v>1</v>
+      </c>
+      <c r="L78" s="31">
+        <v>1</v>
+      </c>
+      <c r="M78" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N78" s="31">
+        <v>10</v>
+      </c>
+      <c r="O78" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P78" t="s">
+        <v>149</v>
+      </c>
+      <c r="R78" s="31">
+        <v>18.0412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="C79" s="31">
+        <v>100</v>
+      </c>
+      <c r="D79" s="31">
+        <v>35</v>
+      </c>
+      <c r="E79" s="31">
+        <v>0</v>
+      </c>
+      <c r="F79" s="31">
+        <v>20</v>
+      </c>
+      <c r="G79" s="31">
+        <v>512</v>
+      </c>
+      <c r="H79" s="31">
+        <v>64</v>
+      </c>
+      <c r="I79" s="31">
+        <v>0</v>
+      </c>
+      <c r="J79" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K79" s="31"/>
+      <c r="L79" s="31">
+        <v>5</v>
+      </c>
+      <c r="M79" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N79" s="31">
+        <v>10</v>
+      </c>
+      <c r="O79" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P79" t="s">
+        <v>142</v>
+      </c>
+      <c r="R79" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="C80" s="31">
+        <v>100</v>
+      </c>
+      <c r="D80" s="31">
+        <v>35</v>
+      </c>
+      <c r="E80" s="31">
+        <v>0</v>
+      </c>
+      <c r="F80" s="31">
+        <v>20</v>
+      </c>
+      <c r="G80" s="31">
+        <v>512</v>
+      </c>
+      <c r="H80" s="31">
+        <v>64</v>
+      </c>
+      <c r="I80" s="31">
+        <v>0</v>
+      </c>
+      <c r="J80" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K80" s="31"/>
+      <c r="L80" s="31">
+        <v>1</v>
+      </c>
+      <c r="M80" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N80" s="31">
+        <v>10</v>
+      </c>
+      <c r="O80" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P80" t="s">
+        <v>141</v>
+      </c>
+      <c r="R80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="C81" s="31">
+        <v>100</v>
+      </c>
+      <c r="D81" s="31">
+        <v>35</v>
+      </c>
+      <c r="E81" s="31">
+        <v>0</v>
+      </c>
+      <c r="F81" s="31">
+        <v>20</v>
+      </c>
+      <c r="G81" s="31">
+        <v>512</v>
+      </c>
+      <c r="H81" s="31">
+        <v>64</v>
+      </c>
+      <c r="I81" s="31">
+        <v>0</v>
+      </c>
+      <c r="J81" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K81" s="31"/>
+      <c r="L81" s="31">
+        <v>4</v>
+      </c>
+      <c r="M81" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N81" s="31">
+        <v>10</v>
+      </c>
+      <c r="O81" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P81" t="s">
+        <v>144</v>
+      </c>
+      <c r="R81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="C82" s="31">
+        <v>100</v>
+      </c>
+      <c r="D82" s="31">
+        <v>35</v>
+      </c>
+      <c r="E82" s="31">
+        <v>0</v>
+      </c>
+      <c r="F82" s="31">
+        <v>20</v>
+      </c>
+      <c r="G82" s="31">
+        <v>512</v>
+      </c>
+      <c r="H82" s="31">
+        <v>64</v>
+      </c>
+      <c r="I82" s="31">
+        <v>0</v>
+      </c>
+      <c r="J82" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K82" s="31"/>
+      <c r="L82" s="31">
+        <v>3</v>
+      </c>
+      <c r="M82" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N82" s="31">
+        <v>10</v>
+      </c>
+      <c r="O82" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P82" t="s">
+        <v>143</v>
+      </c>
+      <c r="R82" s="31">
+        <v>57.424432000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="C85" s="31">
+        <v>100</v>
+      </c>
+      <c r="D85" s="31">
+        <v>35</v>
+      </c>
+      <c r="E85" s="31">
+        <v>0</v>
+      </c>
+      <c r="F85" s="31">
+        <v>40</v>
+      </c>
+      <c r="G85" s="31">
+        <v>1024</v>
+      </c>
+      <c r="H85" s="31">
+        <v>64</v>
+      </c>
+      <c r="I85" s="31">
+        <v>0</v>
+      </c>
+      <c r="J85" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="K85" s="31">
+        <v>1</v>
+      </c>
+      <c r="L85" s="31">
+        <v>1</v>
+      </c>
+      <c r="M85" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N85" s="31">
+        <v>10</v>
+      </c>
+      <c r="O85" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P85" t="s">
+        <v>149</v>
+      </c>
+      <c r="R85" s="31">
+        <v>18.0412</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="C86" s="31">
+        <v>100</v>
+      </c>
+      <c r="D86" s="31">
+        <v>35</v>
+      </c>
+      <c r="E86" s="31">
+        <v>0</v>
+      </c>
+      <c r="F86" s="31">
+        <v>40</v>
+      </c>
+      <c r="G86" s="31">
+        <v>1024</v>
+      </c>
+      <c r="H86" s="31">
+        <v>64</v>
+      </c>
+      <c r="I86" s="31">
+        <v>0</v>
+      </c>
+      <c r="J86" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K86" s="31"/>
+      <c r="L86" s="31">
+        <v>5</v>
+      </c>
+      <c r="M86" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N86" s="31">
+        <v>10</v>
+      </c>
+      <c r="O86" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P86" t="s">
+        <v>142</v>
+      </c>
+      <c r="R86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="C87" s="31">
+        <v>100</v>
+      </c>
+      <c r="D87" s="31">
+        <v>35</v>
+      </c>
+      <c r="E87" s="31">
+        <v>0</v>
+      </c>
+      <c r="F87" s="31">
+        <v>40</v>
+      </c>
+      <c r="G87" s="31">
+        <v>1024</v>
+      </c>
+      <c r="H87" s="31">
+        <v>64</v>
+      </c>
+      <c r="I87" s="31">
+        <v>0</v>
+      </c>
+      <c r="J87" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K87" s="31"/>
+      <c r="L87" s="31">
+        <v>1</v>
+      </c>
+      <c r="M87" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N87" s="31">
+        <v>10</v>
+      </c>
+      <c r="O87" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P87" t="s">
+        <v>141</v>
+      </c>
+      <c r="R87" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="C88" s="31">
+        <v>100</v>
+      </c>
+      <c r="D88" s="31">
+        <v>35</v>
+      </c>
+      <c r="E88" s="31">
+        <v>0</v>
+      </c>
+      <c r="F88" s="31">
+        <v>40</v>
+      </c>
+      <c r="G88" s="31">
+        <v>1024</v>
+      </c>
+      <c r="H88" s="31">
+        <v>64</v>
+      </c>
+      <c r="I88" s="31">
+        <v>0</v>
+      </c>
+      <c r="J88" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K88" s="31"/>
+      <c r="L88" s="31">
+        <v>4</v>
+      </c>
+      <c r="M88" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N88" s="31">
+        <v>10</v>
+      </c>
+      <c r="O88" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P88" t="s">
+        <v>144</v>
+      </c>
+      <c r="R88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="C89" s="31">
+        <v>100</v>
+      </c>
+      <c r="D89" s="31">
+        <v>35</v>
+      </c>
+      <c r="E89" s="31">
+        <v>0</v>
+      </c>
+      <c r="F89" s="31">
+        <v>40</v>
+      </c>
+      <c r="G89" s="31">
+        <v>1024</v>
+      </c>
+      <c r="H89" s="31">
+        <v>64</v>
+      </c>
+      <c r="I89" s="31">
+        <v>0</v>
+      </c>
+      <c r="J89" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K89" s="31"/>
+      <c r="L89" s="31">
+        <v>3</v>
+      </c>
+      <c r="M89" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N89" s="31">
+        <v>10</v>
+      </c>
+      <c r="O89" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P89" t="s">
+        <v>143</v>
+      </c>
+      <c r="R89" s="31">
+        <v>57.424432000000003</v>
       </c>
     </row>
   </sheetData>
@@ -27975,9 +29868,9 @@
       <selection activeCell="A12" sqref="A12:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ECF6E7-56E8-4B42-ACDB-15291C108AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04F5A2D-FE10-43EE-BAC8-0CE820F4AF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="284">
   <si>
     <t>slurm_num</t>
   </si>
@@ -875,7 +875,25 @@
     <t>initial_phase=0</t>
   </si>
   <si>
-    <t>initial_phase=pi/2</t>
+    <t>Lx=15, Nx=384</t>
+  </si>
+  <si>
+    <t>Lx=30, Nx=768</t>
+  </si>
+  <si>
+    <t>0 trivial state</t>
+  </si>
+  <si>
+    <t>18…</t>
+  </si>
+  <si>
+    <t>35….</t>
+  </si>
+  <si>
+    <t>54…</t>
+  </si>
+  <si>
+    <t>58…</t>
   </si>
 </sst>
 </file>
@@ -26853,10 +26871,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73000ED-ACF1-4870-B376-DD86BAB5368D}">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -28346,7 +28364,7 @@
     </row>
     <row r="46" spans="1:18" s="16" customFormat="1">
       <c r="B46" s="27">
-        <v>498553</v>
+        <v>504615</v>
       </c>
       <c r="C46" s="53">
         <v>100</v>
@@ -28373,7 +28391,7 @@
         <v>146</v>
       </c>
       <c r="K46" s="53" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L46" s="53">
         <v>3</v>
@@ -28396,7 +28414,7 @@
     </row>
     <row r="47" spans="1:18" s="16" customFormat="1">
       <c r="B47" s="27">
-        <v>504615</v>
+        <v>1406676</v>
       </c>
       <c r="C47" s="53">
         <v>100</v>
@@ -28426,7 +28444,7 @@
         <v>276</v>
       </c>
       <c r="L47" s="53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M47" s="53">
         <v>1E-3</v>
@@ -28438,11 +28456,9 @@
         <v>0.1</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="R47" s="53">
-        <v>57.424432000000003</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="R47" s="53"/>
     </row>
     <row r="49" spans="1:18" s="16" customFormat="1">
       <c r="A49" s="16" t="s">
@@ -28695,56 +28711,25 @@
         <v>57.424432000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
-      <c r="A56" t="s">
+    <row r="55" spans="1:18">
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="R55" s="31"/>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
-      <c r="C57" s="31">
-        <v>100</v>
-      </c>
-      <c r="D57" s="31">
-        <v>35</v>
-      </c>
-      <c r="E57" s="31">
-        <v>0</v>
-      </c>
-      <c r="F57" s="31">
-        <v>10</v>
-      </c>
-      <c r="G57" s="31">
-        <v>64</v>
-      </c>
-      <c r="H57" s="31">
-        <v>64</v>
-      </c>
-      <c r="I57" s="31">
-        <v>0</v>
-      </c>
-      <c r="J57" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="K57" s="31">
-        <v>1</v>
-      </c>
-      <c r="L57" s="31">
-        <v>1</v>
-      </c>
-      <c r="M57" s="31">
-        <v>1E-3</v>
-      </c>
-      <c r="N57" s="31">
-        <v>10</v>
-      </c>
-      <c r="O57" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="P57" t="s">
-        <v>149</v>
-      </c>
-      <c r="R57" s="31">
-        <v>18.0412</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -28770,11 +28755,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="K58" s="31"/>
+        <v>148</v>
+      </c>
+      <c r="K58" s="31">
+        <v>1</v>
+      </c>
       <c r="L58" s="31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M58" s="31">
         <v>1E-3</v>
@@ -28786,10 +28773,10 @@
         <v>0.1</v>
       </c>
       <c r="P58" t="s">
-        <v>142</v>
-      </c>
-      <c r="R58" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="R58" s="31">
+        <v>18.0412</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -28819,7 +28806,7 @@
       </c>
       <c r="K59" s="31"/>
       <c r="L59" s="31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M59" s="31">
         <v>1E-3</v>
@@ -28831,10 +28818,10 @@
         <v>0.1</v>
       </c>
       <c r="P59" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -28864,7 +28851,7 @@
       </c>
       <c r="K60" s="31"/>
       <c r="L60" s="31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M60" s="31">
         <v>1E-3</v>
@@ -28876,10 +28863,10 @@
         <v>0.1</v>
       </c>
       <c r="P60" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -28909,7 +28896,7 @@
       </c>
       <c r="K61" s="31"/>
       <c r="L61" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M61" s="31">
         <v>1E-3</v>
@@ -28921,62 +28908,60 @@
         <v>0.1</v>
       </c>
       <c r="P61" t="s">
+        <v>144</v>
+      </c>
+      <c r="R61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="C62" s="31">
+        <v>100</v>
+      </c>
+      <c r="D62" s="31">
+        <v>35</v>
+      </c>
+      <c r="E62" s="31">
+        <v>0</v>
+      </c>
+      <c r="F62" s="31">
+        <v>10</v>
+      </c>
+      <c r="G62" s="31">
+        <v>64</v>
+      </c>
+      <c r="H62" s="31">
+        <v>64</v>
+      </c>
+      <c r="I62" s="31">
+        <v>0</v>
+      </c>
+      <c r="J62" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31">
+        <v>3</v>
+      </c>
+      <c r="M62" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N62" s="31">
+        <v>10</v>
+      </c>
+      <c r="O62" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P62" t="s">
         <v>143</v>
       </c>
-      <c r="R61" s="31">
+      <c r="R62" s="31">
         <v>57.424432000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
-      <c r="A63" t="s">
+    <row r="64" spans="1:18">
+      <c r="A64" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
-      <c r="C64" s="31">
-        <v>100</v>
-      </c>
-      <c r="D64" s="31">
-        <v>35</v>
-      </c>
-      <c r="E64" s="31">
-        <v>0</v>
-      </c>
-      <c r="F64" s="31">
-        <v>10</v>
-      </c>
-      <c r="G64" s="31">
-        <v>32</v>
-      </c>
-      <c r="H64" s="31">
-        <v>64</v>
-      </c>
-      <c r="I64" s="31">
-        <v>0</v>
-      </c>
-      <c r="J64" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="K64" s="31">
-        <v>1</v>
-      </c>
-      <c r="L64" s="31">
-        <v>1</v>
-      </c>
-      <c r="M64" s="31">
-        <v>1E-3</v>
-      </c>
-      <c r="N64" s="31">
-        <v>10</v>
-      </c>
-      <c r="O64" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="P64" t="s">
-        <v>149</v>
-      </c>
-      <c r="R64" s="31">
-        <v>18.0412</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -29002,11 +28987,13 @@
         <v>0</v>
       </c>
       <c r="J65" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="K65" s="31"/>
+        <v>148</v>
+      </c>
+      <c r="K65" s="31">
+        <v>1</v>
+      </c>
       <c r="L65" s="31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M65" s="31">
         <v>1E-3</v>
@@ -29018,10 +29005,10 @@
         <v>0.1</v>
       </c>
       <c r="P65" t="s">
-        <v>142</v>
-      </c>
-      <c r="R65" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="R65" s="31">
+        <v>18.0412</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -29051,7 +29038,7 @@
       </c>
       <c r="K66" s="31"/>
       <c r="L66" s="31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M66" s="31">
         <v>1E-3</v>
@@ -29063,10 +29050,10 @@
         <v>0.1</v>
       </c>
       <c r="P66" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -29096,7 +29083,7 @@
       </c>
       <c r="K67" s="31"/>
       <c r="L67" s="31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M67" s="31">
         <v>1E-3</v>
@@ -29108,10 +29095,10 @@
         <v>0.1</v>
       </c>
       <c r="P67" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R67" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -29141,7 +29128,7 @@
       </c>
       <c r="K68" s="31"/>
       <c r="L68" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M68" s="31">
         <v>1E-3</v>
@@ -29153,62 +29140,60 @@
         <v>0.1</v>
       </c>
       <c r="P68" t="s">
+        <v>144</v>
+      </c>
+      <c r="R68" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="C69" s="31">
+        <v>100</v>
+      </c>
+      <c r="D69" s="31">
+        <v>35</v>
+      </c>
+      <c r="E69" s="31">
+        <v>0</v>
+      </c>
+      <c r="F69" s="31">
+        <v>10</v>
+      </c>
+      <c r="G69" s="31">
+        <v>32</v>
+      </c>
+      <c r="H69" s="31">
+        <v>64</v>
+      </c>
+      <c r="I69" s="31">
+        <v>0</v>
+      </c>
+      <c r="J69" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31">
+        <v>3</v>
+      </c>
+      <c r="M69" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N69" s="31">
+        <v>10</v>
+      </c>
+      <c r="O69" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P69" t="s">
         <v>143</v>
       </c>
-      <c r="R68" s="31">
+      <c r="R69" s="31">
         <v>57.424432000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
-      <c r="A70" t="s">
+    <row r="71" spans="1:18">
+      <c r="A71" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
-      <c r="C71" s="31">
-        <v>100</v>
-      </c>
-      <c r="D71" s="31">
-        <v>35</v>
-      </c>
-      <c r="E71" s="31">
-        <v>0</v>
-      </c>
-      <c r="F71" s="31">
-        <v>10</v>
-      </c>
-      <c r="G71" s="31">
-        <v>16</v>
-      </c>
-      <c r="H71" s="31">
-        <v>64</v>
-      </c>
-      <c r="I71" s="31">
-        <v>0</v>
-      </c>
-      <c r="J71" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="K71" s="31">
-        <v>1</v>
-      </c>
-      <c r="L71" s="31">
-        <v>1</v>
-      </c>
-      <c r="M71" s="31">
-        <v>1E-3</v>
-      </c>
-      <c r="N71" s="31">
-        <v>10</v>
-      </c>
-      <c r="O71" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="P71" t="s">
-        <v>149</v>
-      </c>
-      <c r="R71" s="31">
-        <v>18.0412</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -29234,11 +29219,13 @@
         <v>0</v>
       </c>
       <c r="J72" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="K72" s="31"/>
+        <v>148</v>
+      </c>
+      <c r="K72" s="31">
+        <v>1</v>
+      </c>
       <c r="L72" s="31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M72" s="31">
         <v>1E-3</v>
@@ -29250,10 +29237,10 @@
         <v>0.1</v>
       </c>
       <c r="P72" t="s">
-        <v>142</v>
-      </c>
-      <c r="R72" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="R72" s="31">
+        <v>18.0412</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -29283,7 +29270,7 @@
       </c>
       <c r="K73" s="31"/>
       <c r="L73" s="31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M73" s="31">
         <v>1E-3</v>
@@ -29295,10 +29282,10 @@
         <v>0.1</v>
       </c>
       <c r="P73" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -29328,7 +29315,7 @@
       </c>
       <c r="K74" s="31"/>
       <c r="L74" s="31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M74" s="31">
         <v>1E-3</v>
@@ -29340,10 +29327,10 @@
         <v>0.1</v>
       </c>
       <c r="P74" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R74" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -29373,7 +29360,7 @@
       </c>
       <c r="K75" s="31"/>
       <c r="L75" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M75" s="31">
         <v>1E-3</v>
@@ -29385,474 +29372,1271 @@
         <v>0.1</v>
       </c>
       <c r="P75" t="s">
+        <v>144</v>
+      </c>
+      <c r="R75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="C76" s="31">
+        <v>100</v>
+      </c>
+      <c r="D76" s="31">
+        <v>35</v>
+      </c>
+      <c r="E76" s="31">
+        <v>0</v>
+      </c>
+      <c r="F76" s="31">
+        <v>10</v>
+      </c>
+      <c r="G76" s="31">
+        <v>16</v>
+      </c>
+      <c r="H76" s="31">
+        <v>64</v>
+      </c>
+      <c r="I76" s="31">
+        <v>0</v>
+      </c>
+      <c r="J76" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31">
+        <v>3</v>
+      </c>
+      <c r="M76" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N76" s="31">
+        <v>10</v>
+      </c>
+      <c r="O76" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="P76" t="s">
         <v>143</v>
       </c>
-      <c r="R75" s="31">
+      <c r="R76" s="31">
         <v>57.424432000000003</v>
       </c>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" t="s">
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="31"/>
+      <c r="R77" s="31"/>
+    </row>
+    <row r="78" spans="1:18" s="16" customFormat="1">
+      <c r="A78" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B78" s="27"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="53"/>
+      <c r="K78" s="53"/>
+      <c r="L78" s="53"/>
+      <c r="M78" s="53"/>
+      <c r="N78" s="53"/>
+      <c r="O78" s="53"/>
+      <c r="R78" s="53"/>
+    </row>
+    <row r="79" spans="1:18" s="16" customFormat="1">
+      <c r="B79" s="27">
+        <v>1406911</v>
+      </c>
+      <c r="C79" s="53">
+        <v>100</v>
+      </c>
+      <c r="D79" s="53">
+        <v>35</v>
+      </c>
+      <c r="E79" s="53">
+        <v>0</v>
+      </c>
+      <c r="F79" s="53">
+        <v>15</v>
+      </c>
+      <c r="G79" s="53">
+        <v>384</v>
+      </c>
+      <c r="H79" s="53">
+        <v>64</v>
+      </c>
+      <c r="I79" s="53">
+        <v>0</v>
+      </c>
+      <c r="J79" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="K79" s="53">
+        <v>1</v>
+      </c>
+      <c r="L79" s="53">
+        <v>1</v>
+      </c>
+      <c r="M79" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N79" s="53">
+        <v>10</v>
+      </c>
+      <c r="O79" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P79" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q79" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="R79" s="53">
+        <v>18.0412</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="16" customFormat="1">
+      <c r="B80" s="27">
+        <v>1406913</v>
+      </c>
+      <c r="C80" s="53">
+        <v>100</v>
+      </c>
+      <c r="D80" s="53">
+        <v>35</v>
+      </c>
+      <c r="E80" s="53">
+        <v>0</v>
+      </c>
+      <c r="F80" s="53">
+        <v>15</v>
+      </c>
+      <c r="G80" s="53">
+        <v>384</v>
+      </c>
+      <c r="H80" s="53">
+        <v>64</v>
+      </c>
+      <c r="I80" s="53">
+        <v>0</v>
+      </c>
+      <c r="J80" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K80" s="53"/>
+      <c r="L80" s="53">
+        <v>5</v>
+      </c>
+      <c r="M80" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N80" s="53">
+        <v>10</v>
+      </c>
+      <c r="O80" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P80" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q80" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="R80" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" s="16" customFormat="1">
+      <c r="B81" s="27">
+        <v>1406914</v>
+      </c>
+      <c r="C81" s="53">
+        <v>100</v>
+      </c>
+      <c r="D81" s="53">
+        <v>35</v>
+      </c>
+      <c r="E81" s="53">
+        <v>0</v>
+      </c>
+      <c r="F81" s="53">
+        <v>15</v>
+      </c>
+      <c r="G81" s="53">
+        <v>384</v>
+      </c>
+      <c r="H81" s="53">
+        <v>64</v>
+      </c>
+      <c r="I81" s="53">
+        <v>0</v>
+      </c>
+      <c r="J81" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K81" s="53"/>
+      <c r="L81" s="53">
+        <v>1</v>
+      </c>
+      <c r="M81" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N81" s="53">
+        <v>10</v>
+      </c>
+      <c r="O81" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P81" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q81" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="R81" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" s="16" customFormat="1">
+      <c r="B82" s="27">
+        <v>1406916</v>
+      </c>
+      <c r="C82" s="53">
+        <v>100</v>
+      </c>
+      <c r="D82" s="53">
+        <v>35</v>
+      </c>
+      <c r="E82" s="53">
+        <v>0</v>
+      </c>
+      <c r="F82" s="53">
+        <v>15</v>
+      </c>
+      <c r="G82" s="53">
+        <v>384</v>
+      </c>
+      <c r="H82" s="53">
+        <v>64</v>
+      </c>
+      <c r="I82" s="53">
+        <v>0</v>
+      </c>
+      <c r="J82" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K82" s="53"/>
+      <c r="L82" s="53">
+        <v>4</v>
+      </c>
+      <c r="M82" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N82" s="53">
+        <v>10</v>
+      </c>
+      <c r="O82" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P82" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q82" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="R82" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" s="16" customFormat="1">
+      <c r="B83" s="27">
+        <v>1406921</v>
+      </c>
+      <c r="C83" s="53">
+        <v>100</v>
+      </c>
+      <c r="D83" s="53">
+        <v>35</v>
+      </c>
+      <c r="E83" s="53">
+        <v>0</v>
+      </c>
+      <c r="F83" s="53">
+        <v>15</v>
+      </c>
+      <c r="G83" s="53">
+        <v>384</v>
+      </c>
+      <c r="H83" s="53">
+        <v>64</v>
+      </c>
+      <c r="I83" s="53">
+        <v>0</v>
+      </c>
+      <c r="J83" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K83" s="53"/>
+      <c r="L83" s="53">
+        <v>3</v>
+      </c>
+      <c r="M83" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N83" s="53">
+        <v>10</v>
+      </c>
+      <c r="O83" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P83" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q83" s="16">
+        <v>74</v>
+      </c>
+      <c r="R83" s="53">
+        <v>57.424432000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" s="16" customFormat="1">
+      <c r="B84" s="27">
+        <v>1406923</v>
+      </c>
+      <c r="C84" s="53">
+        <v>100</v>
+      </c>
+      <c r="D84" s="53">
+        <v>35</v>
+      </c>
+      <c r="E84" s="53">
+        <v>0</v>
+      </c>
+      <c r="F84" s="53">
+        <v>15</v>
+      </c>
+      <c r="G84" s="53">
+        <v>384</v>
+      </c>
+      <c r="H84" s="53">
+        <v>64</v>
+      </c>
+      <c r="I84" s="53">
+        <v>0</v>
+      </c>
+      <c r="J84" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K84" s="53"/>
+      <c r="L84" s="53">
+        <v>0</v>
+      </c>
+      <c r="M84" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N84" s="53">
+        <v>10</v>
+      </c>
+      <c r="O84" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P84" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="R84" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" s="16" customFormat="1">
+      <c r="B85" s="27"/>
+    </row>
+    <row r="86" spans="1:18" s="16" customFormat="1">
+      <c r="A86" s="16" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="78" spans="1:18">
-      <c r="C78" s="31">
+      <c r="B86" s="27"/>
+    </row>
+    <row r="87" spans="1:18" s="16" customFormat="1">
+      <c r="B87" s="27"/>
+      <c r="C87" s="53">
         <v>100</v>
       </c>
-      <c r="D78" s="31">
+      <c r="D87" s="53">
         <v>35</v>
       </c>
-      <c r="E78" s="31">
-        <v>0</v>
-      </c>
-      <c r="F78" s="31">
+      <c r="E87" s="53">
+        <v>0</v>
+      </c>
+      <c r="F87" s="53">
         <v>20</v>
       </c>
-      <c r="G78" s="31">
+      <c r="G87" s="53">
         <v>512</v>
       </c>
-      <c r="H78" s="31">
+      <c r="H87" s="53">
         <v>64</v>
       </c>
-      <c r="I78" s="31">
-        <v>0</v>
-      </c>
-      <c r="J78" s="31" t="s">
+      <c r="I87" s="53">
+        <v>0</v>
+      </c>
+      <c r="J87" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="K78" s="31">
-        <v>1</v>
-      </c>
-      <c r="L78" s="31">
-        <v>1</v>
-      </c>
-      <c r="M78" s="31">
-        <v>1E-3</v>
-      </c>
-      <c r="N78" s="31">
-        <v>10</v>
-      </c>
-      <c r="O78" s="31">
+      <c r="K87" s="53">
+        <v>1</v>
+      </c>
+      <c r="L87" s="53">
+        <v>1</v>
+      </c>
+      <c r="M87" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N87" s="53">
+        <v>10</v>
+      </c>
+      <c r="O87" s="53">
         <v>0.1</v>
       </c>
-      <c r="P78" t="s">
+      <c r="P87" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="R78" s="31">
+      <c r="R87" s="53">
         <v>18.0412</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
-      <c r="C79" s="31">
+    <row r="88" spans="1:18" s="16" customFormat="1">
+      <c r="B88" s="27"/>
+      <c r="C88" s="53">
         <v>100</v>
       </c>
-      <c r="D79" s="31">
+      <c r="D88" s="53">
         <v>35</v>
       </c>
-      <c r="E79" s="31">
-        <v>0</v>
-      </c>
-      <c r="F79" s="31">
+      <c r="E88" s="53">
+        <v>0</v>
+      </c>
+      <c r="F88" s="53">
         <v>20</v>
       </c>
-      <c r="G79" s="31">
+      <c r="G88" s="53">
         <v>512</v>
       </c>
-      <c r="H79" s="31">
+      <c r="H88" s="53">
         <v>64</v>
       </c>
-      <c r="I79" s="31">
-        <v>0</v>
-      </c>
-      <c r="J79" s="31" t="s">
+      <c r="I88" s="53">
+        <v>0</v>
+      </c>
+      <c r="J88" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="K79" s="31"/>
-      <c r="L79" s="31">
+      <c r="K88" s="53"/>
+      <c r="L88" s="53">
         <v>5</v>
       </c>
-      <c r="M79" s="31">
-        <v>1E-3</v>
-      </c>
-      <c r="N79" s="31">
-        <v>10</v>
-      </c>
-      <c r="O79" s="31">
+      <c r="M88" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N88" s="53">
+        <v>10</v>
+      </c>
+      <c r="O88" s="53">
         <v>0.1</v>
       </c>
-      <c r="P79" t="s">
+      <c r="P88" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="R79" t="s">
+      <c r="R88" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
-      <c r="C80" s="31">
+    <row r="89" spans="1:18" s="16" customFormat="1">
+      <c r="B89" s="27"/>
+      <c r="C89" s="53">
         <v>100</v>
       </c>
-      <c r="D80" s="31">
+      <c r="D89" s="53">
         <v>35</v>
       </c>
-      <c r="E80" s="31">
-        <v>0</v>
-      </c>
-      <c r="F80" s="31">
+      <c r="E89" s="53">
+        <v>0</v>
+      </c>
+      <c r="F89" s="53">
         <v>20</v>
       </c>
-      <c r="G80" s="31">
+      <c r="G89" s="53">
         <v>512</v>
       </c>
-      <c r="H80" s="31">
+      <c r="H89" s="53">
         <v>64</v>
       </c>
-      <c r="I80" s="31">
-        <v>0</v>
-      </c>
-      <c r="J80" s="31" t="s">
+      <c r="I89" s="53">
+        <v>0</v>
+      </c>
+      <c r="J89" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="K80" s="31"/>
-      <c r="L80" s="31">
-        <v>1</v>
-      </c>
-      <c r="M80" s="31">
-        <v>1E-3</v>
-      </c>
-      <c r="N80" s="31">
-        <v>10</v>
-      </c>
-      <c r="O80" s="31">
+      <c r="K89" s="53"/>
+      <c r="L89" s="53">
+        <v>1</v>
+      </c>
+      <c r="M89" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N89" s="53">
+        <v>10</v>
+      </c>
+      <c r="O89" s="53">
         <v>0.1</v>
       </c>
-      <c r="P80" t="s">
+      <c r="P89" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="R80" t="s">
+      <c r="R89" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
-      <c r="C81" s="31">
+    <row r="90" spans="1:18" s="16" customFormat="1">
+      <c r="B90" s="27"/>
+      <c r="C90" s="53">
         <v>100</v>
       </c>
-      <c r="D81" s="31">
+      <c r="D90" s="53">
         <v>35</v>
       </c>
-      <c r="E81" s="31">
-        <v>0</v>
-      </c>
-      <c r="F81" s="31">
+      <c r="E90" s="53">
+        <v>0</v>
+      </c>
+      <c r="F90" s="53">
         <v>20</v>
       </c>
-      <c r="G81" s="31">
+      <c r="G90" s="53">
         <v>512</v>
       </c>
-      <c r="H81" s="31">
+      <c r="H90" s="53">
         <v>64</v>
       </c>
-      <c r="I81" s="31">
-        <v>0</v>
-      </c>
-      <c r="J81" s="31" t="s">
+      <c r="I90" s="53">
+        <v>0</v>
+      </c>
+      <c r="J90" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="K81" s="31"/>
-      <c r="L81" s="31">
+      <c r="K90" s="53"/>
+      <c r="L90" s="53">
         <v>4</v>
       </c>
-      <c r="M81" s="31">
-        <v>1E-3</v>
-      </c>
-      <c r="N81" s="31">
-        <v>10</v>
-      </c>
-      <c r="O81" s="31">
+      <c r="M90" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N90" s="53">
+        <v>10</v>
+      </c>
+      <c r="O90" s="53">
         <v>0.1</v>
       </c>
-      <c r="P81" t="s">
+      <c r="P90" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="R81" t="s">
+      <c r="R90" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
-      <c r="C82" s="31">
+    <row r="91" spans="1:18" s="16" customFormat="1">
+      <c r="B91" s="27"/>
+      <c r="C91" s="53">
         <v>100</v>
       </c>
-      <c r="D82" s="31">
+      <c r="D91" s="53">
         <v>35</v>
       </c>
-      <c r="E82" s="31">
-        <v>0</v>
-      </c>
-      <c r="F82" s="31">
+      <c r="E91" s="53">
+        <v>0</v>
+      </c>
+      <c r="F91" s="53">
         <v>20</v>
       </c>
-      <c r="G82" s="31">
+      <c r="G91" s="53">
         <v>512</v>
       </c>
-      <c r="H82" s="31">
+      <c r="H91" s="53">
         <v>64</v>
       </c>
-      <c r="I82" s="31">
-        <v>0</v>
-      </c>
-      <c r="J82" s="31" t="s">
+      <c r="I91" s="53">
+        <v>0</v>
+      </c>
+      <c r="J91" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="K82" s="31"/>
-      <c r="L82" s="31">
+      <c r="K91" s="53"/>
+      <c r="L91" s="53">
         <v>3</v>
       </c>
-      <c r="M82" s="31">
-        <v>1E-3</v>
-      </c>
-      <c r="N82" s="31">
-        <v>10</v>
-      </c>
-      <c r="O82" s="31">
+      <c r="M91" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N91" s="53">
+        <v>10</v>
+      </c>
+      <c r="O91" s="53">
         <v>0.1</v>
       </c>
-      <c r="P82" t="s">
+      <c r="P91" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="R82" s="31">
+      <c r="R91" s="53">
         <v>57.424432000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
-      <c r="A84" t="s">
+    <row r="92" spans="1:18" s="16" customFormat="1">
+      <c r="B92" s="27"/>
+      <c r="C92" s="53">
+        <v>100</v>
+      </c>
+      <c r="D92" s="53">
+        <v>35</v>
+      </c>
+      <c r="E92" s="53">
+        <v>0</v>
+      </c>
+      <c r="F92" s="53">
+        <v>20</v>
+      </c>
+      <c r="G92" s="53">
+        <v>512</v>
+      </c>
+      <c r="H92" s="53">
+        <v>64</v>
+      </c>
+      <c r="I92" s="53">
+        <v>0</v>
+      </c>
+      <c r="J92" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K92" s="53"/>
+      <c r="L92" s="53">
+        <v>0</v>
+      </c>
+      <c r="M92" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N92" s="53">
+        <v>10</v>
+      </c>
+      <c r="O92" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P92" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="R92" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" s="16" customFormat="1">
+      <c r="B93" s="27"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="53"/>
+      <c r="H93" s="53"/>
+      <c r="I93" s="53"/>
+      <c r="J93" s="53"/>
+      <c r="K93" s="53"/>
+      <c r="L93" s="53"/>
+      <c r="M93" s="53"/>
+      <c r="N93" s="53"/>
+      <c r="O93" s="53"/>
+      <c r="R93" s="53"/>
+    </row>
+    <row r="94" spans="1:18" s="16" customFormat="1">
+      <c r="A94" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B94" s="27"/>
+    </row>
+    <row r="95" spans="1:18" s="16" customFormat="1">
+      <c r="B95" s="27"/>
+      <c r="C95" s="53">
+        <v>100</v>
+      </c>
+      <c r="D95" s="53">
+        <v>35</v>
+      </c>
+      <c r="E95" s="53">
+        <v>0</v>
+      </c>
+      <c r="F95" s="53">
+        <v>30</v>
+      </c>
+      <c r="G95" s="53">
+        <v>768</v>
+      </c>
+      <c r="H95" s="53">
+        <v>64</v>
+      </c>
+      <c r="I95" s="53">
+        <v>0</v>
+      </c>
+      <c r="J95" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="K95" s="53">
+        <v>1</v>
+      </c>
+      <c r="L95" s="53">
+        <v>1</v>
+      </c>
+      <c r="M95" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N95" s="53">
+        <v>10</v>
+      </c>
+      <c r="O95" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P95" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="R95" s="53">
+        <v>18.0412</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" s="16" customFormat="1">
+      <c r="B96" s="27"/>
+      <c r="C96" s="53">
+        <v>100</v>
+      </c>
+      <c r="D96" s="53">
+        <v>35</v>
+      </c>
+      <c r="E96" s="53">
+        <v>0</v>
+      </c>
+      <c r="F96" s="53">
+        <v>30</v>
+      </c>
+      <c r="G96" s="53">
+        <v>768</v>
+      </c>
+      <c r="H96" s="53">
+        <v>64</v>
+      </c>
+      <c r="I96" s="53">
+        <v>0</v>
+      </c>
+      <c r="J96" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K96" s="53"/>
+      <c r="L96" s="53">
+        <v>5</v>
+      </c>
+      <c r="M96" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N96" s="53">
+        <v>10</v>
+      </c>
+      <c r="O96" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P96" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="R96" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" s="16" customFormat="1">
+      <c r="B97" s="27"/>
+      <c r="C97" s="53">
+        <v>100</v>
+      </c>
+      <c r="D97" s="53">
+        <v>35</v>
+      </c>
+      <c r="E97" s="53">
+        <v>0</v>
+      </c>
+      <c r="F97" s="53">
+        <v>30</v>
+      </c>
+      <c r="G97" s="53">
+        <v>768</v>
+      </c>
+      <c r="H97" s="53">
+        <v>64</v>
+      </c>
+      <c r="I97" s="53">
+        <v>0</v>
+      </c>
+      <c r="J97" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K97" s="53"/>
+      <c r="L97" s="53">
+        <v>1</v>
+      </c>
+      <c r="M97" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N97" s="53">
+        <v>10</v>
+      </c>
+      <c r="O97" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P97" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="R97" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" s="16" customFormat="1">
+      <c r="B98" s="27"/>
+      <c r="C98" s="53">
+        <v>100</v>
+      </c>
+      <c r="D98" s="53">
+        <v>35</v>
+      </c>
+      <c r="E98" s="53">
+        <v>0</v>
+      </c>
+      <c r="F98" s="53">
+        <v>30</v>
+      </c>
+      <c r="G98" s="53">
+        <v>768</v>
+      </c>
+      <c r="H98" s="53">
+        <v>64</v>
+      </c>
+      <c r="I98" s="53">
+        <v>0</v>
+      </c>
+      <c r="J98" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K98" s="53"/>
+      <c r="L98" s="53">
+        <v>4</v>
+      </c>
+      <c r="M98" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N98" s="53">
+        <v>10</v>
+      </c>
+      <c r="O98" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P98" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="R98" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" s="16" customFormat="1">
+      <c r="B99" s="27"/>
+      <c r="C99" s="53">
+        <v>100</v>
+      </c>
+      <c r="D99" s="53">
+        <v>35</v>
+      </c>
+      <c r="E99" s="53">
+        <v>0</v>
+      </c>
+      <c r="F99" s="53">
+        <v>30</v>
+      </c>
+      <c r="G99" s="53">
+        <v>768</v>
+      </c>
+      <c r="H99" s="53">
+        <v>64</v>
+      </c>
+      <c r="I99" s="53">
+        <v>0</v>
+      </c>
+      <c r="J99" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K99" s="53"/>
+      <c r="L99" s="53">
+        <v>3</v>
+      </c>
+      <c r="M99" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N99" s="53">
+        <v>10</v>
+      </c>
+      <c r="O99" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P99" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="R99" s="53">
+        <v>57.424432000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="16" customFormat="1">
+      <c r="B100" s="27"/>
+      <c r="C100" s="53">
+        <v>100</v>
+      </c>
+      <c r="D100" s="53">
+        <v>35</v>
+      </c>
+      <c r="E100" s="53">
+        <v>0</v>
+      </c>
+      <c r="F100" s="53">
+        <v>30</v>
+      </c>
+      <c r="G100" s="53">
+        <v>768</v>
+      </c>
+      <c r="H100" s="53">
+        <v>64</v>
+      </c>
+      <c r="I100" s="53">
+        <v>0</v>
+      </c>
+      <c r="J100" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K100" s="53"/>
+      <c r="L100" s="53">
+        <v>0</v>
+      </c>
+      <c r="M100" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N100" s="53">
+        <v>10</v>
+      </c>
+      <c r="O100" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P100" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="R100" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="16" customFormat="1">
+      <c r="B101" s="27"/>
+    </row>
+    <row r="102" spans="1:18" s="16" customFormat="1">
+      <c r="A102" s="16" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="85" spans="1:18">
-      <c r="C85" s="31">
+      <c r="B102" s="27"/>
+    </row>
+    <row r="103" spans="1:18" s="16" customFormat="1">
+      <c r="B103" s="27"/>
+      <c r="C103" s="53">
         <v>100</v>
       </c>
-      <c r="D85" s="31">
+      <c r="D103" s="53">
         <v>35</v>
       </c>
-      <c r="E85" s="31">
-        <v>0</v>
-      </c>
-      <c r="F85" s="31">
+      <c r="E103" s="53">
+        <v>0</v>
+      </c>
+      <c r="F103" s="53">
         <v>40</v>
       </c>
-      <c r="G85" s="31">
+      <c r="G103" s="53">
         <v>1024</v>
       </c>
-      <c r="H85" s="31">
+      <c r="H103" s="53">
         <v>64</v>
       </c>
-      <c r="I85" s="31">
-        <v>0</v>
-      </c>
-      <c r="J85" s="31" t="s">
+      <c r="I103" s="53">
+        <v>0</v>
+      </c>
+      <c r="J103" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="K85" s="31">
-        <v>1</v>
-      </c>
-      <c r="L85" s="31">
-        <v>1</v>
-      </c>
-      <c r="M85" s="31">
-        <v>1E-3</v>
-      </c>
-      <c r="N85" s="31">
-        <v>10</v>
-      </c>
-      <c r="O85" s="31">
+      <c r="K103" s="53">
+        <v>1</v>
+      </c>
+      <c r="L103" s="53">
+        <v>1</v>
+      </c>
+      <c r="M103" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N103" s="53">
+        <v>10</v>
+      </c>
+      <c r="O103" s="53">
         <v>0.1</v>
       </c>
-      <c r="P85" t="s">
+      <c r="P103" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="R85" s="31">
+      <c r="R103" s="53">
         <v>18.0412</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
-      <c r="C86" s="31">
+    <row r="104" spans="1:18" s="16" customFormat="1">
+      <c r="B104" s="27"/>
+      <c r="C104" s="53">
         <v>100</v>
       </c>
-      <c r="D86" s="31">
+      <c r="D104" s="53">
         <v>35</v>
       </c>
-      <c r="E86" s="31">
-        <v>0</v>
-      </c>
-      <c r="F86" s="31">
+      <c r="E104" s="53">
+        <v>0</v>
+      </c>
+      <c r="F104" s="53">
         <v>40</v>
       </c>
-      <c r="G86" s="31">
+      <c r="G104" s="53">
         <v>1024</v>
       </c>
-      <c r="H86" s="31">
+      <c r="H104" s="53">
         <v>64</v>
       </c>
-      <c r="I86" s="31">
-        <v>0</v>
-      </c>
-      <c r="J86" s="31" t="s">
+      <c r="I104" s="53">
+        <v>0</v>
+      </c>
+      <c r="J104" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="K86" s="31"/>
-      <c r="L86" s="31">
+      <c r="K104" s="53"/>
+      <c r="L104" s="53">
         <v>5</v>
       </c>
-      <c r="M86" s="31">
-        <v>1E-3</v>
-      </c>
-      <c r="N86" s="31">
-        <v>10</v>
-      </c>
-      <c r="O86" s="31">
+      <c r="M104" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N104" s="53">
+        <v>10</v>
+      </c>
+      <c r="O104" s="53">
         <v>0.1</v>
       </c>
-      <c r="P86" t="s">
+      <c r="P104" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="R86" t="s">
+      <c r="R104" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
-      <c r="C87" s="31">
+    <row r="105" spans="1:18" s="16" customFormat="1">
+      <c r="B105" s="27"/>
+      <c r="C105" s="53">
         <v>100</v>
       </c>
-      <c r="D87" s="31">
+      <c r="D105" s="53">
         <v>35</v>
       </c>
-      <c r="E87" s="31">
-        <v>0</v>
-      </c>
-      <c r="F87" s="31">
+      <c r="E105" s="53">
+        <v>0</v>
+      </c>
+      <c r="F105" s="53">
         <v>40</v>
       </c>
-      <c r="G87" s="31">
+      <c r="G105" s="53">
         <v>1024</v>
       </c>
-      <c r="H87" s="31">
+      <c r="H105" s="53">
         <v>64</v>
       </c>
-      <c r="I87" s="31">
-        <v>0</v>
-      </c>
-      <c r="J87" s="31" t="s">
+      <c r="I105" s="53">
+        <v>0</v>
+      </c>
+      <c r="J105" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="K87" s="31"/>
-      <c r="L87" s="31">
-        <v>1</v>
-      </c>
-      <c r="M87" s="31">
-        <v>1E-3</v>
-      </c>
-      <c r="N87" s="31">
-        <v>10</v>
-      </c>
-      <c r="O87" s="31">
+      <c r="K105" s="53"/>
+      <c r="L105" s="53">
+        <v>1</v>
+      </c>
+      <c r="M105" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N105" s="53">
+        <v>10</v>
+      </c>
+      <c r="O105" s="53">
         <v>0.1</v>
       </c>
-      <c r="P87" t="s">
+      <c r="P105" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="R87" t="s">
+      <c r="R105" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
-      <c r="C88" s="31">
+    <row r="106" spans="1:18" s="16" customFormat="1">
+      <c r="B106" s="27"/>
+      <c r="C106" s="53">
         <v>100</v>
       </c>
-      <c r="D88" s="31">
+      <c r="D106" s="53">
         <v>35</v>
       </c>
-      <c r="E88" s="31">
-        <v>0</v>
-      </c>
-      <c r="F88" s="31">
+      <c r="E106" s="53">
+        <v>0</v>
+      </c>
+      <c r="F106" s="53">
         <v>40</v>
       </c>
-      <c r="G88" s="31">
+      <c r="G106" s="53">
         <v>1024</v>
       </c>
-      <c r="H88" s="31">
+      <c r="H106" s="53">
         <v>64</v>
       </c>
-      <c r="I88" s="31">
-        <v>0</v>
-      </c>
-      <c r="J88" s="31" t="s">
+      <c r="I106" s="53">
+        <v>0</v>
+      </c>
+      <c r="J106" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="K88" s="31"/>
-      <c r="L88" s="31">
+      <c r="K106" s="53"/>
+      <c r="L106" s="53">
         <v>4</v>
       </c>
-      <c r="M88" s="31">
-        <v>1E-3</v>
-      </c>
-      <c r="N88" s="31">
-        <v>10</v>
-      </c>
-      <c r="O88" s="31">
+      <c r="M106" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N106" s="53">
+        <v>10</v>
+      </c>
+      <c r="O106" s="53">
         <v>0.1</v>
       </c>
-      <c r="P88" t="s">
+      <c r="P106" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="R88" t="s">
+      <c r="R106" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
-      <c r="C89" s="31">
+    <row r="107" spans="1:18" s="16" customFormat="1">
+      <c r="B107" s="27"/>
+      <c r="C107" s="53">
         <v>100</v>
       </c>
-      <c r="D89" s="31">
+      <c r="D107" s="53">
         <v>35</v>
       </c>
-      <c r="E89" s="31">
-        <v>0</v>
-      </c>
-      <c r="F89" s="31">
+      <c r="E107" s="53">
+        <v>0</v>
+      </c>
+      <c r="F107" s="53">
         <v>40</v>
       </c>
-      <c r="G89" s="31">
+      <c r="G107" s="53">
         <v>1024</v>
       </c>
-      <c r="H89" s="31">
+      <c r="H107" s="53">
         <v>64</v>
       </c>
-      <c r="I89" s="31">
-        <v>0</v>
-      </c>
-      <c r="J89" s="31" t="s">
+      <c r="I107" s="53">
+        <v>0</v>
+      </c>
+      <c r="J107" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="K89" s="31"/>
-      <c r="L89" s="31">
+      <c r="K107" s="53"/>
+      <c r="L107" s="53">
         <v>3</v>
       </c>
-      <c r="M89" s="31">
-        <v>1E-3</v>
-      </c>
-      <c r="N89" s="31">
-        <v>10</v>
-      </c>
-      <c r="O89" s="31">
+      <c r="M107" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N107" s="53">
+        <v>10</v>
+      </c>
+      <c r="O107" s="53">
         <v>0.1</v>
       </c>
-      <c r="P89" t="s">
+      <c r="P107" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="R89" s="31">
+      <c r="R107" s="53">
         <v>57.424432000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" s="16" customFormat="1">
+      <c r="B108" s="27"/>
+      <c r="C108" s="53">
+        <v>100</v>
+      </c>
+      <c r="D108" s="53">
+        <v>35</v>
+      </c>
+      <c r="E108" s="53">
+        <v>0</v>
+      </c>
+      <c r="F108" s="53">
+        <v>40</v>
+      </c>
+      <c r="G108" s="53">
+        <v>1024</v>
+      </c>
+      <c r="H108" s="53">
+        <v>64</v>
+      </c>
+      <c r="I108" s="53">
+        <v>0</v>
+      </c>
+      <c r="J108" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K108" s="53"/>
+      <c r="L108" s="53">
+        <v>0</v>
+      </c>
+      <c r="M108" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N108" s="53">
+        <v>10</v>
+      </c>
+      <c r="O108" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P108" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="R108" s="53">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04F5A2D-FE10-43EE-BAC8-0CE820F4AF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F855395-6B80-4711-B8EF-4F83818D73E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="290">
   <si>
     <t>slurm_num</t>
   </si>
@@ -895,6 +895,24 @@
   <si>
     <t>58…</t>
   </si>
+  <si>
+    <t>32…</t>
+  </si>
+  <si>
+    <t>85…</t>
+  </si>
+  <si>
+    <t>Four pulse localzed???</t>
+  </si>
+  <si>
+    <t>Four pulse</t>
+  </si>
+  <si>
+    <t>Six pulse</t>
+  </si>
+  <si>
+    <t>Five pulse localized!!!</t>
+  </si>
 </sst>
 </file>
 
@@ -1009,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1066,6 +1084,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -26871,10 +26890,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73000ED-ACF1-4870-B376-DD86BAB5368D}">
-  <dimension ref="A1:R108"/>
+  <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="H78" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S87" sqref="S87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -29563,58 +29582,61 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:18" s="16" customFormat="1">
-      <c r="B81" s="27">
+    <row r="81" spans="1:19" s="24" customFormat="1">
+      <c r="B81" s="45">
         <v>1406914</v>
       </c>
-      <c r="C81" s="53">
+      <c r="C81" s="54">
         <v>100</v>
       </c>
-      <c r="D81" s="53">
+      <c r="D81" s="54">
         <v>35</v>
       </c>
-      <c r="E81" s="53">
-        <v>0</v>
-      </c>
-      <c r="F81" s="53">
+      <c r="E81" s="54">
+        <v>0</v>
+      </c>
+      <c r="F81" s="54">
         <v>15</v>
       </c>
-      <c r="G81" s="53">
+      <c r="G81" s="54">
         <v>384</v>
       </c>
-      <c r="H81" s="53">
+      <c r="H81" s="54">
         <v>64</v>
       </c>
-      <c r="I81" s="53">
-        <v>0</v>
-      </c>
-      <c r="J81" s="53" t="s">
+      <c r="I81" s="54">
+        <v>0</v>
+      </c>
+      <c r="J81" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="K81" s="53"/>
-      <c r="L81" s="53">
-        <v>1</v>
-      </c>
-      <c r="M81" s="53">
-        <v>1E-3</v>
-      </c>
-      <c r="N81" s="53">
-        <v>10</v>
-      </c>
-      <c r="O81" s="53">
+      <c r="K81" s="54"/>
+      <c r="L81" s="54">
+        <v>1</v>
+      </c>
+      <c r="M81" s="54">
+        <v>1E-3</v>
+      </c>
+      <c r="N81" s="54">
+        <v>10</v>
+      </c>
+      <c r="O81" s="54">
         <v>0.1</v>
       </c>
-      <c r="P81" s="16" t="s">
+      <c r="P81" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="Q81" s="16" t="s">
+      <c r="Q81" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="R81" s="16" t="s">
+      <c r="R81" s="24" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" s="16" customFormat="1">
+      <c r="S81" s="24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" s="16" customFormat="1">
       <c r="B82" s="27">
         <v>1406916</v>
       </c>
@@ -29664,8 +29686,11 @@
       <c r="R82" s="16" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" s="16" customFormat="1">
+      <c r="S82" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" s="16" customFormat="1">
       <c r="B83" s="27">
         <v>1406921</v>
       </c>
@@ -29715,8 +29740,11 @@
       <c r="R83" s="53">
         <v>57.424432000000003</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" s="16" customFormat="1">
+      <c r="S83" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" s="16" customFormat="1">
       <c r="B84" s="27">
         <v>1406923</v>
       </c>
@@ -29760,21 +29788,26 @@
       <c r="P84" s="16" t="s">
         <v>143</v>
       </c>
+      <c r="Q84" s="16">
+        <v>0</v>
+      </c>
       <c r="R84" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" s="16" customFormat="1">
+    <row r="85" spans="1:19" s="16" customFormat="1">
       <c r="B85" s="27"/>
     </row>
-    <row r="86" spans="1:18" s="16" customFormat="1">
+    <row r="86" spans="1:19" s="16" customFormat="1">
       <c r="A86" s="16" t="s">
         <v>269</v>
       </c>
       <c r="B86" s="27"/>
     </row>
-    <row r="87" spans="1:18" s="16" customFormat="1">
-      <c r="B87" s="27"/>
+    <row r="87" spans="1:19" s="16" customFormat="1">
+      <c r="B87" s="27">
+        <v>1406928</v>
+      </c>
       <c r="C87" s="53">
         <v>100</v>
       </c>
@@ -29817,12 +29850,17 @@
       <c r="P87" s="16" t="s">
         <v>149</v>
       </c>
+      <c r="Q87" s="16" t="s">
+        <v>284</v>
+      </c>
       <c r="R87" s="53">
         <v>18.0412</v>
       </c>
     </row>
-    <row r="88" spans="1:18" s="16" customFormat="1">
-      <c r="B88" s="27"/>
+    <row r="88" spans="1:19" s="16" customFormat="1">
+      <c r="B88" s="27">
+        <v>1406933</v>
+      </c>
       <c r="C88" s="53">
         <v>100</v>
       </c>
@@ -29863,12 +29901,20 @@
       <c r="P88" s="16" t="s">
         <v>142</v>
       </c>
+      <c r="Q88" s="16">
+        <v>85</v>
+      </c>
       <c r="R88" s="16" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" s="16" customFormat="1">
-      <c r="B89" s="27"/>
+      <c r="S88" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" s="16" customFormat="1">
+      <c r="B89" s="27">
+        <v>1406934</v>
+      </c>
       <c r="C89" s="53">
         <v>100</v>
       </c>
@@ -29909,11 +29955,14 @@
       <c r="P89" s="16" t="s">
         <v>141</v>
       </c>
+      <c r="Q89" s="16" t="s">
+        <v>285</v>
+      </c>
       <c r="R89" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:18" s="16" customFormat="1">
+    <row r="90" spans="1:19" s="16" customFormat="1">
       <c r="B90" s="27"/>
       <c r="C90" s="53">
         <v>100</v>
@@ -29959,7 +30008,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="1:18" s="16" customFormat="1">
+    <row r="91" spans="1:19" s="16" customFormat="1">
       <c r="B91" s="27"/>
       <c r="C91" s="53">
         <v>100</v>
@@ -30005,7 +30054,7 @@
         <v>57.424432000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:18" s="16" customFormat="1">
+    <row r="92" spans="1:19" s="16" customFormat="1">
       <c r="B92" s="27"/>
       <c r="C92" s="53">
         <v>100</v>
@@ -30051,7 +30100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18" s="16" customFormat="1">
+    <row r="93" spans="1:19" s="16" customFormat="1">
       <c r="B93" s="27"/>
       <c r="C93" s="53"/>
       <c r="D93" s="53"/>
@@ -30068,13 +30117,13 @@
       <c r="O93" s="53"/>
       <c r="R93" s="53"/>
     </row>
-    <row r="94" spans="1:18" s="16" customFormat="1">
+    <row r="94" spans="1:19" s="16" customFormat="1">
       <c r="A94" s="16" t="s">
         <v>278</v>
       </c>
       <c r="B94" s="27"/>
     </row>
-    <row r="95" spans="1:18" s="16" customFormat="1">
+    <row r="95" spans="1:19" s="16" customFormat="1">
       <c r="B95" s="27"/>
       <c r="C95" s="53">
         <v>100</v>
@@ -30122,7 +30171,7 @@
         <v>18.0412</v>
       </c>
     </row>
-    <row r="96" spans="1:18" s="16" customFormat="1">
+    <row r="96" spans="1:19" s="16" customFormat="1">
       <c r="B96" s="27"/>
       <c r="C96" s="53">
         <v>100</v>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F855395-6B80-4711-B8EF-4F83818D73E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A251337-A972-4134-B6A5-DA9CE51A8925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="602" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBC flux" sheetId="1" r:id="rId1"/>
@@ -41,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="310">
   <si>
     <t>slurm_num</t>
   </si>
@@ -913,6 +935,66 @@
   <si>
     <t>Five pulse localized!!!</t>
   </si>
+  <si>
+    <t>One pulse</t>
+  </si>
+  <si>
+    <t>Two pulse</t>
+  </si>
+  <si>
+    <t>Three pulse</t>
+  </si>
+  <si>
+    <t>43!!!</t>
+  </si>
+  <si>
+    <t>Five pulse</t>
+  </si>
+  <si>
+    <t>63…</t>
+  </si>
+  <si>
+    <t>Six pulse localized</t>
+  </si>
+  <si>
+    <t>75…</t>
+  </si>
+  <si>
+    <t>52.67 still evolving</t>
+  </si>
+  <si>
+    <t>Lx=15,Nx=384</t>
+  </si>
+  <si>
+    <t>Extended 1 wave LS</t>
+  </si>
+  <si>
+    <t>Lx=20,Nx=512</t>
+  </si>
+  <si>
+    <t>Lx=30,Nx=768</t>
+  </si>
+  <si>
+    <t>Lx=40,Nx=1024</t>
+  </si>
+  <si>
+    <t>Update 2023/09/24, using the extended grid as the initial condition</t>
+  </si>
+  <si>
+    <t>Extended 2 wave LS</t>
+  </si>
+  <si>
+    <t>Extended 3 wave LS</t>
+  </si>
+  <si>
+    <t>Extended 4 wave LS</t>
+  </si>
+  <si>
+    <t>Extended 5 wave LS</t>
+  </si>
+  <si>
+    <t>canceled</t>
+  </si>
 </sst>
 </file>
 
@@ -977,7 +1059,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1014,6 +1096,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1027,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1085,6 +1173,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -26890,10 +26982,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73000ED-ACF1-4870-B376-DD86BAB5368D}">
-  <dimension ref="A1:S108"/>
+  <dimension ref="A1:T146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H78" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S87" sqref="S87"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -28983,7 +29075,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:20">
       <c r="C65" s="31">
         <v>100</v>
       </c>
@@ -29030,7 +29122,7 @@
         <v>18.0412</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:20">
       <c r="C66" s="31">
         <v>100</v>
       </c>
@@ -29075,7 +29167,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:20">
       <c r="C67" s="31">
         <v>100</v>
       </c>
@@ -29120,7 +29212,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:20">
       <c r="C68" s="31">
         <v>100</v>
       </c>
@@ -29165,7 +29257,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:20">
       <c r="C69" s="31">
         <v>100</v>
       </c>
@@ -29210,12 +29302,12 @@
         <v>57.424432000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:20">
       <c r="C72" s="31">
         <v>100</v>
       </c>
@@ -29262,7 +29354,7 @@
         <v>18.0412</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:20">
       <c r="C73" s="31">
         <v>100</v>
       </c>
@@ -29307,7 +29399,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:20">
       <c r="C74" s="31">
         <v>100</v>
       </c>
@@ -29352,7 +29444,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:20">
       <c r="C75" s="31">
         <v>100</v>
       </c>
@@ -29397,7 +29489,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:20">
       <c r="C76" s="31">
         <v>100</v>
       </c>
@@ -29442,7 +29534,7 @@
         <v>57.424432000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:20">
       <c r="C77" s="31"/>
       <c r="D77" s="31"/>
       <c r="E77" s="31"/>
@@ -29458,7 +29550,7 @@
       <c r="O77" s="31"/>
       <c r="R77" s="31"/>
     </row>
-    <row r="78" spans="1:18" s="16" customFormat="1">
+    <row r="78" spans="1:20" s="16" customFormat="1">
       <c r="A78" s="16" t="s">
         <v>277</v>
       </c>
@@ -29478,7 +29570,7 @@
       <c r="O78" s="53"/>
       <c r="R78" s="53"/>
     </row>
-    <row r="79" spans="1:18" s="16" customFormat="1">
+    <row r="79" spans="1:20" s="16" customFormat="1">
       <c r="B79" s="27">
         <v>1406911</v>
       </c>
@@ -29530,8 +29622,11 @@
       <c r="R79" s="53">
         <v>18.0412</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" s="16" customFormat="1">
+      <c r="T79" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" s="16" customFormat="1">
       <c r="B80" s="27">
         <v>1406913</v>
       </c>
@@ -29581,8 +29676,11 @@
       <c r="R80" s="16" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" s="24" customFormat="1">
+      <c r="T80" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" s="24" customFormat="1">
       <c r="B81" s="45">
         <v>1406914</v>
       </c>
@@ -29635,64 +29733,64 @@
       <c r="S81" s="24" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" s="16" customFormat="1">
-      <c r="B82" s="27">
+      <c r="T81" s="24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" s="55" customFormat="1">
+      <c r="B82" s="56"/>
+      <c r="C82" s="57">
+        <v>100</v>
+      </c>
+      <c r="D82" s="57">
+        <v>35</v>
+      </c>
+      <c r="E82" s="57">
+        <v>0</v>
+      </c>
+      <c r="F82" s="57">
+        <v>15</v>
+      </c>
+      <c r="G82" s="57">
+        <v>384</v>
+      </c>
+      <c r="H82" s="57">
+        <v>64</v>
+      </c>
+      <c r="I82" s="57">
+        <v>0</v>
+      </c>
+      <c r="J82" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="K82" s="57">
+        <v>3</v>
+      </c>
+      <c r="L82" s="57">
+        <v>1</v>
+      </c>
+      <c r="M82" s="57">
+        <v>1E-3</v>
+      </c>
+      <c r="N82" s="57">
+        <v>10</v>
+      </c>
+      <c r="O82" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="P82" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q82" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="T82" s="55" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="16" customFormat="1">
+      <c r="B83" s="27">
         <v>1406916</v>
-      </c>
-      <c r="C82" s="53">
-        <v>100</v>
-      </c>
-      <c r="D82" s="53">
-        <v>35</v>
-      </c>
-      <c r="E82" s="53">
-        <v>0</v>
-      </c>
-      <c r="F82" s="53">
-        <v>15</v>
-      </c>
-      <c r="G82" s="53">
-        <v>384</v>
-      </c>
-      <c r="H82" s="53">
-        <v>64</v>
-      </c>
-      <c r="I82" s="53">
-        <v>0</v>
-      </c>
-      <c r="J82" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="K82" s="53"/>
-      <c r="L82" s="53">
-        <v>4</v>
-      </c>
-      <c r="M82" s="53">
-        <v>1E-3</v>
-      </c>
-      <c r="N82" s="53">
-        <v>10</v>
-      </c>
-      <c r="O82" s="53">
-        <v>0.1</v>
-      </c>
-      <c r="P82" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q82" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="R82" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="S82" s="16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" s="16" customFormat="1">
-      <c r="B83" s="27">
-        <v>1406921</v>
       </c>
       <c r="C83" s="53">
         <v>100</v>
@@ -29720,7 +29818,7 @@
       </c>
       <c r="K83" s="53"/>
       <c r="L83" s="53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M83" s="53">
         <v>1E-3</v>
@@ -29732,189 +29830,188 @@
         <v>0.1</v>
       </c>
       <c r="P83" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q83" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="R83" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="S83" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="T83" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" s="55" customFormat="1">
+      <c r="B84" s="56"/>
+      <c r="C84" s="57">
+        <v>100</v>
+      </c>
+      <c r="D84" s="57">
+        <v>35</v>
+      </c>
+      <c r="E84" s="57">
+        <v>0</v>
+      </c>
+      <c r="F84" s="57">
+        <v>15</v>
+      </c>
+      <c r="G84" s="57">
+        <v>384</v>
+      </c>
+      <c r="H84" s="57">
+        <v>64</v>
+      </c>
+      <c r="I84" s="57">
+        <v>0</v>
+      </c>
+      <c r="J84" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="K84" s="57">
+        <v>5</v>
+      </c>
+      <c r="L84" s="57">
+        <v>1</v>
+      </c>
+      <c r="M84" s="57">
+        <v>1E-3</v>
+      </c>
+      <c r="N84" s="57">
+        <v>10</v>
+      </c>
+      <c r="O84" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="P84" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q84" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="T84" s="55" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" s="16" customFormat="1">
+      <c r="B85" s="27">
+        <v>1406921</v>
+      </c>
+      <c r="C85" s="53">
+        <v>100</v>
+      </c>
+      <c r="D85" s="53">
+        <v>35</v>
+      </c>
+      <c r="E85" s="53">
+        <v>0</v>
+      </c>
+      <c r="F85" s="53">
+        <v>15</v>
+      </c>
+      <c r="G85" s="53">
+        <v>384</v>
+      </c>
+      <c r="H85" s="53">
+        <v>64</v>
+      </c>
+      <c r="I85" s="53">
+        <v>0</v>
+      </c>
+      <c r="J85" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K85" s="53"/>
+      <c r="L85" s="53">
+        <v>3</v>
+      </c>
+      <c r="M85" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N85" s="53">
+        <v>10</v>
+      </c>
+      <c r="O85" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P85" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="Q83" s="16">
+      <c r="Q85" s="16">
         <v>74</v>
       </c>
-      <c r="R83" s="53">
+      <c r="R85" s="53">
         <v>57.424432000000003</v>
       </c>
-      <c r="S83" s="16" t="s">
+      <c r="S85" s="16" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="84" spans="1:19" s="16" customFormat="1">
-      <c r="B84" s="27">
+    <row r="86" spans="1:20" s="16" customFormat="1">
+      <c r="B86" s="27">
         <v>1406923</v>
       </c>
-      <c r="C84" s="53">
+      <c r="C86" s="53">
         <v>100</v>
       </c>
-      <c r="D84" s="53">
+      <c r="D86" s="53">
         <v>35</v>
       </c>
-      <c r="E84" s="53">
-        <v>0</v>
-      </c>
-      <c r="F84" s="53">
+      <c r="E86" s="53">
+        <v>0</v>
+      </c>
+      <c r="F86" s="53">
         <v>15</v>
       </c>
-      <c r="G84" s="53">
+      <c r="G86" s="53">
         <v>384</v>
       </c>
-      <c r="H84" s="53">
+      <c r="H86" s="53">
         <v>64</v>
       </c>
-      <c r="I84" s="53">
-        <v>0</v>
-      </c>
-      <c r="J84" s="53" t="s">
+      <c r="I86" s="53">
+        <v>0</v>
+      </c>
+      <c r="J86" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="K84" s="53"/>
-      <c r="L84" s="53">
-        <v>0</v>
-      </c>
-      <c r="M84" s="53">
-        <v>1E-3</v>
-      </c>
-      <c r="N84" s="53">
-        <v>10</v>
-      </c>
-      <c r="O84" s="53">
+      <c r="K86" s="53"/>
+      <c r="L86" s="53">
+        <v>0</v>
+      </c>
+      <c r="M86" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N86" s="53">
+        <v>10</v>
+      </c>
+      <c r="O86" s="53">
         <v>0.1</v>
       </c>
-      <c r="P84" s="16" t="s">
+      <c r="P86" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="Q84" s="16">
-        <v>0</v>
-      </c>
-      <c r="R84" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" s="16" customFormat="1">
-      <c r="B85" s="27"/>
-    </row>
-    <row r="86" spans="1:19" s="16" customFormat="1">
-      <c r="A86" s="16" t="s">
+      <c r="Q86" s="16">
+        <v>0</v>
+      </c>
+      <c r="R86" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="16" customFormat="1">
+      <c r="B87" s="27"/>
+    </row>
+    <row r="88" spans="1:20" s="16" customFormat="1">
+      <c r="A88" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="B86" s="27"/>
-    </row>
-    <row r="87" spans="1:19" s="16" customFormat="1">
-      <c r="B87" s="27">
-        <v>1406928</v>
-      </c>
-      <c r="C87" s="53">
-        <v>100</v>
-      </c>
-      <c r="D87" s="53">
-        <v>35</v>
-      </c>
-      <c r="E87" s="53">
-        <v>0</v>
-      </c>
-      <c r="F87" s="53">
-        <v>20</v>
-      </c>
-      <c r="G87" s="53">
-        <v>512</v>
-      </c>
-      <c r="H87" s="53">
-        <v>64</v>
-      </c>
-      <c r="I87" s="53">
-        <v>0</v>
-      </c>
-      <c r="J87" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="K87" s="53">
-        <v>1</v>
-      </c>
-      <c r="L87" s="53">
-        <v>1</v>
-      </c>
-      <c r="M87" s="53">
-        <v>1E-3</v>
-      </c>
-      <c r="N87" s="53">
-        <v>10</v>
-      </c>
-      <c r="O87" s="53">
-        <v>0.1</v>
-      </c>
-      <c r="P87" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q87" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="R87" s="53">
-        <v>18.0412</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" s="16" customFormat="1">
-      <c r="B88" s="27">
-        <v>1406933</v>
-      </c>
-      <c r="C88" s="53">
-        <v>100</v>
-      </c>
-      <c r="D88" s="53">
-        <v>35</v>
-      </c>
-      <c r="E88" s="53">
-        <v>0</v>
-      </c>
-      <c r="F88" s="53">
-        <v>20</v>
-      </c>
-      <c r="G88" s="53">
-        <v>512</v>
-      </c>
-      <c r="H88" s="53">
-        <v>64</v>
-      </c>
-      <c r="I88" s="53">
-        <v>0</v>
-      </c>
-      <c r="J88" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="K88" s="53"/>
-      <c r="L88" s="53">
-        <v>5</v>
-      </c>
-      <c r="M88" s="53">
-        <v>1E-3</v>
-      </c>
-      <c r="N88" s="53">
-        <v>10</v>
-      </c>
-      <c r="O88" s="53">
-        <v>0.1</v>
-      </c>
-      <c r="P88" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q88" s="16">
-        <v>85</v>
-      </c>
-      <c r="R88" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="S88" s="16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" s="16" customFormat="1">
-      <c r="B89" s="27">
-        <v>1406934</v>
-      </c>
+      <c r="B88" s="27"/>
+    </row>
+    <row r="89" spans="1:20" s="16" customFormat="1">
+      <c r="B89" s="27"/>
       <c r="C89" s="53">
         <v>100</v>
       </c>
@@ -29937,11 +30034,13 @@
         <v>0</v>
       </c>
       <c r="J89" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="K89" s="53"/>
-      <c r="L89" s="53">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="K89" s="58">
+        <v>0.6</v>
+      </c>
+      <c r="L89" s="58">
+        <v>3</v>
       </c>
       <c r="M89" s="53">
         <v>1E-3</v>
@@ -29953,17 +30052,20 @@
         <v>0.1</v>
       </c>
       <c r="P89" s="16" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="Q89" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="R89" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" s="16" customFormat="1">
-      <c r="B90" s="27"/>
+        <v>284</v>
+      </c>
+      <c r="R89" s="53"/>
+      <c r="T89" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="16" customFormat="1">
+      <c r="B90" s="27">
+        <v>1406928</v>
+      </c>
       <c r="C90" s="53">
         <v>100</v>
       </c>
@@ -29986,11 +30088,13 @@
         <v>0</v>
       </c>
       <c r="J90" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="K90" s="53"/>
+        <v>148</v>
+      </c>
+      <c r="K90" s="53">
+        <v>1</v>
+      </c>
       <c r="L90" s="53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M90" s="53">
         <v>1E-3</v>
@@ -30002,13 +30106,17 @@
         <v>0.1</v>
       </c>
       <c r="P90" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="R90" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" s="16" customFormat="1">
+        <v>149</v>
+      </c>
+      <c r="Q90" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="R90" s="53"/>
+      <c r="T90" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" s="16" customFormat="1">
       <c r="B91" s="27"/>
       <c r="C91" s="53">
         <v>100</v>
@@ -30032,11 +30140,13 @@
         <v>0</v>
       </c>
       <c r="J91" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="K91" s="53"/>
+        <v>148</v>
+      </c>
+      <c r="K91" s="53">
+        <v>3</v>
+      </c>
       <c r="L91" s="53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M91" s="53">
         <v>1E-3</v>
@@ -30048,13 +30158,14 @@
         <v>0.1</v>
       </c>
       <c r="P91" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="R91" s="53">
-        <v>57.424432000000003</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" s="16" customFormat="1">
+        <v>149</v>
+      </c>
+      <c r="R91" s="53"/>
+      <c r="T91" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" s="16" customFormat="1">
       <c r="B92" s="27"/>
       <c r="C92" s="53">
         <v>100</v>
@@ -30078,11 +30189,13 @@
         <v>0</v>
       </c>
       <c r="J92" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="K92" s="53"/>
+        <v>148</v>
+      </c>
+      <c r="K92" s="53">
+        <v>5</v>
+      </c>
       <c r="L92" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" s="53">
         <v>1E-3</v>
@@ -30094,131 +30207,190 @@
         <v>0.1</v>
       </c>
       <c r="P92" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="R92" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" s="16" customFormat="1">
+        <v>149</v>
+      </c>
+      <c r="Q92" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="R92" s="53"/>
+      <c r="T92" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" s="16" customFormat="1">
       <c r="B93" s="27"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="53"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="53"/>
-      <c r="H93" s="53"/>
-      <c r="I93" s="53"/>
-      <c r="J93" s="53"/>
-      <c r="K93" s="53"/>
-      <c r="L93" s="53"/>
-      <c r="M93" s="53"/>
-      <c r="N93" s="53"/>
-      <c r="O93" s="53"/>
+      <c r="C93" s="53">
+        <v>100</v>
+      </c>
+      <c r="D93" s="53">
+        <v>35</v>
+      </c>
+      <c r="E93" s="53">
+        <v>0</v>
+      </c>
+      <c r="F93" s="53">
+        <v>20</v>
+      </c>
+      <c r="G93" s="53">
+        <v>512</v>
+      </c>
+      <c r="H93" s="53">
+        <v>64</v>
+      </c>
+      <c r="I93" s="53">
+        <v>0</v>
+      </c>
+      <c r="J93" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="K93" s="53">
+        <v>1</v>
+      </c>
+      <c r="L93" s="53">
+        <v>1</v>
+      </c>
+      <c r="M93" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N93" s="53">
+        <v>10</v>
+      </c>
+      <c r="O93" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P93" s="16" t="s">
+        <v>149</v>
+      </c>
       <c r="R93" s="53"/>
-    </row>
-    <row r="94" spans="1:19" s="16" customFormat="1">
-      <c r="A94" s="16" t="s">
-        <v>278</v>
-      </c>
+      <c r="T93" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" s="16" customFormat="1">
       <c r="B94" s="27"/>
-    </row>
-    <row r="95" spans="1:19" s="16" customFormat="1">
+      <c r="C94" s="53">
+        <v>100</v>
+      </c>
+      <c r="D94" s="53">
+        <v>35</v>
+      </c>
+      <c r="E94" s="53">
+        <v>0</v>
+      </c>
+      <c r="F94" s="53">
+        <v>20</v>
+      </c>
+      <c r="G94" s="53">
+        <v>512</v>
+      </c>
+      <c r="H94" s="53">
+        <v>64</v>
+      </c>
+      <c r="I94" s="53">
+        <v>0</v>
+      </c>
+      <c r="J94" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K94" s="53"/>
+      <c r="L94" s="53">
+        <v>1</v>
+      </c>
+      <c r="M94" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N94" s="53">
+        <v>10</v>
+      </c>
+      <c r="O94" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P94" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q94" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="R94" s="53"/>
+      <c r="T94" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" s="16" customFormat="1">
       <c r="B95" s="27"/>
-      <c r="C95" s="53">
+      <c r="C95" s="53"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="53"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="53"/>
+      <c r="I95" s="53"/>
+      <c r="J95" s="53"/>
+      <c r="K95" s="53"/>
+      <c r="L95" s="53"/>
+      <c r="M95" s="53"/>
+      <c r="N95" s="53"/>
+      <c r="O95" s="53"/>
+      <c r="R95" s="53"/>
+    </row>
+    <row r="96" spans="1:20" s="24" customFormat="1">
+      <c r="B96" s="45">
+        <v>1406933</v>
+      </c>
+      <c r="C96" s="54">
         <v>100</v>
       </c>
-      <c r="D95" s="53">
+      <c r="D96" s="54">
         <v>35</v>
       </c>
-      <c r="E95" s="53">
-        <v>0</v>
-      </c>
-      <c r="F95" s="53">
-        <v>30</v>
-      </c>
-      <c r="G95" s="53">
-        <v>768</v>
-      </c>
-      <c r="H95" s="53">
+      <c r="E96" s="54">
+        <v>0</v>
+      </c>
+      <c r="F96" s="54">
+        <v>20</v>
+      </c>
+      <c r="G96" s="54">
+        <v>512</v>
+      </c>
+      <c r="H96" s="54">
         <v>64</v>
       </c>
-      <c r="I95" s="53">
-        <v>0</v>
-      </c>
-      <c r="J95" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="K95" s="53">
-        <v>1</v>
-      </c>
-      <c r="L95" s="53">
-        <v>1</v>
-      </c>
-      <c r="M95" s="53">
-        <v>1E-3</v>
-      </c>
-      <c r="N95" s="53">
-        <v>10</v>
-      </c>
-      <c r="O95" s="53">
+      <c r="I96" s="54">
+        <v>0</v>
+      </c>
+      <c r="J96" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="K96" s="54"/>
+      <c r="L96" s="54">
+        <v>5</v>
+      </c>
+      <c r="M96" s="54">
+        <v>1E-3</v>
+      </c>
+      <c r="N96" s="54">
+        <v>10</v>
+      </c>
+      <c r="O96" s="54">
         <v>0.1</v>
       </c>
-      <c r="P95" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="R95" s="53">
-        <v>18.0412</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" s="16" customFormat="1">
-      <c r="B96" s="27"/>
-      <c r="C96" s="53">
-        <v>100</v>
-      </c>
-      <c r="D96" s="53">
-        <v>35</v>
-      </c>
-      <c r="E96" s="53">
-        <v>0</v>
-      </c>
-      <c r="F96" s="53">
-        <v>30</v>
-      </c>
-      <c r="G96" s="53">
-        <v>768</v>
-      </c>
-      <c r="H96" s="53">
-        <v>64</v>
-      </c>
-      <c r="I96" s="53">
-        <v>0</v>
-      </c>
-      <c r="J96" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="K96" s="53"/>
-      <c r="L96" s="53">
-        <v>5</v>
-      </c>
-      <c r="M96" s="53">
-        <v>1E-3</v>
-      </c>
-      <c r="N96" s="53">
-        <v>10</v>
-      </c>
-      <c r="O96" s="53">
-        <v>0.1</v>
-      </c>
-      <c r="P96" s="16" t="s">
+      <c r="P96" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="R96" s="16" t="s">
+      <c r="Q96" s="24">
+        <v>85</v>
+      </c>
+      <c r="R96" s="24" t="s">
         <v>152</v>
       </c>
+      <c r="S96" s="24" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="97" spans="1:18" s="16" customFormat="1">
-      <c r="B97" s="27"/>
+      <c r="B97" s="27">
+        <v>1406934</v>
+      </c>
       <c r="C97" s="53">
         <v>100</v>
       </c>
@@ -30229,10 +30401,10 @@
         <v>0</v>
       </c>
       <c r="F97" s="53">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G97" s="53">
-        <v>768</v>
+        <v>512</v>
       </c>
       <c r="H97" s="53">
         <v>64</v>
@@ -30258,6 +30430,9 @@
       </c>
       <c r="P97" s="16" t="s">
         <v>141</v>
+      </c>
+      <c r="Q97" s="16" t="s">
+        <v>285</v>
       </c>
       <c r="R97" s="16" t="s">
         <v>153</v>
@@ -30275,10 +30450,10 @@
         <v>0</v>
       </c>
       <c r="F98" s="53">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G98" s="53">
-        <v>768</v>
+        <v>512</v>
       </c>
       <c r="H98" s="53">
         <v>64</v>
@@ -30321,10 +30496,10 @@
         <v>0</v>
       </c>
       <c r="F99" s="53">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G99" s="53">
-        <v>768</v>
+        <v>512</v>
       </c>
       <c r="H99" s="53">
         <v>64</v>
@@ -30367,10 +30542,10 @@
         <v>0</v>
       </c>
       <c r="F100" s="53">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G100" s="53">
-        <v>768</v>
+        <v>512</v>
       </c>
       <c r="H100" s="53">
         <v>64</v>
@@ -30403,10 +30578,24 @@
     </row>
     <row r="101" spans="1:18" s="16" customFormat="1">
       <c r="B101" s="27"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="53"/>
+      <c r="J101" s="53"/>
+      <c r="K101" s="53"/>
+      <c r="L101" s="53"/>
+      <c r="M101" s="53"/>
+      <c r="N101" s="53"/>
+      <c r="O101" s="53"/>
+      <c r="R101" s="53"/>
     </row>
     <row r="102" spans="1:18" s="16" customFormat="1">
       <c r="A102" s="16" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B102" s="27"/>
     </row>
@@ -30422,10 +30611,10 @@
         <v>0</v>
       </c>
       <c r="F103" s="53">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G103" s="53">
-        <v>1024</v>
+        <v>768</v>
       </c>
       <c r="H103" s="53">
         <v>64</v>
@@ -30470,10 +30659,10 @@
         <v>0</v>
       </c>
       <c r="F104" s="53">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G104" s="53">
-        <v>1024</v>
+        <v>768</v>
       </c>
       <c r="H104" s="53">
         <v>64</v>
@@ -30516,10 +30705,10 @@
         <v>0</v>
       </c>
       <c r="F105" s="53">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G105" s="53">
-        <v>1024</v>
+        <v>768</v>
       </c>
       <c r="H105" s="53">
         <v>64</v>
@@ -30562,10 +30751,10 @@
         <v>0</v>
       </c>
       <c r="F106" s="53">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G106" s="53">
-        <v>1024</v>
+        <v>768</v>
       </c>
       <c r="H106" s="53">
         <v>64</v>
@@ -30608,10 +30797,10 @@
         <v>0</v>
       </c>
       <c r="F107" s="53">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G107" s="53">
-        <v>1024</v>
+        <v>768</v>
       </c>
       <c r="H107" s="53">
         <v>64</v>
@@ -30654,10 +30843,10 @@
         <v>0</v>
       </c>
       <c r="F108" s="53">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G108" s="53">
-        <v>1024</v>
+        <v>768</v>
       </c>
       <c r="H108" s="53">
         <v>64</v>
@@ -30686,6 +30875,1220 @@
       </c>
       <c r="R108" s="53">
         <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" s="16" customFormat="1">
+      <c r="B109" s="27"/>
+    </row>
+    <row r="110" spans="1:18" s="16" customFormat="1">
+      <c r="A110" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B110" s="27"/>
+    </row>
+    <row r="111" spans="1:18" s="16" customFormat="1">
+      <c r="B111" s="27"/>
+      <c r="C111" s="53">
+        <v>100</v>
+      </c>
+      <c r="D111" s="53">
+        <v>35</v>
+      </c>
+      <c r="E111" s="53">
+        <v>0</v>
+      </c>
+      <c r="F111" s="53">
+        <v>40</v>
+      </c>
+      <c r="G111" s="53">
+        <v>1024</v>
+      </c>
+      <c r="H111" s="53">
+        <v>64</v>
+      </c>
+      <c r="I111" s="53">
+        <v>0</v>
+      </c>
+      <c r="J111" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="K111" s="53">
+        <v>1</v>
+      </c>
+      <c r="L111" s="53">
+        <v>1</v>
+      </c>
+      <c r="M111" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N111" s="53">
+        <v>10</v>
+      </c>
+      <c r="O111" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P111" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="R111" s="53">
+        <v>18.0412</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" s="16" customFormat="1">
+      <c r="B112" s="27"/>
+      <c r="C112" s="53">
+        <v>100</v>
+      </c>
+      <c r="D112" s="53">
+        <v>35</v>
+      </c>
+      <c r="E112" s="53">
+        <v>0</v>
+      </c>
+      <c r="F112" s="53">
+        <v>40</v>
+      </c>
+      <c r="G112" s="53">
+        <v>1024</v>
+      </c>
+      <c r="H112" s="53">
+        <v>64</v>
+      </c>
+      <c r="I112" s="53">
+        <v>0</v>
+      </c>
+      <c r="J112" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K112" s="53"/>
+      <c r="L112" s="53">
+        <v>5</v>
+      </c>
+      <c r="M112" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N112" s="53">
+        <v>10</v>
+      </c>
+      <c r="O112" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P112" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="R112" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" s="16" customFormat="1">
+      <c r="B113" s="27"/>
+      <c r="C113" s="53">
+        <v>100</v>
+      </c>
+      <c r="D113" s="53">
+        <v>35</v>
+      </c>
+      <c r="E113" s="53">
+        <v>0</v>
+      </c>
+      <c r="F113" s="53">
+        <v>40</v>
+      </c>
+      <c r="G113" s="53">
+        <v>1024</v>
+      </c>
+      <c r="H113" s="53">
+        <v>64</v>
+      </c>
+      <c r="I113" s="53">
+        <v>0</v>
+      </c>
+      <c r="J113" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K113" s="53"/>
+      <c r="L113" s="53">
+        <v>1</v>
+      </c>
+      <c r="M113" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N113" s="53">
+        <v>10</v>
+      </c>
+      <c r="O113" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P113" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="R113" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" s="16" customFormat="1">
+      <c r="B114" s="27"/>
+      <c r="C114" s="53">
+        <v>100</v>
+      </c>
+      <c r="D114" s="53">
+        <v>35</v>
+      </c>
+      <c r="E114" s="53">
+        <v>0</v>
+      </c>
+      <c r="F114" s="53">
+        <v>40</v>
+      </c>
+      <c r="G114" s="53">
+        <v>1024</v>
+      </c>
+      <c r="H114" s="53">
+        <v>64</v>
+      </c>
+      <c r="I114" s="53">
+        <v>0</v>
+      </c>
+      <c r="J114" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K114" s="53"/>
+      <c r="L114" s="53">
+        <v>4</v>
+      </c>
+      <c r="M114" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N114" s="53">
+        <v>10</v>
+      </c>
+      <c r="O114" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P114" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="R114" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" s="16" customFormat="1">
+      <c r="B115" s="27"/>
+      <c r="C115" s="53">
+        <v>100</v>
+      </c>
+      <c r="D115" s="53">
+        <v>35</v>
+      </c>
+      <c r="E115" s="53">
+        <v>0</v>
+      </c>
+      <c r="F115" s="53">
+        <v>40</v>
+      </c>
+      <c r="G115" s="53">
+        <v>1024</v>
+      </c>
+      <c r="H115" s="53">
+        <v>64</v>
+      </c>
+      <c r="I115" s="53">
+        <v>0</v>
+      </c>
+      <c r="J115" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K115" s="53"/>
+      <c r="L115" s="53">
+        <v>3</v>
+      </c>
+      <c r="M115" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N115" s="53">
+        <v>10</v>
+      </c>
+      <c r="O115" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P115" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="R115" s="53">
+        <v>57.424432000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" s="16" customFormat="1">
+      <c r="B116" s="27"/>
+      <c r="C116" s="53">
+        <v>100</v>
+      </c>
+      <c r="D116" s="53">
+        <v>35</v>
+      </c>
+      <c r="E116" s="53">
+        <v>0</v>
+      </c>
+      <c r="F116" s="53">
+        <v>40</v>
+      </c>
+      <c r="G116" s="53">
+        <v>1024</v>
+      </c>
+      <c r="H116" s="53">
+        <v>64</v>
+      </c>
+      <c r="I116" s="53">
+        <v>0</v>
+      </c>
+      <c r="J116" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K116" s="53"/>
+      <c r="L116" s="53">
+        <v>0</v>
+      </c>
+      <c r="M116" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="N116" s="53">
+        <v>10</v>
+      </c>
+      <c r="O116" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="P116" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="R116" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" s="16" customFormat="1">
+      <c r="B117" s="27"/>
+      <c r="C117" s="53"/>
+      <c r="D117" s="53"/>
+      <c r="E117" s="53"/>
+      <c r="F117" s="53"/>
+      <c r="G117" s="53"/>
+      <c r="H117" s="53"/>
+      <c r="I117" s="53"/>
+      <c r="J117" s="53"/>
+      <c r="K117" s="53"/>
+      <c r="L117" s="53"/>
+      <c r="M117" s="53"/>
+      <c r="N117" s="53"/>
+      <c r="O117" s="53"/>
+      <c r="R117" s="53"/>
+    </row>
+    <row r="118" spans="1:20">
+      <c r="A118" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20">
+      <c r="A119" s="55" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" s="16" customFormat="1">
+      <c r="A120" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="B120" s="27">
+        <v>1659854</v>
+      </c>
+      <c r="C120" s="53">
+        <v>100</v>
+      </c>
+      <c r="D120" s="53">
+        <v>35</v>
+      </c>
+      <c r="E120" s="53">
+        <v>0</v>
+      </c>
+      <c r="F120" s="53">
+        <v>15</v>
+      </c>
+      <c r="G120" s="53">
+        <v>384</v>
+      </c>
+      <c r="H120" s="53">
+        <v>64</v>
+      </c>
+      <c r="I120" s="53">
+        <v>0</v>
+      </c>
+      <c r="J120" s="53"/>
+      <c r="K120" s="53"/>
+      <c r="L120" s="53"/>
+      <c r="M120" s="53"/>
+      <c r="N120" s="53"/>
+      <c r="O120" s="53"/>
+      <c r="P120" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="R120" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T120" s="16" t="e" cm="1">
+        <f t="array" ref="T120">A120:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" s="16" customFormat="1">
+      <c r="B121" s="27">
+        <v>1661649</v>
+      </c>
+      <c r="C121" s="53">
+        <v>100</v>
+      </c>
+      <c r="D121" s="53">
+        <v>35</v>
+      </c>
+      <c r="E121" s="53">
+        <v>0</v>
+      </c>
+      <c r="F121" s="53">
+        <v>15</v>
+      </c>
+      <c r="G121" s="53">
+        <v>384</v>
+      </c>
+      <c r="H121" s="53">
+        <v>64</v>
+      </c>
+      <c r="I121" s="53">
+        <v>0</v>
+      </c>
+      <c r="J121" s="53"/>
+      <c r="K121" s="53"/>
+      <c r="L121" s="53"/>
+      <c r="M121" s="53"/>
+      <c r="N121" s="53"/>
+      <c r="O121" s="53"/>
+      <c r="P121" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="R121" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T121" s="16" t="e" cm="1">
+        <f t="array" ref="T121">A121:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" s="16" customFormat="1">
+      <c r="B122" s="27">
+        <v>1659875</v>
+      </c>
+      <c r="C122" s="53">
+        <v>100</v>
+      </c>
+      <c r="D122" s="53">
+        <v>35</v>
+      </c>
+      <c r="E122" s="53">
+        <v>0</v>
+      </c>
+      <c r="F122" s="53">
+        <v>15</v>
+      </c>
+      <c r="G122" s="53">
+        <v>384</v>
+      </c>
+      <c r="H122" s="53">
+        <v>64</v>
+      </c>
+      <c r="I122" s="53">
+        <v>0</v>
+      </c>
+      <c r="J122" s="53"/>
+      <c r="K122" s="53"/>
+      <c r="L122" s="53"/>
+      <c r="M122" s="53"/>
+      <c r="N122" s="53"/>
+      <c r="O122" s="53"/>
+      <c r="P122" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="R122" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T122" s="16" t="e" cm="1">
+        <f t="array" ref="T122">A122:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" s="16" customFormat="1">
+      <c r="B123" s="27">
+        <v>1659880</v>
+      </c>
+      <c r="C123" s="53">
+        <v>100</v>
+      </c>
+      <c r="D123" s="53">
+        <v>35</v>
+      </c>
+      <c r="E123" s="53">
+        <v>0</v>
+      </c>
+      <c r="F123" s="53">
+        <v>15</v>
+      </c>
+      <c r="G123" s="53">
+        <v>384</v>
+      </c>
+      <c r="H123" s="53">
+        <v>64</v>
+      </c>
+      <c r="I123" s="53">
+        <v>0</v>
+      </c>
+      <c r="J123" s="53"/>
+      <c r="K123" s="53"/>
+      <c r="L123" s="53"/>
+      <c r="M123" s="53"/>
+      <c r="N123" s="53"/>
+      <c r="O123" s="53"/>
+      <c r="P123" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="R123" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T123" s="16" t="e" cm="1">
+        <f t="array" ref="T123">A123:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" s="16" customFormat="1">
+      <c r="B124" s="27">
+        <v>1659884</v>
+      </c>
+      <c r="C124" s="53">
+        <v>100</v>
+      </c>
+      <c r="D124" s="53">
+        <v>35</v>
+      </c>
+      <c r="E124" s="53">
+        <v>0</v>
+      </c>
+      <c r="F124" s="53">
+        <v>15</v>
+      </c>
+      <c r="G124" s="53">
+        <v>384</v>
+      </c>
+      <c r="H124" s="53">
+        <v>64</v>
+      </c>
+      <c r="I124" s="53">
+        <v>0</v>
+      </c>
+      <c r="J124" s="53"/>
+      <c r="K124" s="53"/>
+      <c r="L124" s="53"/>
+      <c r="M124" s="53"/>
+      <c r="N124" s="53"/>
+      <c r="O124" s="53"/>
+      <c r="P124" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="R124" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T124" s="16" t="e" cm="1">
+        <f t="array" ref="T124">A124:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" s="16" customFormat="1">
+      <c r="B125" s="27">
+        <v>1659892</v>
+      </c>
+      <c r="C125" s="53">
+        <v>100</v>
+      </c>
+      <c r="D125" s="53">
+        <v>35</v>
+      </c>
+      <c r="E125" s="53">
+        <v>0</v>
+      </c>
+      <c r="F125" s="53">
+        <v>15</v>
+      </c>
+      <c r="G125" s="53">
+        <v>384</v>
+      </c>
+      <c r="H125" s="53">
+        <v>64</v>
+      </c>
+      <c r="I125" s="53">
+        <v>0</v>
+      </c>
+      <c r="J125" s="53"/>
+      <c r="K125" s="53"/>
+      <c r="L125" s="53"/>
+      <c r="M125" s="53"/>
+      <c r="N125" s="53"/>
+      <c r="O125" s="53"/>
+      <c r="P125" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="R125" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T125" s="16" t="e" cm="1">
+        <f t="array" ref="T125">A125:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20">
+      <c r="A127" s="55" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" s="16" customFormat="1">
+      <c r="B128" s="27">
+        <v>1659898</v>
+      </c>
+      <c r="C128" s="53">
+        <v>100</v>
+      </c>
+      <c r="D128" s="53">
+        <v>35</v>
+      </c>
+      <c r="E128" s="53">
+        <v>0</v>
+      </c>
+      <c r="F128" s="53">
+        <v>20</v>
+      </c>
+      <c r="G128" s="53">
+        <v>512</v>
+      </c>
+      <c r="H128" s="53">
+        <v>64</v>
+      </c>
+      <c r="I128" s="53">
+        <v>0</v>
+      </c>
+      <c r="J128" s="53"/>
+      <c r="K128" s="53"/>
+      <c r="L128" s="53"/>
+      <c r="M128" s="53"/>
+      <c r="N128" s="53"/>
+      <c r="O128" s="53"/>
+      <c r="P128" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="R128" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T128" s="16" t="e" cm="1">
+        <f t="array" ref="T128">A128:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" s="16" customFormat="1">
+      <c r="B129" s="27">
+        <v>1659901</v>
+      </c>
+      <c r="C129" s="53">
+        <v>100</v>
+      </c>
+      <c r="D129" s="53">
+        <v>35</v>
+      </c>
+      <c r="E129" s="53">
+        <v>0</v>
+      </c>
+      <c r="F129" s="53">
+        <v>20</v>
+      </c>
+      <c r="G129" s="53">
+        <v>512</v>
+      </c>
+      <c r="H129" s="53">
+        <v>64</v>
+      </c>
+      <c r="I129" s="53">
+        <v>0</v>
+      </c>
+      <c r="J129" s="53"/>
+      <c r="K129" s="53"/>
+      <c r="L129" s="53"/>
+      <c r="M129" s="53"/>
+      <c r="N129" s="53"/>
+      <c r="O129" s="53"/>
+      <c r="P129" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="R129" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T129" s="16" t="e" cm="1">
+        <f t="array" ref="T129">A129:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" s="16" customFormat="1">
+      <c r="B130" s="27">
+        <v>1659902</v>
+      </c>
+      <c r="C130" s="53">
+        <v>100</v>
+      </c>
+      <c r="D130" s="53">
+        <v>35</v>
+      </c>
+      <c r="E130" s="53">
+        <v>0</v>
+      </c>
+      <c r="F130" s="53">
+        <v>20</v>
+      </c>
+      <c r="G130" s="53">
+        <v>512</v>
+      </c>
+      <c r="H130" s="53">
+        <v>64</v>
+      </c>
+      <c r="I130" s="53">
+        <v>0</v>
+      </c>
+      <c r="J130" s="53"/>
+      <c r="K130" s="53"/>
+      <c r="L130" s="53"/>
+      <c r="M130" s="53"/>
+      <c r="N130" s="53"/>
+      <c r="O130" s="53"/>
+      <c r="P130" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="R130" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T130" s="16" t="e" cm="1">
+        <f t="array" ref="T130">A130:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" s="16" customFormat="1">
+      <c r="B131" s="27">
+        <v>1659962</v>
+      </c>
+      <c r="C131" s="53">
+        <v>100</v>
+      </c>
+      <c r="D131" s="53">
+        <v>35</v>
+      </c>
+      <c r="E131" s="53">
+        <v>0</v>
+      </c>
+      <c r="F131" s="53">
+        <v>20</v>
+      </c>
+      <c r="G131" s="53">
+        <v>512</v>
+      </c>
+      <c r="H131" s="53">
+        <v>64</v>
+      </c>
+      <c r="I131" s="53">
+        <v>0</v>
+      </c>
+      <c r="J131" s="53"/>
+      <c r="K131" s="53"/>
+      <c r="L131" s="53"/>
+      <c r="M131" s="53"/>
+      <c r="N131" s="53"/>
+      <c r="O131" s="53"/>
+      <c r="P131" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="R131" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T131" s="16" t="e" cm="1">
+        <f t="array" ref="T131">A131:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" s="16" customFormat="1">
+      <c r="B132" s="27">
+        <v>1660069</v>
+      </c>
+      <c r="C132" s="53">
+        <v>100</v>
+      </c>
+      <c r="D132" s="53">
+        <v>35</v>
+      </c>
+      <c r="E132" s="53">
+        <v>0</v>
+      </c>
+      <c r="F132" s="53">
+        <v>20</v>
+      </c>
+      <c r="G132" s="53">
+        <v>512</v>
+      </c>
+      <c r="H132" s="53">
+        <v>64</v>
+      </c>
+      <c r="I132" s="53">
+        <v>0</v>
+      </c>
+      <c r="J132" s="53"/>
+      <c r="K132" s="53"/>
+      <c r="L132" s="53"/>
+      <c r="M132" s="53"/>
+      <c r="N132" s="53"/>
+      <c r="O132" s="53"/>
+      <c r="P132" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="R132" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T132" s="16" t="e" cm="1">
+        <f t="array" ref="T132">A132:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20">
+      <c r="A134" s="55" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" s="16" customFormat="1">
+      <c r="B135" s="27">
+        <v>1660075</v>
+      </c>
+      <c r="C135" s="53">
+        <v>100</v>
+      </c>
+      <c r="D135" s="53">
+        <v>35</v>
+      </c>
+      <c r="E135" s="53">
+        <v>0</v>
+      </c>
+      <c r="F135" s="53">
+        <v>30</v>
+      </c>
+      <c r="G135" s="53">
+        <v>768</v>
+      </c>
+      <c r="H135" s="53">
+        <v>64</v>
+      </c>
+      <c r="I135" s="53">
+        <v>0</v>
+      </c>
+      <c r="J135" s="53"/>
+      <c r="K135" s="53"/>
+      <c r="L135" s="53"/>
+      <c r="M135" s="53"/>
+      <c r="N135" s="53"/>
+      <c r="O135" s="53"/>
+      <c r="P135" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="R135" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T135" s="16" t="e" cm="1">
+        <f t="array" ref="T135">A135:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" s="16" customFormat="1">
+      <c r="B136" s="27">
+        <v>1660130</v>
+      </c>
+      <c r="C136" s="53">
+        <v>100</v>
+      </c>
+      <c r="D136" s="53">
+        <v>35</v>
+      </c>
+      <c r="E136" s="53">
+        <v>0</v>
+      </c>
+      <c r="F136" s="53">
+        <v>30</v>
+      </c>
+      <c r="G136" s="53">
+        <v>768</v>
+      </c>
+      <c r="H136" s="53">
+        <v>64</v>
+      </c>
+      <c r="I136" s="53">
+        <v>0</v>
+      </c>
+      <c r="J136" s="53"/>
+      <c r="K136" s="53"/>
+      <c r="L136" s="53"/>
+      <c r="M136" s="53"/>
+      <c r="N136" s="53"/>
+      <c r="O136" s="53"/>
+      <c r="P136" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="R136" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T136" s="16" t="e" cm="1">
+        <f t="array" ref="T136">A136:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" s="16" customFormat="1">
+      <c r="B137" s="27">
+        <v>1660132</v>
+      </c>
+      <c r="C137" s="53">
+        <v>100</v>
+      </c>
+      <c r="D137" s="53">
+        <v>35</v>
+      </c>
+      <c r="E137" s="53">
+        <v>0</v>
+      </c>
+      <c r="F137" s="53">
+        <v>30</v>
+      </c>
+      <c r="G137" s="53">
+        <v>768</v>
+      </c>
+      <c r="H137" s="53">
+        <v>64</v>
+      </c>
+      <c r="I137" s="53">
+        <v>0</v>
+      </c>
+      <c r="J137" s="53"/>
+      <c r="K137" s="53"/>
+      <c r="L137" s="53"/>
+      <c r="M137" s="53"/>
+      <c r="N137" s="53"/>
+      <c r="O137" s="53"/>
+      <c r="P137" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="R137" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T137" s="16" t="e" cm="1">
+        <f t="array" ref="T137">A137:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" s="16" customFormat="1">
+      <c r="B138" s="27">
+        <v>1660140</v>
+      </c>
+      <c r="C138" s="53">
+        <v>100</v>
+      </c>
+      <c r="D138" s="53">
+        <v>35</v>
+      </c>
+      <c r="E138" s="53">
+        <v>0</v>
+      </c>
+      <c r="F138" s="53">
+        <v>30</v>
+      </c>
+      <c r="G138" s="53">
+        <v>768</v>
+      </c>
+      <c r="H138" s="53">
+        <v>64</v>
+      </c>
+      <c r="I138" s="53">
+        <v>0</v>
+      </c>
+      <c r="J138" s="53"/>
+      <c r="K138" s="53"/>
+      <c r="L138" s="53"/>
+      <c r="M138" s="53"/>
+      <c r="N138" s="53"/>
+      <c r="O138" s="53"/>
+      <c r="P138" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="R138" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T138" s="16" t="e" cm="1">
+        <f t="array" ref="T138">A138:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" s="16" customFormat="1">
+      <c r="B139" s="27">
+        <v>1660824</v>
+      </c>
+      <c r="C139" s="53">
+        <v>100</v>
+      </c>
+      <c r="D139" s="53">
+        <v>35</v>
+      </c>
+      <c r="E139" s="53">
+        <v>0</v>
+      </c>
+      <c r="F139" s="53">
+        <v>30</v>
+      </c>
+      <c r="G139" s="53">
+        <v>768</v>
+      </c>
+      <c r="H139" s="53">
+        <v>64</v>
+      </c>
+      <c r="I139" s="53">
+        <v>0</v>
+      </c>
+      <c r="J139" s="53"/>
+      <c r="K139" s="53"/>
+      <c r="L139" s="53"/>
+      <c r="M139" s="53"/>
+      <c r="N139" s="53"/>
+      <c r="O139" s="53"/>
+      <c r="P139" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="R139" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T139" s="16" t="e" cm="1">
+        <f t="array" ref="T139">A139:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20">
+      <c r="A141" s="55" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" s="16" customFormat="1">
+      <c r="B142" s="27">
+        <v>1660855</v>
+      </c>
+      <c r="C142" s="53">
+        <v>100</v>
+      </c>
+      <c r="D142" s="53">
+        <v>35</v>
+      </c>
+      <c r="E142" s="53">
+        <v>0</v>
+      </c>
+      <c r="F142" s="53">
+        <v>40</v>
+      </c>
+      <c r="G142" s="53">
+        <v>1024</v>
+      </c>
+      <c r="H142" s="53">
+        <v>64</v>
+      </c>
+      <c r="I142" s="53">
+        <v>0</v>
+      </c>
+      <c r="J142" s="53"/>
+      <c r="K142" s="53"/>
+      <c r="L142" s="53"/>
+      <c r="M142" s="53"/>
+      <c r="N142" s="53"/>
+      <c r="O142" s="53"/>
+      <c r="P142" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="R142" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T142" s="16" t="e" cm="1">
+        <f t="array" ref="T142">A142:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" s="16" customFormat="1">
+      <c r="B143" s="27">
+        <v>1660891</v>
+      </c>
+      <c r="C143" s="53">
+        <v>100</v>
+      </c>
+      <c r="D143" s="53">
+        <v>35</v>
+      </c>
+      <c r="E143" s="53">
+        <v>0</v>
+      </c>
+      <c r="F143" s="53">
+        <v>40</v>
+      </c>
+      <c r="G143" s="53">
+        <v>1024</v>
+      </c>
+      <c r="H143" s="53">
+        <v>64</v>
+      </c>
+      <c r="I143" s="53">
+        <v>0</v>
+      </c>
+      <c r="J143" s="53"/>
+      <c r="K143" s="53"/>
+      <c r="L143" s="53"/>
+      <c r="M143" s="53"/>
+      <c r="N143" s="53"/>
+      <c r="O143" s="53"/>
+      <c r="P143" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="R143" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T143" s="16" t="e" cm="1">
+        <f t="array" ref="T143">A143:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" s="16" customFormat="1">
+      <c r="B144" s="27">
+        <v>1660908</v>
+      </c>
+      <c r="C144" s="53">
+        <v>100</v>
+      </c>
+      <c r="D144" s="53">
+        <v>35</v>
+      </c>
+      <c r="E144" s="53">
+        <v>0</v>
+      </c>
+      <c r="F144" s="53">
+        <v>40</v>
+      </c>
+      <c r="G144" s="53">
+        <v>1024</v>
+      </c>
+      <c r="H144" s="53">
+        <v>64</v>
+      </c>
+      <c r="I144" s="53">
+        <v>0</v>
+      </c>
+      <c r="J144" s="53"/>
+      <c r="K144" s="53"/>
+      <c r="L144" s="53"/>
+      <c r="M144" s="53"/>
+      <c r="N144" s="53"/>
+      <c r="O144" s="53"/>
+      <c r="P144" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="R144" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T144" s="16" t="e" cm="1">
+        <f t="array" ref="T144">A144:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="145" spans="2:20" s="16" customFormat="1">
+      <c r="B145" s="27">
+        <v>1661064</v>
+      </c>
+      <c r="C145" s="53">
+        <v>100</v>
+      </c>
+      <c r="D145" s="53">
+        <v>35</v>
+      </c>
+      <c r="E145" s="53">
+        <v>0</v>
+      </c>
+      <c r="F145" s="53">
+        <v>40</v>
+      </c>
+      <c r="G145" s="53">
+        <v>1024</v>
+      </c>
+      <c r="H145" s="53">
+        <v>64</v>
+      </c>
+      <c r="I145" s="53">
+        <v>0</v>
+      </c>
+      <c r="J145" s="53"/>
+      <c r="K145" s="53"/>
+      <c r="L145" s="53"/>
+      <c r="M145" s="53"/>
+      <c r="N145" s="53"/>
+      <c r="O145" s="53"/>
+      <c r="P145" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="R145" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T145" s="16" t="e" cm="1">
+        <f t="array" ref="T145">A145:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="146" spans="2:20" s="16" customFormat="1">
+      <c r="B146" s="27">
+        <v>1661300</v>
+      </c>
+      <c r="C146" s="53">
+        <v>100</v>
+      </c>
+      <c r="D146" s="53">
+        <v>35</v>
+      </c>
+      <c r="E146" s="53">
+        <v>0</v>
+      </c>
+      <c r="F146" s="53">
+        <v>40</v>
+      </c>
+      <c r="G146" s="53">
+        <v>1024</v>
+      </c>
+      <c r="H146" s="53">
+        <v>64</v>
+      </c>
+      <c r="I146" s="53">
+        <v>0</v>
+      </c>
+      <c r="J146" s="53"/>
+      <c r="K146" s="53"/>
+      <c r="L146" s="53"/>
+      <c r="M146" s="53"/>
+      <c r="N146" s="53"/>
+      <c r="O146" s="53"/>
+      <c r="P146" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="R146" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T146" s="16" t="e" cm="1">
+        <f t="array" ref="T146">A146:T119One pulse</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A251337-A972-4134-B6A5-DA9CE51A8925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411E0DE1-076B-41F7-B208-AF7A04571371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="602" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="312">
   <si>
     <t>slurm_num</t>
   </si>
@@ -995,6 +995,12 @@
   <si>
     <t>canceled</t>
   </si>
+  <si>
+    <t>Lx=80,Nx=2048</t>
+  </si>
+  <si>
+    <t>Lx=160,Nx=4096</t>
+  </si>
 </sst>
 </file>
 
@@ -1115,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1177,6 +1183,8 @@
     <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -26982,10 +26990,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73000ED-ACF1-4870-B376-DD86BAB5368D}">
-  <dimension ref="A1:T146"/>
+  <dimension ref="A1:T160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -26994,7 +27002,7 @@
     <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="17.453125" customWidth="1"/>
     <col min="5" max="5" width="16.26953125" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.81640625" customWidth="1"/>
@@ -31223,8 +31231,12 @@
       <c r="K120" s="53"/>
       <c r="L120" s="53"/>
       <c r="M120" s="53"/>
-      <c r="N120" s="53"/>
-      <c r="O120" s="53"/>
+      <c r="N120" s="53">
+        <v>100</v>
+      </c>
+      <c r="O120" s="53">
+        <v>1</v>
+      </c>
       <c r="P120" s="16" t="s">
         <v>300</v>
       </c>
@@ -31265,8 +31277,12 @@
       <c r="K121" s="53"/>
       <c r="L121" s="53"/>
       <c r="M121" s="53"/>
-      <c r="N121" s="53"/>
-      <c r="O121" s="53"/>
+      <c r="N121" s="53">
+        <v>100</v>
+      </c>
+      <c r="O121" s="53">
+        <v>1</v>
+      </c>
       <c r="P121" s="16" t="s">
         <v>300</v>
       </c>
@@ -31307,8 +31323,12 @@
       <c r="K122" s="53"/>
       <c r="L122" s="53"/>
       <c r="M122" s="53"/>
-      <c r="N122" s="53"/>
-      <c r="O122" s="53"/>
+      <c r="N122" s="53">
+        <v>100</v>
+      </c>
+      <c r="O122" s="53">
+        <v>1</v>
+      </c>
       <c r="P122" s="16" t="s">
         <v>305</v>
       </c>
@@ -31349,8 +31369,12 @@
       <c r="K123" s="53"/>
       <c r="L123" s="53"/>
       <c r="M123" s="53"/>
-      <c r="N123" s="53"/>
-      <c r="O123" s="53"/>
+      <c r="N123" s="53">
+        <v>100</v>
+      </c>
+      <c r="O123" s="53">
+        <v>1</v>
+      </c>
       <c r="P123" s="16" t="s">
         <v>306</v>
       </c>
@@ -31391,8 +31415,12 @@
       <c r="K124" s="53"/>
       <c r="L124" s="53"/>
       <c r="M124" s="53"/>
-      <c r="N124" s="53"/>
-      <c r="O124" s="53"/>
+      <c r="N124" s="53">
+        <v>100</v>
+      </c>
+      <c r="O124" s="53">
+        <v>1</v>
+      </c>
       <c r="P124" s="16" t="s">
         <v>307</v>
       </c>
@@ -31433,8 +31461,12 @@
       <c r="K125" s="53"/>
       <c r="L125" s="53"/>
       <c r="M125" s="53"/>
-      <c r="N125" s="53"/>
-      <c r="O125" s="53"/>
+      <c r="N125" s="53">
+        <v>100</v>
+      </c>
+      <c r="O125" s="53">
+        <v>1</v>
+      </c>
       <c r="P125" s="16" t="s">
         <v>308</v>
       </c>
@@ -31480,8 +31512,12 @@
       <c r="K128" s="53"/>
       <c r="L128" s="53"/>
       <c r="M128" s="53"/>
-      <c r="N128" s="53"/>
-      <c r="O128" s="53"/>
+      <c r="N128" s="53">
+        <v>100</v>
+      </c>
+      <c r="O128" s="53">
+        <v>1</v>
+      </c>
       <c r="P128" s="16" t="s">
         <v>300</v>
       </c>
@@ -31522,8 +31558,12 @@
       <c r="K129" s="53"/>
       <c r="L129" s="53"/>
       <c r="M129" s="53"/>
-      <c r="N129" s="53"/>
-      <c r="O129" s="53"/>
+      <c r="N129" s="53">
+        <v>100</v>
+      </c>
+      <c r="O129" s="53">
+        <v>1</v>
+      </c>
       <c r="P129" s="16" t="s">
         <v>305</v>
       </c>
@@ -31564,8 +31604,12 @@
       <c r="K130" s="53"/>
       <c r="L130" s="53"/>
       <c r="M130" s="53"/>
-      <c r="N130" s="53"/>
-      <c r="O130" s="53"/>
+      <c r="N130" s="53">
+        <v>100</v>
+      </c>
+      <c r="O130" s="53">
+        <v>1</v>
+      </c>
       <c r="P130" s="16" t="s">
         <v>306</v>
       </c>
@@ -31606,8 +31650,12 @@
       <c r="K131" s="53"/>
       <c r="L131" s="53"/>
       <c r="M131" s="53"/>
-      <c r="N131" s="53"/>
-      <c r="O131" s="53"/>
+      <c r="N131" s="53">
+        <v>100</v>
+      </c>
+      <c r="O131" s="53">
+        <v>1</v>
+      </c>
       <c r="P131" s="16" t="s">
         <v>307</v>
       </c>
@@ -31648,8 +31696,12 @@
       <c r="K132" s="53"/>
       <c r="L132" s="53"/>
       <c r="M132" s="53"/>
-      <c r="N132" s="53"/>
-      <c r="O132" s="53"/>
+      <c r="N132" s="53">
+        <v>100</v>
+      </c>
+      <c r="O132" s="53">
+        <v>1</v>
+      </c>
       <c r="P132" s="16" t="s">
         <v>308</v>
       </c>
@@ -31695,8 +31747,12 @@
       <c r="K135" s="53"/>
       <c r="L135" s="53"/>
       <c r="M135" s="53"/>
-      <c r="N135" s="53"/>
-      <c r="O135" s="53"/>
+      <c r="N135" s="53">
+        <v>100</v>
+      </c>
+      <c r="O135" s="53">
+        <v>1</v>
+      </c>
       <c r="P135" s="16" t="s">
         <v>300</v>
       </c>
@@ -31737,8 +31793,12 @@
       <c r="K136" s="53"/>
       <c r="L136" s="53"/>
       <c r="M136" s="53"/>
-      <c r="N136" s="53"/>
-      <c r="O136" s="53"/>
+      <c r="N136" s="53">
+        <v>100</v>
+      </c>
+      <c r="O136" s="53">
+        <v>1</v>
+      </c>
       <c r="P136" s="16" t="s">
         <v>305</v>
       </c>
@@ -31779,8 +31839,12 @@
       <c r="K137" s="53"/>
       <c r="L137" s="53"/>
       <c r="M137" s="53"/>
-      <c r="N137" s="53"/>
-      <c r="O137" s="53"/>
+      <c r="N137" s="53">
+        <v>100</v>
+      </c>
+      <c r="O137" s="53">
+        <v>1</v>
+      </c>
       <c r="P137" s="16" t="s">
         <v>306</v>
       </c>
@@ -31821,8 +31885,12 @@
       <c r="K138" s="53"/>
       <c r="L138" s="53"/>
       <c r="M138" s="53"/>
-      <c r="N138" s="53"/>
-      <c r="O138" s="53"/>
+      <c r="N138" s="53">
+        <v>100</v>
+      </c>
+      <c r="O138" s="53">
+        <v>1</v>
+      </c>
       <c r="P138" s="16" t="s">
         <v>307</v>
       </c>
@@ -31863,8 +31931,12 @@
       <c r="K139" s="53"/>
       <c r="L139" s="53"/>
       <c r="M139" s="53"/>
-      <c r="N139" s="53"/>
-      <c r="O139" s="53"/>
+      <c r="N139" s="53">
+        <v>100</v>
+      </c>
+      <c r="O139" s="53">
+        <v>1</v>
+      </c>
       <c r="P139" s="16" t="s">
         <v>308</v>
       </c>
@@ -31910,8 +31982,12 @@
       <c r="K142" s="53"/>
       <c r="L142" s="53"/>
       <c r="M142" s="53"/>
-      <c r="N142" s="53"/>
-      <c r="O142" s="53"/>
+      <c r="N142" s="53">
+        <v>100</v>
+      </c>
+      <c r="O142" s="53">
+        <v>1</v>
+      </c>
       <c r="P142" s="16" t="s">
         <v>300</v>
       </c>
@@ -31952,8 +32028,12 @@
       <c r="K143" s="53"/>
       <c r="L143" s="53"/>
       <c r="M143" s="53"/>
-      <c r="N143" s="53"/>
-      <c r="O143" s="53"/>
+      <c r="N143" s="53">
+        <v>100</v>
+      </c>
+      <c r="O143" s="53">
+        <v>1</v>
+      </c>
       <c r="P143" s="16" t="s">
         <v>305</v>
       </c>
@@ -31994,8 +32074,12 @@
       <c r="K144" s="53"/>
       <c r="L144" s="53"/>
       <c r="M144" s="53"/>
-      <c r="N144" s="53"/>
-      <c r="O144" s="53"/>
+      <c r="N144" s="53">
+        <v>100</v>
+      </c>
+      <c r="O144" s="53">
+        <v>1</v>
+      </c>
       <c r="P144" s="16" t="s">
         <v>306</v>
       </c>
@@ -32007,7 +32091,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="145" spans="2:20" s="16" customFormat="1">
+    <row r="145" spans="1:20" s="16" customFormat="1">
       <c r="B145" s="27">
         <v>1661064</v>
       </c>
@@ -32036,8 +32120,12 @@
       <c r="K145" s="53"/>
       <c r="L145" s="53"/>
       <c r="M145" s="53"/>
-      <c r="N145" s="53"/>
-      <c r="O145" s="53"/>
+      <c r="N145" s="53">
+        <v>100</v>
+      </c>
+      <c r="O145" s="53">
+        <v>1</v>
+      </c>
       <c r="P145" s="16" t="s">
         <v>307</v>
       </c>
@@ -32049,7 +32137,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="146" spans="2:20" s="16" customFormat="1">
+    <row r="146" spans="1:20" s="16" customFormat="1">
       <c r="B146" s="27">
         <v>1661300</v>
       </c>
@@ -32078,8 +32166,12 @@
       <c r="K146" s="53"/>
       <c r="L146" s="53"/>
       <c r="M146" s="53"/>
-      <c r="N146" s="53"/>
-      <c r="O146" s="53"/>
+      <c r="N146" s="53">
+        <v>100</v>
+      </c>
+      <c r="O146" s="53">
+        <v>1</v>
+      </c>
       <c r="P146" s="16" t="s">
         <v>308</v>
       </c>
@@ -32088,6 +32180,476 @@
       </c>
       <c r="T146" s="16" t="e" cm="1">
         <f t="array" ref="T146">A146:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20">
+      <c r="A148" s="55" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" s="16" customFormat="1">
+      <c r="B149" s="59">
+        <v>2101202</v>
+      </c>
+      <c r="C149" s="53">
+        <v>100</v>
+      </c>
+      <c r="D149" s="53">
+        <v>35</v>
+      </c>
+      <c r="E149" s="53">
+        <v>0</v>
+      </c>
+      <c r="F149" s="53">
+        <v>80</v>
+      </c>
+      <c r="G149" s="53">
+        <v>2048</v>
+      </c>
+      <c r="H149" s="53">
+        <v>64</v>
+      </c>
+      <c r="I149" s="53">
+        <v>0</v>
+      </c>
+      <c r="J149" s="53"/>
+      <c r="K149" s="53"/>
+      <c r="L149" s="53"/>
+      <c r="M149" s="53"/>
+      <c r="N149" s="53">
+        <v>100</v>
+      </c>
+      <c r="O149" s="53">
+        <v>1</v>
+      </c>
+      <c r="P149" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="R149" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T149" s="16" t="e" cm="1">
+        <f t="array" ref="T149">A149:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" s="16" customFormat="1">
+      <c r="B150" s="27">
+        <v>2101199</v>
+      </c>
+      <c r="C150" s="53">
+        <v>100</v>
+      </c>
+      <c r="D150" s="53">
+        <v>35</v>
+      </c>
+      <c r="E150" s="53">
+        <v>0</v>
+      </c>
+      <c r="F150" s="53">
+        <v>80</v>
+      </c>
+      <c r="G150" s="53">
+        <v>2048</v>
+      </c>
+      <c r="H150" s="53">
+        <v>64</v>
+      </c>
+      <c r="I150" s="53">
+        <v>0</v>
+      </c>
+      <c r="J150" s="53"/>
+      <c r="K150" s="53"/>
+      <c r="L150" s="53"/>
+      <c r="M150" s="53"/>
+      <c r="N150" s="53">
+        <v>100</v>
+      </c>
+      <c r="O150" s="53">
+        <v>1</v>
+      </c>
+      <c r="P150" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="R150" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T150" s="16" t="e" cm="1">
+        <f t="array" ref="T150">A150:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" s="16" customFormat="1">
+      <c r="B151" s="60">
+        <v>2101203</v>
+      </c>
+      <c r="C151" s="53">
+        <v>100</v>
+      </c>
+      <c r="D151" s="53">
+        <v>35</v>
+      </c>
+      <c r="E151" s="53">
+        <v>0</v>
+      </c>
+      <c r="F151" s="53">
+        <v>80</v>
+      </c>
+      <c r="G151" s="53">
+        <v>2048</v>
+      </c>
+      <c r="H151" s="53">
+        <v>64</v>
+      </c>
+      <c r="I151" s="53">
+        <v>0</v>
+      </c>
+      <c r="J151" s="53"/>
+      <c r="K151" s="53"/>
+      <c r="L151" s="53"/>
+      <c r="M151" s="53"/>
+      <c r="N151" s="53">
+        <v>100</v>
+      </c>
+      <c r="O151" s="53">
+        <v>1</v>
+      </c>
+      <c r="P151" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="R151" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T151" s="16" t="e" cm="1">
+        <f t="array" ref="T151">A151:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" s="16" customFormat="1">
+      <c r="B152" s="60">
+        <v>2101205</v>
+      </c>
+      <c r="C152" s="53">
+        <v>100</v>
+      </c>
+      <c r="D152" s="53">
+        <v>35</v>
+      </c>
+      <c r="E152" s="53">
+        <v>0</v>
+      </c>
+      <c r="F152" s="53">
+        <v>80</v>
+      </c>
+      <c r="G152" s="53">
+        <v>2048</v>
+      </c>
+      <c r="H152" s="53">
+        <v>64</v>
+      </c>
+      <c r="I152" s="53">
+        <v>0</v>
+      </c>
+      <c r="J152" s="53"/>
+      <c r="K152" s="53"/>
+      <c r="L152" s="53"/>
+      <c r="M152" s="53"/>
+      <c r="N152" s="53">
+        <v>100</v>
+      </c>
+      <c r="O152" s="53">
+        <v>1</v>
+      </c>
+      <c r="P152" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="R152" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T152" s="16" t="e" cm="1">
+        <f t="array" ref="T152">A152:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" s="16" customFormat="1">
+      <c r="B153" s="60">
+        <v>2101207</v>
+      </c>
+      <c r="C153" s="53">
+        <v>100</v>
+      </c>
+      <c r="D153" s="53">
+        <v>35</v>
+      </c>
+      <c r="E153" s="53">
+        <v>0</v>
+      </c>
+      <c r="F153" s="53">
+        <v>80</v>
+      </c>
+      <c r="G153" s="53">
+        <v>2048</v>
+      </c>
+      <c r="H153" s="53">
+        <v>64</v>
+      </c>
+      <c r="I153" s="53">
+        <v>0</v>
+      </c>
+      <c r="J153" s="53"/>
+      <c r="K153" s="53"/>
+      <c r="L153" s="53"/>
+      <c r="M153" s="53"/>
+      <c r="N153" s="53">
+        <v>100</v>
+      </c>
+      <c r="O153" s="53">
+        <v>1</v>
+      </c>
+      <c r="P153" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="R153" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T153" s="16" t="e" cm="1">
+        <f t="array" ref="T153">A153:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20">
+      <c r="A155" s="55" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" s="16" customFormat="1">
+      <c r="B156" s="60">
+        <v>2101210</v>
+      </c>
+      <c r="C156" s="53">
+        <v>100</v>
+      </c>
+      <c r="D156" s="53">
+        <v>35</v>
+      </c>
+      <c r="E156" s="53">
+        <v>0</v>
+      </c>
+      <c r="F156" s="53">
+        <v>160</v>
+      </c>
+      <c r="G156" s="53">
+        <v>4096</v>
+      </c>
+      <c r="H156" s="53">
+        <v>64</v>
+      </c>
+      <c r="I156" s="53">
+        <v>0</v>
+      </c>
+      <c r="J156" s="53"/>
+      <c r="K156" s="53"/>
+      <c r="L156" s="53"/>
+      <c r="M156" s="53"/>
+      <c r="N156" s="53">
+        <v>100</v>
+      </c>
+      <c r="O156" s="53">
+        <v>1</v>
+      </c>
+      <c r="P156" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="R156" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T156" s="16" t="e" cm="1">
+        <f t="array" ref="T156">B156:B160156:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" s="16" customFormat="1">
+      <c r="B157" s="60">
+        <v>2101212</v>
+      </c>
+      <c r="C157" s="53">
+        <v>100</v>
+      </c>
+      <c r="D157" s="53">
+        <v>35</v>
+      </c>
+      <c r="E157" s="53">
+        <v>0</v>
+      </c>
+      <c r="F157" s="53">
+        <v>160</v>
+      </c>
+      <c r="G157" s="53">
+        <v>4096</v>
+      </c>
+      <c r="H157" s="53">
+        <v>64</v>
+      </c>
+      <c r="I157" s="53">
+        <v>0</v>
+      </c>
+      <c r="J157" s="53"/>
+      <c r="K157" s="53"/>
+      <c r="L157" s="53"/>
+      <c r="M157" s="53"/>
+      <c r="N157" s="53">
+        <v>100</v>
+      </c>
+      <c r="O157" s="53">
+        <v>1</v>
+      </c>
+      <c r="P157" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="R157" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T157" s="16" t="e" cm="1">
+        <f t="array" ref="T157">A157:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" s="16" customFormat="1">
+      <c r="B158" s="60">
+        <v>2101216</v>
+      </c>
+      <c r="C158" s="53">
+        <v>100</v>
+      </c>
+      <c r="D158" s="53">
+        <v>35</v>
+      </c>
+      <c r="E158" s="53">
+        <v>0</v>
+      </c>
+      <c r="F158" s="53">
+        <v>160</v>
+      </c>
+      <c r="G158" s="53">
+        <v>4096</v>
+      </c>
+      <c r="H158" s="53">
+        <v>64</v>
+      </c>
+      <c r="I158" s="53">
+        <v>0</v>
+      </c>
+      <c r="J158" s="53"/>
+      <c r="K158" s="53"/>
+      <c r="L158" s="53"/>
+      <c r="M158" s="53"/>
+      <c r="N158" s="53">
+        <v>100</v>
+      </c>
+      <c r="O158" s="53">
+        <v>1</v>
+      </c>
+      <c r="P158" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="R158" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T158" s="16" t="e" cm="1">
+        <f t="array" ref="T158">A158:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" s="16" customFormat="1">
+      <c r="B159" s="60">
+        <v>2102431</v>
+      </c>
+      <c r="C159" s="53">
+        <v>100</v>
+      </c>
+      <c r="D159" s="53">
+        <v>35</v>
+      </c>
+      <c r="E159" s="53">
+        <v>0</v>
+      </c>
+      <c r="F159" s="53">
+        <v>160</v>
+      </c>
+      <c r="G159" s="53">
+        <v>4096</v>
+      </c>
+      <c r="H159" s="53">
+        <v>64</v>
+      </c>
+      <c r="I159" s="53">
+        <v>0</v>
+      </c>
+      <c r="J159" s="53"/>
+      <c r="K159" s="53"/>
+      <c r="L159" s="53"/>
+      <c r="M159" s="53"/>
+      <c r="N159" s="53">
+        <v>100</v>
+      </c>
+      <c r="O159" s="53">
+        <v>1</v>
+      </c>
+      <c r="P159" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="R159" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T159" s="16" t="e" cm="1">
+        <f t="array" ref="T159">A159:T119One pulse</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" s="16" customFormat="1">
+      <c r="B160" s="60">
+        <v>2102432</v>
+      </c>
+      <c r="C160" s="53">
+        <v>100</v>
+      </c>
+      <c r="D160" s="53">
+        <v>35</v>
+      </c>
+      <c r="E160" s="53">
+        <v>0</v>
+      </c>
+      <c r="F160" s="53">
+        <v>160</v>
+      </c>
+      <c r="G160" s="53">
+        <v>4096</v>
+      </c>
+      <c r="H160" s="53">
+        <v>64</v>
+      </c>
+      <c r="I160" s="53">
+        <v>0</v>
+      </c>
+      <c r="J160" s="53"/>
+      <c r="K160" s="53"/>
+      <c r="L160" s="53"/>
+      <c r="M160" s="53"/>
+      <c r="N160" s="53">
+        <v>100</v>
+      </c>
+      <c r="O160" s="53">
+        <v>1</v>
+      </c>
+      <c r="P160" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="R160" s="53">
+        <v>18.0412</v>
+      </c>
+      <c r="T160" s="16" t="e" cm="1">
+        <f t="array" ref="T160">A160:T119One pulse</f>
         <v>#NAME?</v>
       </c>
     </row>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411E0DE1-076B-41F7-B208-AF7A04571371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C899C317-EC8C-4A0F-ADAC-4D103C3938DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="602" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBC flux" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="316">
   <si>
     <t>slurm_num</t>
   </si>
@@ -1001,6 +1001,18 @@
   <si>
     <t>Lx=160,Nx=4096</t>
   </si>
+  <si>
+    <t>Updaate Revision 2 add high Ra cases!!! Uconn cluster</t>
+  </si>
+  <si>
+    <t>Chaotic state from 1e8</t>
+  </si>
+  <si>
+    <t>Elevator mode, 12 hours</t>
+  </si>
+  <si>
+    <t>Elevator mode, 150 hours</t>
+  </si>
 </sst>
 </file>
 
@@ -1121,7 +1133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1183,8 +1195,6 @@
     <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1465,10 +1475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S406"/>
+  <dimension ref="A1:S422"/>
   <sheetViews>
-    <sheetView topLeftCell="A399" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C406" sqref="C406:N406"/>
+    <sheetView tabSelected="1" topLeftCell="A408" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B410" sqref="B410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16199,6 +16209,523 @@
       </c>
       <c r="N406" s="8">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14">
+      <c r="A408" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14">
+      <c r="A409" t="s">
+        <v>313</v>
+      </c>
+      <c r="B409">
+        <v>4604162</v>
+      </c>
+      <c r="C409" s="2">
+        <v>300000000</v>
+      </c>
+      <c r="D409" s="8">
+        <v>1</v>
+      </c>
+      <c r="E409" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F409" s="8">
+        <v>1</v>
+      </c>
+      <c r="G409" s="8">
+        <v>512</v>
+      </c>
+      <c r="H409" s="8">
+        <v>512</v>
+      </c>
+      <c r="I409" s="8">
+        <v>10</v>
+      </c>
+      <c r="J409" s="8">
+        <v>10</v>
+      </c>
+      <c r="K409" s="8">
+        <v>0</v>
+      </c>
+      <c r="L409" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M409" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N409" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14">
+      <c r="A410" t="s">
+        <v>313</v>
+      </c>
+      <c r="B410">
+        <v>4603634</v>
+      </c>
+      <c r="C410" s="2">
+        <v>300000000</v>
+      </c>
+      <c r="D410" s="8">
+        <v>1</v>
+      </c>
+      <c r="E410" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F410" s="8">
+        <v>1</v>
+      </c>
+      <c r="G410" s="8">
+        <v>512</v>
+      </c>
+      <c r="H410" s="8">
+        <v>512</v>
+      </c>
+      <c r="I410" s="8">
+        <v>10</v>
+      </c>
+      <c r="J410" s="8">
+        <v>10</v>
+      </c>
+      <c r="K410" s="8">
+        <v>0</v>
+      </c>
+      <c r="L410" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M410" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N410" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14">
+      <c r="A411" t="s">
+        <v>313</v>
+      </c>
+      <c r="B411">
+        <v>4603681</v>
+      </c>
+      <c r="C411" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="D411" s="8">
+        <v>1</v>
+      </c>
+      <c r="E411" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F411" s="8">
+        <v>1</v>
+      </c>
+      <c r="G411" s="8">
+        <v>512</v>
+      </c>
+      <c r="H411" s="8">
+        <v>512</v>
+      </c>
+      <c r="I411" s="8">
+        <v>10</v>
+      </c>
+      <c r="J411" s="8">
+        <v>10</v>
+      </c>
+      <c r="K411" s="8">
+        <v>0</v>
+      </c>
+      <c r="L411" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M411" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N411" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14">
+      <c r="A412" t="s">
+        <v>313</v>
+      </c>
+      <c r="B412">
+        <v>4603691</v>
+      </c>
+      <c r="C412" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="D412" s="8">
+        <v>1</v>
+      </c>
+      <c r="E412" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F412" s="8">
+        <v>1</v>
+      </c>
+      <c r="G412" s="8">
+        <v>512</v>
+      </c>
+      <c r="H412" s="8">
+        <v>512</v>
+      </c>
+      <c r="I412" s="8">
+        <v>10</v>
+      </c>
+      <c r="J412" s="8">
+        <v>10</v>
+      </c>
+      <c r="K412" s="8">
+        <v>0</v>
+      </c>
+      <c r="L412" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M412" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N412" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14">
+      <c r="A413" t="s">
+        <v>313</v>
+      </c>
+      <c r="B413">
+        <v>4603698</v>
+      </c>
+      <c r="C413" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="D413" s="8">
+        <v>1</v>
+      </c>
+      <c r="E413" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F413" s="8">
+        <v>1</v>
+      </c>
+      <c r="G413" s="8">
+        <v>512</v>
+      </c>
+      <c r="H413" s="8">
+        <v>512</v>
+      </c>
+      <c r="I413" s="8">
+        <v>10</v>
+      </c>
+      <c r="J413" s="8">
+        <v>10</v>
+      </c>
+      <c r="K413" s="8">
+        <v>0</v>
+      </c>
+      <c r="L413" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M413" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N413" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14">
+      <c r="C414" s="2"/>
+      <c r="D414" s="8"/>
+      <c r="E414" s="8"/>
+      <c r="F414" s="8"/>
+      <c r="G414" s="8"/>
+      <c r="H414" s="8"/>
+      <c r="I414" s="8"/>
+      <c r="J414" s="8"/>
+      <c r="K414" s="8"/>
+      <c r="L414" s="2"/>
+      <c r="M414" s="8"/>
+      <c r="N414" s="8"/>
+    </row>
+    <row r="415" spans="1:14">
+      <c r="C415" s="2"/>
+      <c r="D415" s="8"/>
+      <c r="E415" s="8"/>
+      <c r="F415" s="8"/>
+      <c r="G415" s="8"/>
+      <c r="H415" s="8"/>
+      <c r="I415" s="8"/>
+      <c r="J415" s="8"/>
+      <c r="K415" s="8"/>
+      <c r="L415" s="2"/>
+      <c r="M415" s="8"/>
+      <c r="N415" s="8"/>
+    </row>
+    <row r="416" spans="1:14">
+      <c r="A416" t="s">
+        <v>313</v>
+      </c>
+      <c r="B416">
+        <v>4603853</v>
+      </c>
+      <c r="C416" s="2">
+        <v>300000000</v>
+      </c>
+      <c r="D416" s="8">
+        <v>1</v>
+      </c>
+      <c r="E416" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F416" s="8">
+        <v>1</v>
+      </c>
+      <c r="G416" s="8">
+        <v>512</v>
+      </c>
+      <c r="H416" s="8">
+        <v>512</v>
+      </c>
+      <c r="I416" s="8">
+        <v>10</v>
+      </c>
+      <c r="J416" s="8">
+        <v>10</v>
+      </c>
+      <c r="K416" s="8">
+        <v>0</v>
+      </c>
+      <c r="L416" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M416" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N416" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:14">
+      <c r="A417" t="s">
+        <v>313</v>
+      </c>
+      <c r="B417">
+        <v>4603881</v>
+      </c>
+      <c r="C417" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="D417" s="8">
+        <v>1</v>
+      </c>
+      <c r="E417" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F417" s="8">
+        <v>1</v>
+      </c>
+      <c r="G417" s="8">
+        <v>512</v>
+      </c>
+      <c r="H417" s="8">
+        <v>512</v>
+      </c>
+      <c r="I417" s="8">
+        <v>10</v>
+      </c>
+      <c r="J417" s="8">
+        <v>10</v>
+      </c>
+      <c r="K417" s="8">
+        <v>0</v>
+      </c>
+      <c r="L417" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M417" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N417" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:14">
+      <c r="A418" t="s">
+        <v>313</v>
+      </c>
+      <c r="B418">
+        <v>4603901</v>
+      </c>
+      <c r="C418" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="D418" s="8">
+        <v>1</v>
+      </c>
+      <c r="E418" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F418" s="8">
+        <v>1</v>
+      </c>
+      <c r="G418" s="8">
+        <v>512</v>
+      </c>
+      <c r="H418" s="8">
+        <v>512</v>
+      </c>
+      <c r="I418" s="8">
+        <v>10</v>
+      </c>
+      <c r="J418" s="8">
+        <v>10</v>
+      </c>
+      <c r="K418" s="8">
+        <v>0</v>
+      </c>
+      <c r="L418" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M418" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N418" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14">
+      <c r="A419" t="s">
+        <v>313</v>
+      </c>
+      <c r="B419">
+        <v>4604079</v>
+      </c>
+      <c r="C419" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="D419" s="8">
+        <v>1</v>
+      </c>
+      <c r="E419" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F419" s="8">
+        <v>1</v>
+      </c>
+      <c r="G419" s="8">
+        <v>512</v>
+      </c>
+      <c r="H419" s="8">
+        <v>512</v>
+      </c>
+      <c r="I419" s="8">
+        <v>10</v>
+      </c>
+      <c r="J419" s="8">
+        <v>10</v>
+      </c>
+      <c r="K419" s="8">
+        <v>0</v>
+      </c>
+      <c r="L419" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M419" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N419" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14">
+      <c r="A421" t="s">
+        <v>314</v>
+      </c>
+      <c r="B421">
+        <v>4604145</v>
+      </c>
+      <c r="C421" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="D421" s="8">
+        <v>1</v>
+      </c>
+      <c r="E421" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F421" s="8">
+        <v>1</v>
+      </c>
+      <c r="G421" s="8">
+        <v>1024</v>
+      </c>
+      <c r="H421" s="8">
+        <v>1024</v>
+      </c>
+      <c r="I421" s="8">
+        <v>10</v>
+      </c>
+      <c r="J421" s="8">
+        <v>10</v>
+      </c>
+      <c r="K421" s="8">
+        <v>0</v>
+      </c>
+      <c r="L421" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M421" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N421" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14">
+      <c r="A422" t="s">
+        <v>315</v>
+      </c>
+      <c r="B422">
+        <v>4604148</v>
+      </c>
+      <c r="C422" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="D422" s="8">
+        <v>1</v>
+      </c>
+      <c r="E422" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F422" s="8">
+        <v>1</v>
+      </c>
+      <c r="G422" s="8">
+        <v>1024</v>
+      </c>
+      <c r="H422" s="8">
+        <v>1024</v>
+      </c>
+      <c r="I422" s="8">
+        <v>10</v>
+      </c>
+      <c r="J422" s="8">
+        <v>10</v>
+      </c>
+      <c r="K422" s="8">
+        <v>0</v>
+      </c>
+      <c r="L422" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M422" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N422" s="8">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
@@ -26992,7 +27519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73000ED-ACF1-4870-B376-DD86BAB5368D}">
   <dimension ref="A1:T160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A149" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
@@ -32189,7 +32716,7 @@
       </c>
     </row>
     <row r="149" spans="1:20" s="16" customFormat="1">
-      <c r="B149" s="59">
+      <c r="B149" s="45">
         <v>2101202</v>
       </c>
       <c r="C149" s="53">
@@ -32281,7 +32808,7 @@
       </c>
     </row>
     <row r="151" spans="1:20" s="16" customFormat="1">
-      <c r="B151" s="60">
+      <c r="B151" s="27">
         <v>2101203</v>
       </c>
       <c r="C151" s="53">
@@ -32327,7 +32854,7 @@
       </c>
     </row>
     <row r="152" spans="1:20" s="16" customFormat="1">
-      <c r="B152" s="60">
+      <c r="B152" s="27">
         <v>2101205</v>
       </c>
       <c r="C152" s="53">
@@ -32373,7 +32900,7 @@
       </c>
     </row>
     <row r="153" spans="1:20" s="16" customFormat="1">
-      <c r="B153" s="60">
+      <c r="B153" s="27">
         <v>2101207</v>
       </c>
       <c r="C153" s="53">
@@ -32424,7 +32951,7 @@
       </c>
     </row>
     <row r="156" spans="1:20" s="16" customFormat="1">
-      <c r="B156" s="60">
+      <c r="B156" s="27">
         <v>2101210</v>
       </c>
       <c r="C156" s="53">
@@ -32470,7 +32997,7 @@
       </c>
     </row>
     <row r="157" spans="1:20" s="16" customFormat="1">
-      <c r="B157" s="60">
+      <c r="B157" s="27">
         <v>2101212</v>
       </c>
       <c r="C157" s="53">
@@ -32516,7 +33043,7 @@
       </c>
     </row>
     <row r="158" spans="1:20" s="16" customFormat="1">
-      <c r="B158" s="60">
+      <c r="B158" s="27">
         <v>2101216</v>
       </c>
       <c r="C158" s="53">
@@ -32562,7 +33089,7 @@
       </c>
     </row>
     <row r="159" spans="1:20" s="16" customFormat="1">
-      <c r="B159" s="60">
+      <c r="B159" s="27">
         <v>2102431</v>
       </c>
       <c r="C159" s="53">
@@ -32608,7 +33135,7 @@
       </c>
     </row>
     <row r="160" spans="1:20" s="16" customFormat="1">
-      <c r="B160" s="60">
+      <c r="B160" s="27">
         <v>2102432</v>
       </c>
       <c r="C160" s="53">

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C899C317-EC8C-4A0F-ADAC-4D103C3938DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5490A80A-67DC-4DDD-A581-127EF412A1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="316">
   <si>
     <t>slurm_num</t>
   </si>
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:S422"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A408" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B410" sqref="B410"/>
+      <selection activeCell="B416" sqref="B416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16224,7 +16224,7 @@
         <v>4604162</v>
       </c>
       <c r="C409" s="2">
-        <v>300000000</v>
+        <v>100000000</v>
       </c>
       <c r="D409" s="8">
         <v>1</v>
@@ -16451,18 +16451,48 @@
       <c r="N414" s="8"/>
     </row>
     <row r="415" spans="1:14">
-      <c r="C415" s="2"/>
-      <c r="D415" s="8"/>
-      <c r="E415" s="8"/>
-      <c r="F415" s="8"/>
-      <c r="G415" s="8"/>
-      <c r="H415" s="8"/>
-      <c r="I415" s="8"/>
-      <c r="J415" s="8"/>
-      <c r="K415" s="8"/>
-      <c r="L415" s="2"/>
-      <c r="M415" s="8"/>
-      <c r="N415" s="8"/>
+      <c r="A415" t="s">
+        <v>313</v>
+      </c>
+      <c r="B415">
+        <v>4604170</v>
+      </c>
+      <c r="C415" s="2">
+        <v>300000000</v>
+      </c>
+      <c r="D415" s="8">
+        <v>1</v>
+      </c>
+      <c r="E415" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F415" s="8">
+        <v>1</v>
+      </c>
+      <c r="G415" s="8">
+        <v>512</v>
+      </c>
+      <c r="H415" s="8">
+        <v>512</v>
+      </c>
+      <c r="I415" s="8">
+        <v>10</v>
+      </c>
+      <c r="J415" s="8">
+        <v>10</v>
+      </c>
+      <c r="K415" s="8">
+        <v>0</v>
+      </c>
+      <c r="L415" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M415" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N415" s="8">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="416" spans="1:14">
       <c r="A416" t="s">

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5490A80A-67DC-4DDD-A581-127EF412A1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD3043B-A5C3-4812-9A72-06322E5269B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBC flux" sheetId="1" r:id="rId1"/>
-    <sheet name="RBC_flux_SM" sheetId="2" r:id="rId2"/>
-    <sheet name="salt_finger_2D_periodic" sheetId="7" r:id="rId3"/>
-    <sheet name="pde2path" sheetId="4" r:id="rId4"/>
-    <sheet name="ACC_rockfish" sheetId="3" r:id="rId5"/>
-    <sheet name="inclined_porous" sheetId="6" r:id="rId6"/>
-    <sheet name="draft" sheetId="5" r:id="rId7"/>
+    <sheet name="RBC flux 3D" sheetId="8" r:id="rId2"/>
+    <sheet name="RBC_flux_SM" sheetId="2" r:id="rId3"/>
+    <sheet name="salt_finger_2D_periodic" sheetId="7" r:id="rId4"/>
+    <sheet name="pde2path" sheetId="4" r:id="rId5"/>
+    <sheet name="ACC_rockfish" sheetId="3" r:id="rId6"/>
+    <sheet name="inclined_porous" sheetId="6" r:id="rId7"/>
+    <sheet name="draft" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="322">
   <si>
     <t>slurm_num</t>
   </si>
@@ -1013,6 +1014,24 @@
   <si>
     <t>Elevator mode, 150 hours</t>
   </si>
+  <si>
+    <t>Ly</t>
+  </si>
+  <si>
+    <t>Ny</t>
+  </si>
+  <si>
+    <t>k_elevator_y</t>
+  </si>
+  <si>
+    <t>blowing up</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Long run to obtain statistics</t>
+  </si>
 </sst>
 </file>
 
@@ -1475,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S422"/>
+  <dimension ref="A1:S428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B416" sqref="B416"/>
+    <sheetView tabSelected="1" topLeftCell="A421" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B428" sqref="B428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16458,7 +16477,7 @@
         <v>4604170</v>
       </c>
       <c r="C415" s="2">
-        <v>300000000</v>
+        <v>100000000</v>
       </c>
       <c r="D415" s="8">
         <v>1</v>
@@ -16538,7 +16557,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="417" spans="1:14">
+    <row r="417" spans="1:15">
       <c r="A417" t="s">
         <v>313</v>
       </c>
@@ -16582,7 +16601,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="418" spans="1:14">
+    <row r="418" spans="1:15">
       <c r="A418" t="s">
         <v>313</v>
       </c>
@@ -16626,7 +16645,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="419" spans="1:14">
+    <row r="419" spans="1:15">
       <c r="A419" t="s">
         <v>313</v>
       </c>
@@ -16670,7 +16689,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="421" spans="1:14">
+    <row r="421" spans="1:15">
       <c r="A421" t="s">
         <v>314</v>
       </c>
@@ -16713,8 +16732,11 @@
       <c r="N421" s="8">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="422" spans="1:14">
+      <c r="O421" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15">
       <c r="A422" t="s">
         <v>315</v>
       </c>
@@ -16734,10 +16756,10 @@
         <v>1</v>
       </c>
       <c r="G422" s="8">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="H422" s="8">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="I422" s="8">
         <v>10</v>
@@ -16755,6 +16777,187 @@
         <v>0.3</v>
       </c>
       <c r="N422" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="O422" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15">
+      <c r="A424" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="425" spans="1:15">
+      <c r="A425" t="s">
+        <v>313</v>
+      </c>
+      <c r="B425">
+        <v>4603634</v>
+      </c>
+      <c r="C425" s="2">
+        <v>300000000</v>
+      </c>
+      <c r="D425" s="8">
+        <v>1</v>
+      </c>
+      <c r="E425" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F425" s="8">
+        <v>1</v>
+      </c>
+      <c r="G425" s="8">
+        <v>512</v>
+      </c>
+      <c r="H425" s="8">
+        <v>512</v>
+      </c>
+      <c r="I425" s="8">
+        <v>10</v>
+      </c>
+      <c r="J425" s="8">
+        <v>10</v>
+      </c>
+      <c r="K425" s="8">
+        <v>0</v>
+      </c>
+      <c r="L425" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M425" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N425" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15">
+      <c r="A426" t="s">
+        <v>313</v>
+      </c>
+      <c r="B426">
+        <v>4608673</v>
+      </c>
+      <c r="C426" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="D426" s="8">
+        <v>1</v>
+      </c>
+      <c r="E426" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F426" s="8">
+        <v>1</v>
+      </c>
+      <c r="G426" s="8">
+        <v>512</v>
+      </c>
+      <c r="H426" s="8">
+        <v>512</v>
+      </c>
+      <c r="I426" s="8">
+        <v>10</v>
+      </c>
+      <c r="J426" s="8">
+        <v>10</v>
+      </c>
+      <c r="K426" s="8">
+        <v>0</v>
+      </c>
+      <c r="L426" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M426" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N426" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:15">
+      <c r="A427" t="s">
+        <v>313</v>
+      </c>
+      <c r="B427">
+        <v>4615340</v>
+      </c>
+      <c r="C427" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="D427" s="8">
+        <v>1</v>
+      </c>
+      <c r="E427" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F427" s="8">
+        <v>1</v>
+      </c>
+      <c r="G427" s="8">
+        <v>512</v>
+      </c>
+      <c r="H427" s="8">
+        <v>512</v>
+      </c>
+      <c r="I427" s="8">
+        <v>10</v>
+      </c>
+      <c r="J427" s="8">
+        <v>10</v>
+      </c>
+      <c r="K427" s="8">
+        <v>0</v>
+      </c>
+      <c r="L427" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M427" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N427" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:15">
+      <c r="A428" t="s">
+        <v>313</v>
+      </c>
+      <c r="C428" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="D428" s="8">
+        <v>1</v>
+      </c>
+      <c r="E428" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F428" s="8">
+        <v>1</v>
+      </c>
+      <c r="G428" s="8">
+        <v>512</v>
+      </c>
+      <c r="H428" s="8">
+        <v>512</v>
+      </c>
+      <c r="I428" s="8">
+        <v>10</v>
+      </c>
+      <c r="J428" s="8">
+        <v>10</v>
+      </c>
+      <c r="K428" s="8">
+        <v>0</v>
+      </c>
+      <c r="L428" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M428" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N428" s="8">
         <v>1E-3</v>
       </c>
     </row>
@@ -16765,6 +16968,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9A3D1C-A3EA-4DBE-9791-DCBE5BFC6995}">
+  <dimension ref="B1:Q2"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E4" sqref="E3:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="2:17">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>318</v>
+      </c>
+      <c r="M1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17">
+      <c r="B2">
+        <v>4604503</v>
+      </c>
+      <c r="C2" s="2">
+        <v>60000</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>128</v>
+      </c>
+      <c r="I2">
+        <v>128</v>
+      </c>
+      <c r="J2">
+        <v>128</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1E-3</v>
+      </c>
+      <c r="O2">
+        <v>0.01</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B59324F-8BFA-4D0B-8F1B-AB5C69134BD9}">
   <dimension ref="A1:T234"/>
   <sheetViews>
@@ -25464,7 +25779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDB63EE-010E-4366-8142-3356469E97C6}">
   <dimension ref="A1:N21"/>
   <sheetViews>
@@ -26189,7 +26504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76C9478-386D-445B-8B12-05AF01279C9C}">
   <dimension ref="A3:N50"/>
   <sheetViews>
@@ -27418,7 +27733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78D7654-8772-47C9-9F82-4C2FE71B2004}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -27545,7 +27860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73000ED-ACF1-4870-B376-DD86BAB5368D}">
   <dimension ref="A1:T160"/>
   <sheetViews>
@@ -33215,7 +33530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C5F0AA-E80D-4A30-861D-A445BA7F892E}">
   <dimension ref="A1:A18"/>
   <sheetViews>

--- a/dedalus_case.xlsx
+++ b/dedalus_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nutstore\Nutstore\Workspace\dedalus_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD3043B-A5C3-4812-9A72-06322E5269B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E1B1E7-DD0F-4E2C-86B8-C37F7E7881AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="324">
   <si>
     <t>slurm_num</t>
   </si>
@@ -1032,6 +1032,12 @@
   <si>
     <t>Long run to obtain statistics</t>
   </si>
+  <si>
+    <t>Wider domain to test instability</t>
+  </si>
+  <si>
+    <t>2pi/2.5</t>
+  </si>
 </sst>
 </file>
 
@@ -1494,15 +1500,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S428"/>
+  <dimension ref="A1:S435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B428" sqref="B428"/>
+    <sheetView tabSelected="1" topLeftCell="A430" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B434" sqref="B434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" customWidth="1"/>
     <col min="2" max="2" width="21.54296875" customWidth="1"/>
     <col min="3" max="3" width="13.81640625" customWidth="1"/>
     <col min="10" max="10" width="11.7265625" customWidth="1"/>
@@ -16557,7 +16563,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="417" spans="1:15">
+    <row r="417" spans="1:16">
       <c r="A417" t="s">
         <v>313</v>
       </c>
@@ -16601,7 +16607,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="418" spans="1:15">
+    <row r="418" spans="1:16">
       <c r="A418" t="s">
         <v>313</v>
       </c>
@@ -16645,7 +16651,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="419" spans="1:15">
+    <row r="419" spans="1:16">
       <c r="A419" t="s">
         <v>313</v>
       </c>
@@ -16689,7 +16695,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="421" spans="1:15">
+    <row r="421" spans="1:16">
       <c r="A421" t="s">
         <v>314</v>
       </c>
@@ -16736,7 +16742,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="422" spans="1:15">
+    <row r="422" spans="1:16">
       <c r="A422" t="s">
         <v>315</v>
       </c>
@@ -16783,108 +16789,73 @@
         <v>320</v>
       </c>
     </row>
-    <row r="424" spans="1:15">
+    <row r="424" spans="1:16">
       <c r="A424" s="6" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="425" spans="1:15">
-      <c r="A425" t="s">
-        <v>313</v>
-      </c>
-      <c r="B425">
-        <v>4603634</v>
-      </c>
-      <c r="C425" s="2">
-        <v>300000000</v>
-      </c>
-      <c r="D425" s="8">
-        <v>1</v>
-      </c>
-      <c r="E425" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F425" s="8">
-        <v>1</v>
-      </c>
-      <c r="G425" s="8">
-        <v>512</v>
-      </c>
-      <c r="H425" s="8">
-        <v>512</v>
-      </c>
-      <c r="I425" s="8">
-        <v>10</v>
-      </c>
-      <c r="J425" s="8">
-        <v>10</v>
-      </c>
-      <c r="K425" s="8">
-        <v>0</v>
-      </c>
-      <c r="L425" s="2">
+      <c r="O424" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16">
+      <c r="A425" s="6"/>
+    </row>
+    <row r="426" spans="1:16" s="16" customFormat="1">
+      <c r="B426" s="16">
+        <v>15295430</v>
+      </c>
+      <c r="C426" s="17">
+        <v>100000000</v>
+      </c>
+      <c r="D426" s="16">
+        <v>1</v>
+      </c>
+      <c r="E426" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F426" s="16">
+        <v>1</v>
+      </c>
+      <c r="G426" s="16">
+        <v>256</v>
+      </c>
+      <c r="H426" s="16">
+        <v>256</v>
+      </c>
+      <c r="I426" s="16">
+        <v>10</v>
+      </c>
+      <c r="J426" s="16">
+        <v>10</v>
+      </c>
+      <c r="K426" s="16">
+        <v>0</v>
+      </c>
+      <c r="L426" s="17">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="M425" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="N425" s="8">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="426" spans="1:15">
-      <c r="A426" t="s">
-        <v>313</v>
-      </c>
-      <c r="B426">
-        <v>4608673</v>
-      </c>
-      <c r="C426" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="D426" s="8">
-        <v>1</v>
-      </c>
-      <c r="E426" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F426" s="8">
-        <v>1</v>
-      </c>
-      <c r="G426" s="8">
-        <v>512</v>
-      </c>
-      <c r="H426" s="8">
-        <v>512</v>
-      </c>
-      <c r="I426" s="8">
-        <v>10</v>
-      </c>
-      <c r="J426" s="8">
-        <v>10</v>
-      </c>
-      <c r="K426" s="8">
-        <v>0</v>
-      </c>
-      <c r="L426" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="M426" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="N426" s="8">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="427" spans="1:15">
+      <c r="M426" s="16">
+        <v>1</v>
+      </c>
+      <c r="N426" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="O426" s="8">
+        <v>11.3095</v>
+      </c>
+      <c r="P426" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16">
       <c r="A427" t="s">
         <v>313</v>
       </c>
       <c r="B427">
-        <v>4615340</v>
+        <v>4603634</v>
       </c>
       <c r="C427" s="2">
-        <v>3000000000</v>
+        <v>300000000</v>
       </c>
       <c r="D427" s="8">
         <v>1</v>
@@ -16919,13 +16890,19 @@
       <c r="N427" s="8">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="428" spans="1:15">
+      <c r="O427" s="8">
+        <v>12.8131</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16">
       <c r="A428" t="s">
         <v>313</v>
       </c>
+      <c r="B428">
+        <v>4608673</v>
+      </c>
       <c r="C428" s="2">
-        <v>10000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="D428" s="8">
         <v>1</v>
@@ -16958,6 +16935,240 @@
         <v>0.3</v>
       </c>
       <c r="N428" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="O428" s="8">
+        <v>15.1509</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16">
+      <c r="A429" t="s">
+        <v>313</v>
+      </c>
+      <c r="B429">
+        <v>4615340</v>
+      </c>
+      <c r="C429" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="D429" s="8">
+        <v>1</v>
+      </c>
+      <c r="E429" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F429" s="8">
+        <v>1</v>
+      </c>
+      <c r="G429" s="8">
+        <v>512</v>
+      </c>
+      <c r="H429" s="8">
+        <v>512</v>
+      </c>
+      <c r="I429" s="8">
+        <v>10</v>
+      </c>
+      <c r="J429" s="8">
+        <v>10</v>
+      </c>
+      <c r="K429" s="8">
+        <v>0</v>
+      </c>
+      <c r="L429" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M429" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N429" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="O429" s="8">
+        <v>20.104099999999999</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16">
+      <c r="A430" t="s">
+        <v>313</v>
+      </c>
+      <c r="B430">
+        <v>4654935</v>
+      </c>
+      <c r="C430" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="D430" s="8">
+        <v>1</v>
+      </c>
+      <c r="E430" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F430" s="8">
+        <v>1</v>
+      </c>
+      <c r="G430" s="8">
+        <v>512</v>
+      </c>
+      <c r="H430" s="8">
+        <v>512</v>
+      </c>
+      <c r="I430" s="8">
+        <v>10</v>
+      </c>
+      <c r="J430" s="8">
+        <v>10</v>
+      </c>
+      <c r="K430" s="8">
+        <v>0</v>
+      </c>
+      <c r="L430" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M430" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N430" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="O430" s="8">
+        <v>31.438700000000001</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16">
+      <c r="A432" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14">
+      <c r="A433" t="s">
+        <v>313</v>
+      </c>
+      <c r="B433">
+        <v>4694105</v>
+      </c>
+      <c r="C433" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="D433" s="8">
+        <v>1</v>
+      </c>
+      <c r="E433" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F433" s="8">
+        <v>1</v>
+      </c>
+      <c r="G433" s="8">
+        <v>512</v>
+      </c>
+      <c r="H433" s="8">
+        <v>512</v>
+      </c>
+      <c r="I433" s="8">
+        <v>10</v>
+      </c>
+      <c r="J433" s="8">
+        <v>10</v>
+      </c>
+      <c r="K433" s="8">
+        <v>0</v>
+      </c>
+      <c r="L433" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M433" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N433" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14">
+      <c r="A434" t="s">
+        <v>313</v>
+      </c>
+      <c r="B434">
+        <v>4772236</v>
+      </c>
+      <c r="C434" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="D434" s="8">
+        <v>1</v>
+      </c>
+      <c r="E434" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F434" s="8">
+        <v>1</v>
+      </c>
+      <c r="G434" s="8">
+        <v>512</v>
+      </c>
+      <c r="H434" s="8">
+        <v>512</v>
+      </c>
+      <c r="I434" s="8">
+        <v>10</v>
+      </c>
+      <c r="J434" s="8">
+        <v>10</v>
+      </c>
+      <c r="K434" s="8">
+        <v>0</v>
+      </c>
+      <c r="L434" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M434" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="N434" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14">
+      <c r="A435" t="s">
+        <v>313</v>
+      </c>
+      <c r="B435">
+        <v>4694123</v>
+      </c>
+      <c r="C435" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="D435" s="8">
+        <v>1</v>
+      </c>
+      <c r="E435" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F435" s="8">
+        <v>1</v>
+      </c>
+      <c r="G435" s="8">
+        <v>512</v>
+      </c>
+      <c r="H435" s="8">
+        <v>512</v>
+      </c>
+      <c r="I435" s="8">
+        <v>10</v>
+      </c>
+      <c r="J435" s="8">
+        <v>10</v>
+      </c>
+      <c r="K435" s="8">
+        <v>0</v>
+      </c>
+      <c r="L435" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M435" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N435" s="8">
         <v>1E-3</v>
       </c>
     </row>
